--- a/data/dna/dna_metadata.xlsx
+++ b/data/dna/dna_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/dna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0D4E62-D28E-5B4C-BE67-A0A023D426A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBDA047-3372-AA41-AE90-51BB7E26C247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8480" yWindow="820" windowWidth="17180" windowHeight="17560" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
+    <workbookView xWindow="3460" yWindow="820" windowWidth="17180" windowHeight="17560" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>Tube_ID</t>
   </si>
   <si>
-    <t>Photo_ID</t>
-  </si>
-  <si>
     <t>Date_Collected</t>
   </si>
   <si>
@@ -69,13 +66,16 @@
   </si>
   <si>
     <t>Transport</t>
+  </si>
+  <si>
+    <t>Photo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -85,6 +85,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -110,8 +118,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,49 +438,51 @@
   <dimension ref="E1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.1640625" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
     <col min="10" max="10" width="16.83203125" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" customWidth="1"/>
     <col min="14" max="14" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E1" t="s">
+    <row r="1" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/data/dna/dna_metadata.xlsx
+++ b/data/dna/dna_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/dna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBDA047-3372-AA41-AE90-51BB7E26C247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B2D9C4-BCDA-5641-9AA7-C23DB38719A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3460" yWindow="820" windowWidth="17180" windowHeight="17560" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
+    <workbookView xWindow="3540" yWindow="820" windowWidth="17180" windowHeight="17560" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -38,37 +38,37 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>Sample_ID</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Lifestage</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Tube_ID</t>
-  </si>
-  <si>
-    <t>Date_Collected</t>
-  </si>
-  <si>
-    <t>Site</t>
-  </si>
-  <si>
-    <t>Preservation</t>
-  </si>
-  <si>
-    <t>Storage</t>
-  </si>
-  <si>
-    <t>Transport</t>
-  </si>
-  <si>
-    <t>Photo</t>
+    <t>sample_id</t>
+  </si>
+  <si>
+    <t>tube_id</t>
+  </si>
+  <si>
+    <t>photo</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>lifestage</t>
+  </si>
+  <si>
+    <t>date_collected</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>preservation</t>
+  </si>
+  <si>
+    <t>storage</t>
+  </si>
+  <si>
+    <t>transport</t>
+  </si>
+  <si>
+    <t>notes</t>
   </si>
 </sst>
 </file>
@@ -438,7 +438,7 @@
   <dimension ref="E1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -456,16 +456,16 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>5</v>
@@ -483,7 +483,7 @@
         <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/dna/dna_metadata.xlsx
+++ b/data/dna/dna_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/dna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B2D9C4-BCDA-5641-9AA7-C23DB38719A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B679154-CF54-F448-958B-60273DED69E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="820" windowWidth="17180" windowHeight="17560" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="113">
   <si>
     <t>sample_id</t>
   </si>
@@ -44,9 +44,6 @@
     <t>tube_id</t>
   </si>
   <si>
-    <t>photo</t>
-  </si>
-  <si>
     <t>species</t>
   </si>
   <si>
@@ -69,6 +66,315 @@
   </si>
   <si>
     <t>notes</t>
+  </si>
+  <si>
+    <t>ACR-A-6</t>
+  </si>
+  <si>
+    <t>Acropora</t>
+  </si>
+  <si>
+    <t>Adult</t>
+  </si>
+  <si>
+    <t>ACR-A-7</t>
+  </si>
+  <si>
+    <t>ACR-A-8</t>
+  </si>
+  <si>
+    <t>ACR-A-9</t>
+  </si>
+  <si>
+    <t>ACR-A-10</t>
+  </si>
+  <si>
+    <t>ACR-A-11</t>
+  </si>
+  <si>
+    <t>ACR-A-12</t>
+  </si>
+  <si>
+    <t>ACR-A-13</t>
+  </si>
+  <si>
+    <t>ACR-A-14</t>
+  </si>
+  <si>
+    <t>ACR-A-15</t>
+  </si>
+  <si>
+    <t>ACR-A-16</t>
+  </si>
+  <si>
+    <t>ACR-A-17</t>
+  </si>
+  <si>
+    <t>ACR-R-11</t>
+  </si>
+  <si>
+    <t>Recruit</t>
+  </si>
+  <si>
+    <t>ACR-R-12</t>
+  </si>
+  <si>
+    <t>ACR-R-13</t>
+  </si>
+  <si>
+    <t>ACR-R-14</t>
+  </si>
+  <si>
+    <t>ACR-R-15</t>
+  </si>
+  <si>
+    <t>ACR-R-16</t>
+  </si>
+  <si>
+    <t>ACR-R-17</t>
+  </si>
+  <si>
+    <t>ACR-R-18</t>
+  </si>
+  <si>
+    <t>ACR-R-19</t>
+  </si>
+  <si>
+    <t>ACR-R-20</t>
+  </si>
+  <si>
+    <t>ACR-R-21</t>
+  </si>
+  <si>
+    <t>ACR-R-22</t>
+  </si>
+  <si>
+    <t>ACR-R-23</t>
+  </si>
+  <si>
+    <t>ACR-R-24</t>
+  </si>
+  <si>
+    <t>ACR-R-25</t>
+  </si>
+  <si>
+    <t>ACR-R-26</t>
+  </si>
+  <si>
+    <t>ACR-R-27</t>
+  </si>
+  <si>
+    <t>ACR-R-28</t>
+  </si>
+  <si>
+    <t>ACR-R-29</t>
+  </si>
+  <si>
+    <t>ACR-R-30</t>
+  </si>
+  <si>
+    <t>POC-A-6</t>
+  </si>
+  <si>
+    <t>Pocillopora</t>
+  </si>
+  <si>
+    <t>POC-A-7</t>
+  </si>
+  <si>
+    <t>POC-A-8</t>
+  </si>
+  <si>
+    <t>POC-A-9</t>
+  </si>
+  <si>
+    <t>POC-A-10</t>
+  </si>
+  <si>
+    <t>POC-A-11</t>
+  </si>
+  <si>
+    <t>POC-A-12</t>
+  </si>
+  <si>
+    <t>POC-A-13</t>
+  </si>
+  <si>
+    <t>POC-A-14</t>
+  </si>
+  <si>
+    <t>POC-A-15</t>
+  </si>
+  <si>
+    <t>POC-A-16</t>
+  </si>
+  <si>
+    <t>POC-A-17</t>
+  </si>
+  <si>
+    <t>POC-R-11</t>
+  </si>
+  <si>
+    <t>POC-R-12</t>
+  </si>
+  <si>
+    <t>POC-R-13</t>
+  </si>
+  <si>
+    <t>POC-R-14</t>
+  </si>
+  <si>
+    <t>POC-R-15</t>
+  </si>
+  <si>
+    <t>POC-R-16</t>
+  </si>
+  <si>
+    <t>POC-R-17</t>
+  </si>
+  <si>
+    <t>POC-R-18</t>
+  </si>
+  <si>
+    <t>POC-R-19</t>
+  </si>
+  <si>
+    <t>POC-R-20</t>
+  </si>
+  <si>
+    <t>POC-R-21</t>
+  </si>
+  <si>
+    <t>POC-R-22</t>
+  </si>
+  <si>
+    <t>POC-R-23</t>
+  </si>
+  <si>
+    <t>POC-R-24</t>
+  </si>
+  <si>
+    <t>POC-R-25</t>
+  </si>
+  <si>
+    <t>POC-R-26</t>
+  </si>
+  <si>
+    <t>POC-R-27</t>
+  </si>
+  <si>
+    <t>POC-R-28</t>
+  </si>
+  <si>
+    <t>POC-R-29</t>
+  </si>
+  <si>
+    <t>POC-R-30</t>
+  </si>
+  <si>
+    <t>POR-A-6</t>
+  </si>
+  <si>
+    <t>Porites</t>
+  </si>
+  <si>
+    <t>POR-A-7</t>
+  </si>
+  <si>
+    <t>POR-A-8</t>
+  </si>
+  <si>
+    <t>POR-A-9</t>
+  </si>
+  <si>
+    <t>POR-A-10</t>
+  </si>
+  <si>
+    <t>POR-A-11</t>
+  </si>
+  <si>
+    <t>POR-A-12</t>
+  </si>
+  <si>
+    <t>POR-A-13</t>
+  </si>
+  <si>
+    <t>POR-A-14</t>
+  </si>
+  <si>
+    <t>POR-A-15</t>
+  </si>
+  <si>
+    <t>POR-A-16</t>
+  </si>
+  <si>
+    <t>POR-A-17</t>
+  </si>
+  <si>
+    <t>POR-R-11</t>
+  </si>
+  <si>
+    <t>POR-R-12</t>
+  </si>
+  <si>
+    <t>POR-R-13</t>
+  </si>
+  <si>
+    <t>POR-R-14</t>
+  </si>
+  <si>
+    <t>POR-R-15</t>
+  </si>
+  <si>
+    <t>POR-R-16</t>
+  </si>
+  <si>
+    <t>POR-R-17</t>
+  </si>
+  <si>
+    <t>POR-R-18</t>
+  </si>
+  <si>
+    <t>POR-R-19</t>
+  </si>
+  <si>
+    <t>POR-R-20</t>
+  </si>
+  <si>
+    <t>POR-R-21</t>
+  </si>
+  <si>
+    <t>POR-R-22</t>
+  </si>
+  <si>
+    <t>POR-R-23</t>
+  </si>
+  <si>
+    <t>POR-R-24</t>
+  </si>
+  <si>
+    <t>POR-R-25</t>
+  </si>
+  <si>
+    <t>POR-R-26</t>
+  </si>
+  <si>
+    <t>POR-R-27</t>
+  </si>
+  <si>
+    <t>POR-R-28</t>
+  </si>
+  <si>
+    <t>POR-R-29</t>
+  </si>
+  <si>
+    <t>POR-R-30</t>
+  </si>
+  <si>
+    <t>Avaiti</t>
+  </si>
+  <si>
+    <t>yellow label</t>
   </si>
 </sst>
 </file>
@@ -435,55 +741,2258 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5716CA15-A063-CD4A-965E-FFCB3C4243EA}">
-  <dimension ref="E1:O1"/>
+  <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="J94" sqref="J94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" customWidth="1"/>
-    <col min="14" max="14" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>20231106</v>
+      </c>
+      <c r="F2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>20231106</v>
+      </c>
+      <c r="F3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>20231106</v>
+      </c>
+      <c r="F4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>20231106</v>
+      </c>
+      <c r="F5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>20231106</v>
+      </c>
+      <c r="F6" t="s">
+        <v>111</v>
+      </c>
+      <c r="J6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>20231106</v>
+      </c>
+      <c r="F7" t="s">
+        <v>111</v>
+      </c>
+      <c r="J7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>20231106</v>
+      </c>
+      <c r="F8" t="s">
+        <v>111</v>
+      </c>
+      <c r="J8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>20231106</v>
+      </c>
+      <c r="F9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>20231106</v>
+      </c>
+      <c r="F10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
         <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>20231106</v>
+      </c>
+      <c r="F11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>20231106</v>
+      </c>
+      <c r="F12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>20231106</v>
+      </c>
+      <c r="F13" t="s">
+        <v>111</v>
+      </c>
+      <c r="J13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>20231106</v>
+      </c>
+      <c r="F14" t="s">
+        <v>111</v>
+      </c>
+      <c r="J14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15">
+        <v>20231106</v>
+      </c>
+      <c r="F15" t="s">
+        <v>111</v>
+      </c>
+      <c r="J15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>20231106</v>
+      </c>
+      <c r="F16" t="s">
+        <v>111</v>
+      </c>
+      <c r="J16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>20231106</v>
+      </c>
+      <c r="F17" t="s">
+        <v>111</v>
+      </c>
+      <c r="J17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18">
+        <v>20231106</v>
+      </c>
+      <c r="F18" t="s">
+        <v>111</v>
+      </c>
+      <c r="J18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>20231106</v>
+      </c>
+      <c r="F19" t="s">
+        <v>111</v>
+      </c>
+      <c r="J19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20">
+        <v>20231106</v>
+      </c>
+      <c r="F20" t="s">
+        <v>111</v>
+      </c>
+      <c r="J20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>20231106</v>
+      </c>
+      <c r="F21" t="s">
+        <v>111</v>
+      </c>
+      <c r="J21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>20231106</v>
+      </c>
+      <c r="F22" t="s">
+        <v>111</v>
+      </c>
+      <c r="J22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23">
+        <v>20231106</v>
+      </c>
+      <c r="F23" t="s">
+        <v>111</v>
+      </c>
+      <c r="J23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24">
+        <v>20231106</v>
+      </c>
+      <c r="F24" t="s">
+        <v>111</v>
+      </c>
+      <c r="J24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>20231106</v>
+      </c>
+      <c r="F25" t="s">
+        <v>111</v>
+      </c>
+      <c r="J25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>20231106</v>
+      </c>
+      <c r="F26" t="s">
+        <v>111</v>
+      </c>
+      <c r="J26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27">
+        <v>20231106</v>
+      </c>
+      <c r="F27" t="s">
+        <v>111</v>
+      </c>
+      <c r="J27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28">
+        <v>20231106</v>
+      </c>
+      <c r="F28" t="s">
+        <v>111</v>
+      </c>
+      <c r="J28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29">
+        <v>20231106</v>
+      </c>
+      <c r="F29" t="s">
+        <v>111</v>
+      </c>
+      <c r="J29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30">
+        <v>20231106</v>
+      </c>
+      <c r="F30" t="s">
+        <v>111</v>
+      </c>
+      <c r="J30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>20231106</v>
+      </c>
+      <c r="F31" t="s">
+        <v>111</v>
+      </c>
+      <c r="J31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32">
+        <v>20231106</v>
+      </c>
+      <c r="F32" t="s">
+        <v>111</v>
+      </c>
+      <c r="J32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33">
+        <v>20231106</v>
+      </c>
+      <c r="F33" t="s">
+        <v>111</v>
+      </c>
+      <c r="J33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34">
+        <v>20231106</v>
+      </c>
+      <c r="F34" t="s">
+        <v>111</v>
+      </c>
+      <c r="J34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35">
+        <v>20231106</v>
+      </c>
+      <c r="F35" t="s">
+        <v>111</v>
+      </c>
+      <c r="J35" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36">
+        <v>20231106</v>
+      </c>
+      <c r="F36" t="s">
+        <v>111</v>
+      </c>
+      <c r="J36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37">
+        <v>20231106</v>
+      </c>
+      <c r="F37" t="s">
+        <v>111</v>
+      </c>
+      <c r="J37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38">
+        <v>20231106</v>
+      </c>
+      <c r="F38" t="s">
+        <v>111</v>
+      </c>
+      <c r="J38" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39">
+        <v>20231106</v>
+      </c>
+      <c r="F39" t="s">
+        <v>111</v>
+      </c>
+      <c r="J39" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40">
+        <v>20231106</v>
+      </c>
+      <c r="F40" t="s">
+        <v>111</v>
+      </c>
+      <c r="J40" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41">
+        <v>20231106</v>
+      </c>
+      <c r="F41" t="s">
+        <v>111</v>
+      </c>
+      <c r="J41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42">
+        <v>20231106</v>
+      </c>
+      <c r="F42" t="s">
+        <v>111</v>
+      </c>
+      <c r="J42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43">
+        <v>20231106</v>
+      </c>
+      <c r="F43" t="s">
+        <v>111</v>
+      </c>
+      <c r="J43" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44">
+        <v>20231106</v>
+      </c>
+      <c r="F44" t="s">
+        <v>111</v>
+      </c>
+      <c r="J44" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45">
+        <v>20231106</v>
+      </c>
+      <c r="F45" t="s">
+        <v>111</v>
+      </c>
+      <c r="J45" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46">
+        <v>20231106</v>
+      </c>
+      <c r="F46" t="s">
+        <v>111</v>
+      </c>
+      <c r="J46" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47">
+        <v>20231106</v>
+      </c>
+      <c r="F47" t="s">
+        <v>111</v>
+      </c>
+      <c r="J47" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48">
+        <v>20231106</v>
+      </c>
+      <c r="F48" t="s">
+        <v>111</v>
+      </c>
+      <c r="J48" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49">
+        <v>20231106</v>
+      </c>
+      <c r="F49" t="s">
+        <v>111</v>
+      </c>
+      <c r="J49" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50">
+        <v>20231106</v>
+      </c>
+      <c r="F50" t="s">
+        <v>111</v>
+      </c>
+      <c r="J50" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51">
+        <v>20231106</v>
+      </c>
+      <c r="F51" t="s">
+        <v>111</v>
+      </c>
+      <c r="J51" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52">
+        <v>20231106</v>
+      </c>
+      <c r="F52" t="s">
+        <v>111</v>
+      </c>
+      <c r="J52" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53">
+        <v>20231106</v>
+      </c>
+      <c r="F53" t="s">
+        <v>111</v>
+      </c>
+      <c r="J53" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54">
+        <v>20231106</v>
+      </c>
+      <c r="F54" t="s">
+        <v>111</v>
+      </c>
+      <c r="J54" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55">
+        <v>20231106</v>
+      </c>
+      <c r="F55" t="s">
+        <v>111</v>
+      </c>
+      <c r="J55" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56">
+        <v>20231106</v>
+      </c>
+      <c r="F56" t="s">
+        <v>111</v>
+      </c>
+      <c r="J56" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57">
+        <v>20231106</v>
+      </c>
+      <c r="F57" t="s">
+        <v>111</v>
+      </c>
+      <c r="J57" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58" t="s">
+        <v>46</v>
+      </c>
+      <c r="D58" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58">
+        <v>20231106</v>
+      </c>
+      <c r="F58" t="s">
+        <v>111</v>
+      </c>
+      <c r="J58" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="C59" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59">
+        <v>20231106</v>
+      </c>
+      <c r="F59" t="s">
+        <v>111</v>
+      </c>
+      <c r="J59" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="C60" t="s">
+        <v>46</v>
+      </c>
+      <c r="D60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60">
+        <v>20231106</v>
+      </c>
+      <c r="F60" t="s">
+        <v>111</v>
+      </c>
+      <c r="J60" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61" t="s">
+        <v>46</v>
+      </c>
+      <c r="D61" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61">
+        <v>20231106</v>
+      </c>
+      <c r="F61" t="s">
+        <v>111</v>
+      </c>
+      <c r="J61" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="C62" t="s">
+        <v>46</v>
+      </c>
+      <c r="D62" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62">
+        <v>20231106</v>
+      </c>
+      <c r="F62" t="s">
+        <v>111</v>
+      </c>
+      <c r="J62" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="C63" t="s">
+        <v>46</v>
+      </c>
+      <c r="D63" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63">
+        <v>20231106</v>
+      </c>
+      <c r="F63" t="s">
+        <v>111</v>
+      </c>
+      <c r="J63" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+      <c r="C64" t="s">
+        <v>46</v>
+      </c>
+      <c r="D64" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64">
+        <v>20231106</v>
+      </c>
+      <c r="F64" t="s">
+        <v>111</v>
+      </c>
+      <c r="J64" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+      <c r="C65" t="s">
+        <v>46</v>
+      </c>
+      <c r="D65" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65">
+        <v>20231106</v>
+      </c>
+      <c r="F65" t="s">
+        <v>111</v>
+      </c>
+      <c r="J65" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
+      <c r="C66" t="s">
+        <v>79</v>
+      </c>
+      <c r="D66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66">
+        <v>20231106</v>
+      </c>
+      <c r="F66" t="s">
+        <v>111</v>
+      </c>
+      <c r="J66" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67">
+        <v>66</v>
+      </c>
+      <c r="C67" t="s">
+        <v>79</v>
+      </c>
+      <c r="D67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67">
+        <v>20231106</v>
+      </c>
+      <c r="F67" t="s">
+        <v>111</v>
+      </c>
+      <c r="J67" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>81</v>
+      </c>
+      <c r="B68">
+        <v>67</v>
+      </c>
+      <c r="C68" t="s">
+        <v>79</v>
+      </c>
+      <c r="D68" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68">
+        <v>20231106</v>
+      </c>
+      <c r="F68" t="s">
+        <v>111</v>
+      </c>
+      <c r="J68" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>82</v>
+      </c>
+      <c r="B69">
+        <v>68</v>
+      </c>
+      <c r="C69" t="s">
+        <v>79</v>
+      </c>
+      <c r="D69" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69">
+        <v>20231106</v>
+      </c>
+      <c r="F69" t="s">
+        <v>111</v>
+      </c>
+      <c r="J69" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>83</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+      <c r="C70" t="s">
+        <v>79</v>
+      </c>
+      <c r="D70" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70">
+        <v>20231106</v>
+      </c>
+      <c r="F70" t="s">
+        <v>111</v>
+      </c>
+      <c r="J70" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+      <c r="C71" t="s">
+        <v>79</v>
+      </c>
+      <c r="D71" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71">
+        <v>20231106</v>
+      </c>
+      <c r="F71" t="s">
+        <v>111</v>
+      </c>
+      <c r="J71" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>85</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
+      <c r="C72" t="s">
+        <v>79</v>
+      </c>
+      <c r="D72" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72">
+        <v>20231106</v>
+      </c>
+      <c r="F72" t="s">
+        <v>111</v>
+      </c>
+      <c r="J72" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
+      <c r="C73" t="s">
+        <v>79</v>
+      </c>
+      <c r="D73" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73">
+        <v>20231106</v>
+      </c>
+      <c r="F73" t="s">
+        <v>111</v>
+      </c>
+      <c r="J73" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>87</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+      <c r="C74" t="s">
+        <v>79</v>
+      </c>
+      <c r="D74" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74">
+        <v>20231106</v>
+      </c>
+      <c r="F74" t="s">
+        <v>111</v>
+      </c>
+      <c r="J74" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>88</v>
+      </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
+      <c r="C75" t="s">
+        <v>79</v>
+      </c>
+      <c r="D75" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75">
+        <v>20231106</v>
+      </c>
+      <c r="F75" t="s">
+        <v>111</v>
+      </c>
+      <c r="J75" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>89</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
+      <c r="C76" t="s">
+        <v>79</v>
+      </c>
+      <c r="D76" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76">
+        <v>20231106</v>
+      </c>
+      <c r="F76" t="s">
+        <v>111</v>
+      </c>
+      <c r="J76" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>90</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+      <c r="C77" t="s">
+        <v>79</v>
+      </c>
+      <c r="D77" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77">
+        <v>20231106</v>
+      </c>
+      <c r="F77" t="s">
+        <v>111</v>
+      </c>
+      <c r="J77" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>91</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
+      <c r="C78" t="s">
+        <v>79</v>
+      </c>
+      <c r="D78" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78">
+        <v>20231106</v>
+      </c>
+      <c r="F78" t="s">
+        <v>111</v>
+      </c>
+      <c r="J78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>92</v>
+      </c>
+      <c r="B79">
+        <v>78</v>
+      </c>
+      <c r="C79" t="s">
+        <v>79</v>
+      </c>
+      <c r="D79" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79">
+        <v>20231106</v>
+      </c>
+      <c r="F79" t="s">
+        <v>111</v>
+      </c>
+      <c r="J79" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>93</v>
+      </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
+      <c r="C80" t="s">
+        <v>79</v>
+      </c>
+      <c r="D80" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80">
+        <v>20231106</v>
+      </c>
+      <c r="F80" t="s">
+        <v>111</v>
+      </c>
+      <c r="J80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>94</v>
+      </c>
+      <c r="B81">
+        <v>80</v>
+      </c>
+      <c r="C81" t="s">
+        <v>79</v>
+      </c>
+      <c r="D81" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81">
+        <v>20231106</v>
+      </c>
+      <c r="F81" t="s">
+        <v>111</v>
+      </c>
+      <c r="J81" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>95</v>
+      </c>
+      <c r="B82">
+        <v>81</v>
+      </c>
+      <c r="C82" t="s">
+        <v>79</v>
+      </c>
+      <c r="D82" t="s">
+        <v>25</v>
+      </c>
+      <c r="E82">
+        <v>20231106</v>
+      </c>
+      <c r="F82" t="s">
+        <v>111</v>
+      </c>
+      <c r="J82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>96</v>
+      </c>
+      <c r="B83">
+        <v>82</v>
+      </c>
+      <c r="C83" t="s">
+        <v>79</v>
+      </c>
+      <c r="D83" t="s">
+        <v>25</v>
+      </c>
+      <c r="E83">
+        <v>20231106</v>
+      </c>
+      <c r="F83" t="s">
+        <v>111</v>
+      </c>
+      <c r="J83" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>97</v>
+      </c>
+      <c r="B84">
+        <v>83</v>
+      </c>
+      <c r="C84" t="s">
+        <v>79</v>
+      </c>
+      <c r="D84" t="s">
+        <v>25</v>
+      </c>
+      <c r="E84">
+        <v>20231106</v>
+      </c>
+      <c r="F84" t="s">
+        <v>111</v>
+      </c>
+      <c r="J84" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>98</v>
+      </c>
+      <c r="B85">
+        <v>84</v>
+      </c>
+      <c r="C85" t="s">
+        <v>79</v>
+      </c>
+      <c r="D85" t="s">
+        <v>25</v>
+      </c>
+      <c r="E85">
+        <v>20231106</v>
+      </c>
+      <c r="F85" t="s">
+        <v>111</v>
+      </c>
+      <c r="J85" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>99</v>
+      </c>
+      <c r="B86">
+        <v>85</v>
+      </c>
+      <c r="C86" t="s">
+        <v>79</v>
+      </c>
+      <c r="D86" t="s">
+        <v>25</v>
+      </c>
+      <c r="E86">
+        <v>20231106</v>
+      </c>
+      <c r="F86" t="s">
+        <v>111</v>
+      </c>
+      <c r="J86" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>100</v>
+      </c>
+      <c r="B87">
+        <v>86</v>
+      </c>
+      <c r="C87" t="s">
+        <v>79</v>
+      </c>
+      <c r="D87" t="s">
+        <v>25</v>
+      </c>
+      <c r="E87">
+        <v>20231106</v>
+      </c>
+      <c r="F87" t="s">
+        <v>111</v>
+      </c>
+      <c r="J87" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>101</v>
+      </c>
+      <c r="B88">
+        <v>87</v>
+      </c>
+      <c r="C88" t="s">
+        <v>79</v>
+      </c>
+      <c r="D88" t="s">
+        <v>25</v>
+      </c>
+      <c r="E88">
+        <v>20231106</v>
+      </c>
+      <c r="F88" t="s">
+        <v>111</v>
+      </c>
+      <c r="J88" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>102</v>
+      </c>
+      <c r="B89">
+        <v>88</v>
+      </c>
+      <c r="C89" t="s">
+        <v>79</v>
+      </c>
+      <c r="D89" t="s">
+        <v>25</v>
+      </c>
+      <c r="E89">
+        <v>20231106</v>
+      </c>
+      <c r="F89" t="s">
+        <v>111</v>
+      </c>
+      <c r="J89" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>103</v>
+      </c>
+      <c r="B90">
+        <v>89</v>
+      </c>
+      <c r="C90" t="s">
+        <v>79</v>
+      </c>
+      <c r="D90" t="s">
+        <v>25</v>
+      </c>
+      <c r="E90">
+        <v>20231106</v>
+      </c>
+      <c r="F90" t="s">
+        <v>111</v>
+      </c>
+      <c r="J90" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>104</v>
+      </c>
+      <c r="B91">
+        <v>90</v>
+      </c>
+      <c r="C91" t="s">
+        <v>79</v>
+      </c>
+      <c r="D91" t="s">
+        <v>25</v>
+      </c>
+      <c r="E91">
+        <v>20231106</v>
+      </c>
+      <c r="F91" t="s">
+        <v>111</v>
+      </c>
+      <c r="J91" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>105</v>
+      </c>
+      <c r="B92">
+        <v>91</v>
+      </c>
+      <c r="C92" t="s">
+        <v>79</v>
+      </c>
+      <c r="D92" t="s">
+        <v>25</v>
+      </c>
+      <c r="E92">
+        <v>20231106</v>
+      </c>
+      <c r="F92" t="s">
+        <v>111</v>
+      </c>
+      <c r="J92" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>106</v>
+      </c>
+      <c r="B93">
+        <v>92</v>
+      </c>
+      <c r="C93" t="s">
+        <v>79</v>
+      </c>
+      <c r="D93" t="s">
+        <v>25</v>
+      </c>
+      <c r="E93">
+        <v>20231106</v>
+      </c>
+      <c r="F93" t="s">
+        <v>111</v>
+      </c>
+      <c r="J93" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>107</v>
+      </c>
+      <c r="B94">
+        <v>93</v>
+      </c>
+      <c r="C94" t="s">
+        <v>79</v>
+      </c>
+      <c r="D94" t="s">
+        <v>25</v>
+      </c>
+      <c r="E94">
+        <v>20231106</v>
+      </c>
+      <c r="F94" t="s">
+        <v>111</v>
+      </c>
+      <c r="J94" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>108</v>
+      </c>
+      <c r="B95">
+        <v>94</v>
+      </c>
+      <c r="C95" t="s">
+        <v>79</v>
+      </c>
+      <c r="D95" t="s">
+        <v>25</v>
+      </c>
+      <c r="E95">
+        <v>20231106</v>
+      </c>
+      <c r="F95" t="s">
+        <v>111</v>
+      </c>
+      <c r="J95" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>109</v>
+      </c>
+      <c r="B96">
+        <v>95</v>
+      </c>
+      <c r="C96" t="s">
+        <v>79</v>
+      </c>
+      <c r="D96" t="s">
+        <v>25</v>
+      </c>
+      <c r="E96">
+        <v>20231106</v>
+      </c>
+      <c r="F96" t="s">
+        <v>111</v>
+      </c>
+      <c r="J96" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>110</v>
+      </c>
+      <c r="B97">
+        <v>96</v>
+      </c>
+      <c r="C97" t="s">
+        <v>79</v>
+      </c>
+      <c r="D97" t="s">
+        <v>25</v>
+      </c>
+      <c r="E97">
+        <v>20231106</v>
+      </c>
+      <c r="F97" t="s">
+        <v>111</v>
+      </c>
+      <c r="J97" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/data/dna/dna_metadata.xlsx
+++ b/data/dna/dna_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/dna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1833D013-33B8-BF46-B4FE-146732F93C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC539AB4-DF47-6B46-A8AE-E29F7C3AB7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3160" yWindow="820" windowWidth="24220" windowHeight="17560" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
+    <workbookView xWindow="3540" yWindow="820" windowWidth="24220" windowHeight="17560" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="273">
   <si>
     <t>sample_id</t>
   </si>
@@ -528,6 +528,333 @@
   </si>
   <si>
     <t>POR-R10</t>
+  </si>
+  <si>
+    <t>ACR-A18</t>
+  </si>
+  <si>
+    <t>ACR-A19</t>
+  </si>
+  <si>
+    <t>ACR-A20</t>
+  </si>
+  <si>
+    <t>ACR-A21</t>
+  </si>
+  <si>
+    <t>ACR-A22</t>
+  </si>
+  <si>
+    <t>ACR-A23</t>
+  </si>
+  <si>
+    <t>ACR-A24</t>
+  </si>
+  <si>
+    <t>ACR-A25</t>
+  </si>
+  <si>
+    <t>ACR-A26</t>
+  </si>
+  <si>
+    <t>ACR-A27</t>
+  </si>
+  <si>
+    <t>ACR-A28</t>
+  </si>
+  <si>
+    <t>ACR-A29</t>
+  </si>
+  <si>
+    <t>ACR-A30</t>
+  </si>
+  <si>
+    <t>ACR-A31</t>
+  </si>
+  <si>
+    <t>ACR-A32</t>
+  </si>
+  <si>
+    <t>ACR-R31</t>
+  </si>
+  <si>
+    <t>ACR-R32</t>
+  </si>
+  <si>
+    <t>ACR-R33</t>
+  </si>
+  <si>
+    <t>ACR-R34</t>
+  </si>
+  <si>
+    <t>ACR-R35</t>
+  </si>
+  <si>
+    <t>ACR-R36</t>
+  </si>
+  <si>
+    <t>ACR-R37</t>
+  </si>
+  <si>
+    <t>ACR-R38</t>
+  </si>
+  <si>
+    <t>ACR-R39</t>
+  </si>
+  <si>
+    <t>ACR-R40</t>
+  </si>
+  <si>
+    <t>ACR-R41</t>
+  </si>
+  <si>
+    <t>ACR-R42</t>
+  </si>
+  <si>
+    <t>ACR-R43</t>
+  </si>
+  <si>
+    <t>ACR-R44</t>
+  </si>
+  <si>
+    <t>ACR-R45</t>
+  </si>
+  <si>
+    <t>ACR-R46</t>
+  </si>
+  <si>
+    <t>ACR-R47</t>
+  </si>
+  <si>
+    <t>ACR-R48</t>
+  </si>
+  <si>
+    <t>ACR-R49</t>
+  </si>
+  <si>
+    <t>ACR-R50</t>
+  </si>
+  <si>
+    <t>ACR-R51</t>
+  </si>
+  <si>
+    <t>POC-A18</t>
+  </si>
+  <si>
+    <t>POC-A19</t>
+  </si>
+  <si>
+    <t>POC-A20</t>
+  </si>
+  <si>
+    <t>POC-A21</t>
+  </si>
+  <si>
+    <t>POC-A22</t>
+  </si>
+  <si>
+    <t>POC-A23</t>
+  </si>
+  <si>
+    <t>POC-A24</t>
+  </si>
+  <si>
+    <t>POC-A25</t>
+  </si>
+  <si>
+    <t>POC-A26</t>
+  </si>
+  <si>
+    <t>POC-A27</t>
+  </si>
+  <si>
+    <t>POC-A28</t>
+  </si>
+  <si>
+    <t>POC-A29</t>
+  </si>
+  <si>
+    <t>POC-A30</t>
+  </si>
+  <si>
+    <t>POC-A31</t>
+  </si>
+  <si>
+    <t>POC-A32</t>
+  </si>
+  <si>
+    <t>POC-R31</t>
+  </si>
+  <si>
+    <t>POC-R32</t>
+  </si>
+  <si>
+    <t>POC-R33</t>
+  </si>
+  <si>
+    <t>POC-R34</t>
+  </si>
+  <si>
+    <t>POC-R35</t>
+  </si>
+  <si>
+    <t>POC-R36</t>
+  </si>
+  <si>
+    <t>POC-R37</t>
+  </si>
+  <si>
+    <t>POC-R38</t>
+  </si>
+  <si>
+    <t>POC-R39</t>
+  </si>
+  <si>
+    <t>POC-R40</t>
+  </si>
+  <si>
+    <t>POC-R41</t>
+  </si>
+  <si>
+    <t>POC-R42</t>
+  </si>
+  <si>
+    <t>POC-R43</t>
+  </si>
+  <si>
+    <t>POC-R44</t>
+  </si>
+  <si>
+    <t>POC-R45</t>
+  </si>
+  <si>
+    <t>POC-R46</t>
+  </si>
+  <si>
+    <t>POC-R47</t>
+  </si>
+  <si>
+    <t>POC-R48</t>
+  </si>
+  <si>
+    <t>POC-R49</t>
+  </si>
+  <si>
+    <t>POC-R50</t>
+  </si>
+  <si>
+    <t>POC-R51</t>
+  </si>
+  <si>
+    <t>POR-A18</t>
+  </si>
+  <si>
+    <t>POR-A19</t>
+  </si>
+  <si>
+    <t>POR-A20</t>
+  </si>
+  <si>
+    <t>POR-A21</t>
+  </si>
+  <si>
+    <t>POR-A22</t>
+  </si>
+  <si>
+    <t>POR-A23</t>
+  </si>
+  <si>
+    <t>POR-A24</t>
+  </si>
+  <si>
+    <t>POR-A25</t>
+  </si>
+  <si>
+    <t>POR-A26</t>
+  </si>
+  <si>
+    <t>POR-A27</t>
+  </si>
+  <si>
+    <t>POR-A28</t>
+  </si>
+  <si>
+    <t>POR-A29</t>
+  </si>
+  <si>
+    <t>POR-A30</t>
+  </si>
+  <si>
+    <t>POR-A31</t>
+  </si>
+  <si>
+    <t>POR-A32</t>
+  </si>
+  <si>
+    <t>POR-R31</t>
+  </si>
+  <si>
+    <t>POR-R32</t>
+  </si>
+  <si>
+    <t>POR-R33</t>
+  </si>
+  <si>
+    <t>POR-R34</t>
+  </si>
+  <si>
+    <t>POR-R35</t>
+  </si>
+  <si>
+    <t>POR-R36</t>
+  </si>
+  <si>
+    <t>POR-R37</t>
+  </si>
+  <si>
+    <t>POR-R38</t>
+  </si>
+  <si>
+    <t>POR-R39</t>
+  </si>
+  <si>
+    <t>POR-R40</t>
+  </si>
+  <si>
+    <t>POR-R41</t>
+  </si>
+  <si>
+    <t>POR-R42</t>
+  </si>
+  <si>
+    <t>POR-R43</t>
+  </si>
+  <si>
+    <t>POR-R44</t>
+  </si>
+  <si>
+    <t>POR-R45</t>
+  </si>
+  <si>
+    <t>POR-R46</t>
+  </si>
+  <si>
+    <t>POR-R47</t>
+  </si>
+  <si>
+    <t>POR-R48</t>
+  </si>
+  <si>
+    <t>POR-R49</t>
+  </si>
+  <si>
+    <t>POR-R50</t>
+  </si>
+  <si>
+    <t>POR-R51</t>
+  </si>
+  <si>
+    <t>blue label</t>
   </si>
 </sst>
 </file>
@@ -584,10 +911,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -903,16 +1229,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5716CA15-A063-CD4A-965E-FFCB3C4243EA}">
-  <dimension ref="A1:L142"/>
+  <dimension ref="A1:L250"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A143" sqref="A143"/>
+      <pane ySplit="1" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J243" sqref="J243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
     <col min="5" max="6" width="16.83203125" customWidth="1"/>
     <col min="7" max="8" width="13.6640625" customWidth="1"/>
     <col min="9" max="9" width="23.6640625" customWidth="1"/>
@@ -2068,16 +2395,15 @@
       <c r="A67" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67">
         <v>66</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="2"/>
+      <c r="C67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" t="s">
+        <v>10</v>
+      </c>
       <c r="L67" t="s">
         <v>14</v>
       </c>
@@ -2086,16 +2412,15 @@
       <c r="A68" t="s">
         <v>89</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68">
         <v>67</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" s="2"/>
+      <c r="C68" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" t="s">
+        <v>10</v>
+      </c>
       <c r="L68" t="s">
         <v>14</v>
       </c>
@@ -2104,16 +2429,15 @@
       <c r="A69" t="s">
         <v>90</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69">
         <v>68</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" s="2"/>
+      <c r="C69" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" t="s">
+        <v>10</v>
+      </c>
       <c r="L69" t="s">
         <v>14</v>
       </c>
@@ -2122,16 +2446,15 @@
       <c r="A70" t="s">
         <v>91</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70">
         <v>69</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" s="2"/>
+      <c r="C70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" t="s">
+        <v>10</v>
+      </c>
       <c r="L70" t="s">
         <v>14</v>
       </c>
@@ -2140,16 +2463,15 @@
       <c r="A71" t="s">
         <v>92</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71">
         <v>70</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" s="2"/>
+      <c r="C71" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" t="s">
+        <v>10</v>
+      </c>
       <c r="L71" t="s">
         <v>14</v>
       </c>
@@ -2158,16 +2480,15 @@
       <c r="A72" t="s">
         <v>93</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72">
         <v>71</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" s="2"/>
+      <c r="C72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" t="s">
+        <v>10</v>
+      </c>
       <c r="L72" t="s">
         <v>14</v>
       </c>
@@ -2176,16 +2497,15 @@
       <c r="A73" t="s">
         <v>94</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73">
         <v>72</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E73" s="2"/>
+      <c r="C73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" t="s">
+        <v>10</v>
+      </c>
       <c r="L73" t="s">
         <v>14</v>
       </c>
@@ -2194,16 +2514,15 @@
       <c r="A74" t="s">
         <v>95</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74">
         <v>73</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74" s="2"/>
+      <c r="C74" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" t="s">
+        <v>10</v>
+      </c>
       <c r="L74" t="s">
         <v>14</v>
       </c>
@@ -2212,16 +2531,15 @@
       <c r="A75" t="s">
         <v>96</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75">
         <v>74</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75" s="2"/>
+      <c r="C75" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" t="s">
+        <v>10</v>
+      </c>
       <c r="L75" t="s">
         <v>14</v>
       </c>
@@ -2230,16 +2548,15 @@
       <c r="A76" t="s">
         <v>97</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76">
         <v>75</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E76" s="2"/>
+      <c r="C76" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" t="s">
+        <v>10</v>
+      </c>
       <c r="L76" t="s">
         <v>14</v>
       </c>
@@ -2248,16 +2565,15 @@
       <c r="A77" t="s">
         <v>98</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77">
         <v>76</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E77" s="2"/>
+      <c r="C77" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" t="s">
+        <v>10</v>
+      </c>
       <c r="L77" t="s">
         <v>14</v>
       </c>
@@ -2266,16 +2582,15 @@
       <c r="A78" t="s">
         <v>99</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78">
         <v>77</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="2"/>
+      <c r="C78" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" t="s">
+        <v>11</v>
+      </c>
       <c r="L78" t="s">
         <v>14</v>
       </c>
@@ -2284,16 +2599,15 @@
       <c r="A79" t="s">
         <v>100</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79">
         <v>78</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E79" s="2"/>
+      <c r="C79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" t="s">
+        <v>11</v>
+      </c>
       <c r="L79" t="s">
         <v>14</v>
       </c>
@@ -2302,16 +2616,15 @@
       <c r="A80" t="s">
         <v>101</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80">
         <v>79</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" s="2"/>
+      <c r="C80" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" t="s">
+        <v>11</v>
+      </c>
       <c r="L80" t="s">
         <v>14</v>
       </c>
@@ -2320,16 +2633,15 @@
       <c r="A81" t="s">
         <v>102</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81">
         <v>80</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81" s="2"/>
+      <c r="C81" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" t="s">
+        <v>11</v>
+      </c>
       <c r="L81" t="s">
         <v>14</v>
       </c>
@@ -2338,16 +2650,15 @@
       <c r="A82" t="s">
         <v>103</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82">
         <v>81</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" s="2"/>
+      <c r="C82" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" t="s">
+        <v>11</v>
+      </c>
       <c r="L82" t="s">
         <v>14</v>
       </c>
@@ -2356,16 +2667,15 @@
       <c r="A83" t="s">
         <v>104</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83">
         <v>82</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" s="2"/>
+      <c r="C83" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" t="s">
+        <v>11</v>
+      </c>
       <c r="L83" t="s">
         <v>14</v>
       </c>
@@ -2374,16 +2684,15 @@
       <c r="A84" t="s">
         <v>105</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84">
         <v>83</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" s="2"/>
+      <c r="C84" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" t="s">
+        <v>11</v>
+      </c>
       <c r="L84" t="s">
         <v>14</v>
       </c>
@@ -2392,16 +2701,15 @@
       <c r="A85" t="s">
         <v>106</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85">
         <v>84</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85" s="2"/>
+      <c r="C85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" t="s">
+        <v>11</v>
+      </c>
       <c r="L85" t="s">
         <v>14</v>
       </c>
@@ -2410,16 +2718,15 @@
       <c r="A86" t="s">
         <v>107</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86">
         <v>85</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86" s="2"/>
+      <c r="C86" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" t="s">
+        <v>11</v>
+      </c>
       <c r="L86" t="s">
         <v>14</v>
       </c>
@@ -2428,16 +2735,15 @@
       <c r="A87" t="s">
         <v>108</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87">
         <v>86</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E87" s="2"/>
+      <c r="C87" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" t="s">
+        <v>11</v>
+      </c>
       <c r="L87" t="s">
         <v>14</v>
       </c>
@@ -2446,16 +2752,15 @@
       <c r="A88" t="s">
         <v>109</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88">
         <v>87</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E88" s="2"/>
+      <c r="C88" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" t="s">
+        <v>11</v>
+      </c>
       <c r="L88" t="s">
         <v>14</v>
       </c>
@@ -2464,16 +2769,15 @@
       <c r="A89" t="s">
         <v>110</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89">
         <v>88</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E89" s="2"/>
+      <c r="C89" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" t="s">
+        <v>11</v>
+      </c>
       <c r="L89" t="s">
         <v>14</v>
       </c>
@@ -2482,16 +2786,15 @@
       <c r="A90" t="s">
         <v>111</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90">
         <v>89</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E90" s="2"/>
+      <c r="C90" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" t="s">
+        <v>11</v>
+      </c>
       <c r="L90" t="s">
         <v>14</v>
       </c>
@@ -2500,16 +2803,15 @@
       <c r="A91" t="s">
         <v>112</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91">
         <v>90</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E91" s="2"/>
+      <c r="C91" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" t="s">
+        <v>11</v>
+      </c>
       <c r="L91" t="s">
         <v>14</v>
       </c>
@@ -2518,16 +2820,15 @@
       <c r="A92" t="s">
         <v>113</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92">
         <v>91</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E92" s="2"/>
+      <c r="C92" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" t="s">
+        <v>11</v>
+      </c>
       <c r="L92" t="s">
         <v>14</v>
       </c>
@@ -2536,16 +2837,15 @@
       <c r="A93" t="s">
         <v>114</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93">
         <v>92</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E93" s="2"/>
+      <c r="C93" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" t="s">
+        <v>11</v>
+      </c>
       <c r="L93" t="s">
         <v>14</v>
       </c>
@@ -2554,16 +2854,15 @@
       <c r="A94" t="s">
         <v>115</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94">
         <v>93</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E94" s="2"/>
+      <c r="C94" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" t="s">
+        <v>11</v>
+      </c>
       <c r="L94" t="s">
         <v>14</v>
       </c>
@@ -2572,16 +2871,15 @@
       <c r="A95" t="s">
         <v>116</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95">
         <v>94</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E95" s="2"/>
+      <c r="C95" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" t="s">
+        <v>11</v>
+      </c>
       <c r="L95" t="s">
         <v>14</v>
       </c>
@@ -2590,16 +2888,15 @@
       <c r="A96" t="s">
         <v>117</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96">
         <v>95</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E96" s="2"/>
+      <c r="C96" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96" t="s">
+        <v>11</v>
+      </c>
       <c r="L96" t="s">
         <v>14</v>
       </c>
@@ -2608,16 +2905,15 @@
       <c r="A97" t="s">
         <v>118</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97">
         <v>96</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E97" s="2"/>
+      <c r="C97" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" t="s">
+        <v>11</v>
+      </c>
       <c r="L97" t="s">
         <v>14</v>
       </c>
@@ -2626,16 +2922,16 @@
       <c r="A98" t="s">
         <v>119</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98">
         <v>97</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E98" s="3">
+      <c r="C98" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" s="2">
         <v>20231107</v>
       </c>
       <c r="F98" t="s">
@@ -2661,16 +2957,16 @@
       <c r="A99" t="s">
         <v>120</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99">
         <v>98</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E99" s="3">
+      <c r="C99" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" s="2">
         <v>20231107</v>
       </c>
       <c r="F99" t="s">
@@ -2696,16 +2992,16 @@
       <c r="A100" t="s">
         <v>121</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100">
         <v>99</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E100" s="3">
+      <c r="C100" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" s="2">
         <v>20231107</v>
       </c>
       <c r="F100" t="s">
@@ -2731,16 +3027,16 @@
       <c r="A101" t="s">
         <v>122</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101">
         <v>100</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E101" s="3">
+      <c r="C101" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" s="2">
         <v>20231107</v>
       </c>
       <c r="F101" t="s">
@@ -2766,16 +3062,16 @@
       <c r="A102" t="s">
         <v>123</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102">
         <v>101</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E102" s="3">
+      <c r="C102" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" s="2">
         <v>20231107</v>
       </c>
       <c r="F102" t="s">
@@ -2801,16 +3097,16 @@
       <c r="A103" t="s">
         <v>124</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103">
         <v>102</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E103" s="3">
+      <c r="C103" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" s="2">
         <v>20231107</v>
       </c>
       <c r="F103" t="s">
@@ -2836,16 +3132,16 @@
       <c r="A104" t="s">
         <v>125</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104">
         <v>103</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E104" s="3">
+      <c r="C104" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" s="2">
         <v>20231107</v>
       </c>
       <c r="F104" t="s">
@@ -2871,16 +3167,16 @@
       <c r="A105" t="s">
         <v>126</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105">
         <v>104</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E105" s="3">
+      <c r="C105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="2">
         <v>20231107</v>
       </c>
       <c r="F105" t="s">
@@ -2906,16 +3202,16 @@
       <c r="A106" t="s">
         <v>127</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106">
         <v>105</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E106" s="3">
+      <c r="C106" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" s="2">
         <v>20231107</v>
       </c>
       <c r="F106" t="s">
@@ -2941,16 +3237,16 @@
       <c r="A107" t="s">
         <v>128</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107">
         <v>106</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E107" s="3">
+      <c r="C107" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" s="2">
         <v>20231107</v>
       </c>
       <c r="F107" t="s">
@@ -2976,16 +3272,16 @@
       <c r="A108" t="s">
         <v>129</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108">
         <v>107</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E108" s="2">
+      <c r="C108" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108">
         <v>20231107</v>
       </c>
       <c r="F108" t="s">
@@ -3011,16 +3307,16 @@
       <c r="A109" t="s">
         <v>130</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109">
         <v>108</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E109" s="2">
+      <c r="C109" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109">
         <v>20231107</v>
       </c>
       <c r="F109" t="s">
@@ -3046,16 +3342,16 @@
       <c r="A110" t="s">
         <v>131</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110">
         <v>109</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E110" s="3">
+      <c r="C110" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" s="2">
         <v>20231107</v>
       </c>
       <c r="F110" t="s">
@@ -3081,16 +3377,16 @@
       <c r="A111" t="s">
         <v>132</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111">
         <v>110</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E111" s="2">
+      <c r="C111" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111">
         <v>20231107</v>
       </c>
       <c r="F111" t="s">
@@ -3116,16 +3412,16 @@
       <c r="A112" t="s">
         <v>133</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112">
         <v>111</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E112" s="3">
+      <c r="C112" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="2">
         <v>20231107</v>
       </c>
       <c r="F112" t="s">
@@ -3151,16 +3447,16 @@
       <c r="A113" t="s">
         <v>134</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113">
         <v>112</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E113" s="3">
+      <c r="C113" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" t="s">
+        <v>10</v>
+      </c>
+      <c r="E113" s="2">
         <v>20231107</v>
       </c>
       <c r="F113" t="s">
@@ -3186,16 +3482,16 @@
       <c r="A114" t="s">
         <v>135</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114">
         <v>113</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E114" s="3">
+      <c r="C114" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" s="2">
         <v>20231107</v>
       </c>
       <c r="F114" t="s">
@@ -3221,16 +3517,16 @@
       <c r="A115" t="s">
         <v>136</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115">
         <v>114</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E115" s="3">
+      <c r="C115" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" t="s">
+        <v>10</v>
+      </c>
+      <c r="E115" s="2">
         <v>20231107</v>
       </c>
       <c r="F115" t="s">
@@ -3256,16 +3552,16 @@
       <c r="A116" t="s">
         <v>137</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116">
         <v>115</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E116" s="3">
+      <c r="C116" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" t="s">
+        <v>10</v>
+      </c>
+      <c r="E116" s="2">
         <v>20231107</v>
       </c>
       <c r="F116" t="s">
@@ -3291,16 +3587,16 @@
       <c r="A117" t="s">
         <v>138</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117">
         <v>116</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E117" s="3">
+      <c r="C117" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" t="s">
+        <v>10</v>
+      </c>
+      <c r="E117" s="2">
         <v>20231107</v>
       </c>
       <c r="F117" t="s">
@@ -3326,16 +3622,16 @@
       <c r="A118" t="s">
         <v>139</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118">
         <v>117</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E118" s="3">
+      <c r="C118" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118" s="2">
         <v>20231107</v>
       </c>
       <c r="F118" t="s">
@@ -3361,16 +3657,16 @@
       <c r="A119" t="s">
         <v>140</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119">
         <v>118</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E119" s="3">
+      <c r="C119" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" t="s">
+        <v>11</v>
+      </c>
+      <c r="E119" s="2">
         <v>20231107</v>
       </c>
       <c r="F119" t="s">
@@ -3396,16 +3692,16 @@
       <c r="A120" t="s">
         <v>141</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120">
         <v>119</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E120" s="3">
+      <c r="C120" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" t="s">
+        <v>11</v>
+      </c>
+      <c r="E120" s="2">
         <v>20231107</v>
       </c>
       <c r="F120" t="s">
@@ -3431,16 +3727,16 @@
       <c r="A121" t="s">
         <v>142</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121">
         <v>120</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E121" s="3">
+      <c r="C121" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" t="s">
+        <v>11</v>
+      </c>
+      <c r="E121" s="2">
         <v>20231107</v>
       </c>
       <c r="F121" t="s">
@@ -3466,16 +3762,16 @@
       <c r="A122" t="s">
         <v>143</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122">
         <v>121</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E122" s="3">
+      <c r="C122" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122" s="2">
         <v>20231107</v>
       </c>
       <c r="F122" t="s">
@@ -3501,16 +3797,16 @@
       <c r="A123" t="s">
         <v>144</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123">
         <v>122</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E123" s="3">
+      <c r="C123" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123" s="2">
         <v>20231107</v>
       </c>
       <c r="F123" t="s">
@@ -3536,16 +3832,16 @@
       <c r="A124" t="s">
         <v>145</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124">
         <v>123</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E124" s="3">
+      <c r="C124" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" t="s">
+        <v>11</v>
+      </c>
+      <c r="E124" s="2">
         <v>20231107</v>
       </c>
       <c r="F124" t="s">
@@ -3567,26 +3863,26 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="s">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
         <v>146</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125">
         <v>124</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E125" s="2">
+      <c r="C125" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125">
         <v>20231107</v>
       </c>
-      <c r="F125" s="2" t="s">
+      <c r="F125" t="s">
         <v>16</v>
       </c>
-      <c r="G125" s="2" t="s">
+      <c r="G125" t="s">
         <v>19</v>
       </c>
       <c r="H125" t="s">
@@ -3598,7 +3894,7 @@
       <c r="K125" t="s">
         <v>23</v>
       </c>
-      <c r="L125" s="2" t="s">
+      <c r="L125" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3606,16 +3902,16 @@
       <c r="A126" t="s">
         <v>147</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126">
         <v>125</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E126" s="3">
+      <c r="C126" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" t="s">
+        <v>11</v>
+      </c>
+      <c r="E126" s="2">
         <v>20231107</v>
       </c>
       <c r="F126" t="s">
@@ -3641,16 +3937,16 @@
       <c r="A127" t="s">
         <v>148</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127">
         <v>126</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E127" s="3">
+      <c r="C127" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127" s="2">
         <v>20231107</v>
       </c>
       <c r="F127" t="s">
@@ -3676,16 +3972,16 @@
       <c r="A128" t="s">
         <v>149</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128">
         <v>127</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E128" s="2">
+      <c r="C128" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128" t="s">
+        <v>10</v>
+      </c>
+      <c r="E128">
         <v>20231107</v>
       </c>
       <c r="F128" t="s">
@@ -3711,16 +4007,16 @@
       <c r="A129" t="s">
         <v>150</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129">
         <v>128</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E129" s="3">
+      <c r="C129" t="s">
+        <v>13</v>
+      </c>
+      <c r="D129" t="s">
+        <v>10</v>
+      </c>
+      <c r="E129" s="2">
         <v>20231107</v>
       </c>
       <c r="F129" t="s">
@@ -3746,16 +4042,16 @@
       <c r="A130" t="s">
         <v>151</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130">
         <v>129</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E130" s="3">
+      <c r="C130" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" t="s">
+        <v>10</v>
+      </c>
+      <c r="E130" s="2">
         <v>20231107</v>
       </c>
       <c r="F130" t="s">
@@ -3781,16 +4077,16 @@
       <c r="A131" t="s">
         <v>152</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131">
         <v>130</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E131" s="3">
+      <c r="C131" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131" t="s">
+        <v>10</v>
+      </c>
+      <c r="E131" s="2">
         <v>20231107</v>
       </c>
       <c r="F131" t="s">
@@ -3816,16 +4112,16 @@
       <c r="A132" t="s">
         <v>153</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132">
         <v>131</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E132" s="3">
+      <c r="C132" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132" t="s">
+        <v>10</v>
+      </c>
+      <c r="E132" s="2">
         <v>20231107</v>
       </c>
       <c r="F132" t="s">
@@ -3851,16 +4147,16 @@
       <c r="A133" t="s">
         <v>154</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B133">
         <v>132</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E133" s="3">
+      <c r="C133" t="s">
+        <v>13</v>
+      </c>
+      <c r="D133" t="s">
+        <v>11</v>
+      </c>
+      <c r="E133" s="2">
         <v>20231107</v>
       </c>
       <c r="F133" t="s">
@@ -3886,16 +4182,16 @@
       <c r="A134" t="s">
         <v>155</v>
       </c>
-      <c r="B134" s="2">
+      <c r="B134">
         <v>133</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E134" s="3">
+      <c r="C134" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134" t="s">
+        <v>11</v>
+      </c>
+      <c r="E134" s="2">
         <v>20231107</v>
       </c>
       <c r="F134" t="s">
@@ -3921,16 +4217,16 @@
       <c r="A135" t="s">
         <v>156</v>
       </c>
-      <c r="B135" s="2">
+      <c r="B135">
         <v>134</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E135" s="3">
+      <c r="C135" t="s">
+        <v>13</v>
+      </c>
+      <c r="D135" t="s">
+        <v>11</v>
+      </c>
+      <c r="E135" s="2">
         <v>20231107</v>
       </c>
       <c r="F135" t="s">
@@ -3956,16 +4252,16 @@
       <c r="A136" t="s">
         <v>157</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B136">
         <v>135</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E136" s="3">
+      <c r="C136" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136" t="s">
+        <v>11</v>
+      </c>
+      <c r="E136" s="2">
         <v>20231107</v>
       </c>
       <c r="F136" t="s">
@@ -3991,16 +4287,16 @@
       <c r="A137" t="s">
         <v>158</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B137">
         <v>136</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E137" s="3">
+      <c r="C137" t="s">
+        <v>13</v>
+      </c>
+      <c r="D137" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137" s="2">
         <v>20231107</v>
       </c>
       <c r="F137" t="s">
@@ -4026,16 +4322,16 @@
       <c r="A138" t="s">
         <v>159</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B138">
         <v>137</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E138" s="3">
+      <c r="C138" t="s">
+        <v>13</v>
+      </c>
+      <c r="D138" t="s">
+        <v>11</v>
+      </c>
+      <c r="E138" s="2">
         <v>20231107</v>
       </c>
       <c r="F138" t="s">
@@ -4061,16 +4357,16 @@
       <c r="A139" t="s">
         <v>160</v>
       </c>
-      <c r="B139" s="2">
+      <c r="B139">
         <v>138</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E139" s="3">
+      <c r="C139" t="s">
+        <v>13</v>
+      </c>
+      <c r="D139" t="s">
+        <v>11</v>
+      </c>
+      <c r="E139" s="2">
         <v>20231107</v>
       </c>
       <c r="F139" t="s">
@@ -4092,26 +4388,26 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="2" t="s">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
         <v>161</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B140">
         <v>139</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E140" s="3">
+      <c r="C140" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" t="s">
+        <v>11</v>
+      </c>
+      <c r="E140" s="2">
         <v>20231107</v>
       </c>
-      <c r="F140" s="2" t="s">
+      <c r="F140" t="s">
         <v>16</v>
       </c>
-      <c r="G140" s="2" t="s">
+      <c r="G140" t="s">
         <v>19</v>
       </c>
       <c r="H140" t="s">
@@ -4123,7 +4419,7 @@
       <c r="K140" t="s">
         <v>23</v>
       </c>
-      <c r="L140" s="2" t="s">
+      <c r="L140" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4131,16 +4427,16 @@
       <c r="A141" t="s">
         <v>162</v>
       </c>
-      <c r="B141" s="2">
+      <c r="B141">
         <v>140</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E141" s="3">
+      <c r="C141" t="s">
+        <v>13</v>
+      </c>
+      <c r="D141" t="s">
+        <v>11</v>
+      </c>
+      <c r="E141" s="2">
         <v>20231107</v>
       </c>
       <c r="F141" t="s">
@@ -4166,16 +4462,16 @@
       <c r="A142" t="s">
         <v>163</v>
       </c>
-      <c r="B142" s="2">
+      <c r="B142">
         <v>141</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E142" s="3">
+      <c r="C142" t="s">
+        <v>13</v>
+      </c>
+      <c r="D142" t="s">
+        <v>11</v>
+      </c>
+      <c r="E142" s="2">
         <v>20231107</v>
       </c>
       <c r="F142" t="s">
@@ -4195,6 +4491,1842 @@
       </c>
       <c r="L142" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>164</v>
+      </c>
+      <c r="B143">
+        <v>142</v>
+      </c>
+      <c r="C143" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" t="s">
+        <v>10</v>
+      </c>
+      <c r="L143" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>165</v>
+      </c>
+      <c r="B144">
+        <v>143</v>
+      </c>
+      <c r="C144" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" t="s">
+        <v>10</v>
+      </c>
+      <c r="L144" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>166</v>
+      </c>
+      <c r="B145">
+        <v>144</v>
+      </c>
+      <c r="C145" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" t="s">
+        <v>10</v>
+      </c>
+      <c r="L145" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>167</v>
+      </c>
+      <c r="B146">
+        <v>145</v>
+      </c>
+      <c r="C146" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" t="s">
+        <v>10</v>
+      </c>
+      <c r="L146" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>168</v>
+      </c>
+      <c r="B147">
+        <v>146</v>
+      </c>
+      <c r="C147" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" t="s">
+        <v>10</v>
+      </c>
+      <c r="L147" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>169</v>
+      </c>
+      <c r="B148">
+        <v>147</v>
+      </c>
+      <c r="C148" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" t="s">
+        <v>10</v>
+      </c>
+      <c r="L148" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>170</v>
+      </c>
+      <c r="B149">
+        <v>148</v>
+      </c>
+      <c r="C149" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" t="s">
+        <v>10</v>
+      </c>
+      <c r="L149" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>171</v>
+      </c>
+      <c r="B150">
+        <v>149</v>
+      </c>
+      <c r="C150" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" t="s">
+        <v>10</v>
+      </c>
+      <c r="L150" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>172</v>
+      </c>
+      <c r="B151">
+        <v>150</v>
+      </c>
+      <c r="C151" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" t="s">
+        <v>10</v>
+      </c>
+      <c r="L151" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>173</v>
+      </c>
+      <c r="B152">
+        <v>151</v>
+      </c>
+      <c r="C152" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" t="s">
+        <v>10</v>
+      </c>
+      <c r="L152" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>174</v>
+      </c>
+      <c r="B153">
+        <v>152</v>
+      </c>
+      <c r="C153" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" t="s">
+        <v>10</v>
+      </c>
+      <c r="L153" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>175</v>
+      </c>
+      <c r="B154">
+        <v>153</v>
+      </c>
+      <c r="C154" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" t="s">
+        <v>10</v>
+      </c>
+      <c r="L154" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>176</v>
+      </c>
+      <c r="B155">
+        <v>154</v>
+      </c>
+      <c r="C155" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" t="s">
+        <v>10</v>
+      </c>
+      <c r="L155" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>177</v>
+      </c>
+      <c r="B156">
+        <v>155</v>
+      </c>
+      <c r="C156" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" t="s">
+        <v>10</v>
+      </c>
+      <c r="L156" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>178</v>
+      </c>
+      <c r="B157">
+        <v>156</v>
+      </c>
+      <c r="C157" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" t="s">
+        <v>10</v>
+      </c>
+      <c r="L157" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>179</v>
+      </c>
+      <c r="B158">
+        <v>157</v>
+      </c>
+      <c r="C158" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" t="s">
+        <v>11</v>
+      </c>
+      <c r="L158" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>180</v>
+      </c>
+      <c r="B159">
+        <v>158</v>
+      </c>
+      <c r="C159" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" t="s">
+        <v>11</v>
+      </c>
+      <c r="L159" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>181</v>
+      </c>
+      <c r="B160">
+        <v>159</v>
+      </c>
+      <c r="C160" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" t="s">
+        <v>11</v>
+      </c>
+      <c r="L160" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>182</v>
+      </c>
+      <c r="B161">
+        <v>160</v>
+      </c>
+      <c r="C161" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" t="s">
+        <v>11</v>
+      </c>
+      <c r="L161" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>183</v>
+      </c>
+      <c r="B162">
+        <v>161</v>
+      </c>
+      <c r="C162" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" t="s">
+        <v>11</v>
+      </c>
+      <c r="L162" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>184</v>
+      </c>
+      <c r="B163">
+        <v>162</v>
+      </c>
+      <c r="C163" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" t="s">
+        <v>11</v>
+      </c>
+      <c r="L163" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>185</v>
+      </c>
+      <c r="B164">
+        <v>163</v>
+      </c>
+      <c r="C164" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" t="s">
+        <v>11</v>
+      </c>
+      <c r="L164" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>186</v>
+      </c>
+      <c r="B165">
+        <v>164</v>
+      </c>
+      <c r="C165" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" t="s">
+        <v>11</v>
+      </c>
+      <c r="L165" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>187</v>
+      </c>
+      <c r="B166">
+        <v>165</v>
+      </c>
+      <c r="C166" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" t="s">
+        <v>11</v>
+      </c>
+      <c r="L166" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>188</v>
+      </c>
+      <c r="B167">
+        <v>166</v>
+      </c>
+      <c r="C167" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" t="s">
+        <v>11</v>
+      </c>
+      <c r="L167" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>189</v>
+      </c>
+      <c r="B168">
+        <v>167</v>
+      </c>
+      <c r="C168" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" t="s">
+        <v>11</v>
+      </c>
+      <c r="L168" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>190</v>
+      </c>
+      <c r="B169">
+        <v>168</v>
+      </c>
+      <c r="C169" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" t="s">
+        <v>11</v>
+      </c>
+      <c r="L169" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>191</v>
+      </c>
+      <c r="B170">
+        <v>169</v>
+      </c>
+      <c r="C170" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" t="s">
+        <v>11</v>
+      </c>
+      <c r="L170" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>192</v>
+      </c>
+      <c r="B171">
+        <v>170</v>
+      </c>
+      <c r="C171" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" t="s">
+        <v>11</v>
+      </c>
+      <c r="L171" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>193</v>
+      </c>
+      <c r="B172">
+        <v>171</v>
+      </c>
+      <c r="C172" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" t="s">
+        <v>11</v>
+      </c>
+      <c r="L172" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>194</v>
+      </c>
+      <c r="B173">
+        <v>172</v>
+      </c>
+      <c r="C173" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" t="s">
+        <v>11</v>
+      </c>
+      <c r="L173" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>195</v>
+      </c>
+      <c r="B174">
+        <v>173</v>
+      </c>
+      <c r="C174" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" t="s">
+        <v>11</v>
+      </c>
+      <c r="L174" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>196</v>
+      </c>
+      <c r="B175">
+        <v>174</v>
+      </c>
+      <c r="C175" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" t="s">
+        <v>11</v>
+      </c>
+      <c r="L175" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>197</v>
+      </c>
+      <c r="B176">
+        <v>175</v>
+      </c>
+      <c r="C176" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" t="s">
+        <v>11</v>
+      </c>
+      <c r="L176" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>198</v>
+      </c>
+      <c r="B177">
+        <v>176</v>
+      </c>
+      <c r="C177" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" t="s">
+        <v>11</v>
+      </c>
+      <c r="L177" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>199</v>
+      </c>
+      <c r="B178">
+        <v>177</v>
+      </c>
+      <c r="C178" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" t="s">
+        <v>11</v>
+      </c>
+      <c r="L178" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>200</v>
+      </c>
+      <c r="B179">
+        <v>178</v>
+      </c>
+      <c r="C179" t="s">
+        <v>12</v>
+      </c>
+      <c r="D179" t="s">
+        <v>10</v>
+      </c>
+      <c r="L179" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>201</v>
+      </c>
+      <c r="B180">
+        <v>179</v>
+      </c>
+      <c r="C180" t="s">
+        <v>12</v>
+      </c>
+      <c r="D180" t="s">
+        <v>10</v>
+      </c>
+      <c r="L180" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>202</v>
+      </c>
+      <c r="B181">
+        <v>180</v>
+      </c>
+      <c r="C181" t="s">
+        <v>12</v>
+      </c>
+      <c r="D181" t="s">
+        <v>10</v>
+      </c>
+      <c r="L181" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>203</v>
+      </c>
+      <c r="B182">
+        <v>181</v>
+      </c>
+      <c r="C182" t="s">
+        <v>12</v>
+      </c>
+      <c r="D182" t="s">
+        <v>10</v>
+      </c>
+      <c r="L182" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>204</v>
+      </c>
+      <c r="B183">
+        <v>182</v>
+      </c>
+      <c r="C183" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183" t="s">
+        <v>10</v>
+      </c>
+      <c r="L183" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>205</v>
+      </c>
+      <c r="B184">
+        <v>183</v>
+      </c>
+      <c r="C184" t="s">
+        <v>12</v>
+      </c>
+      <c r="D184" t="s">
+        <v>10</v>
+      </c>
+      <c r="L184" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>206</v>
+      </c>
+      <c r="B185">
+        <v>184</v>
+      </c>
+      <c r="C185" t="s">
+        <v>12</v>
+      </c>
+      <c r="D185" t="s">
+        <v>10</v>
+      </c>
+      <c r="L185" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>207</v>
+      </c>
+      <c r="B186">
+        <v>185</v>
+      </c>
+      <c r="C186" t="s">
+        <v>12</v>
+      </c>
+      <c r="D186" t="s">
+        <v>10</v>
+      </c>
+      <c r="L186" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>208</v>
+      </c>
+      <c r="B187">
+        <v>186</v>
+      </c>
+      <c r="C187" t="s">
+        <v>12</v>
+      </c>
+      <c r="D187" t="s">
+        <v>10</v>
+      </c>
+      <c r="L187" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>209</v>
+      </c>
+      <c r="B188">
+        <v>187</v>
+      </c>
+      <c r="C188" t="s">
+        <v>12</v>
+      </c>
+      <c r="D188" t="s">
+        <v>10</v>
+      </c>
+      <c r="L188" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>210</v>
+      </c>
+      <c r="B189">
+        <v>188</v>
+      </c>
+      <c r="C189" t="s">
+        <v>12</v>
+      </c>
+      <c r="D189" t="s">
+        <v>10</v>
+      </c>
+      <c r="L189" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>211</v>
+      </c>
+      <c r="B190">
+        <v>189</v>
+      </c>
+      <c r="C190" t="s">
+        <v>12</v>
+      </c>
+      <c r="D190" t="s">
+        <v>10</v>
+      </c>
+      <c r="L190" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>212</v>
+      </c>
+      <c r="B191">
+        <v>190</v>
+      </c>
+      <c r="C191" t="s">
+        <v>12</v>
+      </c>
+      <c r="D191" t="s">
+        <v>10</v>
+      </c>
+      <c r="L191" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>213</v>
+      </c>
+      <c r="B192">
+        <v>191</v>
+      </c>
+      <c r="C192" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" t="s">
+        <v>10</v>
+      </c>
+      <c r="L192" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>214</v>
+      </c>
+      <c r="B193">
+        <v>192</v>
+      </c>
+      <c r="C193" t="s">
+        <v>12</v>
+      </c>
+      <c r="D193" t="s">
+        <v>10</v>
+      </c>
+      <c r="L193" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>215</v>
+      </c>
+      <c r="B194">
+        <v>193</v>
+      </c>
+      <c r="C194" t="s">
+        <v>12</v>
+      </c>
+      <c r="D194" t="s">
+        <v>11</v>
+      </c>
+      <c r="L194" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>216</v>
+      </c>
+      <c r="B195">
+        <v>194</v>
+      </c>
+      <c r="C195" t="s">
+        <v>12</v>
+      </c>
+      <c r="D195" t="s">
+        <v>11</v>
+      </c>
+      <c r="L195" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>217</v>
+      </c>
+      <c r="B196">
+        <v>195</v>
+      </c>
+      <c r="C196" t="s">
+        <v>12</v>
+      </c>
+      <c r="D196" t="s">
+        <v>11</v>
+      </c>
+      <c r="L196" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>218</v>
+      </c>
+      <c r="B197">
+        <v>196</v>
+      </c>
+      <c r="C197" t="s">
+        <v>12</v>
+      </c>
+      <c r="D197" t="s">
+        <v>11</v>
+      </c>
+      <c r="L197" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>219</v>
+      </c>
+      <c r="B198">
+        <v>197</v>
+      </c>
+      <c r="C198" t="s">
+        <v>12</v>
+      </c>
+      <c r="D198" t="s">
+        <v>11</v>
+      </c>
+      <c r="L198" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>220</v>
+      </c>
+      <c r="B199">
+        <v>198</v>
+      </c>
+      <c r="C199" t="s">
+        <v>12</v>
+      </c>
+      <c r="D199" t="s">
+        <v>11</v>
+      </c>
+      <c r="L199" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>221</v>
+      </c>
+      <c r="B200">
+        <v>199</v>
+      </c>
+      <c r="C200" t="s">
+        <v>12</v>
+      </c>
+      <c r="D200" t="s">
+        <v>11</v>
+      </c>
+      <c r="L200" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>222</v>
+      </c>
+      <c r="B201">
+        <v>200</v>
+      </c>
+      <c r="C201" t="s">
+        <v>12</v>
+      </c>
+      <c r="D201" t="s">
+        <v>11</v>
+      </c>
+      <c r="L201" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>223</v>
+      </c>
+      <c r="B202">
+        <v>201</v>
+      </c>
+      <c r="C202" t="s">
+        <v>12</v>
+      </c>
+      <c r="D202" t="s">
+        <v>11</v>
+      </c>
+      <c r="L202" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>224</v>
+      </c>
+      <c r="B203">
+        <v>202</v>
+      </c>
+      <c r="C203" t="s">
+        <v>12</v>
+      </c>
+      <c r="D203" t="s">
+        <v>11</v>
+      </c>
+      <c r="L203" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>225</v>
+      </c>
+      <c r="B204">
+        <v>203</v>
+      </c>
+      <c r="C204" t="s">
+        <v>12</v>
+      </c>
+      <c r="D204" t="s">
+        <v>11</v>
+      </c>
+      <c r="L204" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>226</v>
+      </c>
+      <c r="B205">
+        <v>204</v>
+      </c>
+      <c r="C205" t="s">
+        <v>12</v>
+      </c>
+      <c r="D205" t="s">
+        <v>11</v>
+      </c>
+      <c r="L205" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>227</v>
+      </c>
+      <c r="B206">
+        <v>205</v>
+      </c>
+      <c r="C206" t="s">
+        <v>12</v>
+      </c>
+      <c r="D206" t="s">
+        <v>11</v>
+      </c>
+      <c r="L206" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>228</v>
+      </c>
+      <c r="B207">
+        <v>206</v>
+      </c>
+      <c r="C207" t="s">
+        <v>12</v>
+      </c>
+      <c r="D207" t="s">
+        <v>11</v>
+      </c>
+      <c r="L207" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>229</v>
+      </c>
+      <c r="B208">
+        <v>207</v>
+      </c>
+      <c r="C208" t="s">
+        <v>12</v>
+      </c>
+      <c r="D208" t="s">
+        <v>11</v>
+      </c>
+      <c r="L208" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>230</v>
+      </c>
+      <c r="B209">
+        <v>208</v>
+      </c>
+      <c r="C209" t="s">
+        <v>12</v>
+      </c>
+      <c r="D209" t="s">
+        <v>11</v>
+      </c>
+      <c r="L209" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>231</v>
+      </c>
+      <c r="B210">
+        <v>209</v>
+      </c>
+      <c r="C210" t="s">
+        <v>12</v>
+      </c>
+      <c r="D210" t="s">
+        <v>11</v>
+      </c>
+      <c r="L210" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>232</v>
+      </c>
+      <c r="B211">
+        <v>210</v>
+      </c>
+      <c r="C211" t="s">
+        <v>12</v>
+      </c>
+      <c r="D211" t="s">
+        <v>11</v>
+      </c>
+      <c r="L211" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>233</v>
+      </c>
+      <c r="B212">
+        <v>211</v>
+      </c>
+      <c r="C212" t="s">
+        <v>12</v>
+      </c>
+      <c r="D212" t="s">
+        <v>11</v>
+      </c>
+      <c r="L212" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>234</v>
+      </c>
+      <c r="B213">
+        <v>212</v>
+      </c>
+      <c r="C213" t="s">
+        <v>12</v>
+      </c>
+      <c r="D213" t="s">
+        <v>11</v>
+      </c>
+      <c r="L213" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>235</v>
+      </c>
+      <c r="B214">
+        <v>213</v>
+      </c>
+      <c r="C214" t="s">
+        <v>12</v>
+      </c>
+      <c r="D214" t="s">
+        <v>11</v>
+      </c>
+      <c r="L214" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>236</v>
+      </c>
+      <c r="B215">
+        <v>214</v>
+      </c>
+      <c r="C215" t="s">
+        <v>13</v>
+      </c>
+      <c r="D215" t="s">
+        <v>10</v>
+      </c>
+      <c r="L215" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>237</v>
+      </c>
+      <c r="B216">
+        <v>215</v>
+      </c>
+      <c r="C216" t="s">
+        <v>13</v>
+      </c>
+      <c r="D216" t="s">
+        <v>10</v>
+      </c>
+      <c r="L216" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>238</v>
+      </c>
+      <c r="B217">
+        <v>216</v>
+      </c>
+      <c r="C217" t="s">
+        <v>13</v>
+      </c>
+      <c r="D217" t="s">
+        <v>10</v>
+      </c>
+      <c r="L217" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>239</v>
+      </c>
+      <c r="B218">
+        <v>217</v>
+      </c>
+      <c r="C218" t="s">
+        <v>13</v>
+      </c>
+      <c r="D218" t="s">
+        <v>10</v>
+      </c>
+      <c r="L218" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>240</v>
+      </c>
+      <c r="B219">
+        <v>218</v>
+      </c>
+      <c r="C219" t="s">
+        <v>13</v>
+      </c>
+      <c r="D219" t="s">
+        <v>10</v>
+      </c>
+      <c r="L219" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>241</v>
+      </c>
+      <c r="B220">
+        <v>219</v>
+      </c>
+      <c r="C220" t="s">
+        <v>13</v>
+      </c>
+      <c r="D220" t="s">
+        <v>10</v>
+      </c>
+      <c r="L220" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>242</v>
+      </c>
+      <c r="B221">
+        <v>220</v>
+      </c>
+      <c r="C221" t="s">
+        <v>13</v>
+      </c>
+      <c r="D221" t="s">
+        <v>10</v>
+      </c>
+      <c r="L221" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>243</v>
+      </c>
+      <c r="B222">
+        <v>221</v>
+      </c>
+      <c r="C222" t="s">
+        <v>13</v>
+      </c>
+      <c r="D222" t="s">
+        <v>10</v>
+      </c>
+      <c r="L222" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>244</v>
+      </c>
+      <c r="B223">
+        <v>222</v>
+      </c>
+      <c r="C223" t="s">
+        <v>13</v>
+      </c>
+      <c r="D223" t="s">
+        <v>10</v>
+      </c>
+      <c r="L223" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>245</v>
+      </c>
+      <c r="B224">
+        <v>223</v>
+      </c>
+      <c r="C224" t="s">
+        <v>13</v>
+      </c>
+      <c r="D224" t="s">
+        <v>10</v>
+      </c>
+      <c r="L224" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>246</v>
+      </c>
+      <c r="B225">
+        <v>224</v>
+      </c>
+      <c r="C225" t="s">
+        <v>13</v>
+      </c>
+      <c r="D225" t="s">
+        <v>10</v>
+      </c>
+      <c r="L225" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>247</v>
+      </c>
+      <c r="B226">
+        <v>225</v>
+      </c>
+      <c r="C226" t="s">
+        <v>13</v>
+      </c>
+      <c r="D226" t="s">
+        <v>10</v>
+      </c>
+      <c r="L226" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>248</v>
+      </c>
+      <c r="B227">
+        <v>226</v>
+      </c>
+      <c r="C227" t="s">
+        <v>13</v>
+      </c>
+      <c r="D227" t="s">
+        <v>10</v>
+      </c>
+      <c r="L227" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>249</v>
+      </c>
+      <c r="B228">
+        <v>227</v>
+      </c>
+      <c r="C228" t="s">
+        <v>13</v>
+      </c>
+      <c r="D228" t="s">
+        <v>10</v>
+      </c>
+      <c r="L228" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>250</v>
+      </c>
+      <c r="B229">
+        <v>228</v>
+      </c>
+      <c r="C229" t="s">
+        <v>13</v>
+      </c>
+      <c r="D229" t="s">
+        <v>10</v>
+      </c>
+      <c r="L229" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>251</v>
+      </c>
+      <c r="B230">
+        <v>229</v>
+      </c>
+      <c r="C230" t="s">
+        <v>13</v>
+      </c>
+      <c r="D230" t="s">
+        <v>11</v>
+      </c>
+      <c r="L230" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>252</v>
+      </c>
+      <c r="B231">
+        <v>230</v>
+      </c>
+      <c r="C231" t="s">
+        <v>13</v>
+      </c>
+      <c r="D231" t="s">
+        <v>11</v>
+      </c>
+      <c r="L231" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>253</v>
+      </c>
+      <c r="B232">
+        <v>231</v>
+      </c>
+      <c r="C232" t="s">
+        <v>13</v>
+      </c>
+      <c r="D232" t="s">
+        <v>11</v>
+      </c>
+      <c r="L232" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>254</v>
+      </c>
+      <c r="B233">
+        <v>232</v>
+      </c>
+      <c r="C233" t="s">
+        <v>13</v>
+      </c>
+      <c r="D233" t="s">
+        <v>11</v>
+      </c>
+      <c r="L233" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>255</v>
+      </c>
+      <c r="B234">
+        <v>233</v>
+      </c>
+      <c r="C234" t="s">
+        <v>13</v>
+      </c>
+      <c r="D234" t="s">
+        <v>11</v>
+      </c>
+      <c r="L234" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>256</v>
+      </c>
+      <c r="B235">
+        <v>234</v>
+      </c>
+      <c r="C235" t="s">
+        <v>13</v>
+      </c>
+      <c r="D235" t="s">
+        <v>11</v>
+      </c>
+      <c r="L235" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>257</v>
+      </c>
+      <c r="B236">
+        <v>235</v>
+      </c>
+      <c r="C236" t="s">
+        <v>13</v>
+      </c>
+      <c r="D236" t="s">
+        <v>11</v>
+      </c>
+      <c r="L236" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>258</v>
+      </c>
+      <c r="B237">
+        <v>236</v>
+      </c>
+      <c r="C237" t="s">
+        <v>13</v>
+      </c>
+      <c r="D237" t="s">
+        <v>11</v>
+      </c>
+      <c r="L237" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>259</v>
+      </c>
+      <c r="B238">
+        <v>237</v>
+      </c>
+      <c r="C238" t="s">
+        <v>13</v>
+      </c>
+      <c r="D238" t="s">
+        <v>11</v>
+      </c>
+      <c r="L238" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>260</v>
+      </c>
+      <c r="B239">
+        <v>238</v>
+      </c>
+      <c r="C239" t="s">
+        <v>13</v>
+      </c>
+      <c r="D239" t="s">
+        <v>11</v>
+      </c>
+      <c r="L239" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>261</v>
+      </c>
+      <c r="B240">
+        <v>239</v>
+      </c>
+      <c r="C240" t="s">
+        <v>13</v>
+      </c>
+      <c r="D240" t="s">
+        <v>11</v>
+      </c>
+      <c r="L240" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>262</v>
+      </c>
+      <c r="B241">
+        <v>240</v>
+      </c>
+      <c r="C241" t="s">
+        <v>13</v>
+      </c>
+      <c r="D241" t="s">
+        <v>11</v>
+      </c>
+      <c r="L241" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>263</v>
+      </c>
+      <c r="B242">
+        <v>241</v>
+      </c>
+      <c r="C242" t="s">
+        <v>13</v>
+      </c>
+      <c r="D242" t="s">
+        <v>11</v>
+      </c>
+      <c r="L242" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>264</v>
+      </c>
+      <c r="B243">
+        <v>242</v>
+      </c>
+      <c r="C243" t="s">
+        <v>13</v>
+      </c>
+      <c r="D243" t="s">
+        <v>11</v>
+      </c>
+      <c r="L243" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>265</v>
+      </c>
+      <c r="B244">
+        <v>243</v>
+      </c>
+      <c r="C244" t="s">
+        <v>13</v>
+      </c>
+      <c r="D244" t="s">
+        <v>11</v>
+      </c>
+      <c r="L244" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>266</v>
+      </c>
+      <c r="B245">
+        <v>244</v>
+      </c>
+      <c r="C245" t="s">
+        <v>13</v>
+      </c>
+      <c r="D245" t="s">
+        <v>11</v>
+      </c>
+      <c r="L245" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>267</v>
+      </c>
+      <c r="B246">
+        <v>245</v>
+      </c>
+      <c r="C246" t="s">
+        <v>13</v>
+      </c>
+      <c r="D246" t="s">
+        <v>11</v>
+      </c>
+      <c r="L246" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>268</v>
+      </c>
+      <c r="B247">
+        <v>246</v>
+      </c>
+      <c r="C247" t="s">
+        <v>13</v>
+      </c>
+      <c r="D247" t="s">
+        <v>11</v>
+      </c>
+      <c r="L247" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>269</v>
+      </c>
+      <c r="B248">
+        <v>247</v>
+      </c>
+      <c r="C248" t="s">
+        <v>13</v>
+      </c>
+      <c r="D248" t="s">
+        <v>11</v>
+      </c>
+      <c r="L248" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>270</v>
+      </c>
+      <c r="B249">
+        <v>248</v>
+      </c>
+      <c r="C249" t="s">
+        <v>13</v>
+      </c>
+      <c r="D249" t="s">
+        <v>11</v>
+      </c>
+      <c r="L249" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>271</v>
+      </c>
+      <c r="B250">
+        <v>249</v>
+      </c>
+      <c r="C250" t="s">
+        <v>13</v>
+      </c>
+      <c r="D250" t="s">
+        <v>11</v>
+      </c>
+      <c r="L250" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/data/dna/dna_metadata.xlsx
+++ b/data/dna/dna_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/dna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC539AB4-DF47-6B46-A8AE-E29F7C3AB7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD0E6E3-B03D-1F49-8687-37992EAA5349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="820" windowWidth="24220" windowHeight="17560" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="274">
   <si>
     <t>sample_id</t>
   </si>
@@ -855,6 +855,9 @@
   </si>
   <si>
     <t>blue label</t>
+  </si>
+  <si>
+    <t>yellow label; IN BAG LABELED POC-R27!</t>
   </si>
 </sst>
 </file>
@@ -1232,8 +1235,8 @@
   <dimension ref="A1:L250"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J243" sqref="J243"/>
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L95" sqref="L95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2864,7 +2867,7 @@
         <v>11</v>
       </c>
       <c r="L94" t="s">
-        <v>14</v>
+        <v>273</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">

--- a/data/dna/dna_metadata.xlsx
+++ b/data/dna/dna_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/dna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD0E6E3-B03D-1F49-8687-37992EAA5349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2976A1-B592-6047-94D6-CC7A2E077A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="820" windowWidth="24220" windowHeight="17560" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="276">
   <si>
     <t>sample_id</t>
   </si>
@@ -858,6 +858,12 @@
   </si>
   <si>
     <t>yellow label; IN BAG LABELED POC-R27!</t>
+  </si>
+  <si>
+    <t>Box2</t>
+  </si>
+  <si>
+    <t>Box3</t>
   </si>
 </sst>
 </file>
@@ -894,12 +900,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -914,10 +926,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1235,8 +1249,8 @@
   <dimension ref="A1:L250"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L95" sqref="L95"/>
+      <pane ySplit="1" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F227" sqref="F227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4461,38 +4475,38 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
+    <row r="142" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="3">
         <v>141</v>
       </c>
-      <c r="C142" t="s">
-        <v>13</v>
-      </c>
-      <c r="D142" t="s">
-        <v>11</v>
-      </c>
-      <c r="E142" s="2">
+      <c r="C142" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E142" s="4">
         <v>20231107</v>
       </c>
-      <c r="F142" t="s">
+      <c r="F142" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G142" t="s">
+      <c r="G142" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H142" t="s">
+      <c r="H142" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I142" t="s">
+      <c r="I142" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K142" t="s">
+      <c r="K142" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L142" t="s">
+      <c r="L142" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4509,6 +4523,12 @@
       <c r="D143" t="s">
         <v>10</v>
       </c>
+      <c r="E143">
+        <v>2031111</v>
+      </c>
+      <c r="H143" t="s">
+        <v>274</v>
+      </c>
       <c r="L143" t="s">
         <v>272</v>
       </c>
@@ -4526,6 +4546,12 @@
       <c r="D144" t="s">
         <v>10</v>
       </c>
+      <c r="E144">
+        <v>2031111</v>
+      </c>
+      <c r="H144" t="s">
+        <v>274</v>
+      </c>
       <c r="L144" t="s">
         <v>272</v>
       </c>
@@ -4543,6 +4569,12 @@
       <c r="D145" t="s">
         <v>10</v>
       </c>
+      <c r="E145">
+        <v>2031111</v>
+      </c>
+      <c r="H145" t="s">
+        <v>274</v>
+      </c>
       <c r="L145" t="s">
         <v>272</v>
       </c>
@@ -4560,6 +4592,12 @@
       <c r="D146" t="s">
         <v>10</v>
       </c>
+      <c r="E146">
+        <v>2031111</v>
+      </c>
+      <c r="H146" t="s">
+        <v>274</v>
+      </c>
       <c r="L146" t="s">
         <v>272</v>
       </c>
@@ -4577,6 +4615,12 @@
       <c r="D147" t="s">
         <v>10</v>
       </c>
+      <c r="E147">
+        <v>2031111</v>
+      </c>
+      <c r="H147" t="s">
+        <v>274</v>
+      </c>
       <c r="L147" t="s">
         <v>272</v>
       </c>
@@ -4594,6 +4638,12 @@
       <c r="D148" t="s">
         <v>10</v>
       </c>
+      <c r="E148">
+        <v>2031111</v>
+      </c>
+      <c r="H148" t="s">
+        <v>274</v>
+      </c>
       <c r="L148" t="s">
         <v>272</v>
       </c>
@@ -4611,6 +4661,12 @@
       <c r="D149" t="s">
         <v>10</v>
       </c>
+      <c r="E149">
+        <v>2031111</v>
+      </c>
+      <c r="H149" t="s">
+        <v>275</v>
+      </c>
       <c r="L149" t="s">
         <v>272</v>
       </c>
@@ -4628,6 +4684,12 @@
       <c r="D150" t="s">
         <v>10</v>
       </c>
+      <c r="E150">
+        <v>2031111</v>
+      </c>
+      <c r="H150" t="s">
+        <v>274</v>
+      </c>
       <c r="L150" t="s">
         <v>272</v>
       </c>
@@ -4645,6 +4707,12 @@
       <c r="D151" t="s">
         <v>10</v>
       </c>
+      <c r="E151">
+        <v>2031111</v>
+      </c>
+      <c r="H151" t="s">
+        <v>275</v>
+      </c>
       <c r="L151" t="s">
         <v>272</v>
       </c>
@@ -4662,6 +4730,12 @@
       <c r="D152" t="s">
         <v>10</v>
       </c>
+      <c r="E152">
+        <v>2031111</v>
+      </c>
+      <c r="H152" t="s">
+        <v>274</v>
+      </c>
       <c r="L152" t="s">
         <v>272</v>
       </c>
@@ -4679,6 +4753,12 @@
       <c r="D153" t="s">
         <v>10</v>
       </c>
+      <c r="E153">
+        <v>2031111</v>
+      </c>
+      <c r="H153" t="s">
+        <v>274</v>
+      </c>
       <c r="L153" t="s">
         <v>272</v>
       </c>
@@ -4696,6 +4776,12 @@
       <c r="D154" t="s">
         <v>10</v>
       </c>
+      <c r="E154">
+        <v>2031111</v>
+      </c>
+      <c r="H154" t="s">
+        <v>274</v>
+      </c>
       <c r="L154" t="s">
         <v>272</v>
       </c>
@@ -4713,6 +4799,12 @@
       <c r="D155" t="s">
         <v>10</v>
       </c>
+      <c r="E155">
+        <v>2031111</v>
+      </c>
+      <c r="H155" t="s">
+        <v>274</v>
+      </c>
       <c r="L155" t="s">
         <v>272</v>
       </c>
@@ -4730,6 +4822,12 @@
       <c r="D156" t="s">
         <v>10</v>
       </c>
+      <c r="E156">
+        <v>2031111</v>
+      </c>
+      <c r="H156" t="s">
+        <v>274</v>
+      </c>
       <c r="L156" t="s">
         <v>272</v>
       </c>
@@ -4747,6 +4845,12 @@
       <c r="D157" t="s">
         <v>10</v>
       </c>
+      <c r="E157">
+        <v>2031111</v>
+      </c>
+      <c r="H157" t="s">
+        <v>274</v>
+      </c>
       <c r="L157" t="s">
         <v>272</v>
       </c>
@@ -4764,6 +4868,12 @@
       <c r="D158" t="s">
         <v>11</v>
       </c>
+      <c r="E158">
+        <v>2031111</v>
+      </c>
+      <c r="H158" t="s">
+        <v>274</v>
+      </c>
       <c r="L158" t="s">
         <v>272</v>
       </c>
@@ -4781,6 +4891,12 @@
       <c r="D159" t="s">
         <v>11</v>
       </c>
+      <c r="E159">
+        <v>2031111</v>
+      </c>
+      <c r="H159" t="s">
+        <v>274</v>
+      </c>
       <c r="L159" t="s">
         <v>272</v>
       </c>
@@ -4798,6 +4914,12 @@
       <c r="D160" t="s">
         <v>11</v>
       </c>
+      <c r="E160">
+        <v>2031111</v>
+      </c>
+      <c r="H160" t="s">
+        <v>274</v>
+      </c>
       <c r="L160" t="s">
         <v>272</v>
       </c>
@@ -4815,6 +4937,12 @@
       <c r="D161" t="s">
         <v>11</v>
       </c>
+      <c r="E161">
+        <v>2031111</v>
+      </c>
+      <c r="H161" t="s">
+        <v>274</v>
+      </c>
       <c r="L161" t="s">
         <v>272</v>
       </c>
@@ -4832,6 +4960,12 @@
       <c r="D162" t="s">
         <v>11</v>
       </c>
+      <c r="E162">
+        <v>2031111</v>
+      </c>
+      <c r="H162" t="s">
+        <v>274</v>
+      </c>
       <c r="L162" t="s">
         <v>272</v>
       </c>
@@ -4849,6 +4983,12 @@
       <c r="D163" t="s">
         <v>11</v>
       </c>
+      <c r="E163">
+        <v>2031111</v>
+      </c>
+      <c r="H163" t="s">
+        <v>274</v>
+      </c>
       <c r="L163" t="s">
         <v>272</v>
       </c>
@@ -4866,6 +5006,12 @@
       <c r="D164" t="s">
         <v>11</v>
       </c>
+      <c r="E164">
+        <v>2031111</v>
+      </c>
+      <c r="H164" t="s">
+        <v>274</v>
+      </c>
       <c r="L164" t="s">
         <v>272</v>
       </c>
@@ -4883,6 +5029,12 @@
       <c r="D165" t="s">
         <v>11</v>
       </c>
+      <c r="E165">
+        <v>2031111</v>
+      </c>
+      <c r="H165" t="s">
+        <v>274</v>
+      </c>
       <c r="L165" t="s">
         <v>272</v>
       </c>
@@ -4900,6 +5052,12 @@
       <c r="D166" t="s">
         <v>11</v>
       </c>
+      <c r="E166">
+        <v>2031111</v>
+      </c>
+      <c r="H166" t="s">
+        <v>275</v>
+      </c>
       <c r="L166" t="s">
         <v>272</v>
       </c>
@@ -4917,6 +5075,12 @@
       <c r="D167" t="s">
         <v>11</v>
       </c>
+      <c r="E167">
+        <v>2031111</v>
+      </c>
+      <c r="H167" t="s">
+        <v>274</v>
+      </c>
       <c r="L167" t="s">
         <v>272</v>
       </c>
@@ -4934,6 +5098,12 @@
       <c r="D168" t="s">
         <v>11</v>
       </c>
+      <c r="E168">
+        <v>2031111</v>
+      </c>
+      <c r="H168" t="s">
+        <v>275</v>
+      </c>
       <c r="L168" t="s">
         <v>272</v>
       </c>
@@ -4951,6 +5121,12 @@
       <c r="D169" t="s">
         <v>11</v>
       </c>
+      <c r="E169">
+        <v>2031111</v>
+      </c>
+      <c r="H169" t="s">
+        <v>274</v>
+      </c>
       <c r="L169" t="s">
         <v>272</v>
       </c>
@@ -4960,13 +5136,19 @@
         <v>191</v>
       </c>
       <c r="B170">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C170" t="s">
         <v>9</v>
       </c>
       <c r="D170" t="s">
         <v>11</v>
+      </c>
+      <c r="E170">
+        <v>2031111</v>
+      </c>
+      <c r="H170" t="s">
+        <v>275</v>
       </c>
       <c r="L170" t="s">
         <v>272</v>
@@ -4977,13 +5159,19 @@
         <v>192</v>
       </c>
       <c r="B171">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C171" t="s">
         <v>9</v>
       </c>
       <c r="D171" t="s">
         <v>11</v>
+      </c>
+      <c r="E171">
+        <v>2031111</v>
+      </c>
+      <c r="H171" t="s">
+        <v>275</v>
       </c>
       <c r="L171" t="s">
         <v>272</v>
@@ -4994,13 +5182,19 @@
         <v>193</v>
       </c>
       <c r="B172">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C172" t="s">
         <v>9</v>
       </c>
       <c r="D172" t="s">
         <v>11</v>
+      </c>
+      <c r="E172">
+        <v>2031111</v>
+      </c>
+      <c r="H172" t="s">
+        <v>275</v>
       </c>
       <c r="L172" t="s">
         <v>272</v>
@@ -5011,13 +5205,19 @@
         <v>194</v>
       </c>
       <c r="B173">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C173" t="s">
         <v>9</v>
       </c>
       <c r="D173" t="s">
         <v>11</v>
+      </c>
+      <c r="E173">
+        <v>2031111</v>
+      </c>
+      <c r="H173" t="s">
+        <v>274</v>
       </c>
       <c r="L173" t="s">
         <v>272</v>
@@ -5028,13 +5228,19 @@
         <v>195</v>
       </c>
       <c r="B174">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C174" t="s">
         <v>9</v>
       </c>
       <c r="D174" t="s">
         <v>11</v>
+      </c>
+      <c r="E174">
+        <v>2031111</v>
+      </c>
+      <c r="H174" t="s">
+        <v>275</v>
       </c>
       <c r="L174" t="s">
         <v>272</v>
@@ -5045,13 +5251,19 @@
         <v>196</v>
       </c>
       <c r="B175">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C175" t="s">
         <v>9</v>
       </c>
       <c r="D175" t="s">
         <v>11</v>
+      </c>
+      <c r="E175">
+        <v>2031111</v>
+      </c>
+      <c r="H175" t="s">
+        <v>275</v>
       </c>
       <c r="L175" t="s">
         <v>272</v>
@@ -5062,13 +5274,19 @@
         <v>197</v>
       </c>
       <c r="B176">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C176" t="s">
         <v>9</v>
       </c>
       <c r="D176" t="s">
         <v>11</v>
+      </c>
+      <c r="E176">
+        <v>2031111</v>
+      </c>
+      <c r="H176" t="s">
+        <v>274</v>
       </c>
       <c r="L176" t="s">
         <v>272</v>
@@ -5079,13 +5297,19 @@
         <v>198</v>
       </c>
       <c r="B177">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C177" t="s">
         <v>9</v>
       </c>
       <c r="D177" t="s">
         <v>11</v>
+      </c>
+      <c r="E177">
+        <v>2031111</v>
+      </c>
+      <c r="H177" t="s">
+        <v>275</v>
       </c>
       <c r="L177" t="s">
         <v>272</v>
@@ -5096,13 +5320,19 @@
         <v>199</v>
       </c>
       <c r="B178">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C178" t="s">
         <v>9</v>
       </c>
       <c r="D178" t="s">
         <v>11</v>
+      </c>
+      <c r="E178">
+        <v>2031111</v>
+      </c>
+      <c r="H178" t="s">
+        <v>274</v>
       </c>
       <c r="L178" t="s">
         <v>272</v>
@@ -5113,13 +5343,19 @@
         <v>200</v>
       </c>
       <c r="B179">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C179" t="s">
         <v>12</v>
       </c>
       <c r="D179" t="s">
         <v>10</v>
+      </c>
+      <c r="E179">
+        <v>2031111</v>
+      </c>
+      <c r="H179" t="s">
+        <v>274</v>
       </c>
       <c r="L179" t="s">
         <v>272</v>
@@ -5130,13 +5366,19 @@
         <v>201</v>
       </c>
       <c r="B180">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C180" t="s">
         <v>12</v>
       </c>
       <c r="D180" t="s">
         <v>10</v>
+      </c>
+      <c r="E180">
+        <v>2031111</v>
+      </c>
+      <c r="H180" t="s">
+        <v>274</v>
       </c>
       <c r="L180" t="s">
         <v>272</v>
@@ -5147,13 +5389,19 @@
         <v>202</v>
       </c>
       <c r="B181">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C181" t="s">
         <v>12</v>
       </c>
       <c r="D181" t="s">
         <v>10</v>
+      </c>
+      <c r="E181">
+        <v>2031111</v>
+      </c>
+      <c r="H181" t="s">
+        <v>274</v>
       </c>
       <c r="L181" t="s">
         <v>272</v>
@@ -5164,13 +5412,19 @@
         <v>203</v>
       </c>
       <c r="B182">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C182" t="s">
         <v>12</v>
       </c>
       <c r="D182" t="s">
         <v>10</v>
+      </c>
+      <c r="E182">
+        <v>2031111</v>
+      </c>
+      <c r="H182" t="s">
+        <v>274</v>
       </c>
       <c r="L182" t="s">
         <v>272</v>
@@ -5181,13 +5435,19 @@
         <v>204</v>
       </c>
       <c r="B183">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C183" t="s">
         <v>12</v>
       </c>
       <c r="D183" t="s">
         <v>10</v>
+      </c>
+      <c r="E183">
+        <v>2031111</v>
+      </c>
+      <c r="H183" t="s">
+        <v>274</v>
       </c>
       <c r="L183" t="s">
         <v>272</v>
@@ -5198,13 +5458,19 @@
         <v>205</v>
       </c>
       <c r="B184">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C184" t="s">
         <v>12</v>
       </c>
       <c r="D184" t="s">
         <v>10</v>
+      </c>
+      <c r="E184">
+        <v>2031111</v>
+      </c>
+      <c r="H184" t="s">
+        <v>274</v>
       </c>
       <c r="L184" t="s">
         <v>272</v>
@@ -5215,13 +5481,19 @@
         <v>206</v>
       </c>
       <c r="B185">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C185" t="s">
         <v>12</v>
       </c>
       <c r="D185" t="s">
         <v>10</v>
+      </c>
+      <c r="E185">
+        <v>2031111</v>
+      </c>
+      <c r="H185" t="s">
+        <v>274</v>
       </c>
       <c r="L185" t="s">
         <v>272</v>
@@ -5232,13 +5504,19 @@
         <v>207</v>
       </c>
       <c r="B186">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C186" t="s">
         <v>12</v>
       </c>
       <c r="D186" t="s">
         <v>10</v>
+      </c>
+      <c r="E186">
+        <v>2031111</v>
+      </c>
+      <c r="H186" t="s">
+        <v>274</v>
       </c>
       <c r="L186" t="s">
         <v>272</v>
@@ -5249,13 +5527,19 @@
         <v>208</v>
       </c>
       <c r="B187">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C187" t="s">
         <v>12</v>
       </c>
       <c r="D187" t="s">
         <v>10</v>
+      </c>
+      <c r="E187">
+        <v>2031111</v>
+      </c>
+      <c r="H187" t="s">
+        <v>274</v>
       </c>
       <c r="L187" t="s">
         <v>272</v>
@@ -5266,13 +5550,19 @@
         <v>209</v>
       </c>
       <c r="B188">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C188" t="s">
         <v>12</v>
       </c>
       <c r="D188" t="s">
         <v>10</v>
+      </c>
+      <c r="E188">
+        <v>2031111</v>
+      </c>
+      <c r="H188" t="s">
+        <v>274</v>
       </c>
       <c r="L188" t="s">
         <v>272</v>
@@ -5283,13 +5573,19 @@
         <v>210</v>
       </c>
       <c r="B189">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C189" t="s">
         <v>12</v>
       </c>
       <c r="D189" t="s">
         <v>10</v>
+      </c>
+      <c r="E189">
+        <v>2031111</v>
+      </c>
+      <c r="H189" t="s">
+        <v>274</v>
       </c>
       <c r="L189" t="s">
         <v>272</v>
@@ -5300,13 +5596,19 @@
         <v>211</v>
       </c>
       <c r="B190">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C190" t="s">
         <v>12</v>
       </c>
       <c r="D190" t="s">
         <v>10</v>
+      </c>
+      <c r="E190">
+        <v>2031111</v>
+      </c>
+      <c r="H190" t="s">
+        <v>274</v>
       </c>
       <c r="L190" t="s">
         <v>272</v>
@@ -5317,13 +5619,19 @@
         <v>212</v>
       </c>
       <c r="B191">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C191" t="s">
         <v>12</v>
       </c>
       <c r="D191" t="s">
         <v>10</v>
+      </c>
+      <c r="E191">
+        <v>2031111</v>
+      </c>
+      <c r="H191" t="s">
+        <v>274</v>
       </c>
       <c r="L191" t="s">
         <v>272</v>
@@ -5334,13 +5642,19 @@
         <v>213</v>
       </c>
       <c r="B192">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="C192" t="s">
         <v>12</v>
       </c>
       <c r="D192" t="s">
         <v>10</v>
+      </c>
+      <c r="E192">
+        <v>2031111</v>
+      </c>
+      <c r="H192" t="s">
+        <v>274</v>
       </c>
       <c r="L192" t="s">
         <v>272</v>
@@ -5351,13 +5665,19 @@
         <v>214</v>
       </c>
       <c r="B193">
-        <v>192</v>
+        <v>229</v>
       </c>
       <c r="C193" t="s">
         <v>12</v>
       </c>
       <c r="D193" t="s">
         <v>10</v>
+      </c>
+      <c r="E193">
+        <v>2031111</v>
+      </c>
+      <c r="H193" t="s">
+        <v>274</v>
       </c>
       <c r="L193" t="s">
         <v>272</v>
@@ -5368,13 +5688,19 @@
         <v>215</v>
       </c>
       <c r="B194">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C194" t="s">
         <v>12</v>
       </c>
       <c r="D194" t="s">
         <v>11</v>
+      </c>
+      <c r="E194">
+        <v>2031111</v>
+      </c>
+      <c r="H194" t="s">
+        <v>274</v>
       </c>
       <c r="L194" t="s">
         <v>272</v>
@@ -5385,13 +5711,19 @@
         <v>216</v>
       </c>
       <c r="B195">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C195" t="s">
         <v>12</v>
       </c>
       <c r="D195" t="s">
         <v>11</v>
+      </c>
+      <c r="E195">
+        <v>2031111</v>
+      </c>
+      <c r="H195" t="s">
+        <v>274</v>
       </c>
       <c r="L195" t="s">
         <v>272</v>
@@ -5402,13 +5734,19 @@
         <v>217</v>
       </c>
       <c r="B196">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C196" t="s">
         <v>12</v>
       </c>
       <c r="D196" t="s">
         <v>11</v>
+      </c>
+      <c r="E196">
+        <v>2031111</v>
+      </c>
+      <c r="H196" t="s">
+        <v>274</v>
       </c>
       <c r="L196" t="s">
         <v>272</v>
@@ -5419,13 +5757,19 @@
         <v>218</v>
       </c>
       <c r="B197">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C197" t="s">
         <v>12</v>
       </c>
       <c r="D197" t="s">
         <v>11</v>
+      </c>
+      <c r="E197">
+        <v>2031111</v>
+      </c>
+      <c r="H197" t="s">
+        <v>274</v>
       </c>
       <c r="L197" t="s">
         <v>272</v>
@@ -5436,13 +5780,19 @@
         <v>219</v>
       </c>
       <c r="B198">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C198" t="s">
         <v>12</v>
       </c>
       <c r="D198" t="s">
         <v>11</v>
+      </c>
+      <c r="E198">
+        <v>2031111</v>
+      </c>
+      <c r="H198" t="s">
+        <v>274</v>
       </c>
       <c r="L198" t="s">
         <v>272</v>
@@ -5450,16 +5800,22 @@
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B199">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C199" t="s">
         <v>12</v>
       </c>
       <c r="D199" t="s">
         <v>11</v>
+      </c>
+      <c r="E199">
+        <v>2023111</v>
+      </c>
+      <c r="H199" t="s">
+        <v>274</v>
       </c>
       <c r="L199" t="s">
         <v>272</v>
@@ -5467,16 +5823,22 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B200">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C200" t="s">
         <v>12</v>
       </c>
       <c r="D200" t="s">
         <v>11</v>
+      </c>
+      <c r="E200">
+        <v>2023111</v>
+      </c>
+      <c r="H200" t="s">
+        <v>274</v>
       </c>
       <c r="L200" t="s">
         <v>272</v>
@@ -5484,16 +5846,22 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B201">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C201" t="s">
         <v>12</v>
       </c>
       <c r="D201" t="s">
         <v>11</v>
+      </c>
+      <c r="E201">
+        <v>2031111</v>
+      </c>
+      <c r="H201" t="s">
+        <v>274</v>
       </c>
       <c r="L201" t="s">
         <v>272</v>
@@ -5504,13 +5872,19 @@
         <v>223</v>
       </c>
       <c r="B202">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C202" t="s">
         <v>12</v>
       </c>
       <c r="D202" t="s">
         <v>11</v>
+      </c>
+      <c r="E202">
+        <v>2031111</v>
+      </c>
+      <c r="H202" t="s">
+        <v>274</v>
       </c>
       <c r="L202" t="s">
         <v>272</v>
@@ -5521,13 +5895,19 @@
         <v>224</v>
       </c>
       <c r="B203">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C203" t="s">
         <v>12</v>
       </c>
       <c r="D203" t="s">
         <v>11</v>
+      </c>
+      <c r="E203">
+        <v>2031111</v>
+      </c>
+      <c r="H203" t="s">
+        <v>274</v>
       </c>
       <c r="L203" t="s">
         <v>272</v>
@@ -5538,13 +5918,19 @@
         <v>225</v>
       </c>
       <c r="B204">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C204" t="s">
         <v>12</v>
       </c>
       <c r="D204" t="s">
         <v>11</v>
+      </c>
+      <c r="E204">
+        <v>2031111</v>
+      </c>
+      <c r="H204" t="s">
+        <v>274</v>
       </c>
       <c r="L204" t="s">
         <v>272</v>
@@ -5555,13 +5941,19 @@
         <v>226</v>
       </c>
       <c r="B205">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C205" t="s">
         <v>12</v>
       </c>
       <c r="D205" t="s">
         <v>11</v>
+      </c>
+      <c r="E205">
+        <v>2031111</v>
+      </c>
+      <c r="H205" t="s">
+        <v>274</v>
       </c>
       <c r="L205" t="s">
         <v>272</v>
@@ -5572,13 +5964,19 @@
         <v>227</v>
       </c>
       <c r="B206">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C206" t="s">
         <v>12</v>
       </c>
       <c r="D206" t="s">
         <v>11</v>
+      </c>
+      <c r="E206">
+        <v>2031111</v>
+      </c>
+      <c r="H206" t="s">
+        <v>274</v>
       </c>
       <c r="L206" t="s">
         <v>272</v>
@@ -5589,13 +5987,19 @@
         <v>228</v>
       </c>
       <c r="B207">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C207" t="s">
         <v>12</v>
       </c>
       <c r="D207" t="s">
         <v>11</v>
+      </c>
+      <c r="E207">
+        <v>2031111</v>
+      </c>
+      <c r="H207" t="s">
+        <v>274</v>
       </c>
       <c r="L207" t="s">
         <v>272</v>
@@ -5606,13 +6010,19 @@
         <v>229</v>
       </c>
       <c r="B208">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C208" t="s">
         <v>12</v>
       </c>
       <c r="D208" t="s">
         <v>11</v>
+      </c>
+      <c r="E208">
+        <v>2031111</v>
+      </c>
+      <c r="H208" t="s">
+        <v>274</v>
       </c>
       <c r="L208" t="s">
         <v>272</v>
@@ -5623,13 +6033,19 @@
         <v>230</v>
       </c>
       <c r="B209">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C209" t="s">
         <v>12</v>
       </c>
       <c r="D209" t="s">
         <v>11</v>
+      </c>
+      <c r="E209">
+        <v>2031111</v>
+      </c>
+      <c r="H209" t="s">
+        <v>274</v>
       </c>
       <c r="L209" t="s">
         <v>272</v>
@@ -5640,13 +6056,19 @@
         <v>231</v>
       </c>
       <c r="B210">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C210" t="s">
         <v>12</v>
       </c>
       <c r="D210" t="s">
         <v>11</v>
+      </c>
+      <c r="E210">
+        <v>2031111</v>
+      </c>
+      <c r="H210" t="s">
+        <v>274</v>
       </c>
       <c r="L210" t="s">
         <v>272</v>
@@ -5657,13 +6079,19 @@
         <v>232</v>
       </c>
       <c r="B211">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C211" t="s">
         <v>12</v>
       </c>
       <c r="D211" t="s">
         <v>11</v>
+      </c>
+      <c r="E211">
+        <v>2031111</v>
+      </c>
+      <c r="H211" t="s">
+        <v>274</v>
       </c>
       <c r="L211" t="s">
         <v>272</v>
@@ -5674,13 +6102,19 @@
         <v>233</v>
       </c>
       <c r="B212">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C212" t="s">
         <v>12</v>
       </c>
       <c r="D212" t="s">
         <v>11</v>
+      </c>
+      <c r="E212">
+        <v>2031111</v>
+      </c>
+      <c r="H212" t="s">
+        <v>274</v>
       </c>
       <c r="L212" t="s">
         <v>272</v>
@@ -5691,13 +6125,19 @@
         <v>234</v>
       </c>
       <c r="B213">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C213" t="s">
         <v>12</v>
       </c>
       <c r="D213" t="s">
         <v>11</v>
+      </c>
+      <c r="E213">
+        <v>2031111</v>
+      </c>
+      <c r="H213" t="s">
+        <v>274</v>
       </c>
       <c r="L213" t="s">
         <v>272</v>
@@ -5708,13 +6148,19 @@
         <v>235</v>
       </c>
       <c r="B214">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C214" t="s">
         <v>12</v>
       </c>
       <c r="D214" t="s">
         <v>11</v>
+      </c>
+      <c r="E214">
+        <v>2031111</v>
+      </c>
+      <c r="H214" t="s">
+        <v>274</v>
       </c>
       <c r="L214" t="s">
         <v>272</v>
@@ -5725,13 +6171,19 @@
         <v>236</v>
       </c>
       <c r="B215">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C215" t="s">
         <v>13</v>
       </c>
       <c r="D215" t="s">
         <v>10</v>
+      </c>
+      <c r="E215">
+        <v>2031111</v>
+      </c>
+      <c r="H215" t="s">
+        <v>275</v>
       </c>
       <c r="L215" t="s">
         <v>272</v>
@@ -5742,13 +6194,19 @@
         <v>237</v>
       </c>
       <c r="B216">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C216" t="s">
         <v>13</v>
       </c>
       <c r="D216" t="s">
         <v>10</v>
+      </c>
+      <c r="E216">
+        <v>2031111</v>
+      </c>
+      <c r="H216" t="s">
+        <v>274</v>
       </c>
       <c r="L216" t="s">
         <v>272</v>
@@ -5759,13 +6217,19 @@
         <v>238</v>
       </c>
       <c r="B217">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C217" t="s">
         <v>13</v>
       </c>
       <c r="D217" t="s">
         <v>10</v>
+      </c>
+      <c r="E217">
+        <v>2031111</v>
+      </c>
+      <c r="H217" t="s">
+        <v>275</v>
       </c>
       <c r="L217" t="s">
         <v>272</v>
@@ -5776,13 +6240,19 @@
         <v>239</v>
       </c>
       <c r="B218">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C218" t="s">
         <v>13</v>
       </c>
       <c r="D218" t="s">
         <v>10</v>
+      </c>
+      <c r="E218">
+        <v>2031111</v>
+      </c>
+      <c r="H218" t="s">
+        <v>275</v>
       </c>
       <c r="L218" t="s">
         <v>272</v>
@@ -5793,13 +6263,19 @@
         <v>240</v>
       </c>
       <c r="B219">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C219" t="s">
         <v>13</v>
       </c>
       <c r="D219" t="s">
         <v>10</v>
+      </c>
+      <c r="E219">
+        <v>2031111</v>
+      </c>
+      <c r="H219" t="s">
+        <v>274</v>
       </c>
       <c r="L219" t="s">
         <v>272</v>
@@ -5810,13 +6286,19 @@
         <v>241</v>
       </c>
       <c r="B220">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C220" t="s">
         <v>13</v>
       </c>
       <c r="D220" t="s">
         <v>10</v>
+      </c>
+      <c r="E220">
+        <v>2031111</v>
+      </c>
+      <c r="H220" t="s">
+        <v>275</v>
       </c>
       <c r="L220" t="s">
         <v>272</v>
@@ -5827,7 +6309,7 @@
         <v>242</v>
       </c>
       <c r="B221">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C221" t="s">
         <v>13</v>
@@ -5844,7 +6326,7 @@
         <v>243</v>
       </c>
       <c r="B222">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C222" t="s">
         <v>13</v>
@@ -5861,7 +6343,7 @@
         <v>244</v>
       </c>
       <c r="B223">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C223" t="s">
         <v>13</v>
@@ -5878,7 +6360,7 @@
         <v>245</v>
       </c>
       <c r="B224">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C224" t="s">
         <v>13</v>
@@ -5895,7 +6377,7 @@
         <v>246</v>
       </c>
       <c r="B225">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C225" t="s">
         <v>13</v>
@@ -5912,7 +6394,7 @@
         <v>247</v>
       </c>
       <c r="B226">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C226" t="s">
         <v>13</v>
@@ -5929,13 +6411,19 @@
         <v>248</v>
       </c>
       <c r="B227">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C227" t="s">
         <v>13</v>
       </c>
       <c r="D227" t="s">
         <v>10</v>
+      </c>
+      <c r="E227">
+        <v>2031111</v>
+      </c>
+      <c r="H227" t="s">
+        <v>274</v>
       </c>
       <c r="L227" t="s">
         <v>272</v>
@@ -5946,13 +6434,19 @@
         <v>249</v>
       </c>
       <c r="B228">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="C228" t="s">
         <v>13</v>
       </c>
       <c r="D228" t="s">
         <v>10</v>
+      </c>
+      <c r="E228">
+        <v>2031111</v>
+      </c>
+      <c r="H228" t="s">
+        <v>275</v>
       </c>
       <c r="L228" t="s">
         <v>272</v>
@@ -5963,13 +6457,19 @@
         <v>250</v>
       </c>
       <c r="B229">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="C229" t="s">
         <v>13</v>
       </c>
       <c r="D229" t="s">
         <v>10</v>
+      </c>
+      <c r="E229">
+        <v>2031111</v>
+      </c>
+      <c r="H229" t="s">
+        <v>274</v>
       </c>
       <c r="L229" t="s">
         <v>272</v>
@@ -5980,13 +6480,19 @@
         <v>251</v>
       </c>
       <c r="B230">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C230" t="s">
         <v>13</v>
       </c>
       <c r="D230" t="s">
         <v>11</v>
+      </c>
+      <c r="E230">
+        <v>2031111</v>
+      </c>
+      <c r="H230" t="s">
+        <v>274</v>
       </c>
       <c r="L230" t="s">
         <v>272</v>
@@ -5997,13 +6503,19 @@
         <v>252</v>
       </c>
       <c r="B231">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C231" t="s">
         <v>13</v>
       </c>
       <c r="D231" t="s">
         <v>11</v>
+      </c>
+      <c r="E231">
+        <v>2031111</v>
+      </c>
+      <c r="H231" t="s">
+        <v>274</v>
       </c>
       <c r="L231" t="s">
         <v>272</v>
@@ -6014,13 +6526,19 @@
         <v>253</v>
       </c>
       <c r="B232">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C232" t="s">
         <v>13</v>
       </c>
       <c r="D232" t="s">
         <v>11</v>
+      </c>
+      <c r="E232">
+        <v>2031111</v>
+      </c>
+      <c r="H232" t="s">
+        <v>274</v>
       </c>
       <c r="L232" t="s">
         <v>272</v>
@@ -6031,13 +6549,19 @@
         <v>254</v>
       </c>
       <c r="B233">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C233" t="s">
         <v>13</v>
       </c>
       <c r="D233" t="s">
         <v>11</v>
+      </c>
+      <c r="E233">
+        <v>2031111</v>
+      </c>
+      <c r="H233" t="s">
+        <v>274</v>
       </c>
       <c r="L233" t="s">
         <v>272</v>
@@ -6048,13 +6572,19 @@
         <v>255</v>
       </c>
       <c r="B234">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C234" t="s">
         <v>13</v>
       </c>
       <c r="D234" t="s">
         <v>11</v>
+      </c>
+      <c r="E234">
+        <v>2031111</v>
+      </c>
+      <c r="H234" t="s">
+        <v>274</v>
       </c>
       <c r="L234" t="s">
         <v>272</v>
@@ -6065,13 +6595,19 @@
         <v>256</v>
       </c>
       <c r="B235">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C235" t="s">
         <v>13</v>
       </c>
       <c r="D235" t="s">
         <v>11</v>
+      </c>
+      <c r="E235">
+        <v>2031111</v>
+      </c>
+      <c r="H235" t="s">
+        <v>274</v>
       </c>
       <c r="L235" t="s">
         <v>272</v>
@@ -6082,13 +6618,19 @@
         <v>257</v>
       </c>
       <c r="B236">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C236" t="s">
         <v>13</v>
       </c>
       <c r="D236" t="s">
         <v>11</v>
+      </c>
+      <c r="E236">
+        <v>2031111</v>
+      </c>
+      <c r="H236" t="s">
+        <v>275</v>
       </c>
       <c r="L236" t="s">
         <v>272</v>
@@ -6099,13 +6641,19 @@
         <v>258</v>
       </c>
       <c r="B237">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C237" t="s">
         <v>13</v>
       </c>
       <c r="D237" t="s">
         <v>11</v>
+      </c>
+      <c r="E237">
+        <v>2031111</v>
+      </c>
+      <c r="H237" t="s">
+        <v>274</v>
       </c>
       <c r="L237" t="s">
         <v>272</v>
@@ -6116,13 +6664,19 @@
         <v>259</v>
       </c>
       <c r="B238">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C238" t="s">
         <v>13</v>
       </c>
       <c r="D238" t="s">
         <v>11</v>
+      </c>
+      <c r="E238">
+        <v>2031111</v>
+      </c>
+      <c r="H238" t="s">
+        <v>274</v>
       </c>
       <c r="L238" t="s">
         <v>272</v>
@@ -6133,13 +6687,19 @@
         <v>260</v>
       </c>
       <c r="B239">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C239" t="s">
         <v>13</v>
       </c>
       <c r="D239" t="s">
         <v>11</v>
+      </c>
+      <c r="E239">
+        <v>2031111</v>
+      </c>
+      <c r="H239" t="s">
+        <v>274</v>
       </c>
       <c r="L239" t="s">
         <v>272</v>
@@ -6150,13 +6710,19 @@
         <v>261</v>
       </c>
       <c r="B240">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C240" t="s">
         <v>13</v>
       </c>
       <c r="D240" t="s">
         <v>11</v>
+      </c>
+      <c r="E240">
+        <v>2031111</v>
+      </c>
+      <c r="H240" t="s">
+        <v>275</v>
       </c>
       <c r="L240" t="s">
         <v>272</v>
@@ -6167,13 +6733,19 @@
         <v>262</v>
       </c>
       <c r="B241">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C241" t="s">
         <v>13</v>
       </c>
       <c r="D241" t="s">
         <v>11</v>
+      </c>
+      <c r="E241">
+        <v>2031111</v>
+      </c>
+      <c r="H241" t="s">
+        <v>274</v>
       </c>
       <c r="L241" t="s">
         <v>272</v>
@@ -6184,13 +6756,19 @@
         <v>263</v>
       </c>
       <c r="B242">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C242" t="s">
         <v>13</v>
       </c>
       <c r="D242" t="s">
         <v>11</v>
+      </c>
+      <c r="E242">
+        <v>2031111</v>
+      </c>
+      <c r="H242" t="s">
+        <v>274</v>
       </c>
       <c r="L242" t="s">
         <v>272</v>
@@ -6201,7 +6779,7 @@
         <v>264</v>
       </c>
       <c r="B243">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C243" t="s">
         <v>13</v>
@@ -6218,7 +6796,7 @@
         <v>265</v>
       </c>
       <c r="B244">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C244" t="s">
         <v>13</v>
@@ -6235,7 +6813,7 @@
         <v>266</v>
       </c>
       <c r="B245">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C245" t="s">
         <v>13</v>
@@ -6252,7 +6830,7 @@
         <v>267</v>
       </c>
       <c r="B246">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C246" t="s">
         <v>13</v>
@@ -6269,13 +6847,19 @@
         <v>268</v>
       </c>
       <c r="B247">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C247" t="s">
         <v>13</v>
       </c>
       <c r="D247" t="s">
         <v>11</v>
+      </c>
+      <c r="E247">
+        <v>2031111</v>
+      </c>
+      <c r="H247" t="s">
+        <v>274</v>
       </c>
       <c r="L247" t="s">
         <v>272</v>
@@ -6286,13 +6870,19 @@
         <v>269</v>
       </c>
       <c r="B248">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C248" t="s">
         <v>13</v>
       </c>
       <c r="D248" t="s">
         <v>11</v>
+      </c>
+      <c r="E248">
+        <v>2031111</v>
+      </c>
+      <c r="H248" t="s">
+        <v>274</v>
       </c>
       <c r="L248" t="s">
         <v>272</v>
@@ -6303,13 +6893,19 @@
         <v>270</v>
       </c>
       <c r="B249">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C249" t="s">
         <v>13</v>
       </c>
       <c r="D249" t="s">
         <v>11</v>
+      </c>
+      <c r="E249">
+        <v>2031111</v>
+      </c>
+      <c r="H249" t="s">
+        <v>274</v>
       </c>
       <c r="L249" t="s">
         <v>272</v>
@@ -6320,13 +6916,19 @@
         <v>271</v>
       </c>
       <c r="B250">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C250" t="s">
         <v>13</v>
       </c>
       <c r="D250" t="s">
         <v>11</v>
+      </c>
+      <c r="E250">
+        <v>2031111</v>
+      </c>
+      <c r="H250" t="s">
+        <v>274</v>
       </c>
       <c r="L250" t="s">
         <v>272</v>

--- a/data/dna/dna_metadata.xlsx
+++ b/data/dna/dna_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/dna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2976A1-B592-6047-94D6-CC7A2E077A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7724F164-D563-D84F-AFE5-7CB279B88C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="820" windowWidth="24220" windowHeight="17560" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="278">
   <si>
     <t>sample_id</t>
   </si>
@@ -864,6 +864,12 @@
   </si>
   <si>
     <t>Box3</t>
+  </si>
+  <si>
+    <t>PR Rates</t>
+  </si>
+  <si>
+    <t>Isotopes</t>
   </si>
 </sst>
 </file>
@@ -1249,8 +1255,8 @@
   <dimension ref="A1:L250"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F227" sqref="F227"/>
+      <pane ySplit="1" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F242" sqref="F242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1316,6 +1322,9 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
+      <c r="F2" t="s">
+        <v>276</v>
+      </c>
       <c r="L2" t="s">
         <v>14</v>
       </c>
@@ -1333,6 +1342,9 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
+      <c r="F3" t="s">
+        <v>276</v>
+      </c>
       <c r="L3" t="s">
         <v>14</v>
       </c>
@@ -1350,6 +1362,9 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
+      <c r="F4" t="s">
+        <v>276</v>
+      </c>
       <c r="L4" t="s">
         <v>14</v>
       </c>
@@ -1367,6 +1382,9 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
+      <c r="F5" t="s">
+        <v>276</v>
+      </c>
       <c r="L5" t="s">
         <v>14</v>
       </c>
@@ -1384,6 +1402,9 @@
       <c r="D6" t="s">
         <v>10</v>
       </c>
+      <c r="F6" t="s">
+        <v>276</v>
+      </c>
       <c r="L6" t="s">
         <v>14</v>
       </c>
@@ -1401,6 +1422,9 @@
       <c r="D7" t="s">
         <v>10</v>
       </c>
+      <c r="F7" t="s">
+        <v>276</v>
+      </c>
       <c r="L7" t="s">
         <v>14</v>
       </c>
@@ -1418,6 +1442,9 @@
       <c r="D8" t="s">
         <v>10</v>
       </c>
+      <c r="F8" t="s">
+        <v>276</v>
+      </c>
       <c r="L8" t="s">
         <v>14</v>
       </c>
@@ -1435,6 +1462,9 @@
       <c r="D9" t="s">
         <v>10</v>
       </c>
+      <c r="F9" t="s">
+        <v>276</v>
+      </c>
       <c r="L9" t="s">
         <v>14</v>
       </c>
@@ -1452,6 +1482,9 @@
       <c r="D10" t="s">
         <v>10</v>
       </c>
+      <c r="F10" t="s">
+        <v>276</v>
+      </c>
       <c r="L10" t="s">
         <v>14</v>
       </c>
@@ -1469,6 +1502,9 @@
       <c r="D11" t="s">
         <v>10</v>
       </c>
+      <c r="F11" t="s">
+        <v>276</v>
+      </c>
       <c r="L11" t="s">
         <v>14</v>
       </c>
@@ -1486,6 +1522,9 @@
       <c r="D12" t="s">
         <v>10</v>
       </c>
+      <c r="F12" t="s">
+        <v>276</v>
+      </c>
       <c r="L12" t="s">
         <v>14</v>
       </c>
@@ -1503,6 +1542,9 @@
       <c r="D13" t="s">
         <v>10</v>
       </c>
+      <c r="F13" t="s">
+        <v>276</v>
+      </c>
       <c r="L13" t="s">
         <v>14</v>
       </c>
@@ -1520,6 +1562,9 @@
       <c r="D14" t="s">
         <v>11</v>
       </c>
+      <c r="F14" t="s">
+        <v>276</v>
+      </c>
       <c r="L14" t="s">
         <v>14</v>
       </c>
@@ -1537,6 +1582,9 @@
       <c r="D15" t="s">
         <v>11</v>
       </c>
+      <c r="F15" t="s">
+        <v>276</v>
+      </c>
       <c r="L15" t="s">
         <v>14</v>
       </c>
@@ -1554,6 +1602,9 @@
       <c r="D16" t="s">
         <v>11</v>
       </c>
+      <c r="F16" t="s">
+        <v>276</v>
+      </c>
       <c r="L16" t="s">
         <v>14</v>
       </c>
@@ -1571,6 +1622,9 @@
       <c r="D17" t="s">
         <v>11</v>
       </c>
+      <c r="F17" t="s">
+        <v>276</v>
+      </c>
       <c r="L17" t="s">
         <v>14</v>
       </c>
@@ -1588,6 +1642,9 @@
       <c r="D18" t="s">
         <v>11</v>
       </c>
+      <c r="F18" t="s">
+        <v>276</v>
+      </c>
       <c r="L18" t="s">
         <v>14</v>
       </c>
@@ -1605,6 +1662,9 @@
       <c r="D19" t="s">
         <v>11</v>
       </c>
+      <c r="F19" t="s">
+        <v>276</v>
+      </c>
       <c r="L19" t="s">
         <v>14</v>
       </c>
@@ -1622,6 +1682,9 @@
       <c r="D20" t="s">
         <v>11</v>
       </c>
+      <c r="F20" t="s">
+        <v>276</v>
+      </c>
       <c r="L20" t="s">
         <v>14</v>
       </c>
@@ -1639,6 +1702,9 @@
       <c r="D21" t="s">
         <v>11</v>
       </c>
+      <c r="F21" t="s">
+        <v>276</v>
+      </c>
       <c r="L21" t="s">
         <v>14</v>
       </c>
@@ -1656,6 +1722,9 @@
       <c r="D22" t="s">
         <v>11</v>
       </c>
+      <c r="F22" t="s">
+        <v>276</v>
+      </c>
       <c r="L22" t="s">
         <v>14</v>
       </c>
@@ -1673,6 +1742,9 @@
       <c r="D23" t="s">
         <v>11</v>
       </c>
+      <c r="F23" t="s">
+        <v>276</v>
+      </c>
       <c r="L23" t="s">
         <v>14</v>
       </c>
@@ -1690,6 +1762,9 @@
       <c r="D24" t="s">
         <v>11</v>
       </c>
+      <c r="F24" t="s">
+        <v>276</v>
+      </c>
       <c r="L24" t="s">
         <v>14</v>
       </c>
@@ -1707,6 +1782,9 @@
       <c r="D25" t="s">
         <v>11</v>
       </c>
+      <c r="F25" t="s">
+        <v>276</v>
+      </c>
       <c r="L25" t="s">
         <v>14</v>
       </c>
@@ -1724,6 +1802,9 @@
       <c r="D26" t="s">
         <v>11</v>
       </c>
+      <c r="F26" t="s">
+        <v>276</v>
+      </c>
       <c r="L26" t="s">
         <v>14</v>
       </c>
@@ -1741,6 +1822,9 @@
       <c r="D27" t="s">
         <v>11</v>
       </c>
+      <c r="F27" t="s">
+        <v>276</v>
+      </c>
       <c r="L27" t="s">
         <v>14</v>
       </c>
@@ -1758,6 +1842,9 @@
       <c r="D28" t="s">
         <v>11</v>
       </c>
+      <c r="F28" t="s">
+        <v>276</v>
+      </c>
       <c r="L28" t="s">
         <v>14</v>
       </c>
@@ -1775,6 +1862,9 @@
       <c r="D29" t="s">
         <v>11</v>
       </c>
+      <c r="F29" t="s">
+        <v>276</v>
+      </c>
       <c r="L29" t="s">
         <v>14</v>
       </c>
@@ -1792,6 +1882,9 @@
       <c r="D30" t="s">
         <v>11</v>
       </c>
+      <c r="F30" t="s">
+        <v>276</v>
+      </c>
       <c r="L30" t="s">
         <v>14</v>
       </c>
@@ -1809,6 +1902,9 @@
       <c r="D31" t="s">
         <v>11</v>
       </c>
+      <c r="F31" t="s">
+        <v>276</v>
+      </c>
       <c r="L31" t="s">
         <v>14</v>
       </c>
@@ -1826,6 +1922,9 @@
       <c r="D32" t="s">
         <v>11</v>
       </c>
+      <c r="F32" t="s">
+        <v>276</v>
+      </c>
       <c r="L32" t="s">
         <v>14</v>
       </c>
@@ -1843,6 +1942,9 @@
       <c r="D33" t="s">
         <v>11</v>
       </c>
+      <c r="F33" t="s">
+        <v>276</v>
+      </c>
       <c r="L33" t="s">
         <v>14</v>
       </c>
@@ -1860,6 +1962,9 @@
       <c r="D34" t="s">
         <v>10</v>
       </c>
+      <c r="F34" t="s">
+        <v>276</v>
+      </c>
       <c r="L34" t="s">
         <v>14</v>
       </c>
@@ -1877,6 +1982,9 @@
       <c r="D35" t="s">
         <v>10</v>
       </c>
+      <c r="F35" t="s">
+        <v>276</v>
+      </c>
       <c r="L35" t="s">
         <v>14</v>
       </c>
@@ -1894,6 +2002,9 @@
       <c r="D36" t="s">
         <v>10</v>
       </c>
+      <c r="F36" t="s">
+        <v>276</v>
+      </c>
       <c r="L36" t="s">
         <v>14</v>
       </c>
@@ -1911,6 +2022,9 @@
       <c r="D37" t="s">
         <v>10</v>
       </c>
+      <c r="F37" t="s">
+        <v>276</v>
+      </c>
       <c r="L37" t="s">
         <v>14</v>
       </c>
@@ -1928,6 +2042,9 @@
       <c r="D38" t="s">
         <v>10</v>
       </c>
+      <c r="F38" t="s">
+        <v>276</v>
+      </c>
       <c r="L38" t="s">
         <v>14</v>
       </c>
@@ -1945,6 +2062,9 @@
       <c r="D39" t="s">
         <v>10</v>
       </c>
+      <c r="F39" t="s">
+        <v>276</v>
+      </c>
       <c r="L39" t="s">
         <v>14</v>
       </c>
@@ -1962,6 +2082,9 @@
       <c r="D40" t="s">
         <v>10</v>
       </c>
+      <c r="F40" t="s">
+        <v>276</v>
+      </c>
       <c r="L40" t="s">
         <v>14</v>
       </c>
@@ -1979,6 +2102,9 @@
       <c r="D41" t="s">
         <v>10</v>
       </c>
+      <c r="F41" t="s">
+        <v>276</v>
+      </c>
       <c r="L41" t="s">
         <v>14</v>
       </c>
@@ -1996,6 +2122,9 @@
       <c r="D42" t="s">
         <v>10</v>
       </c>
+      <c r="F42" t="s">
+        <v>276</v>
+      </c>
       <c r="L42" t="s">
         <v>14</v>
       </c>
@@ -2013,6 +2142,9 @@
       <c r="D43" t="s">
         <v>10</v>
       </c>
+      <c r="F43" t="s">
+        <v>276</v>
+      </c>
       <c r="L43" t="s">
         <v>14</v>
       </c>
@@ -2030,6 +2162,9 @@
       <c r="D44" t="s">
         <v>10</v>
       </c>
+      <c r="F44" t="s">
+        <v>276</v>
+      </c>
       <c r="L44" t="s">
         <v>14</v>
       </c>
@@ -2047,6 +2182,9 @@
       <c r="D45" t="s">
         <v>10</v>
       </c>
+      <c r="F45" t="s">
+        <v>276</v>
+      </c>
       <c r="L45" t="s">
         <v>14</v>
       </c>
@@ -2064,6 +2202,9 @@
       <c r="D46" t="s">
         <v>11</v>
       </c>
+      <c r="F46" t="s">
+        <v>276</v>
+      </c>
       <c r="L46" t="s">
         <v>14</v>
       </c>
@@ -2081,6 +2222,9 @@
       <c r="D47" t="s">
         <v>11</v>
       </c>
+      <c r="F47" t="s">
+        <v>276</v>
+      </c>
       <c r="L47" t="s">
         <v>14</v>
       </c>
@@ -2098,6 +2242,9 @@
       <c r="D48" t="s">
         <v>11</v>
       </c>
+      <c r="F48" t="s">
+        <v>276</v>
+      </c>
       <c r="L48" t="s">
         <v>14</v>
       </c>
@@ -2115,6 +2262,9 @@
       <c r="D49" t="s">
         <v>11</v>
       </c>
+      <c r="F49" t="s">
+        <v>276</v>
+      </c>
       <c r="L49" t="s">
         <v>14</v>
       </c>
@@ -2132,6 +2282,9 @@
       <c r="D50" t="s">
         <v>11</v>
       </c>
+      <c r="F50" t="s">
+        <v>276</v>
+      </c>
       <c r="L50" t="s">
         <v>14</v>
       </c>
@@ -2149,6 +2302,9 @@
       <c r="D51" t="s">
         <v>11</v>
       </c>
+      <c r="F51" t="s">
+        <v>276</v>
+      </c>
       <c r="L51" t="s">
         <v>14</v>
       </c>
@@ -2166,6 +2322,9 @@
       <c r="D52" t="s">
         <v>11</v>
       </c>
+      <c r="F52" t="s">
+        <v>276</v>
+      </c>
       <c r="L52" t="s">
         <v>14</v>
       </c>
@@ -2183,6 +2342,9 @@
       <c r="D53" t="s">
         <v>11</v>
       </c>
+      <c r="F53" t="s">
+        <v>276</v>
+      </c>
       <c r="L53" t="s">
         <v>14</v>
       </c>
@@ -2200,6 +2362,9 @@
       <c r="D54" t="s">
         <v>11</v>
       </c>
+      <c r="F54" t="s">
+        <v>276</v>
+      </c>
       <c r="L54" t="s">
         <v>14</v>
       </c>
@@ -2217,6 +2382,9 @@
       <c r="D55" t="s">
         <v>11</v>
       </c>
+      <c r="F55" t="s">
+        <v>276</v>
+      </c>
       <c r="L55" t="s">
         <v>14</v>
       </c>
@@ -2234,6 +2402,9 @@
       <c r="D56" t="s">
         <v>11</v>
       </c>
+      <c r="F56" t="s">
+        <v>276</v>
+      </c>
       <c r="L56" t="s">
         <v>14</v>
       </c>
@@ -2251,6 +2422,9 @@
       <c r="D57" t="s">
         <v>11</v>
       </c>
+      <c r="F57" t="s">
+        <v>276</v>
+      </c>
       <c r="L57" t="s">
         <v>14</v>
       </c>
@@ -2268,6 +2442,9 @@
       <c r="D58" t="s">
         <v>11</v>
       </c>
+      <c r="F58" t="s">
+        <v>276</v>
+      </c>
       <c r="L58" t="s">
         <v>14</v>
       </c>
@@ -2285,6 +2462,9 @@
       <c r="D59" t="s">
         <v>11</v>
       </c>
+      <c r="F59" t="s">
+        <v>276</v>
+      </c>
       <c r="L59" t="s">
         <v>14</v>
       </c>
@@ -2302,6 +2482,9 @@
       <c r="D60" t="s">
         <v>11</v>
       </c>
+      <c r="F60" t="s">
+        <v>276</v>
+      </c>
       <c r="L60" t="s">
         <v>14</v>
       </c>
@@ -2319,6 +2502,9 @@
       <c r="D61" t="s">
         <v>11</v>
       </c>
+      <c r="F61" t="s">
+        <v>276</v>
+      </c>
       <c r="L61" t="s">
         <v>14</v>
       </c>
@@ -2336,6 +2522,9 @@
       <c r="D62" t="s">
         <v>11</v>
       </c>
+      <c r="F62" t="s">
+        <v>276</v>
+      </c>
       <c r="L62" t="s">
         <v>14</v>
       </c>
@@ -2353,6 +2542,9 @@
       <c r="D63" t="s">
         <v>11</v>
       </c>
+      <c r="F63" t="s">
+        <v>276</v>
+      </c>
       <c r="L63" t="s">
         <v>14</v>
       </c>
@@ -2370,6 +2562,9 @@
       <c r="D64" t="s">
         <v>11</v>
       </c>
+      <c r="F64" t="s">
+        <v>276</v>
+      </c>
       <c r="L64" t="s">
         <v>14</v>
       </c>
@@ -2387,6 +2582,9 @@
       <c r="D65" t="s">
         <v>11</v>
       </c>
+      <c r="F65" t="s">
+        <v>276</v>
+      </c>
       <c r="L65" t="s">
         <v>14</v>
       </c>
@@ -2404,6 +2602,9 @@
       <c r="D66" t="s">
         <v>10</v>
       </c>
+      <c r="F66" t="s">
+        <v>276</v>
+      </c>
       <c r="L66" t="s">
         <v>14</v>
       </c>
@@ -2421,6 +2622,9 @@
       <c r="D67" t="s">
         <v>10</v>
       </c>
+      <c r="F67" t="s">
+        <v>276</v>
+      </c>
       <c r="L67" t="s">
         <v>14</v>
       </c>
@@ -2438,6 +2642,9 @@
       <c r="D68" t="s">
         <v>10</v>
       </c>
+      <c r="F68" t="s">
+        <v>276</v>
+      </c>
       <c r="L68" t="s">
         <v>14</v>
       </c>
@@ -2455,6 +2662,9 @@
       <c r="D69" t="s">
         <v>10</v>
       </c>
+      <c r="F69" t="s">
+        <v>276</v>
+      </c>
       <c r="L69" t="s">
         <v>14</v>
       </c>
@@ -2472,6 +2682,9 @@
       <c r="D70" t="s">
         <v>10</v>
       </c>
+      <c r="F70" t="s">
+        <v>276</v>
+      </c>
       <c r="L70" t="s">
         <v>14</v>
       </c>
@@ -2489,6 +2702,9 @@
       <c r="D71" t="s">
         <v>10</v>
       </c>
+      <c r="F71" t="s">
+        <v>276</v>
+      </c>
       <c r="L71" t="s">
         <v>14</v>
       </c>
@@ -2506,6 +2722,9 @@
       <c r="D72" t="s">
         <v>10</v>
       </c>
+      <c r="F72" t="s">
+        <v>276</v>
+      </c>
       <c r="L72" t="s">
         <v>14</v>
       </c>
@@ -2523,6 +2742,9 @@
       <c r="D73" t="s">
         <v>10</v>
       </c>
+      <c r="F73" t="s">
+        <v>276</v>
+      </c>
       <c r="L73" t="s">
         <v>14</v>
       </c>
@@ -2540,6 +2762,9 @@
       <c r="D74" t="s">
         <v>10</v>
       </c>
+      <c r="F74" t="s">
+        <v>276</v>
+      </c>
       <c r="L74" t="s">
         <v>14</v>
       </c>
@@ -2557,6 +2782,9 @@
       <c r="D75" t="s">
         <v>10</v>
       </c>
+      <c r="F75" t="s">
+        <v>276</v>
+      </c>
       <c r="L75" t="s">
         <v>14</v>
       </c>
@@ -2574,6 +2802,9 @@
       <c r="D76" t="s">
         <v>10</v>
       </c>
+      <c r="F76" t="s">
+        <v>276</v>
+      </c>
       <c r="L76" t="s">
         <v>14</v>
       </c>
@@ -2591,6 +2822,9 @@
       <c r="D77" t="s">
         <v>10</v>
       </c>
+      <c r="F77" t="s">
+        <v>276</v>
+      </c>
       <c r="L77" t="s">
         <v>14</v>
       </c>
@@ -2608,6 +2842,9 @@
       <c r="D78" t="s">
         <v>11</v>
       </c>
+      <c r="F78" t="s">
+        <v>276</v>
+      </c>
       <c r="L78" t="s">
         <v>14</v>
       </c>
@@ -2625,6 +2862,9 @@
       <c r="D79" t="s">
         <v>11</v>
       </c>
+      <c r="F79" t="s">
+        <v>276</v>
+      </c>
       <c r="L79" t="s">
         <v>14</v>
       </c>
@@ -2642,6 +2882,9 @@
       <c r="D80" t="s">
         <v>11</v>
       </c>
+      <c r="F80" t="s">
+        <v>276</v>
+      </c>
       <c r="L80" t="s">
         <v>14</v>
       </c>
@@ -2659,6 +2902,9 @@
       <c r="D81" t="s">
         <v>11</v>
       </c>
+      <c r="F81" t="s">
+        <v>276</v>
+      </c>
       <c r="L81" t="s">
         <v>14</v>
       </c>
@@ -2676,6 +2922,9 @@
       <c r="D82" t="s">
         <v>11</v>
       </c>
+      <c r="F82" t="s">
+        <v>276</v>
+      </c>
       <c r="L82" t="s">
         <v>14</v>
       </c>
@@ -2693,6 +2942,9 @@
       <c r="D83" t="s">
         <v>11</v>
       </c>
+      <c r="F83" t="s">
+        <v>276</v>
+      </c>
       <c r="L83" t="s">
         <v>14</v>
       </c>
@@ -2710,6 +2962,9 @@
       <c r="D84" t="s">
         <v>11</v>
       </c>
+      <c r="F84" t="s">
+        <v>276</v>
+      </c>
       <c r="L84" t="s">
         <v>14</v>
       </c>
@@ -2727,6 +2982,9 @@
       <c r="D85" t="s">
         <v>11</v>
       </c>
+      <c r="F85" t="s">
+        <v>276</v>
+      </c>
       <c r="L85" t="s">
         <v>14</v>
       </c>
@@ -2744,6 +3002,9 @@
       <c r="D86" t="s">
         <v>11</v>
       </c>
+      <c r="F86" t="s">
+        <v>276</v>
+      </c>
       <c r="L86" t="s">
         <v>14</v>
       </c>
@@ -2761,6 +3022,9 @@
       <c r="D87" t="s">
         <v>11</v>
       </c>
+      <c r="F87" t="s">
+        <v>276</v>
+      </c>
       <c r="L87" t="s">
         <v>14</v>
       </c>
@@ -2778,6 +3042,9 @@
       <c r="D88" t="s">
         <v>11</v>
       </c>
+      <c r="F88" t="s">
+        <v>276</v>
+      </c>
       <c r="L88" t="s">
         <v>14</v>
       </c>
@@ -2795,6 +3062,9 @@
       <c r="D89" t="s">
         <v>11</v>
       </c>
+      <c r="F89" t="s">
+        <v>276</v>
+      </c>
       <c r="L89" t="s">
         <v>14</v>
       </c>
@@ -2812,6 +3082,9 @@
       <c r="D90" t="s">
         <v>11</v>
       </c>
+      <c r="F90" t="s">
+        <v>276</v>
+      </c>
       <c r="L90" t="s">
         <v>14</v>
       </c>
@@ -2829,6 +3102,9 @@
       <c r="D91" t="s">
         <v>11</v>
       </c>
+      <c r="F91" t="s">
+        <v>276</v>
+      </c>
       <c r="L91" t="s">
         <v>14</v>
       </c>
@@ -2846,6 +3122,9 @@
       <c r="D92" t="s">
         <v>11</v>
       </c>
+      <c r="F92" t="s">
+        <v>276</v>
+      </c>
       <c r="L92" t="s">
         <v>14</v>
       </c>
@@ -2863,6 +3142,9 @@
       <c r="D93" t="s">
         <v>11</v>
       </c>
+      <c r="F93" t="s">
+        <v>276</v>
+      </c>
       <c r="L93" t="s">
         <v>14</v>
       </c>
@@ -2880,6 +3162,9 @@
       <c r="D94" t="s">
         <v>11</v>
       </c>
+      <c r="F94" t="s">
+        <v>276</v>
+      </c>
       <c r="L94" t="s">
         <v>273</v>
       </c>
@@ -2897,6 +3182,9 @@
       <c r="D95" t="s">
         <v>11</v>
       </c>
+      <c r="F95" t="s">
+        <v>276</v>
+      </c>
       <c r="L95" t="s">
         <v>14</v>
       </c>
@@ -2914,6 +3202,9 @@
       <c r="D96" t="s">
         <v>11</v>
       </c>
+      <c r="F96" t="s">
+        <v>276</v>
+      </c>
       <c r="L96" t="s">
         <v>14</v>
       </c>
@@ -2931,6 +3222,9 @@
       <c r="D97" t="s">
         <v>11</v>
       </c>
+      <c r="F97" t="s">
+        <v>276</v>
+      </c>
       <c r="L97" t="s">
         <v>14</v>
       </c>
@@ -4526,8 +4820,17 @@
       <c r="E143">
         <v>2031111</v>
       </c>
+      <c r="F143" t="s">
+        <v>277</v>
+      </c>
       <c r="H143" t="s">
         <v>274</v>
+      </c>
+      <c r="I143" t="s">
+        <v>22</v>
+      </c>
+      <c r="K143" t="s">
+        <v>23</v>
       </c>
       <c r="L143" t="s">
         <v>272</v>
@@ -4549,8 +4852,17 @@
       <c r="E144">
         <v>2031111</v>
       </c>
+      <c r="F144" t="s">
+        <v>277</v>
+      </c>
       <c r="H144" t="s">
         <v>274</v>
+      </c>
+      <c r="I144" t="s">
+        <v>22</v>
+      </c>
+      <c r="K144" t="s">
+        <v>23</v>
       </c>
       <c r="L144" t="s">
         <v>272</v>
@@ -4572,8 +4884,17 @@
       <c r="E145">
         <v>2031111</v>
       </c>
+      <c r="F145" t="s">
+        <v>277</v>
+      </c>
       <c r="H145" t="s">
         <v>274</v>
+      </c>
+      <c r="I145" t="s">
+        <v>22</v>
+      </c>
+      <c r="K145" t="s">
+        <v>23</v>
       </c>
       <c r="L145" t="s">
         <v>272</v>
@@ -4595,8 +4916,17 @@
       <c r="E146">
         <v>2031111</v>
       </c>
+      <c r="F146" t="s">
+        <v>277</v>
+      </c>
       <c r="H146" t="s">
         <v>274</v>
+      </c>
+      <c r="I146" t="s">
+        <v>22</v>
+      </c>
+      <c r="K146" t="s">
+        <v>23</v>
       </c>
       <c r="L146" t="s">
         <v>272</v>
@@ -4618,8 +4948,17 @@
       <c r="E147">
         <v>2031111</v>
       </c>
+      <c r="F147" t="s">
+        <v>277</v>
+      </c>
       <c r="H147" t="s">
         <v>274</v>
+      </c>
+      <c r="I147" t="s">
+        <v>22</v>
+      </c>
+      <c r="K147" t="s">
+        <v>23</v>
       </c>
       <c r="L147" t="s">
         <v>272</v>
@@ -4641,8 +4980,17 @@
       <c r="E148">
         <v>2031111</v>
       </c>
+      <c r="F148" t="s">
+        <v>277</v>
+      </c>
       <c r="H148" t="s">
         <v>274</v>
+      </c>
+      <c r="I148" t="s">
+        <v>22</v>
+      </c>
+      <c r="K148" t="s">
+        <v>23</v>
       </c>
       <c r="L148" t="s">
         <v>272</v>
@@ -4664,8 +5012,17 @@
       <c r="E149">
         <v>2031111</v>
       </c>
+      <c r="F149" t="s">
+        <v>277</v>
+      </c>
       <c r="H149" t="s">
         <v>275</v>
+      </c>
+      <c r="I149" t="s">
+        <v>22</v>
+      </c>
+      <c r="K149" t="s">
+        <v>23</v>
       </c>
       <c r="L149" t="s">
         <v>272</v>
@@ -4687,8 +5044,17 @@
       <c r="E150">
         <v>2031111</v>
       </c>
+      <c r="F150" t="s">
+        <v>277</v>
+      </c>
       <c r="H150" t="s">
         <v>274</v>
+      </c>
+      <c r="I150" t="s">
+        <v>22</v>
+      </c>
+      <c r="K150" t="s">
+        <v>23</v>
       </c>
       <c r="L150" t="s">
         <v>272</v>
@@ -4710,8 +5076,17 @@
       <c r="E151">
         <v>2031111</v>
       </c>
+      <c r="F151" t="s">
+        <v>277</v>
+      </c>
       <c r="H151" t="s">
         <v>275</v>
+      </c>
+      <c r="I151" t="s">
+        <v>22</v>
+      </c>
+      <c r="K151" t="s">
+        <v>23</v>
       </c>
       <c r="L151" t="s">
         <v>272</v>
@@ -4733,8 +5108,17 @@
       <c r="E152">
         <v>2031111</v>
       </c>
+      <c r="F152" t="s">
+        <v>277</v>
+      </c>
       <c r="H152" t="s">
         <v>274</v>
+      </c>
+      <c r="I152" t="s">
+        <v>22</v>
+      </c>
+      <c r="K152" t="s">
+        <v>23</v>
       </c>
       <c r="L152" t="s">
         <v>272</v>
@@ -4756,8 +5140,17 @@
       <c r="E153">
         <v>2031111</v>
       </c>
+      <c r="F153" t="s">
+        <v>277</v>
+      </c>
       <c r="H153" t="s">
         <v>274</v>
+      </c>
+      <c r="I153" t="s">
+        <v>22</v>
+      </c>
+      <c r="K153" t="s">
+        <v>23</v>
       </c>
       <c r="L153" t="s">
         <v>272</v>
@@ -4779,8 +5172,17 @@
       <c r="E154">
         <v>2031111</v>
       </c>
+      <c r="F154" t="s">
+        <v>277</v>
+      </c>
       <c r="H154" t="s">
         <v>274</v>
+      </c>
+      <c r="I154" t="s">
+        <v>22</v>
+      </c>
+      <c r="K154" t="s">
+        <v>23</v>
       </c>
       <c r="L154" t="s">
         <v>272</v>
@@ -4802,8 +5204,17 @@
       <c r="E155">
         <v>2031111</v>
       </c>
+      <c r="F155" t="s">
+        <v>277</v>
+      </c>
       <c r="H155" t="s">
         <v>274</v>
+      </c>
+      <c r="I155" t="s">
+        <v>22</v>
+      </c>
+      <c r="K155" t="s">
+        <v>23</v>
       </c>
       <c r="L155" t="s">
         <v>272</v>
@@ -4825,8 +5236,17 @@
       <c r="E156">
         <v>2031111</v>
       </c>
+      <c r="F156" t="s">
+        <v>277</v>
+      </c>
       <c r="H156" t="s">
         <v>274</v>
+      </c>
+      <c r="I156" t="s">
+        <v>22</v>
+      </c>
+      <c r="K156" t="s">
+        <v>23</v>
       </c>
       <c r="L156" t="s">
         <v>272</v>
@@ -4848,8 +5268,17 @@
       <c r="E157">
         <v>2031111</v>
       </c>
+      <c r="F157" t="s">
+        <v>277</v>
+      </c>
       <c r="H157" t="s">
         <v>274</v>
+      </c>
+      <c r="I157" t="s">
+        <v>22</v>
+      </c>
+      <c r="K157" t="s">
+        <v>23</v>
       </c>
       <c r="L157" t="s">
         <v>272</v>
@@ -4871,8 +5300,17 @@
       <c r="E158">
         <v>2031111</v>
       </c>
+      <c r="F158" t="s">
+        <v>277</v>
+      </c>
       <c r="H158" t="s">
         <v>274</v>
+      </c>
+      <c r="I158" t="s">
+        <v>22</v>
+      </c>
+      <c r="K158" t="s">
+        <v>23</v>
       </c>
       <c r="L158" t="s">
         <v>272</v>
@@ -4894,8 +5332,17 @@
       <c r="E159">
         <v>2031111</v>
       </c>
+      <c r="F159" t="s">
+        <v>277</v>
+      </c>
       <c r="H159" t="s">
         <v>274</v>
+      </c>
+      <c r="I159" t="s">
+        <v>22</v>
+      </c>
+      <c r="K159" t="s">
+        <v>23</v>
       </c>
       <c r="L159" t="s">
         <v>272</v>
@@ -4917,8 +5364,17 @@
       <c r="E160">
         <v>2031111</v>
       </c>
+      <c r="F160" t="s">
+        <v>277</v>
+      </c>
       <c r="H160" t="s">
         <v>274</v>
+      </c>
+      <c r="I160" t="s">
+        <v>22</v>
+      </c>
+      <c r="K160" t="s">
+        <v>23</v>
       </c>
       <c r="L160" t="s">
         <v>272</v>
@@ -4940,8 +5396,17 @@
       <c r="E161">
         <v>2031111</v>
       </c>
+      <c r="F161" t="s">
+        <v>277</v>
+      </c>
       <c r="H161" t="s">
         <v>274</v>
+      </c>
+      <c r="I161" t="s">
+        <v>22</v>
+      </c>
+      <c r="K161" t="s">
+        <v>23</v>
       </c>
       <c r="L161" t="s">
         <v>272</v>
@@ -4963,8 +5428,17 @@
       <c r="E162">
         <v>2031111</v>
       </c>
+      <c r="F162" t="s">
+        <v>277</v>
+      </c>
       <c r="H162" t="s">
         <v>274</v>
+      </c>
+      <c r="I162" t="s">
+        <v>22</v>
+      </c>
+      <c r="K162" t="s">
+        <v>23</v>
       </c>
       <c r="L162" t="s">
         <v>272</v>
@@ -4986,8 +5460,17 @@
       <c r="E163">
         <v>2031111</v>
       </c>
+      <c r="F163" t="s">
+        <v>277</v>
+      </c>
       <c r="H163" t="s">
         <v>274</v>
+      </c>
+      <c r="I163" t="s">
+        <v>22</v>
+      </c>
+      <c r="K163" t="s">
+        <v>23</v>
       </c>
       <c r="L163" t="s">
         <v>272</v>
@@ -5009,8 +5492,17 @@
       <c r="E164">
         <v>2031111</v>
       </c>
+      <c r="F164" t="s">
+        <v>277</v>
+      </c>
       <c r="H164" t="s">
         <v>274</v>
+      </c>
+      <c r="I164" t="s">
+        <v>22</v>
+      </c>
+      <c r="K164" t="s">
+        <v>23</v>
       </c>
       <c r="L164" t="s">
         <v>272</v>
@@ -5032,8 +5524,17 @@
       <c r="E165">
         <v>2031111</v>
       </c>
+      <c r="F165" t="s">
+        <v>277</v>
+      </c>
       <c r="H165" t="s">
         <v>274</v>
+      </c>
+      <c r="I165" t="s">
+        <v>22</v>
+      </c>
+      <c r="K165" t="s">
+        <v>23</v>
       </c>
       <c r="L165" t="s">
         <v>272</v>
@@ -5055,8 +5556,17 @@
       <c r="E166">
         <v>2031111</v>
       </c>
+      <c r="F166" t="s">
+        <v>277</v>
+      </c>
       <c r="H166" t="s">
         <v>275</v>
+      </c>
+      <c r="I166" t="s">
+        <v>22</v>
+      </c>
+      <c r="K166" t="s">
+        <v>23</v>
       </c>
       <c r="L166" t="s">
         <v>272</v>
@@ -5078,8 +5588,17 @@
       <c r="E167">
         <v>2031111</v>
       </c>
+      <c r="F167" t="s">
+        <v>277</v>
+      </c>
       <c r="H167" t="s">
         <v>274</v>
+      </c>
+      <c r="I167" t="s">
+        <v>22</v>
+      </c>
+      <c r="K167" t="s">
+        <v>23</v>
       </c>
       <c r="L167" t="s">
         <v>272</v>
@@ -5101,8 +5620,17 @@
       <c r="E168">
         <v>2031111</v>
       </c>
+      <c r="F168" t="s">
+        <v>277</v>
+      </c>
       <c r="H168" t="s">
         <v>275</v>
+      </c>
+      <c r="I168" t="s">
+        <v>22</v>
+      </c>
+      <c r="K168" t="s">
+        <v>23</v>
       </c>
       <c r="L168" t="s">
         <v>272</v>
@@ -5124,8 +5652,17 @@
       <c r="E169">
         <v>2031111</v>
       </c>
+      <c r="F169" t="s">
+        <v>277</v>
+      </c>
       <c r="H169" t="s">
         <v>274</v>
+      </c>
+      <c r="I169" t="s">
+        <v>22</v>
+      </c>
+      <c r="K169" t="s">
+        <v>23</v>
       </c>
       <c r="L169" t="s">
         <v>272</v>
@@ -5147,8 +5684,17 @@
       <c r="E170">
         <v>2031111</v>
       </c>
+      <c r="F170" t="s">
+        <v>277</v>
+      </c>
       <c r="H170" t="s">
         <v>275</v>
+      </c>
+      <c r="I170" t="s">
+        <v>22</v>
+      </c>
+      <c r="K170" t="s">
+        <v>23</v>
       </c>
       <c r="L170" t="s">
         <v>272</v>
@@ -5170,8 +5716,17 @@
       <c r="E171">
         <v>2031111</v>
       </c>
+      <c r="F171" t="s">
+        <v>277</v>
+      </c>
       <c r="H171" t="s">
         <v>275</v>
+      </c>
+      <c r="I171" t="s">
+        <v>22</v>
+      </c>
+      <c r="K171" t="s">
+        <v>23</v>
       </c>
       <c r="L171" t="s">
         <v>272</v>
@@ -5193,8 +5748,17 @@
       <c r="E172">
         <v>2031111</v>
       </c>
+      <c r="F172" t="s">
+        <v>277</v>
+      </c>
       <c r="H172" t="s">
         <v>275</v>
+      </c>
+      <c r="I172" t="s">
+        <v>22</v>
+      </c>
+      <c r="K172" t="s">
+        <v>23</v>
       </c>
       <c r="L172" t="s">
         <v>272</v>
@@ -5216,8 +5780,17 @@
       <c r="E173">
         <v>2031111</v>
       </c>
+      <c r="F173" t="s">
+        <v>277</v>
+      </c>
       <c r="H173" t="s">
         <v>274</v>
+      </c>
+      <c r="I173" t="s">
+        <v>22</v>
+      </c>
+      <c r="K173" t="s">
+        <v>23</v>
       </c>
       <c r="L173" t="s">
         <v>272</v>
@@ -5239,8 +5812,17 @@
       <c r="E174">
         <v>2031111</v>
       </c>
+      <c r="F174" t="s">
+        <v>277</v>
+      </c>
       <c r="H174" t="s">
         <v>275</v>
+      </c>
+      <c r="I174" t="s">
+        <v>22</v>
+      </c>
+      <c r="K174" t="s">
+        <v>23</v>
       </c>
       <c r="L174" t="s">
         <v>272</v>
@@ -5262,8 +5844,17 @@
       <c r="E175">
         <v>2031111</v>
       </c>
+      <c r="F175" t="s">
+        <v>277</v>
+      </c>
       <c r="H175" t="s">
         <v>275</v>
+      </c>
+      <c r="I175" t="s">
+        <v>22</v>
+      </c>
+      <c r="K175" t="s">
+        <v>23</v>
       </c>
       <c r="L175" t="s">
         <v>272</v>
@@ -5285,8 +5876,17 @@
       <c r="E176">
         <v>2031111</v>
       </c>
+      <c r="F176" t="s">
+        <v>277</v>
+      </c>
       <c r="H176" t="s">
         <v>274</v>
+      </c>
+      <c r="I176" t="s">
+        <v>22</v>
+      </c>
+      <c r="K176" t="s">
+        <v>23</v>
       </c>
       <c r="L176" t="s">
         <v>272</v>
@@ -5308,8 +5908,17 @@
       <c r="E177">
         <v>2031111</v>
       </c>
+      <c r="F177" t="s">
+        <v>277</v>
+      </c>
       <c r="H177" t="s">
         <v>275</v>
+      </c>
+      <c r="I177" t="s">
+        <v>22</v>
+      </c>
+      <c r="K177" t="s">
+        <v>23</v>
       </c>
       <c r="L177" t="s">
         <v>272</v>
@@ -5331,8 +5940,17 @@
       <c r="E178">
         <v>2031111</v>
       </c>
+      <c r="F178" t="s">
+        <v>277</v>
+      </c>
       <c r="H178" t="s">
         <v>274</v>
+      </c>
+      <c r="I178" t="s">
+        <v>22</v>
+      </c>
+      <c r="K178" t="s">
+        <v>23</v>
       </c>
       <c r="L178" t="s">
         <v>272</v>
@@ -5354,8 +5972,17 @@
       <c r="E179">
         <v>2031111</v>
       </c>
+      <c r="F179" t="s">
+        <v>277</v>
+      </c>
       <c r="H179" t="s">
         <v>274</v>
+      </c>
+      <c r="I179" t="s">
+        <v>22</v>
+      </c>
+      <c r="K179" t="s">
+        <v>23</v>
       </c>
       <c r="L179" t="s">
         <v>272</v>
@@ -5377,8 +6004,17 @@
       <c r="E180">
         <v>2031111</v>
       </c>
+      <c r="F180" t="s">
+        <v>277</v>
+      </c>
       <c r="H180" t="s">
         <v>274</v>
+      </c>
+      <c r="I180" t="s">
+        <v>22</v>
+      </c>
+      <c r="K180" t="s">
+        <v>23</v>
       </c>
       <c r="L180" t="s">
         <v>272</v>
@@ -5400,8 +6036,17 @@
       <c r="E181">
         <v>2031111</v>
       </c>
+      <c r="F181" t="s">
+        <v>277</v>
+      </c>
       <c r="H181" t="s">
         <v>274</v>
+      </c>
+      <c r="I181" t="s">
+        <v>22</v>
+      </c>
+      <c r="K181" t="s">
+        <v>23</v>
       </c>
       <c r="L181" t="s">
         <v>272</v>
@@ -5423,8 +6068,17 @@
       <c r="E182">
         <v>2031111</v>
       </c>
+      <c r="F182" t="s">
+        <v>277</v>
+      </c>
       <c r="H182" t="s">
         <v>274</v>
+      </c>
+      <c r="I182" t="s">
+        <v>22</v>
+      </c>
+      <c r="K182" t="s">
+        <v>23</v>
       </c>
       <c r="L182" t="s">
         <v>272</v>
@@ -5446,8 +6100,17 @@
       <c r="E183">
         <v>2031111</v>
       </c>
+      <c r="F183" t="s">
+        <v>277</v>
+      </c>
       <c r="H183" t="s">
         <v>274</v>
+      </c>
+      <c r="I183" t="s">
+        <v>22</v>
+      </c>
+      <c r="K183" t="s">
+        <v>23</v>
       </c>
       <c r="L183" t="s">
         <v>272</v>
@@ -5469,8 +6132,17 @@
       <c r="E184">
         <v>2031111</v>
       </c>
+      <c r="F184" t="s">
+        <v>277</v>
+      </c>
       <c r="H184" t="s">
         <v>274</v>
+      </c>
+      <c r="I184" t="s">
+        <v>22</v>
+      </c>
+      <c r="K184" t="s">
+        <v>23</v>
       </c>
       <c r="L184" t="s">
         <v>272</v>
@@ -5492,8 +6164,17 @@
       <c r="E185">
         <v>2031111</v>
       </c>
+      <c r="F185" t="s">
+        <v>277</v>
+      </c>
       <c r="H185" t="s">
         <v>274</v>
+      </c>
+      <c r="I185" t="s">
+        <v>22</v>
+      </c>
+      <c r="K185" t="s">
+        <v>23</v>
       </c>
       <c r="L185" t="s">
         <v>272</v>
@@ -5515,8 +6196,17 @@
       <c r="E186">
         <v>2031111</v>
       </c>
+      <c r="F186" t="s">
+        <v>277</v>
+      </c>
       <c r="H186" t="s">
         <v>274</v>
+      </c>
+      <c r="I186" t="s">
+        <v>22</v>
+      </c>
+      <c r="K186" t="s">
+        <v>23</v>
       </c>
       <c r="L186" t="s">
         <v>272</v>
@@ -5538,8 +6228,17 @@
       <c r="E187">
         <v>2031111</v>
       </c>
+      <c r="F187" t="s">
+        <v>277</v>
+      </c>
       <c r="H187" t="s">
         <v>274</v>
+      </c>
+      <c r="I187" t="s">
+        <v>22</v>
+      </c>
+      <c r="K187" t="s">
+        <v>23</v>
       </c>
       <c r="L187" t="s">
         <v>272</v>
@@ -5561,8 +6260,17 @@
       <c r="E188">
         <v>2031111</v>
       </c>
+      <c r="F188" t="s">
+        <v>277</v>
+      </c>
       <c r="H188" t="s">
         <v>274</v>
+      </c>
+      <c r="I188" t="s">
+        <v>22</v>
+      </c>
+      <c r="K188" t="s">
+        <v>23</v>
       </c>
       <c r="L188" t="s">
         <v>272</v>
@@ -5584,8 +6292,17 @@
       <c r="E189">
         <v>2031111</v>
       </c>
+      <c r="F189" t="s">
+        <v>277</v>
+      </c>
       <c r="H189" t="s">
         <v>274</v>
+      </c>
+      <c r="I189" t="s">
+        <v>22</v>
+      </c>
+      <c r="K189" t="s">
+        <v>23</v>
       </c>
       <c r="L189" t="s">
         <v>272</v>
@@ -5607,8 +6324,17 @@
       <c r="E190">
         <v>2031111</v>
       </c>
+      <c r="F190" t="s">
+        <v>277</v>
+      </c>
       <c r="H190" t="s">
         <v>274</v>
+      </c>
+      <c r="I190" t="s">
+        <v>22</v>
+      </c>
+      <c r="K190" t="s">
+        <v>23</v>
       </c>
       <c r="L190" t="s">
         <v>272</v>
@@ -5630,8 +6356,17 @@
       <c r="E191">
         <v>2031111</v>
       </c>
+      <c r="F191" t="s">
+        <v>277</v>
+      </c>
       <c r="H191" t="s">
         <v>274</v>
+      </c>
+      <c r="I191" t="s">
+        <v>22</v>
+      </c>
+      <c r="K191" t="s">
+        <v>23</v>
       </c>
       <c r="L191" t="s">
         <v>272</v>
@@ -5653,8 +6388,17 @@
       <c r="E192">
         <v>2031111</v>
       </c>
+      <c r="F192" t="s">
+        <v>277</v>
+      </c>
       <c r="H192" t="s">
         <v>274</v>
+      </c>
+      <c r="I192" t="s">
+        <v>22</v>
+      </c>
+      <c r="K192" t="s">
+        <v>23</v>
       </c>
       <c r="L192" t="s">
         <v>272</v>
@@ -5676,8 +6420,17 @@
       <c r="E193">
         <v>2031111</v>
       </c>
+      <c r="F193" t="s">
+        <v>277</v>
+      </c>
       <c r="H193" t="s">
         <v>274</v>
+      </c>
+      <c r="I193" t="s">
+        <v>22</v>
+      </c>
+      <c r="K193" t="s">
+        <v>23</v>
       </c>
       <c r="L193" t="s">
         <v>272</v>
@@ -5699,8 +6452,17 @@
       <c r="E194">
         <v>2031111</v>
       </c>
+      <c r="F194" t="s">
+        <v>277</v>
+      </c>
       <c r="H194" t="s">
         <v>274</v>
+      </c>
+      <c r="I194" t="s">
+        <v>22</v>
+      </c>
+      <c r="K194" t="s">
+        <v>23</v>
       </c>
       <c r="L194" t="s">
         <v>272</v>
@@ -5722,8 +6484,17 @@
       <c r="E195">
         <v>2031111</v>
       </c>
+      <c r="F195" t="s">
+        <v>277</v>
+      </c>
       <c r="H195" t="s">
         <v>274</v>
+      </c>
+      <c r="I195" t="s">
+        <v>22</v>
+      </c>
+      <c r="K195" t="s">
+        <v>23</v>
       </c>
       <c r="L195" t="s">
         <v>272</v>
@@ -5745,8 +6516,17 @@
       <c r="E196">
         <v>2031111</v>
       </c>
+      <c r="F196" t="s">
+        <v>277</v>
+      </c>
       <c r="H196" t="s">
         <v>274</v>
+      </c>
+      <c r="I196" t="s">
+        <v>22</v>
+      </c>
+      <c r="K196" t="s">
+        <v>23</v>
       </c>
       <c r="L196" t="s">
         <v>272</v>
@@ -5768,8 +6548,17 @@
       <c r="E197">
         <v>2031111</v>
       </c>
+      <c r="F197" t="s">
+        <v>277</v>
+      </c>
       <c r="H197" t="s">
         <v>274</v>
+      </c>
+      <c r="I197" t="s">
+        <v>22</v>
+      </c>
+      <c r="K197" t="s">
+        <v>23</v>
       </c>
       <c r="L197" t="s">
         <v>272</v>
@@ -5791,8 +6580,17 @@
       <c r="E198">
         <v>2031111</v>
       </c>
+      <c r="F198" t="s">
+        <v>277</v>
+      </c>
       <c r="H198" t="s">
         <v>274</v>
+      </c>
+      <c r="I198" t="s">
+        <v>22</v>
+      </c>
+      <c r="K198" t="s">
+        <v>23</v>
       </c>
       <c r="L198" t="s">
         <v>272</v>
@@ -5814,8 +6612,17 @@
       <c r="E199">
         <v>2023111</v>
       </c>
+      <c r="F199" t="s">
+        <v>277</v>
+      </c>
       <c r="H199" t="s">
         <v>274</v>
+      </c>
+      <c r="I199" t="s">
+        <v>22</v>
+      </c>
+      <c r="K199" t="s">
+        <v>23</v>
       </c>
       <c r="L199" t="s">
         <v>272</v>
@@ -5837,8 +6644,17 @@
       <c r="E200">
         <v>2023111</v>
       </c>
+      <c r="F200" t="s">
+        <v>277</v>
+      </c>
       <c r="H200" t="s">
         <v>274</v>
+      </c>
+      <c r="I200" t="s">
+        <v>22</v>
+      </c>
+      <c r="K200" t="s">
+        <v>23</v>
       </c>
       <c r="L200" t="s">
         <v>272</v>
@@ -5860,8 +6676,17 @@
       <c r="E201">
         <v>2031111</v>
       </c>
+      <c r="F201" t="s">
+        <v>277</v>
+      </c>
       <c r="H201" t="s">
         <v>274</v>
+      </c>
+      <c r="I201" t="s">
+        <v>22</v>
+      </c>
+      <c r="K201" t="s">
+        <v>23</v>
       </c>
       <c r="L201" t="s">
         <v>272</v>
@@ -5883,8 +6708,17 @@
       <c r="E202">
         <v>2031111</v>
       </c>
+      <c r="F202" t="s">
+        <v>277</v>
+      </c>
       <c r="H202" t="s">
         <v>274</v>
+      </c>
+      <c r="I202" t="s">
+        <v>22</v>
+      </c>
+      <c r="K202" t="s">
+        <v>23</v>
       </c>
       <c r="L202" t="s">
         <v>272</v>
@@ -5906,8 +6740,17 @@
       <c r="E203">
         <v>2031111</v>
       </c>
+      <c r="F203" t="s">
+        <v>277</v>
+      </c>
       <c r="H203" t="s">
         <v>274</v>
+      </c>
+      <c r="I203" t="s">
+        <v>22</v>
+      </c>
+      <c r="K203" t="s">
+        <v>23</v>
       </c>
       <c r="L203" t="s">
         <v>272</v>
@@ -5929,8 +6772,17 @@
       <c r="E204">
         <v>2031111</v>
       </c>
+      <c r="F204" t="s">
+        <v>277</v>
+      </c>
       <c r="H204" t="s">
         <v>274</v>
+      </c>
+      <c r="I204" t="s">
+        <v>22</v>
+      </c>
+      <c r="K204" t="s">
+        <v>23</v>
       </c>
       <c r="L204" t="s">
         <v>272</v>
@@ -5952,8 +6804,17 @@
       <c r="E205">
         <v>2031111</v>
       </c>
+      <c r="F205" t="s">
+        <v>277</v>
+      </c>
       <c r="H205" t="s">
         <v>274</v>
+      </c>
+      <c r="I205" t="s">
+        <v>22</v>
+      </c>
+      <c r="K205" t="s">
+        <v>23</v>
       </c>
       <c r="L205" t="s">
         <v>272</v>
@@ -5975,8 +6836,17 @@
       <c r="E206">
         <v>2031111</v>
       </c>
+      <c r="F206" t="s">
+        <v>277</v>
+      </c>
       <c r="H206" t="s">
         <v>274</v>
+      </c>
+      <c r="I206" t="s">
+        <v>22</v>
+      </c>
+      <c r="K206" t="s">
+        <v>23</v>
       </c>
       <c r="L206" t="s">
         <v>272</v>
@@ -5998,8 +6868,17 @@
       <c r="E207">
         <v>2031111</v>
       </c>
+      <c r="F207" t="s">
+        <v>277</v>
+      </c>
       <c r="H207" t="s">
         <v>274</v>
+      </c>
+      <c r="I207" t="s">
+        <v>22</v>
+      </c>
+      <c r="K207" t="s">
+        <v>23</v>
       </c>
       <c r="L207" t="s">
         <v>272</v>
@@ -6021,8 +6900,17 @@
       <c r="E208">
         <v>2031111</v>
       </c>
+      <c r="F208" t="s">
+        <v>277</v>
+      </c>
       <c r="H208" t="s">
         <v>274</v>
+      </c>
+      <c r="I208" t="s">
+        <v>22</v>
+      </c>
+      <c r="K208" t="s">
+        <v>23</v>
       </c>
       <c r="L208" t="s">
         <v>272</v>
@@ -6044,8 +6932,17 @@
       <c r="E209">
         <v>2031111</v>
       </c>
+      <c r="F209" t="s">
+        <v>277</v>
+      </c>
       <c r="H209" t="s">
         <v>274</v>
+      </c>
+      <c r="I209" t="s">
+        <v>22</v>
+      </c>
+      <c r="K209" t="s">
+        <v>23</v>
       </c>
       <c r="L209" t="s">
         <v>272</v>
@@ -6067,8 +6964,17 @@
       <c r="E210">
         <v>2031111</v>
       </c>
+      <c r="F210" t="s">
+        <v>277</v>
+      </c>
       <c r="H210" t="s">
         <v>274</v>
+      </c>
+      <c r="I210" t="s">
+        <v>22</v>
+      </c>
+      <c r="K210" t="s">
+        <v>23</v>
       </c>
       <c r="L210" t="s">
         <v>272</v>
@@ -6090,8 +6996,17 @@
       <c r="E211">
         <v>2031111</v>
       </c>
+      <c r="F211" t="s">
+        <v>277</v>
+      </c>
       <c r="H211" t="s">
         <v>274</v>
+      </c>
+      <c r="I211" t="s">
+        <v>22</v>
+      </c>
+      <c r="K211" t="s">
+        <v>23</v>
       </c>
       <c r="L211" t="s">
         <v>272</v>
@@ -6113,8 +7028,17 @@
       <c r="E212">
         <v>2031111</v>
       </c>
+      <c r="F212" t="s">
+        <v>277</v>
+      </c>
       <c r="H212" t="s">
         <v>274</v>
+      </c>
+      <c r="I212" t="s">
+        <v>22</v>
+      </c>
+      <c r="K212" t="s">
+        <v>23</v>
       </c>
       <c r="L212" t="s">
         <v>272</v>
@@ -6136,8 +7060,17 @@
       <c r="E213">
         <v>2031111</v>
       </c>
+      <c r="F213" t="s">
+        <v>277</v>
+      </c>
       <c r="H213" t="s">
         <v>274</v>
+      </c>
+      <c r="I213" t="s">
+        <v>22</v>
+      </c>
+      <c r="K213" t="s">
+        <v>23</v>
       </c>
       <c r="L213" t="s">
         <v>272</v>
@@ -6159,8 +7092,17 @@
       <c r="E214">
         <v>2031111</v>
       </c>
+      <c r="F214" t="s">
+        <v>277</v>
+      </c>
       <c r="H214" t="s">
         <v>274</v>
+      </c>
+      <c r="I214" t="s">
+        <v>22</v>
+      </c>
+      <c r="K214" t="s">
+        <v>23</v>
       </c>
       <c r="L214" t="s">
         <v>272</v>
@@ -6182,8 +7124,17 @@
       <c r="E215">
         <v>2031111</v>
       </c>
+      <c r="F215" t="s">
+        <v>277</v>
+      </c>
       <c r="H215" t="s">
         <v>275</v>
+      </c>
+      <c r="I215" t="s">
+        <v>22</v>
+      </c>
+      <c r="K215" t="s">
+        <v>23</v>
       </c>
       <c r="L215" t="s">
         <v>272</v>
@@ -6205,8 +7156,17 @@
       <c r="E216">
         <v>2031111</v>
       </c>
+      <c r="F216" t="s">
+        <v>277</v>
+      </c>
       <c r="H216" t="s">
         <v>274</v>
+      </c>
+      <c r="I216" t="s">
+        <v>22</v>
+      </c>
+      <c r="K216" t="s">
+        <v>23</v>
       </c>
       <c r="L216" t="s">
         <v>272</v>
@@ -6228,8 +7188,17 @@
       <c r="E217">
         <v>2031111</v>
       </c>
+      <c r="F217" t="s">
+        <v>277</v>
+      </c>
       <c r="H217" t="s">
         <v>275</v>
+      </c>
+      <c r="I217" t="s">
+        <v>22</v>
+      </c>
+      <c r="K217" t="s">
+        <v>23</v>
       </c>
       <c r="L217" t="s">
         <v>272</v>
@@ -6251,8 +7220,17 @@
       <c r="E218">
         <v>2031111</v>
       </c>
+      <c r="F218" t="s">
+        <v>277</v>
+      </c>
       <c r="H218" t="s">
         <v>275</v>
+      </c>
+      <c r="I218" t="s">
+        <v>22</v>
+      </c>
+      <c r="K218" t="s">
+        <v>23</v>
       </c>
       <c r="L218" t="s">
         <v>272</v>
@@ -6274,8 +7252,17 @@
       <c r="E219">
         <v>2031111</v>
       </c>
+      <c r="F219" t="s">
+        <v>277</v>
+      </c>
       <c r="H219" t="s">
         <v>274</v>
+      </c>
+      <c r="I219" t="s">
+        <v>22</v>
+      </c>
+      <c r="K219" t="s">
+        <v>23</v>
       </c>
       <c r="L219" t="s">
         <v>272</v>
@@ -6297,8 +7284,17 @@
       <c r="E220">
         <v>2031111</v>
       </c>
+      <c r="F220" t="s">
+        <v>277</v>
+      </c>
       <c r="H220" t="s">
         <v>275</v>
+      </c>
+      <c r="I220" t="s">
+        <v>22</v>
+      </c>
+      <c r="K220" t="s">
+        <v>23</v>
       </c>
       <c r="L220" t="s">
         <v>272</v>
@@ -6317,6 +7313,15 @@
       <c r="D221" t="s">
         <v>10</v>
       </c>
+      <c r="F221" t="s">
+        <v>277</v>
+      </c>
+      <c r="I221" t="s">
+        <v>22</v>
+      </c>
+      <c r="K221" t="s">
+        <v>23</v>
+      </c>
       <c r="L221" t="s">
         <v>272</v>
       </c>
@@ -6334,6 +7339,15 @@
       <c r="D222" t="s">
         <v>10</v>
       </c>
+      <c r="F222" t="s">
+        <v>277</v>
+      </c>
+      <c r="I222" t="s">
+        <v>22</v>
+      </c>
+      <c r="K222" t="s">
+        <v>23</v>
+      </c>
       <c r="L222" t="s">
         <v>272</v>
       </c>
@@ -6351,6 +7365,15 @@
       <c r="D223" t="s">
         <v>10</v>
       </c>
+      <c r="F223" t="s">
+        <v>277</v>
+      </c>
+      <c r="I223" t="s">
+        <v>22</v>
+      </c>
+      <c r="K223" t="s">
+        <v>23</v>
+      </c>
       <c r="L223" t="s">
         <v>272</v>
       </c>
@@ -6368,6 +7391,15 @@
       <c r="D224" t="s">
         <v>10</v>
       </c>
+      <c r="F224" t="s">
+        <v>277</v>
+      </c>
+      <c r="I224" t="s">
+        <v>22</v>
+      </c>
+      <c r="K224" t="s">
+        <v>23</v>
+      </c>
       <c r="L224" t="s">
         <v>272</v>
       </c>
@@ -6385,6 +7417,15 @@
       <c r="D225" t="s">
         <v>10</v>
       </c>
+      <c r="F225" t="s">
+        <v>277</v>
+      </c>
+      <c r="I225" t="s">
+        <v>22</v>
+      </c>
+      <c r="K225" t="s">
+        <v>23</v>
+      </c>
       <c r="L225" t="s">
         <v>272</v>
       </c>
@@ -6402,6 +7443,15 @@
       <c r="D226" t="s">
         <v>10</v>
       </c>
+      <c r="F226" t="s">
+        <v>277</v>
+      </c>
+      <c r="I226" t="s">
+        <v>22</v>
+      </c>
+      <c r="K226" t="s">
+        <v>23</v>
+      </c>
       <c r="L226" t="s">
         <v>272</v>
       </c>
@@ -6422,8 +7472,17 @@
       <c r="E227">
         <v>2031111</v>
       </c>
+      <c r="F227" t="s">
+        <v>277</v>
+      </c>
       <c r="H227" t="s">
         <v>274</v>
+      </c>
+      <c r="I227" t="s">
+        <v>22</v>
+      </c>
+      <c r="K227" t="s">
+        <v>23</v>
       </c>
       <c r="L227" t="s">
         <v>272</v>
@@ -6445,8 +7504,17 @@
       <c r="E228">
         <v>2031111</v>
       </c>
+      <c r="F228" t="s">
+        <v>277</v>
+      </c>
       <c r="H228" t="s">
         <v>275</v>
+      </c>
+      <c r="I228" t="s">
+        <v>22</v>
+      </c>
+      <c r="K228" t="s">
+        <v>23</v>
       </c>
       <c r="L228" t="s">
         <v>272</v>
@@ -6468,8 +7536,17 @@
       <c r="E229">
         <v>2031111</v>
       </c>
+      <c r="F229" t="s">
+        <v>277</v>
+      </c>
       <c r="H229" t="s">
         <v>274</v>
+      </c>
+      <c r="I229" t="s">
+        <v>22</v>
+      </c>
+      <c r="K229" t="s">
+        <v>23</v>
       </c>
       <c r="L229" t="s">
         <v>272</v>
@@ -6491,8 +7568,17 @@
       <c r="E230">
         <v>2031111</v>
       </c>
+      <c r="F230" t="s">
+        <v>277</v>
+      </c>
       <c r="H230" t="s">
         <v>274</v>
+      </c>
+      <c r="I230" t="s">
+        <v>22</v>
+      </c>
+      <c r="K230" t="s">
+        <v>23</v>
       </c>
       <c r="L230" t="s">
         <v>272</v>
@@ -6514,8 +7600,17 @@
       <c r="E231">
         <v>2031111</v>
       </c>
+      <c r="F231" t="s">
+        <v>277</v>
+      </c>
       <c r="H231" t="s">
         <v>274</v>
+      </c>
+      <c r="I231" t="s">
+        <v>22</v>
+      </c>
+      <c r="K231" t="s">
+        <v>23</v>
       </c>
       <c r="L231" t="s">
         <v>272</v>
@@ -6537,8 +7632,17 @@
       <c r="E232">
         <v>2031111</v>
       </c>
+      <c r="F232" t="s">
+        <v>277</v>
+      </c>
       <c r="H232" t="s">
         <v>274</v>
+      </c>
+      <c r="I232" t="s">
+        <v>22</v>
+      </c>
+      <c r="K232" t="s">
+        <v>23</v>
       </c>
       <c r="L232" t="s">
         <v>272</v>
@@ -6560,8 +7664,17 @@
       <c r="E233">
         <v>2031111</v>
       </c>
+      <c r="F233" t="s">
+        <v>277</v>
+      </c>
       <c r="H233" t="s">
         <v>274</v>
+      </c>
+      <c r="I233" t="s">
+        <v>22</v>
+      </c>
+      <c r="K233" t="s">
+        <v>23</v>
       </c>
       <c r="L233" t="s">
         <v>272</v>
@@ -6583,8 +7696,17 @@
       <c r="E234">
         <v>2031111</v>
       </c>
+      <c r="F234" t="s">
+        <v>277</v>
+      </c>
       <c r="H234" t="s">
         <v>274</v>
+      </c>
+      <c r="I234" t="s">
+        <v>22</v>
+      </c>
+      <c r="K234" t="s">
+        <v>23</v>
       </c>
       <c r="L234" t="s">
         <v>272</v>
@@ -6606,8 +7728,17 @@
       <c r="E235">
         <v>2031111</v>
       </c>
+      <c r="F235" t="s">
+        <v>277</v>
+      </c>
       <c r="H235" t="s">
         <v>274</v>
+      </c>
+      <c r="I235" t="s">
+        <v>22</v>
+      </c>
+      <c r="K235" t="s">
+        <v>23</v>
       </c>
       <c r="L235" t="s">
         <v>272</v>
@@ -6629,8 +7760,17 @@
       <c r="E236">
         <v>2031111</v>
       </c>
+      <c r="F236" t="s">
+        <v>277</v>
+      </c>
       <c r="H236" t="s">
         <v>275</v>
+      </c>
+      <c r="I236" t="s">
+        <v>22</v>
+      </c>
+      <c r="K236" t="s">
+        <v>23</v>
       </c>
       <c r="L236" t="s">
         <v>272</v>
@@ -6652,8 +7792,17 @@
       <c r="E237">
         <v>2031111</v>
       </c>
+      <c r="F237" t="s">
+        <v>277</v>
+      </c>
       <c r="H237" t="s">
         <v>274</v>
+      </c>
+      <c r="I237" t="s">
+        <v>22</v>
+      </c>
+      <c r="K237" t="s">
+        <v>23</v>
       </c>
       <c r="L237" t="s">
         <v>272</v>
@@ -6675,8 +7824,17 @@
       <c r="E238">
         <v>2031111</v>
       </c>
+      <c r="F238" t="s">
+        <v>277</v>
+      </c>
       <c r="H238" t="s">
         <v>274</v>
+      </c>
+      <c r="I238" t="s">
+        <v>22</v>
+      </c>
+      <c r="K238" t="s">
+        <v>23</v>
       </c>
       <c r="L238" t="s">
         <v>272</v>
@@ -6698,8 +7856,17 @@
       <c r="E239">
         <v>2031111</v>
       </c>
+      <c r="F239" t="s">
+        <v>277</v>
+      </c>
       <c r="H239" t="s">
         <v>274</v>
+      </c>
+      <c r="I239" t="s">
+        <v>22</v>
+      </c>
+      <c r="K239" t="s">
+        <v>23</v>
       </c>
       <c r="L239" t="s">
         <v>272</v>
@@ -6721,8 +7888,17 @@
       <c r="E240">
         <v>2031111</v>
       </c>
+      <c r="F240" t="s">
+        <v>277</v>
+      </c>
       <c r="H240" t="s">
         <v>275</v>
+      </c>
+      <c r="I240" t="s">
+        <v>22</v>
+      </c>
+      <c r="K240" t="s">
+        <v>23</v>
       </c>
       <c r="L240" t="s">
         <v>272</v>
@@ -6744,8 +7920,17 @@
       <c r="E241">
         <v>2031111</v>
       </c>
+      <c r="F241" t="s">
+        <v>277</v>
+      </c>
       <c r="H241" t="s">
         <v>274</v>
+      </c>
+      <c r="I241" t="s">
+        <v>22</v>
+      </c>
+      <c r="K241" t="s">
+        <v>23</v>
       </c>
       <c r="L241" t="s">
         <v>272</v>
@@ -6767,8 +7952,17 @@
       <c r="E242">
         <v>2031111</v>
       </c>
+      <c r="F242" t="s">
+        <v>277</v>
+      </c>
       <c r="H242" t="s">
         <v>274</v>
+      </c>
+      <c r="I242" t="s">
+        <v>22</v>
+      </c>
+      <c r="K242" t="s">
+        <v>23</v>
       </c>
       <c r="L242" t="s">
         <v>272</v>
@@ -6787,6 +7981,15 @@
       <c r="D243" t="s">
         <v>11</v>
       </c>
+      <c r="F243" t="s">
+        <v>277</v>
+      </c>
+      <c r="I243" t="s">
+        <v>22</v>
+      </c>
+      <c r="K243" t="s">
+        <v>23</v>
+      </c>
       <c r="L243" t="s">
         <v>272</v>
       </c>
@@ -6804,6 +8007,15 @@
       <c r="D244" t="s">
         <v>11</v>
       </c>
+      <c r="F244" t="s">
+        <v>277</v>
+      </c>
+      <c r="I244" t="s">
+        <v>22</v>
+      </c>
+      <c r="K244" t="s">
+        <v>23</v>
+      </c>
       <c r="L244" t="s">
         <v>272</v>
       </c>
@@ -6821,6 +8033,15 @@
       <c r="D245" t="s">
         <v>11</v>
       </c>
+      <c r="F245" t="s">
+        <v>277</v>
+      </c>
+      <c r="I245" t="s">
+        <v>22</v>
+      </c>
+      <c r="K245" t="s">
+        <v>23</v>
+      </c>
       <c r="L245" t="s">
         <v>272</v>
       </c>
@@ -6838,6 +8059,15 @@
       <c r="D246" t="s">
         <v>11</v>
       </c>
+      <c r="F246" t="s">
+        <v>277</v>
+      </c>
+      <c r="I246" t="s">
+        <v>22</v>
+      </c>
+      <c r="K246" t="s">
+        <v>23</v>
+      </c>
       <c r="L246" t="s">
         <v>272</v>
       </c>
@@ -6858,8 +8088,17 @@
       <c r="E247">
         <v>2031111</v>
       </c>
+      <c r="F247" t="s">
+        <v>277</v>
+      </c>
       <c r="H247" t="s">
         <v>274</v>
+      </c>
+      <c r="I247" t="s">
+        <v>22</v>
+      </c>
+      <c r="K247" t="s">
+        <v>23</v>
       </c>
       <c r="L247" t="s">
         <v>272</v>
@@ -6881,8 +8120,17 @@
       <c r="E248">
         <v>2031111</v>
       </c>
+      <c r="F248" t="s">
+        <v>277</v>
+      </c>
       <c r="H248" t="s">
         <v>274</v>
+      </c>
+      <c r="I248" t="s">
+        <v>22</v>
+      </c>
+      <c r="K248" t="s">
+        <v>23</v>
       </c>
       <c r="L248" t="s">
         <v>272</v>
@@ -6904,8 +8152,17 @@
       <c r="E249">
         <v>2031111</v>
       </c>
+      <c r="F249" t="s">
+        <v>277</v>
+      </c>
       <c r="H249" t="s">
         <v>274</v>
+      </c>
+      <c r="I249" t="s">
+        <v>22</v>
+      </c>
+      <c r="K249" t="s">
+        <v>23</v>
       </c>
       <c r="L249" t="s">
         <v>272</v>
@@ -6927,8 +8184,17 @@
       <c r="E250">
         <v>2031111</v>
       </c>
+      <c r="F250" t="s">
+        <v>277</v>
+      </c>
       <c r="H250" t="s">
         <v>274</v>
+      </c>
+      <c r="I250" t="s">
+        <v>22</v>
+      </c>
+      <c r="K250" t="s">
+        <v>23</v>
       </c>
       <c r="L250" t="s">
         <v>272</v>

--- a/data/dna/dna_metadata.xlsx
+++ b/data/dna/dna_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/dna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7724F164-D563-D84F-AFE5-7CB279B88C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4286425C-0778-FA4D-8F29-CD0916EC7727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="820" windowWidth="24220" windowHeight="17560" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="279">
   <si>
     <t>sample_id</t>
   </si>
@@ -870,6 +870,9 @@
   </si>
   <si>
     <t>Isotopes</t>
+  </si>
+  <si>
+    <t>Box 3</t>
   </si>
 </sst>
 </file>
@@ -1255,8 +1258,8 @@
   <dimension ref="A1:L250"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F242" sqref="F242"/>
+      <pane ySplit="1" topLeftCell="A216" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D233" sqref="D233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4818,7 +4821,7 @@
         <v>10</v>
       </c>
       <c r="E143">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F143" t="s">
         <v>277</v>
@@ -4850,7 +4853,7 @@
         <v>10</v>
       </c>
       <c r="E144">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F144" t="s">
         <v>277</v>
@@ -4882,7 +4885,7 @@
         <v>10</v>
       </c>
       <c r="E145">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F145" t="s">
         <v>277</v>
@@ -4914,7 +4917,7 @@
         <v>10</v>
       </c>
       <c r="E146">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F146" t="s">
         <v>277</v>
@@ -4946,7 +4949,7 @@
         <v>10</v>
       </c>
       <c r="E147">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F147" t="s">
         <v>277</v>
@@ -4978,7 +4981,7 @@
         <v>10</v>
       </c>
       <c r="E148">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F148" t="s">
         <v>277</v>
@@ -5010,7 +5013,7 @@
         <v>10</v>
       </c>
       <c r="E149">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F149" t="s">
         <v>277</v>
@@ -5042,7 +5045,7 @@
         <v>10</v>
       </c>
       <c r="E150">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F150" t="s">
         <v>277</v>
@@ -5074,7 +5077,7 @@
         <v>10</v>
       </c>
       <c r="E151">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F151" t="s">
         <v>277</v>
@@ -5106,7 +5109,7 @@
         <v>10</v>
       </c>
       <c r="E152">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F152" t="s">
         <v>277</v>
@@ -5138,7 +5141,7 @@
         <v>10</v>
       </c>
       <c r="E153">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F153" t="s">
         <v>277</v>
@@ -5170,7 +5173,7 @@
         <v>10</v>
       </c>
       <c r="E154">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F154" t="s">
         <v>277</v>
@@ -5202,7 +5205,7 @@
         <v>10</v>
       </c>
       <c r="E155">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F155" t="s">
         <v>277</v>
@@ -5234,7 +5237,7 @@
         <v>10</v>
       </c>
       <c r="E156">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F156" t="s">
         <v>277</v>
@@ -5266,7 +5269,7 @@
         <v>10</v>
       </c>
       <c r="E157">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F157" t="s">
         <v>277</v>
@@ -5298,7 +5301,7 @@
         <v>11</v>
       </c>
       <c r="E158">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F158" t="s">
         <v>277</v>
@@ -5330,7 +5333,7 @@
         <v>11</v>
       </c>
       <c r="E159">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F159" t="s">
         <v>277</v>
@@ -5362,7 +5365,7 @@
         <v>11</v>
       </c>
       <c r="E160">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F160" t="s">
         <v>277</v>
@@ -5394,7 +5397,7 @@
         <v>11</v>
       </c>
       <c r="E161">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F161" t="s">
         <v>277</v>
@@ -5426,7 +5429,7 @@
         <v>11</v>
       </c>
       <c r="E162">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F162" t="s">
         <v>277</v>
@@ -5458,7 +5461,7 @@
         <v>11</v>
       </c>
       <c r="E163">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F163" t="s">
         <v>277</v>
@@ -5490,7 +5493,7 @@
         <v>11</v>
       </c>
       <c r="E164">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F164" t="s">
         <v>277</v>
@@ -5522,7 +5525,7 @@
         <v>11</v>
       </c>
       <c r="E165">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F165" t="s">
         <v>277</v>
@@ -5554,7 +5557,7 @@
         <v>11</v>
       </c>
       <c r="E166">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F166" t="s">
         <v>277</v>
@@ -5586,7 +5589,7 @@
         <v>11</v>
       </c>
       <c r="E167">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F167" t="s">
         <v>277</v>
@@ -5618,7 +5621,7 @@
         <v>11</v>
       </c>
       <c r="E168">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F168" t="s">
         <v>277</v>
@@ -5650,7 +5653,7 @@
         <v>11</v>
       </c>
       <c r="E169">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F169" t="s">
         <v>277</v>
@@ -5682,7 +5685,7 @@
         <v>11</v>
       </c>
       <c r="E170">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F170" t="s">
         <v>277</v>
@@ -5714,7 +5717,7 @@
         <v>11</v>
       </c>
       <c r="E171">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F171" t="s">
         <v>277</v>
@@ -5746,7 +5749,7 @@
         <v>11</v>
       </c>
       <c r="E172">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F172" t="s">
         <v>277</v>
@@ -5778,7 +5781,7 @@
         <v>11</v>
       </c>
       <c r="E173">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F173" t="s">
         <v>277</v>
@@ -5810,7 +5813,7 @@
         <v>11</v>
       </c>
       <c r="E174">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F174" t="s">
         <v>277</v>
@@ -5842,7 +5845,7 @@
         <v>11</v>
       </c>
       <c r="E175">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F175" t="s">
         <v>277</v>
@@ -5874,7 +5877,7 @@
         <v>11</v>
       </c>
       <c r="E176">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F176" t="s">
         <v>277</v>
@@ -5906,7 +5909,7 @@
         <v>11</v>
       </c>
       <c r="E177">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F177" t="s">
         <v>277</v>
@@ -5938,7 +5941,7 @@
         <v>11</v>
       </c>
       <c r="E178">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F178" t="s">
         <v>277</v>
@@ -5970,7 +5973,7 @@
         <v>10</v>
       </c>
       <c r="E179">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F179" t="s">
         <v>277</v>
@@ -6002,7 +6005,7 @@
         <v>10</v>
       </c>
       <c r="E180">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F180" t="s">
         <v>277</v>
@@ -6034,7 +6037,7 @@
         <v>10</v>
       </c>
       <c r="E181">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F181" t="s">
         <v>277</v>
@@ -6066,7 +6069,7 @@
         <v>10</v>
       </c>
       <c r="E182">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F182" t="s">
         <v>277</v>
@@ -6098,7 +6101,7 @@
         <v>10</v>
       </c>
       <c r="E183">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F183" t="s">
         <v>277</v>
@@ -6130,7 +6133,7 @@
         <v>10</v>
       </c>
       <c r="E184">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F184" t="s">
         <v>277</v>
@@ -6162,7 +6165,7 @@
         <v>10</v>
       </c>
       <c r="E185">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F185" t="s">
         <v>277</v>
@@ -6194,7 +6197,7 @@
         <v>10</v>
       </c>
       <c r="E186">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F186" t="s">
         <v>277</v>
@@ -6226,7 +6229,7 @@
         <v>10</v>
       </c>
       <c r="E187">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F187" t="s">
         <v>277</v>
@@ -6258,7 +6261,7 @@
         <v>10</v>
       </c>
       <c r="E188">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F188" t="s">
         <v>277</v>
@@ -6290,7 +6293,7 @@
         <v>10</v>
       </c>
       <c r="E189">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F189" t="s">
         <v>277</v>
@@ -6322,7 +6325,7 @@
         <v>10</v>
       </c>
       <c r="E190">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F190" t="s">
         <v>277</v>
@@ -6354,7 +6357,7 @@
         <v>10</v>
       </c>
       <c r="E191">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F191" t="s">
         <v>277</v>
@@ -6386,7 +6389,7 @@
         <v>10</v>
       </c>
       <c r="E192">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F192" t="s">
         <v>277</v>
@@ -6418,7 +6421,7 @@
         <v>10</v>
       </c>
       <c r="E193">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F193" t="s">
         <v>277</v>
@@ -6450,7 +6453,7 @@
         <v>11</v>
       </c>
       <c r="E194">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F194" t="s">
         <v>277</v>
@@ -6482,7 +6485,7 @@
         <v>11</v>
       </c>
       <c r="E195">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F195" t="s">
         <v>277</v>
@@ -6514,7 +6517,7 @@
         <v>11</v>
       </c>
       <c r="E196">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F196" t="s">
         <v>277</v>
@@ -6546,7 +6549,7 @@
         <v>11</v>
       </c>
       <c r="E197">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F197" t="s">
         <v>277</v>
@@ -6578,7 +6581,7 @@
         <v>11</v>
       </c>
       <c r="E198">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F198" t="s">
         <v>277</v>
@@ -6610,7 +6613,7 @@
         <v>11</v>
       </c>
       <c r="E199">
-        <v>2023111</v>
+        <v>20231111</v>
       </c>
       <c r="F199" t="s">
         <v>277</v>
@@ -6642,7 +6645,7 @@
         <v>11</v>
       </c>
       <c r="E200">
-        <v>2023111</v>
+        <v>20231111</v>
       </c>
       <c r="F200" t="s">
         <v>277</v>
@@ -6674,7 +6677,7 @@
         <v>11</v>
       </c>
       <c r="E201">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F201" t="s">
         <v>277</v>
@@ -6706,7 +6709,7 @@
         <v>11</v>
       </c>
       <c r="E202">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F202" t="s">
         <v>277</v>
@@ -6738,7 +6741,7 @@
         <v>11</v>
       </c>
       <c r="E203">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F203" t="s">
         <v>277</v>
@@ -6770,7 +6773,7 @@
         <v>11</v>
       </c>
       <c r="E204">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F204" t="s">
         <v>277</v>
@@ -6802,7 +6805,7 @@
         <v>11</v>
       </c>
       <c r="E205">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F205" t="s">
         <v>277</v>
@@ -6834,7 +6837,7 @@
         <v>11</v>
       </c>
       <c r="E206">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F206" t="s">
         <v>277</v>
@@ -6866,7 +6869,7 @@
         <v>11</v>
       </c>
       <c r="E207">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F207" t="s">
         <v>277</v>
@@ -6898,7 +6901,7 @@
         <v>11</v>
       </c>
       <c r="E208">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F208" t="s">
         <v>277</v>
@@ -6930,7 +6933,7 @@
         <v>11</v>
       </c>
       <c r="E209">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F209" t="s">
         <v>277</v>
@@ -6962,7 +6965,7 @@
         <v>11</v>
       </c>
       <c r="E210">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F210" t="s">
         <v>277</v>
@@ -6994,7 +6997,7 @@
         <v>11</v>
       </c>
       <c r="E211">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F211" t="s">
         <v>277</v>
@@ -7026,7 +7029,7 @@
         <v>11</v>
       </c>
       <c r="E212">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F212" t="s">
         <v>277</v>
@@ -7058,7 +7061,7 @@
         <v>11</v>
       </c>
       <c r="E213">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F213" t="s">
         <v>277</v>
@@ -7090,7 +7093,7 @@
         <v>11</v>
       </c>
       <c r="E214">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F214" t="s">
         <v>277</v>
@@ -7122,7 +7125,7 @@
         <v>10</v>
       </c>
       <c r="E215">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F215" t="s">
         <v>277</v>
@@ -7154,7 +7157,7 @@
         <v>10</v>
       </c>
       <c r="E216">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F216" t="s">
         <v>277</v>
@@ -7186,7 +7189,7 @@
         <v>10</v>
       </c>
       <c r="E217">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F217" t="s">
         <v>277</v>
@@ -7218,7 +7221,7 @@
         <v>10</v>
       </c>
       <c r="E218">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F218" t="s">
         <v>277</v>
@@ -7250,7 +7253,7 @@
         <v>10</v>
       </c>
       <c r="E219">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F219" t="s">
         <v>277</v>
@@ -7282,7 +7285,7 @@
         <v>10</v>
       </c>
       <c r="E220">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F220" t="s">
         <v>277</v>
@@ -7313,8 +7316,14 @@
       <c r="D221" t="s">
         <v>10</v>
       </c>
+      <c r="E221">
+        <v>20231112</v>
+      </c>
       <c r="F221" t="s">
         <v>277</v>
+      </c>
+      <c r="H221" t="s">
+        <v>278</v>
       </c>
       <c r="I221" t="s">
         <v>22</v>
@@ -7339,8 +7348,14 @@
       <c r="D222" t="s">
         <v>10</v>
       </c>
+      <c r="E222">
+        <v>20231112</v>
+      </c>
       <c r="F222" t="s">
         <v>277</v>
+      </c>
+      <c r="H222" t="s">
+        <v>278</v>
       </c>
       <c r="I222" t="s">
         <v>22</v>
@@ -7365,8 +7380,14 @@
       <c r="D223" t="s">
         <v>10</v>
       </c>
+      <c r="E223">
+        <v>20231112</v>
+      </c>
       <c r="F223" t="s">
         <v>277</v>
+      </c>
+      <c r="H223" t="s">
+        <v>278</v>
       </c>
       <c r="I223" t="s">
         <v>22</v>
@@ -7391,8 +7412,14 @@
       <c r="D224" t="s">
         <v>10</v>
       </c>
+      <c r="E224">
+        <v>20231112</v>
+      </c>
       <c r="F224" t="s">
         <v>277</v>
+      </c>
+      <c r="H224" t="s">
+        <v>278</v>
       </c>
       <c r="I224" t="s">
         <v>22</v>
@@ -7417,8 +7444,14 @@
       <c r="D225" t="s">
         <v>10</v>
       </c>
+      <c r="E225">
+        <v>20231112</v>
+      </c>
       <c r="F225" t="s">
         <v>277</v>
+      </c>
+      <c r="H225" t="s">
+        <v>278</v>
       </c>
       <c r="I225" t="s">
         <v>22</v>
@@ -7443,8 +7476,14 @@
       <c r="D226" t="s">
         <v>10</v>
       </c>
+      <c r="E226">
+        <v>20231112</v>
+      </c>
       <c r="F226" t="s">
         <v>277</v>
+      </c>
+      <c r="H226" t="s">
+        <v>278</v>
       </c>
       <c r="I226" t="s">
         <v>22</v>
@@ -7470,7 +7509,7 @@
         <v>10</v>
       </c>
       <c r="E227">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F227" t="s">
         <v>277</v>
@@ -7502,7 +7541,7 @@
         <v>10</v>
       </c>
       <c r="E228">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F228" t="s">
         <v>277</v>
@@ -7534,7 +7573,7 @@
         <v>10</v>
       </c>
       <c r="E229">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F229" t="s">
         <v>277</v>
@@ -7566,7 +7605,7 @@
         <v>11</v>
       </c>
       <c r="E230">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F230" t="s">
         <v>277</v>
@@ -7598,7 +7637,7 @@
         <v>11</v>
       </c>
       <c r="E231">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F231" t="s">
         <v>277</v>
@@ -7630,7 +7669,7 @@
         <v>11</v>
       </c>
       <c r="E232">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F232" t="s">
         <v>277</v>
@@ -7662,7 +7701,7 @@
         <v>11</v>
       </c>
       <c r="E233">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F233" t="s">
         <v>277</v>
@@ -7694,7 +7733,7 @@
         <v>11</v>
       </c>
       <c r="E234">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F234" t="s">
         <v>277</v>
@@ -7726,7 +7765,7 @@
         <v>11</v>
       </c>
       <c r="E235">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F235" t="s">
         <v>277</v>
@@ -7758,7 +7797,7 @@
         <v>11</v>
       </c>
       <c r="E236">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F236" t="s">
         <v>277</v>
@@ -7790,7 +7829,7 @@
         <v>11</v>
       </c>
       <c r="E237">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F237" t="s">
         <v>277</v>
@@ -7822,7 +7861,7 @@
         <v>11</v>
       </c>
       <c r="E238">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F238" t="s">
         <v>277</v>
@@ -7854,7 +7893,7 @@
         <v>11</v>
       </c>
       <c r="E239">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F239" t="s">
         <v>277</v>
@@ -7886,7 +7925,7 @@
         <v>11</v>
       </c>
       <c r="E240">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F240" t="s">
         <v>277</v>
@@ -7918,7 +7957,7 @@
         <v>11</v>
       </c>
       <c r="E241">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F241" t="s">
         <v>277</v>
@@ -7950,7 +7989,7 @@
         <v>11</v>
       </c>
       <c r="E242">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F242" t="s">
         <v>277</v>
@@ -7981,8 +8020,14 @@
       <c r="D243" t="s">
         <v>11</v>
       </c>
+      <c r="E243">
+        <v>20231112</v>
+      </c>
       <c r="F243" t="s">
         <v>277</v>
+      </c>
+      <c r="H243" t="s">
+        <v>278</v>
       </c>
       <c r="I243" t="s">
         <v>22</v>
@@ -8007,8 +8052,14 @@
       <c r="D244" t="s">
         <v>11</v>
       </c>
+      <c r="E244">
+        <v>20231112</v>
+      </c>
       <c r="F244" t="s">
         <v>277</v>
+      </c>
+      <c r="H244" t="s">
+        <v>278</v>
       </c>
       <c r="I244" t="s">
         <v>22</v>
@@ -8033,8 +8084,14 @@
       <c r="D245" t="s">
         <v>11</v>
       </c>
+      <c r="E245">
+        <v>20231112</v>
+      </c>
       <c r="F245" t="s">
         <v>277</v>
+      </c>
+      <c r="H245" t="s">
+        <v>278</v>
       </c>
       <c r="I245" t="s">
         <v>22</v>
@@ -8059,8 +8116,14 @@
       <c r="D246" t="s">
         <v>11</v>
       </c>
+      <c r="E246">
+        <v>20231112</v>
+      </c>
       <c r="F246" t="s">
         <v>277</v>
+      </c>
+      <c r="H246" t="s">
+        <v>278</v>
       </c>
       <c r="I246" t="s">
         <v>22</v>
@@ -8086,7 +8149,7 @@
         <v>11</v>
       </c>
       <c r="E247">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F247" t="s">
         <v>277</v>
@@ -8118,7 +8181,7 @@
         <v>11</v>
       </c>
       <c r="E248">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F248" t="s">
         <v>277</v>
@@ -8150,7 +8213,7 @@
         <v>11</v>
       </c>
       <c r="E249">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F249" t="s">
         <v>277</v>
@@ -8182,7 +8245,7 @@
         <v>11</v>
       </c>
       <c r="E250">
-        <v>2031111</v>
+        <v>20231111</v>
       </c>
       <c r="F250" t="s">
         <v>277</v>

--- a/data/dna/dna_metadata.xlsx
+++ b/data/dna/dna_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/dna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD6A9E6-98AE-0146-A4A4-FECFF4BD4303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93921F86-1AA6-D942-8C6A-B7A55C7E8005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4240" yWindow="820" windowWidth="24220" windowHeight="17560" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
+    <workbookView xWindow="15980" yWindow="760" windowWidth="19320" windowHeight="17540" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -917,12 +917,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -941,9 +939,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -981,7 +979,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1087,7 +1085,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1229,7 +1227,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1240,8 +1238,8 @@
   <dimension ref="A1:L244"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G90" sqref="G90:G91"/>
+      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D238" sqref="D238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1334,10 +1332,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -1352,10 +1350,10 @@
         <v>268</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>274</v>
       </c>
       <c r="H3" t="s">
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
         <v>21</v>
@@ -1372,10 +1370,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1390,10 +1388,10 @@
         <v>268</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>274</v>
       </c>
       <c r="H4" t="s">
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
         <v>21</v>
@@ -1410,10 +1408,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1428,10 +1426,10 @@
         <v>268</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>274</v>
       </c>
       <c r="H5" t="s">
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
         <v>21</v>
@@ -1448,16 +1446,16 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>20231117</v>
@@ -1466,7 +1464,7 @@
         <v>268</v>
       </c>
       <c r="G6" t="s">
-        <v>274</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
         <v>20</v>
@@ -1486,16 +1484,16 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>20231117</v>
@@ -1507,7 +1505,7 @@
         <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s">
         <v>21</v>
@@ -1524,16 +1522,16 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>20231117</v>
@@ -1545,7 +1543,7 @@
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s">
         <v>21</v>
@@ -1562,16 +1560,16 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <v>20231117</v>
@@ -1583,7 +1581,7 @@
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
         <v>21</v>
@@ -1600,16 +1598,16 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>20231117</v>
@@ -1621,7 +1619,7 @@
         <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="I10" t="s">
         <v>21</v>
@@ -1638,16 +1636,16 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>20231117</v>
@@ -1656,7 +1654,7 @@
         <v>268</v>
       </c>
       <c r="G11" t="s">
-        <v>274</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
         <v>20</v>
@@ -1676,16 +1674,16 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>20231117</v>
@@ -1694,7 +1692,7 @@
         <v>268</v>
       </c>
       <c r="G12" t="s">
-        <v>274</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
         <v>20</v>
@@ -1714,10 +1712,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -1725,17 +1723,17 @@
       <c r="D13" t="s">
         <v>9</v>
       </c>
-      <c r="E13">
-        <v>20231117</v>
+      <c r="E13" s="2">
+        <v>20231107</v>
       </c>
       <c r="F13" t="s">
-        <v>268</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
         <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s">
         <v>21</v>
@@ -1744,7 +1742,7 @@
         <v>273</v>
       </c>
       <c r="K13" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L13" t="s">
         <v>13</v>
@@ -1752,22 +1750,22 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14">
-        <v>20231117</v>
+        <v>9</v>
+      </c>
+      <c r="E14" s="2">
+        <v>20231107</v>
       </c>
       <c r="F14" t="s">
-        <v>268</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
@@ -1782,7 +1780,7 @@
         <v>273</v>
       </c>
       <c r="K14" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L14" t="s">
         <v>13</v>
@@ -1790,22 +1788,22 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15">
-        <v>20231117</v>
+        <v>9</v>
+      </c>
+      <c r="E15" s="2">
+        <v>20231107</v>
       </c>
       <c r="F15" t="s">
-        <v>268</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
         <v>18</v>
@@ -1820,7 +1818,7 @@
         <v>273</v>
       </c>
       <c r="K15" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L15" t="s">
         <v>13</v>
@@ -1828,22 +1826,22 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16">
-        <v>20231117</v>
+        <v>9</v>
+      </c>
+      <c r="E16" s="2">
+        <v>20231107</v>
       </c>
       <c r="F16" t="s">
-        <v>268</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s">
         <v>18</v>
@@ -1858,7 +1856,7 @@
         <v>273</v>
       </c>
       <c r="K16" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L16" t="s">
         <v>13</v>
@@ -1866,22 +1864,22 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="B17">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17">
-        <v>20231117</v>
+        <v>9</v>
+      </c>
+      <c r="E17" s="2">
+        <v>20231107</v>
       </c>
       <c r="F17" t="s">
-        <v>268</v>
+        <v>15</v>
       </c>
       <c r="G17" t="s">
         <v>18</v>
@@ -1896,7 +1894,7 @@
         <v>273</v>
       </c>
       <c r="K17" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L17" t="s">
         <v>13</v>
@@ -1904,10 +1902,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
@@ -1915,17 +1913,17 @@
       <c r="D18" t="s">
         <v>10</v>
       </c>
-      <c r="E18">
-        <v>20231117</v>
+      <c r="E18" s="2">
+        <v>20231107</v>
       </c>
       <c r="F18" t="s">
-        <v>268</v>
+        <v>15</v>
       </c>
       <c r="G18" t="s">
         <v>18</v>
       </c>
       <c r="H18" t="s">
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="I18" t="s">
         <v>21</v>
@@ -1934,7 +1932,7 @@
         <v>273</v>
       </c>
       <c r="K18" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L18" t="s">
         <v>13</v>
@@ -1942,10 +1940,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="B19">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
@@ -1953,17 +1951,17 @@
       <c r="D19" t="s">
         <v>10</v>
       </c>
-      <c r="E19">
-        <v>20231117</v>
+      <c r="E19" s="2">
+        <v>20231107</v>
       </c>
       <c r="F19" t="s">
-        <v>268</v>
+        <v>15</v>
       </c>
       <c r="G19" t="s">
         <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s">
         <v>21</v>
@@ -1972,7 +1970,7 @@
         <v>273</v>
       </c>
       <c r="K19" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L19" t="s">
         <v>13</v>
@@ -1980,10 +1978,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="B20">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
@@ -1991,17 +1989,17 @@
       <c r="D20" t="s">
         <v>10</v>
       </c>
-      <c r="E20">
-        <v>20231117</v>
+      <c r="E20" s="2">
+        <v>20231107</v>
       </c>
       <c r="F20" t="s">
-        <v>268</v>
+        <v>15</v>
       </c>
       <c r="G20" t="s">
         <v>18</v>
       </c>
       <c r="H20" t="s">
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s">
         <v>21</v>
@@ -2010,7 +2008,7 @@
         <v>273</v>
       </c>
       <c r="K20" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L20" t="s">
         <v>13</v>
@@ -2018,10 +2016,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="B21">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
@@ -2029,11 +2027,11 @@
       <c r="D21" t="s">
         <v>10</v>
       </c>
-      <c r="E21">
-        <v>20231117</v>
+      <c r="E21" s="2">
+        <v>20231107</v>
       </c>
       <c r="F21" t="s">
-        <v>268</v>
+        <v>15</v>
       </c>
       <c r="G21" t="s">
         <v>18</v>
@@ -2048,7 +2046,7 @@
         <v>273</v>
       </c>
       <c r="K21" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L21" t="s">
         <v>13</v>
@@ -2056,10 +2054,10 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="B22">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
@@ -2067,17 +2065,17 @@
       <c r="D22" t="s">
         <v>10</v>
       </c>
-      <c r="E22">
-        <v>20231117</v>
+      <c r="E22" s="2">
+        <v>20231107</v>
       </c>
       <c r="F22" t="s">
-        <v>268</v>
+        <v>15</v>
       </c>
       <c r="G22" t="s">
         <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="I22" t="s">
         <v>21</v>
@@ -2086,7 +2084,7 @@
         <v>273</v>
       </c>
       <c r="K22" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L22" t="s">
         <v>13</v>
@@ -2094,10 +2092,10 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="B23">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
@@ -2106,16 +2104,16 @@
         <v>10</v>
       </c>
       <c r="E23">
-        <v>20231117</v>
+        <v>20231107</v>
       </c>
       <c r="F23" t="s">
-        <v>268</v>
+        <v>15</v>
       </c>
       <c r="G23" t="s">
         <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s">
         <v>21</v>
@@ -2124,7 +2122,7 @@
         <v>273</v>
       </c>
       <c r="K23" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L23" t="s">
         <v>13</v>
@@ -2132,10 +2130,10 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="B24">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
@@ -2144,16 +2142,16 @@
         <v>10</v>
       </c>
       <c r="E24">
-        <v>20231117</v>
+        <v>20231107</v>
       </c>
       <c r="F24" t="s">
-        <v>268</v>
+        <v>15</v>
       </c>
       <c r="G24" t="s">
         <v>18</v>
       </c>
       <c r="H24" t="s">
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s">
         <v>21</v>
@@ -2162,7 +2160,7 @@
         <v>273</v>
       </c>
       <c r="K24" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L24" t="s">
         <v>13</v>
@@ -2170,10 +2168,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="B25">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
@@ -2181,17 +2179,17 @@
       <c r="D25" t="s">
         <v>10</v>
       </c>
-      <c r="E25">
-        <v>20231117</v>
+      <c r="E25" s="2">
+        <v>20231107</v>
       </c>
       <c r="F25" t="s">
-        <v>268</v>
+        <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>274</v>
+        <v>18</v>
       </c>
       <c r="H25" t="s">
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s">
         <v>21</v>
@@ -2200,7 +2198,7 @@
         <v>273</v>
       </c>
       <c r="K25" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L25" t="s">
         <v>13</v>
@@ -2208,10 +2206,10 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="B26">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
@@ -2220,16 +2218,16 @@
         <v>10</v>
       </c>
       <c r="E26">
-        <v>20231117</v>
+        <v>20231107</v>
       </c>
       <c r="F26" t="s">
-        <v>268</v>
+        <v>15</v>
       </c>
       <c r="G26" t="s">
         <v>18</v>
       </c>
       <c r="H26" t="s">
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="I26" t="s">
         <v>21</v>
@@ -2238,7 +2236,7 @@
         <v>273</v>
       </c>
       <c r="K26" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L26" t="s">
         <v>13</v>
@@ -2246,10 +2244,10 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="B27">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
@@ -2257,11 +2255,11 @@
       <c r="D27" t="s">
         <v>10</v>
       </c>
-      <c r="E27">
-        <v>20231117</v>
+      <c r="E27" s="2">
+        <v>20231107</v>
       </c>
       <c r="F27" t="s">
-        <v>268</v>
+        <v>15</v>
       </c>
       <c r="G27" t="s">
         <v>18</v>
@@ -2276,7 +2274,7 @@
         <v>273</v>
       </c>
       <c r="K27" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L27" t="s">
         <v>13</v>
@@ -2284,16 +2282,16 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B28">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E28">
         <v>20231117</v>
@@ -2305,7 +2303,7 @@
         <v>18</v>
       </c>
       <c r="H28" t="s">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="I28" t="s">
         <v>21</v>
@@ -2322,16 +2320,16 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B29">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E29">
         <v>20231117</v>
@@ -2360,16 +2358,16 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B30">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E30">
         <v>20231117</v>
@@ -2378,7 +2376,7 @@
         <v>268</v>
       </c>
       <c r="G30" t="s">
-        <v>274</v>
+        <v>18</v>
       </c>
       <c r="H30" t="s">
         <v>270</v>
@@ -2398,16 +2396,16 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B31">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E31">
         <v>20231117</v>
@@ -2436,13 +2434,13 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="B32">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
@@ -2457,7 +2455,7 @@
         <v>18</v>
       </c>
       <c r="H32" t="s">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="I32" t="s">
         <v>21</v>
@@ -2474,13 +2472,13 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B33">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
@@ -2512,13 +2510,13 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B34">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
@@ -2550,13 +2548,13 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
@@ -2571,7 +2569,7 @@
         <v>18</v>
       </c>
       <c r="H35" t="s">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="I35" t="s">
         <v>21</v>
@@ -2588,16 +2586,16 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B36">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36">
         <v>20231117</v>
@@ -2626,16 +2624,16 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B37">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37">
         <v>20231117</v>
@@ -2647,7 +2645,7 @@
         <v>18</v>
       </c>
       <c r="H37" t="s">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="I37" t="s">
         <v>21</v>
@@ -2664,16 +2662,16 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B38">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38">
         <v>20231117</v>
@@ -2685,7 +2683,7 @@
         <v>18</v>
       </c>
       <c r="H38" t="s">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="I38" t="s">
         <v>21</v>
@@ -2702,16 +2700,16 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39">
         <v>20231117</v>
@@ -2740,16 +2738,16 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40">
         <v>20231117</v>
@@ -2761,7 +2759,7 @@
         <v>18</v>
       </c>
       <c r="H40" t="s">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="I40" t="s">
         <v>21</v>
@@ -2778,16 +2776,16 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41">
         <v>20231117</v>
@@ -2816,16 +2814,16 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42">
         <v>20231117</v>
@@ -2834,7 +2832,7 @@
         <v>268</v>
       </c>
       <c r="G42" t="s">
-        <v>18</v>
+        <v>274</v>
       </c>
       <c r="H42" t="s">
         <v>270</v>
@@ -2854,16 +2852,16 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43">
         <v>20231117</v>
@@ -2875,7 +2873,7 @@
         <v>18</v>
       </c>
       <c r="H43" t="s">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="I43" t="s">
         <v>21</v>
@@ -2892,13 +2890,13 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D44" t="s">
         <v>10</v>
@@ -2913,7 +2911,7 @@
         <v>18</v>
       </c>
       <c r="H44" t="s">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="I44" t="s">
         <v>21</v>
@@ -2930,13 +2928,13 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B45">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D45" t="s">
         <v>10</v>
@@ -2948,7 +2946,7 @@
         <v>268</v>
       </c>
       <c r="G45" t="s">
-        <v>18</v>
+        <v>274</v>
       </c>
       <c r="H45" t="s">
         <v>270</v>
@@ -2968,13 +2966,13 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D46" t="s">
         <v>10</v>
@@ -2989,7 +2987,7 @@
         <v>18</v>
       </c>
       <c r="H46" t="s">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="I46" t="s">
         <v>21</v>
@@ -3006,28 +3004,28 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>157</v>
       </c>
       <c r="B47">
-        <v>48</v>
+        <v>142</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E47">
-        <v>20231117</v>
+        <v>20231111</v>
       </c>
       <c r="F47" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G47" t="s">
         <v>18</v>
       </c>
       <c r="H47" t="s">
-        <v>20</v>
+        <v>266</v>
       </c>
       <c r="I47" t="s">
         <v>21</v>
@@ -3036,36 +3034,36 @@
         <v>273</v>
       </c>
       <c r="K47" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L47" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>158</v>
       </c>
       <c r="B48">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E48">
-        <v>20231117</v>
+        <v>20231111</v>
       </c>
       <c r="F48" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G48" t="s">
         <v>18</v>
       </c>
       <c r="H48" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I48" t="s">
         <v>21</v>
@@ -3074,36 +3072,36 @@
         <v>273</v>
       </c>
       <c r="K48" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L48" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>159</v>
       </c>
       <c r="B49">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E49">
-        <v>20231117</v>
+        <v>20231111</v>
       </c>
       <c r="F49" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G49" t="s">
         <v>18</v>
       </c>
       <c r="H49" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I49" t="s">
         <v>21</v>
@@ -3112,36 +3110,36 @@
         <v>273</v>
       </c>
       <c r="K49" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L49" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="B50">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E50">
-        <v>20231117</v>
+        <v>20231111</v>
       </c>
       <c r="F50" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G50" t="s">
         <v>18</v>
       </c>
       <c r="H50" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I50" t="s">
         <v>21</v>
@@ -3150,36 +3148,36 @@
         <v>273</v>
       </c>
       <c r="K50" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L50" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="B51">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="C51" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E51">
-        <v>20231117</v>
+        <v>20231111</v>
       </c>
       <c r="F51" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G51" t="s">
         <v>18</v>
       </c>
       <c r="H51" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I51" t="s">
         <v>21</v>
@@ -3188,36 +3186,36 @@
         <v>273</v>
       </c>
       <c r="K51" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L51" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="B52">
-        <v>54</v>
+        <v>147</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E52">
-        <v>20231117</v>
+        <v>20231111</v>
       </c>
       <c r="F52" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G52" t="s">
-        <v>274</v>
+        <v>18</v>
       </c>
       <c r="H52" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I52" t="s">
         <v>21</v>
@@ -3226,36 +3224,36 @@
         <v>273</v>
       </c>
       <c r="K52" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L52" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="B53">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c r="C53" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E53">
-        <v>20231117</v>
+        <v>20231111</v>
       </c>
       <c r="F53" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G53" t="s">
         <v>18</v>
       </c>
       <c r="H53" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I53" t="s">
         <v>21</v>
@@ -3264,36 +3262,36 @@
         <v>273</v>
       </c>
       <c r="K53" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L53" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="B54">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="C54" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E54">
-        <v>20231117</v>
+        <v>20231111</v>
       </c>
       <c r="F54" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G54" t="s">
         <v>18</v>
       </c>
       <c r="H54" t="s">
-        <v>20</v>
+        <v>266</v>
       </c>
       <c r="I54" t="s">
         <v>21</v>
@@ -3302,36 +3300,36 @@
         <v>273</v>
       </c>
       <c r="K54" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L54" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c r="B55">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E55">
-        <v>20231117</v>
+        <v>20231111</v>
       </c>
       <c r="F55" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G55" t="s">
         <v>18</v>
       </c>
       <c r="H55" t="s">
-        <v>20</v>
+        <v>266</v>
       </c>
       <c r="I55" t="s">
         <v>21</v>
@@ -3340,36 +3338,36 @@
         <v>273</v>
       </c>
       <c r="K55" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L55" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>168</v>
       </c>
       <c r="B56">
-        <v>58</v>
+        <v>153</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E56">
-        <v>20231117</v>
+        <v>20231111</v>
       </c>
       <c r="F56" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G56" t="s">
-        <v>274</v>
+        <v>18</v>
       </c>
       <c r="H56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I56" t="s">
         <v>21</v>
@@ -3378,36 +3376,36 @@
         <v>273</v>
       </c>
       <c r="K56" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L56" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="B57">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E57">
-        <v>20231117</v>
+        <v>20231111</v>
       </c>
       <c r="F57" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G57" t="s">
         <v>18</v>
       </c>
       <c r="H57" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I57" t="s">
         <v>21</v>
@@ -3416,36 +3414,36 @@
         <v>273</v>
       </c>
       <c r="K57" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L57" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="B58">
-        <v>61</v>
+        <v>155</v>
       </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E58">
-        <v>20231117</v>
+        <v>20231111</v>
       </c>
       <c r="F58" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G58" t="s">
         <v>18</v>
       </c>
       <c r="H58" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I58" t="s">
         <v>21</v>
@@ -3454,36 +3452,36 @@
         <v>273</v>
       </c>
       <c r="K58" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L58" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="B59">
-        <v>62</v>
+        <v>156</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E59">
-        <v>20231117</v>
+        <v>20231111</v>
       </c>
       <c r="F59" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G59" t="s">
         <v>18</v>
       </c>
       <c r="H59" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I59" t="s">
         <v>21</v>
@@ -3492,36 +3490,36 @@
         <v>273</v>
       </c>
       <c r="K59" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L59" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="B60">
-        <v>63</v>
+        <v>157</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D60" t="s">
         <v>10</v>
       </c>
       <c r="E60">
-        <v>20231117</v>
+        <v>20231111</v>
       </c>
       <c r="F60" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G60" t="s">
         <v>18</v>
       </c>
       <c r="H60" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I60" t="s">
         <v>21</v>
@@ -3530,36 +3528,36 @@
         <v>273</v>
       </c>
       <c r="K60" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L60" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="B61">
-        <v>64</v>
+        <v>158</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D61" t="s">
         <v>10</v>
       </c>
       <c r="E61">
-        <v>20231117</v>
+        <v>20231111</v>
       </c>
       <c r="F61" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G61" t="s">
         <v>18</v>
       </c>
       <c r="H61" t="s">
-        <v>20</v>
+        <v>266</v>
       </c>
       <c r="I61" t="s">
         <v>21</v>
@@ -3568,36 +3566,36 @@
         <v>273</v>
       </c>
       <c r="K61" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L61" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="B62">
-        <v>65</v>
+        <v>159</v>
       </c>
       <c r="C62" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62">
-        <v>20231117</v>
+        <v>20231111</v>
       </c>
       <c r="F62" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G62" t="s">
         <v>18</v>
       </c>
       <c r="H62" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I62" t="s">
         <v>21</v>
@@ -3606,36 +3604,36 @@
         <v>273</v>
       </c>
       <c r="K62" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L62" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c r="B63">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="C63" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63">
-        <v>20231117</v>
+        <v>20231111</v>
       </c>
       <c r="F63" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G63" t="s">
         <v>18</v>
       </c>
       <c r="H63" t="s">
-        <v>20</v>
+        <v>266</v>
       </c>
       <c r="I63" t="s">
         <v>21</v>
@@ -3644,36 +3642,36 @@
         <v>273</v>
       </c>
       <c r="K63" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L63" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>84</v>
+        <v>176</v>
       </c>
       <c r="B64">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C64" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64">
-        <v>20231117</v>
+        <v>20231111</v>
       </c>
       <c r="F64" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G64" t="s">
         <v>18</v>
       </c>
       <c r="H64" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I64" t="s">
         <v>21</v>
@@ -3682,36 +3680,36 @@
         <v>273</v>
       </c>
       <c r="K64" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L64" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>85</v>
+        <v>177</v>
       </c>
       <c r="B65">
-        <v>68</v>
+        <v>162</v>
       </c>
       <c r="C65" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65">
-        <v>20231117</v>
+        <v>20231111</v>
       </c>
       <c r="F65" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G65" t="s">
         <v>18</v>
       </c>
       <c r="H65" t="s">
-        <v>20</v>
+        <v>266</v>
       </c>
       <c r="I65" t="s">
         <v>21</v>
@@ -3720,36 +3718,36 @@
         <v>273</v>
       </c>
       <c r="K65" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L65" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>86</v>
+        <v>178</v>
       </c>
       <c r="B66">
-        <v>69</v>
+        <v>163</v>
       </c>
       <c r="C66" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66">
-        <v>20231117</v>
+        <v>20231111</v>
       </c>
       <c r="F66" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G66" t="s">
         <v>18</v>
       </c>
       <c r="H66" t="s">
-        <v>20</v>
+        <v>266</v>
       </c>
       <c r="I66" t="s">
         <v>21</v>
@@ -3758,36 +3756,36 @@
         <v>273</v>
       </c>
       <c r="K66" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L66" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>87</v>
+        <v>179</v>
       </c>
       <c r="B67">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="C67" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67">
-        <v>20231117</v>
+        <v>20231111</v>
       </c>
       <c r="F67" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G67" t="s">
         <v>18</v>
       </c>
       <c r="H67" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I67" t="s">
         <v>21</v>
@@ -3796,36 +3794,36 @@
         <v>273</v>
       </c>
       <c r="K67" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L67" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>88</v>
+        <v>181</v>
       </c>
       <c r="B68">
-        <v>71</v>
+        <v>166</v>
       </c>
       <c r="C68" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68">
-        <v>20231117</v>
+        <v>20231111</v>
       </c>
       <c r="F68" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G68" t="s">
         <v>18</v>
       </c>
       <c r="H68" t="s">
-        <v>20</v>
+        <v>266</v>
       </c>
       <c r="I68" t="s">
         <v>21</v>
@@ -3834,36 +3832,36 @@
         <v>273</v>
       </c>
       <c r="K68" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L68" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>89</v>
+        <v>183</v>
       </c>
       <c r="B69">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="C69" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69">
-        <v>20231117</v>
+        <v>20231111</v>
       </c>
       <c r="F69" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G69" t="s">
         <v>18</v>
       </c>
       <c r="H69" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I69" t="s">
         <v>21</v>
@@ -3872,36 +3870,36 @@
         <v>273</v>
       </c>
       <c r="K69" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L69" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>90</v>
+        <v>187</v>
       </c>
       <c r="B70">
-        <v>73</v>
+        <v>173</v>
       </c>
       <c r="C70" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70">
-        <v>20231117</v>
+        <v>20231111</v>
       </c>
       <c r="F70" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G70" t="s">
         <v>18</v>
       </c>
       <c r="H70" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I70" t="s">
         <v>21</v>
@@ -3910,36 +3908,36 @@
         <v>273</v>
       </c>
       <c r="K70" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L70" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="B71">
-        <v>74</v>
+        <v>176</v>
       </c>
       <c r="C71" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71">
-        <v>20231117</v>
+        <v>20231111</v>
       </c>
       <c r="F71" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G71" t="s">
         <v>18</v>
       </c>
       <c r="H71" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I71" t="s">
         <v>21</v>
@@ -3948,36 +3946,36 @@
         <v>273</v>
       </c>
       <c r="K71" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L71" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>92</v>
+        <v>192</v>
       </c>
       <c r="B72">
-        <v>75</v>
+        <v>178</v>
       </c>
       <c r="C72" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72">
-        <v>20231117</v>
+        <v>20231111</v>
       </c>
       <c r="F72" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G72" t="s">
         <v>18</v>
       </c>
       <c r="H72" t="s">
-        <v>20</v>
+        <v>266</v>
       </c>
       <c r="I72" t="s">
         <v>21</v>
@@ -3986,36 +3984,36 @@
         <v>273</v>
       </c>
       <c r="K72" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L72" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>93</v>
+        <v>163</v>
       </c>
       <c r="B73">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="C73" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D73" t="s">
         <v>9</v>
       </c>
       <c r="E73">
-        <v>20231117</v>
+        <v>20231111</v>
       </c>
       <c r="F73" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G73" t="s">
         <v>18</v>
       </c>
       <c r="H73" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I73" t="s">
         <v>21</v>
@@ -4024,36 +4022,36 @@
         <v>273</v>
       </c>
       <c r="K73" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L73" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>94</v>
+        <v>165</v>
       </c>
       <c r="B74">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="C74" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74" s="2">
-        <v>20231117</v>
+        <v>9</v>
+      </c>
+      <c r="E74">
+        <v>20231111</v>
       </c>
       <c r="F74" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G74" t="s">
         <v>18</v>
       </c>
       <c r="H74" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I74" t="s">
         <v>21</v>
@@ -4062,36 +4060,36 @@
         <v>273</v>
       </c>
       <c r="K74" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L74" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="B75">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="C75" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D75" t="s">
         <v>10</v>
       </c>
       <c r="E75">
-        <v>20231117</v>
+        <v>20231111</v>
       </c>
       <c r="F75" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G75" t="s">
         <v>18</v>
       </c>
       <c r="H75" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I75" t="s">
         <v>21</v>
@@ -4100,36 +4098,36 @@
         <v>273</v>
       </c>
       <c r="K75" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L75" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="B76">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="C76" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D76" t="s">
         <v>10</v>
       </c>
       <c r="E76">
-        <v>20231117</v>
+        <v>20231111</v>
       </c>
       <c r="F76" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G76" t="s">
         <v>18</v>
       </c>
       <c r="H76" t="s">
-        <v>20</v>
+        <v>267</v>
       </c>
       <c r="I76" t="s">
         <v>21</v>
@@ -4138,36 +4136,36 @@
         <v>273</v>
       </c>
       <c r="K76" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L76" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="B77">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="C77" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D77" t="s">
         <v>10</v>
       </c>
       <c r="E77">
-        <v>20231117</v>
+        <v>20231111</v>
       </c>
       <c r="F77" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G77" t="s">
         <v>18</v>
       </c>
       <c r="H77" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I77" t="s">
         <v>21</v>
@@ -4176,36 +4174,36 @@
         <v>273</v>
       </c>
       <c r="K77" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L77" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>98</v>
+        <v>185</v>
       </c>
       <c r="B78">
-        <v>82</v>
+        <v>171</v>
       </c>
       <c r="C78" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D78" t="s">
         <v>10</v>
       </c>
       <c r="E78">
-        <v>20231117</v>
+        <v>20231111</v>
       </c>
       <c r="F78" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G78" t="s">
         <v>18</v>
       </c>
       <c r="H78" t="s">
-        <v>20</v>
+        <v>267</v>
       </c>
       <c r="I78" t="s">
         <v>21</v>
@@ -4214,36 +4212,36 @@
         <v>273</v>
       </c>
       <c r="K78" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L78" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>99</v>
+        <v>186</v>
       </c>
       <c r="B79">
-        <v>83</v>
+        <v>172</v>
       </c>
       <c r="C79" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D79" t="s">
         <v>10</v>
       </c>
       <c r="E79">
-        <v>20231117</v>
+        <v>20231111</v>
       </c>
       <c r="F79" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G79" t="s">
         <v>18</v>
       </c>
       <c r="H79" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I79" t="s">
         <v>21</v>
@@ -4252,36 +4250,36 @@
         <v>273</v>
       </c>
       <c r="K79" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L79" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>100</v>
+        <v>188</v>
       </c>
       <c r="B80">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="C80" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D80" t="s">
         <v>10</v>
       </c>
       <c r="E80">
-        <v>20231117</v>
+        <v>20231111</v>
       </c>
       <c r="F80" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G80" t="s">
         <v>18</v>
       </c>
       <c r="H80" t="s">
-        <v>20</v>
+        <v>267</v>
       </c>
       <c r="I80" t="s">
         <v>21</v>
@@ -4290,36 +4288,36 @@
         <v>273</v>
       </c>
       <c r="K80" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L80" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>101</v>
+        <v>189</v>
       </c>
       <c r="B81">
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="C81" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D81" t="s">
         <v>10</v>
       </c>
       <c r="E81">
-        <v>20231117</v>
+        <v>20231111</v>
       </c>
       <c r="F81" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G81" t="s">
         <v>18</v>
       </c>
       <c r="H81" t="s">
-        <v>20</v>
+        <v>267</v>
       </c>
       <c r="I81" t="s">
         <v>21</v>
@@ -4328,36 +4326,36 @@
         <v>273</v>
       </c>
       <c r="K81" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L81" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>102</v>
+        <v>191</v>
       </c>
       <c r="B82">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="C82" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D82" t="s">
         <v>10</v>
       </c>
       <c r="E82">
-        <v>20231117</v>
+        <v>20231111</v>
       </c>
       <c r="F82" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G82" t="s">
         <v>18</v>
       </c>
       <c r="H82" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I82" t="s">
         <v>21</v>
@@ -4366,24 +4364,24 @@
         <v>273</v>
       </c>
       <c r="K82" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="L82" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="B83">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="C83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E83">
         <v>20231117</v>
@@ -4395,7 +4393,7 @@
         <v>18</v>
       </c>
       <c r="H83" t="s">
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="I83" t="s">
         <v>21</v>
@@ -4412,16 +4410,16 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="B84">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="C84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E84">
         <v>20231117</v>
@@ -4450,16 +4448,16 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="B85">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="C85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E85">
         <v>20231117</v>
@@ -4471,7 +4469,7 @@
         <v>18</v>
       </c>
       <c r="H85" t="s">
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="I85" t="s">
         <v>21</v>
@@ -4488,16 +4486,16 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="B86">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="C86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E86">
         <v>20231117</v>
@@ -4509,7 +4507,7 @@
         <v>18</v>
       </c>
       <c r="H86" t="s">
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="I86" t="s">
         <v>21</v>
@@ -4526,16 +4524,16 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="B87">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="C87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E87">
         <v>20231117</v>
@@ -4547,7 +4545,7 @@
         <v>18</v>
       </c>
       <c r="H87" t="s">
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="I87" t="s">
         <v>21</v>
@@ -4564,16 +4562,16 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="B88">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="C88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E88">
         <v>20231117</v>
@@ -4585,7 +4583,7 @@
         <v>18</v>
       </c>
       <c r="H88" t="s">
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="I88" t="s">
         <v>21</v>
@@ -4602,13 +4600,13 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="B89">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="C89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D89" t="s">
         <v>10</v>
@@ -4620,7 +4618,7 @@
         <v>268</v>
       </c>
       <c r="G89" t="s">
-        <v>274</v>
+        <v>18</v>
       </c>
       <c r="H89" t="s">
         <v>20</v>
@@ -4640,13 +4638,13 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="B90">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="C90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D90" t="s">
         <v>10</v>
@@ -4678,13 +4676,13 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="B91">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="C91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D91" t="s">
         <v>10</v>
@@ -4716,22 +4714,22 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="B92">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
-      </c>
-      <c r="E92" s="2">
-        <v>20231107</v>
+        <v>10</v>
+      </c>
+      <c r="E92">
+        <v>20231117</v>
       </c>
       <c r="F92" t="s">
-        <v>15</v>
+        <v>268</v>
       </c>
       <c r="G92" t="s">
         <v>18</v>
@@ -4746,7 +4744,7 @@
         <v>273</v>
       </c>
       <c r="K92" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L92" t="s">
         <v>13</v>
@@ -4754,22 +4752,22 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="B93">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
-      </c>
-      <c r="E93" s="2">
-        <v>20231107</v>
+        <v>10</v>
+      </c>
+      <c r="E93">
+        <v>20231117</v>
       </c>
       <c r="F93" t="s">
-        <v>15</v>
+        <v>268</v>
       </c>
       <c r="G93" t="s">
         <v>18</v>
@@ -4784,7 +4782,7 @@
         <v>273</v>
       </c>
       <c r="K93" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L93" t="s">
         <v>13</v>
@@ -4792,22 +4790,22 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="B94">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
-      </c>
-      <c r="E94" s="2">
-        <v>20231107</v>
+        <v>10</v>
+      </c>
+      <c r="E94">
+        <v>20231117</v>
       </c>
       <c r="F94" t="s">
-        <v>15</v>
+        <v>268</v>
       </c>
       <c r="G94" t="s">
         <v>18</v>
@@ -4822,7 +4820,7 @@
         <v>273</v>
       </c>
       <c r="K94" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L94" t="s">
         <v>13</v>
@@ -4830,13 +4828,13 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B95">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D95" t="s">
         <v>9</v>
@@ -4868,13 +4866,13 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B96">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D96" t="s">
         <v>9</v>
@@ -4906,16 +4904,16 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="B97">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E97" s="2">
         <v>20231107</v>
@@ -4944,16 +4942,16 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="B98">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E98" s="2">
         <v>20231107</v>
@@ -4982,16 +4980,16 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B99">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E99" s="2">
         <v>20231107</v>
@@ -5020,13 +5018,13 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="B100">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D100" t="s">
         <v>10</v>
@@ -5058,13 +5056,13 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="B101">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D101" t="s">
         <v>10</v>
@@ -5096,18 +5094,18 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="B102">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D102" t="s">
         <v>10</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="2">
         <v>20231107</v>
       </c>
       <c r="F102" t="s">
@@ -5134,18 +5132,18 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B103">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D103" t="s">
         <v>10</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="2">
         <v>20231107</v>
       </c>
       <c r="F103" t="s">
@@ -5172,13 +5170,13 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B104">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D104" t="s">
         <v>10</v>
@@ -5210,18 +5208,18 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B105">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D105" t="s">
         <v>10</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="2">
         <v>20231107</v>
       </c>
       <c r="F105" t="s">
@@ -5248,13 +5246,13 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B106">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D106" t="s">
         <v>10</v>
@@ -5286,16 +5284,16 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B107">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C107" t="s">
         <v>11</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" s="2">
         <v>20231107</v>
@@ -5324,16 +5322,16 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B108">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C108" t="s">
         <v>11</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" s="2">
         <v>20231107</v>
@@ -5362,16 +5360,16 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="B109">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="C109" t="s">
         <v>11</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" s="2">
         <v>20231107</v>
@@ -5400,10 +5398,10 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>130</v>
+        <v>53</v>
       </c>
       <c r="B110">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="C110" t="s">
         <v>11</v>
@@ -5411,17 +5409,17 @@
       <c r="D110" t="s">
         <v>9</v>
       </c>
-      <c r="E110" s="2">
-        <v>20231107</v>
+      <c r="E110">
+        <v>20231117</v>
       </c>
       <c r="F110" t="s">
-        <v>15</v>
+        <v>268</v>
       </c>
       <c r="G110" t="s">
         <v>18</v>
       </c>
       <c r="H110" t="s">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="I110" t="s">
         <v>21</v>
@@ -5430,7 +5428,7 @@
         <v>273</v>
       </c>
       <c r="K110" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L110" t="s">
         <v>13</v>
@@ -5438,10 +5436,10 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>131</v>
+        <v>54</v>
       </c>
       <c r="B111">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="C111" t="s">
         <v>11</v>
@@ -5449,17 +5447,17 @@
       <c r="D111" t="s">
         <v>9</v>
       </c>
-      <c r="E111" s="2">
-        <v>20231107</v>
+      <c r="E111">
+        <v>20231117</v>
       </c>
       <c r="F111" t="s">
-        <v>15</v>
+        <v>268</v>
       </c>
       <c r="G111" t="s">
         <v>18</v>
       </c>
       <c r="H111" t="s">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="I111" t="s">
         <v>21</v>
@@ -5468,7 +5466,7 @@
         <v>273</v>
       </c>
       <c r="K111" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L111" t="s">
         <v>13</v>
@@ -5476,28 +5474,28 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="B112">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="C112" t="s">
         <v>11</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
-      </c>
-      <c r="E112" s="2">
-        <v>20231107</v>
+        <v>9</v>
+      </c>
+      <c r="E112">
+        <v>20231117</v>
       </c>
       <c r="F112" t="s">
-        <v>15</v>
+        <v>268</v>
       </c>
       <c r="G112" t="s">
         <v>18</v>
       </c>
       <c r="H112" t="s">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="I112" t="s">
         <v>21</v>
@@ -5506,7 +5504,7 @@
         <v>273</v>
       </c>
       <c r="K112" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L112" t="s">
         <v>13</v>
@@ -5514,28 +5512,28 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>133</v>
+        <v>59</v>
       </c>
       <c r="B113">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="C113" t="s">
         <v>11</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
-      </c>
-      <c r="E113" s="2">
-        <v>20231107</v>
+        <v>9</v>
+      </c>
+      <c r="E113">
+        <v>20231117</v>
       </c>
       <c r="F113" t="s">
-        <v>15</v>
+        <v>268</v>
       </c>
       <c r="G113" t="s">
         <v>18</v>
       </c>
       <c r="H113" t="s">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="I113" t="s">
         <v>21</v>
@@ -5544,7 +5542,7 @@
         <v>273</v>
       </c>
       <c r="K113" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L113" t="s">
         <v>13</v>
@@ -5552,28 +5550,28 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="B114">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="C114" t="s">
         <v>11</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
-      </c>
-      <c r="E114" s="2">
-        <v>20231107</v>
+        <v>9</v>
+      </c>
+      <c r="E114">
+        <v>20231117</v>
       </c>
       <c r="F114" t="s">
-        <v>15</v>
+        <v>268</v>
       </c>
       <c r="G114" t="s">
         <v>18</v>
       </c>
       <c r="H114" t="s">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="I114" t="s">
         <v>21</v>
@@ -5582,7 +5580,7 @@
         <v>273</v>
       </c>
       <c r="K114" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L114" t="s">
         <v>13</v>
@@ -5590,28 +5588,28 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>135</v>
+        <v>62</v>
       </c>
       <c r="B115">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="C115" t="s">
         <v>11</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
-      </c>
-      <c r="E115" s="2">
-        <v>20231107</v>
+        <v>9</v>
+      </c>
+      <c r="E115">
+        <v>20231117</v>
       </c>
       <c r="F115" t="s">
-        <v>15</v>
+        <v>268</v>
       </c>
       <c r="G115" t="s">
         <v>18</v>
       </c>
       <c r="H115" t="s">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="I115" t="s">
         <v>21</v>
@@ -5620,7 +5618,7 @@
         <v>273</v>
       </c>
       <c r="K115" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L115" t="s">
         <v>13</v>
@@ -5628,10 +5626,10 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="B116">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="C116" t="s">
         <v>11</v>
@@ -5639,17 +5637,17 @@
       <c r="D116" t="s">
         <v>10</v>
       </c>
-      <c r="E116" s="2">
-        <v>20231107</v>
+      <c r="E116">
+        <v>20231117</v>
       </c>
       <c r="F116" t="s">
-        <v>15</v>
+        <v>268</v>
       </c>
       <c r="G116" t="s">
         <v>18</v>
       </c>
       <c r="H116" t="s">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="I116" t="s">
         <v>21</v>
@@ -5658,7 +5656,7 @@
         <v>273</v>
       </c>
       <c r="K116" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L116" t="s">
         <v>13</v>
@@ -5666,10 +5664,10 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="B117">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="C117" t="s">
         <v>11</v>
@@ -5677,17 +5675,17 @@
       <c r="D117" t="s">
         <v>10</v>
       </c>
-      <c r="E117" s="2">
-        <v>20231107</v>
+      <c r="E117">
+        <v>20231117</v>
       </c>
       <c r="F117" t="s">
-        <v>15</v>
+        <v>268</v>
       </c>
       <c r="G117" t="s">
         <v>18</v>
       </c>
       <c r="H117" t="s">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="I117" t="s">
         <v>21</v>
@@ -5696,7 +5694,7 @@
         <v>273</v>
       </c>
       <c r="K117" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L117" t="s">
         <v>13</v>
@@ -5704,10 +5702,10 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="B118">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="C118" t="s">
         <v>11</v>
@@ -5715,17 +5713,17 @@
       <c r="D118" t="s">
         <v>10</v>
       </c>
-      <c r="E118" s="2">
-        <v>20231107</v>
+      <c r="E118">
+        <v>20231117</v>
       </c>
       <c r="F118" t="s">
-        <v>15</v>
+        <v>268</v>
       </c>
       <c r="G118" t="s">
         <v>18</v>
       </c>
       <c r="H118" t="s">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="I118" t="s">
         <v>21</v>
@@ -5734,7 +5732,7 @@
         <v>273</v>
       </c>
       <c r="K118" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L118" t="s">
         <v>13</v>
@@ -5742,28 +5740,28 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="B119">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="C119" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D119" t="s">
         <v>10</v>
       </c>
       <c r="E119">
-        <v>20231107</v>
+        <v>20231117</v>
       </c>
       <c r="F119" t="s">
-        <v>15</v>
+        <v>268</v>
       </c>
       <c r="G119" t="s">
         <v>18</v>
       </c>
       <c r="H119" t="s">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="I119" t="s">
         <v>21</v>
@@ -5772,7 +5770,7 @@
         <v>273</v>
       </c>
       <c r="K119" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L119" t="s">
         <v>13</v>
@@ -5780,10 +5778,10 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="B120">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="C120" t="s">
         <v>11</v>
@@ -5791,17 +5789,17 @@
       <c r="D120" t="s">
         <v>10</v>
       </c>
-      <c r="E120" s="2">
-        <v>20231107</v>
+      <c r="E120">
+        <v>20231117</v>
       </c>
       <c r="F120" t="s">
-        <v>15</v>
+        <v>268</v>
       </c>
       <c r="G120" t="s">
         <v>18</v>
       </c>
       <c r="H120" t="s">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="I120" t="s">
         <v>21</v>
@@ -5810,7 +5808,7 @@
         <v>273</v>
       </c>
       <c r="K120" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L120" t="s">
         <v>13</v>
@@ -5818,10 +5816,10 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="B121">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="C121" t="s">
         <v>11</v>
@@ -5829,17 +5827,17 @@
       <c r="D121" t="s">
         <v>10</v>
       </c>
-      <c r="E121" s="2">
-        <v>20231107</v>
+      <c r="E121">
+        <v>20231117</v>
       </c>
       <c r="F121" t="s">
-        <v>15</v>
+        <v>268</v>
       </c>
       <c r="G121" t="s">
-        <v>18</v>
+        <v>274</v>
       </c>
       <c r="H121" t="s">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="I121" t="s">
         <v>21</v>
@@ -5848,7 +5846,7 @@
         <v>273</v>
       </c>
       <c r="K121" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L121" t="s">
         <v>13</v>
@@ -5856,28 +5854,28 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c r="B122">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="C122" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122">
-        <v>20231107</v>
+        <v>20231117</v>
       </c>
       <c r="F122" t="s">
-        <v>15</v>
+        <v>268</v>
       </c>
       <c r="G122" t="s">
         <v>18</v>
       </c>
       <c r="H122" t="s">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="I122" t="s">
         <v>21</v>
@@ -5886,7 +5884,7 @@
         <v>273</v>
       </c>
       <c r="K122" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L122" t="s">
         <v>13</v>
@@ -5894,28 +5892,28 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="B123">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="C123" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
-      </c>
-      <c r="E123" s="2">
-        <v>20231107</v>
+        <v>10</v>
+      </c>
+      <c r="E123">
+        <v>20231117</v>
       </c>
       <c r="F123" t="s">
-        <v>15</v>
+        <v>268</v>
       </c>
       <c r="G123" t="s">
-        <v>18</v>
+        <v>274</v>
       </c>
       <c r="H123" t="s">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="I123" t="s">
         <v>21</v>
@@ -5924,7 +5922,7 @@
         <v>273</v>
       </c>
       <c r="K123" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L123" t="s">
         <v>13</v>
@@ -5932,28 +5930,28 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="B124">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="C124" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
-      </c>
-      <c r="E124" s="2">
-        <v>20231107</v>
+        <v>10</v>
+      </c>
+      <c r="E124">
+        <v>20231117</v>
       </c>
       <c r="F124" t="s">
-        <v>15</v>
+        <v>268</v>
       </c>
       <c r="G124" t="s">
         <v>18</v>
       </c>
       <c r="H124" t="s">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="I124" t="s">
         <v>21</v>
@@ -5962,7 +5960,7 @@
         <v>273</v>
       </c>
       <c r="K124" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L124" t="s">
         <v>13</v>
@@ -5970,28 +5968,28 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="B125">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c r="C125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
-      </c>
-      <c r="E125" s="2">
-        <v>20231107</v>
+        <v>10</v>
+      </c>
+      <c r="E125">
+        <v>20231117</v>
       </c>
       <c r="F125" t="s">
-        <v>15</v>
+        <v>268</v>
       </c>
       <c r="G125" t="s">
         <v>18</v>
       </c>
       <c r="H125" t="s">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="I125" t="s">
         <v>21</v>
@@ -6000,7 +5998,7 @@
         <v>273</v>
       </c>
       <c r="K125" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L125" t="s">
         <v>13</v>
@@ -6008,28 +6006,28 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="B126">
-        <v>131</v>
+        <v>62</v>
       </c>
       <c r="C126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
-      </c>
-      <c r="E126" s="2">
-        <v>20231107</v>
+        <v>10</v>
+      </c>
+      <c r="E126">
+        <v>20231117</v>
       </c>
       <c r="F126" t="s">
-        <v>15</v>
+        <v>268</v>
       </c>
       <c r="G126" t="s">
         <v>18</v>
       </c>
       <c r="H126" t="s">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="I126" t="s">
         <v>21</v>
@@ -6038,7 +6036,7 @@
         <v>273</v>
       </c>
       <c r="K126" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L126" t="s">
         <v>13</v>
@@ -6046,28 +6044,28 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="B127">
-        <v>132</v>
+        <v>63</v>
       </c>
       <c r="C127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D127" t="s">
         <v>10</v>
       </c>
-      <c r="E127" s="2">
-        <v>20231107</v>
+      <c r="E127">
+        <v>20231117</v>
       </c>
       <c r="F127" t="s">
-        <v>15</v>
+        <v>268</v>
       </c>
       <c r="G127" t="s">
         <v>18</v>
       </c>
       <c r="H127" t="s">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="I127" t="s">
         <v>21</v>
@@ -6076,7 +6074,7 @@
         <v>273</v>
       </c>
       <c r="K127" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L127" t="s">
         <v>13</v>
@@ -6084,28 +6082,28 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>148</v>
+        <v>193</v>
       </c>
       <c r="B128">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="C128" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
-      </c>
-      <c r="E128" s="2">
-        <v>20231107</v>
+        <v>9</v>
+      </c>
+      <c r="E128">
+        <v>20231111</v>
       </c>
       <c r="F128" t="s">
-        <v>15</v>
+        <v>269</v>
       </c>
       <c r="G128" t="s">
         <v>18</v>
       </c>
       <c r="H128" t="s">
-        <v>20</v>
+        <v>266</v>
       </c>
       <c r="I128" t="s">
         <v>21</v>
@@ -6117,33 +6115,33 @@
         <v>22</v>
       </c>
       <c r="L128" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>149</v>
+        <v>194</v>
       </c>
       <c r="B129">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="C129" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
-      </c>
-      <c r="E129" s="2">
-        <v>20231107</v>
+        <v>9</v>
+      </c>
+      <c r="E129">
+        <v>20231111</v>
       </c>
       <c r="F129" t="s">
-        <v>15</v>
+        <v>269</v>
       </c>
       <c r="G129" t="s">
         <v>18</v>
       </c>
       <c r="H129" t="s">
-        <v>20</v>
+        <v>266</v>
       </c>
       <c r="I129" t="s">
         <v>21</v>
@@ -6155,33 +6153,33 @@
         <v>22</v>
       </c>
       <c r="L129" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="B130">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="C130" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
-      </c>
-      <c r="E130" s="2">
-        <v>20231107</v>
+        <v>9</v>
+      </c>
+      <c r="E130">
+        <v>20231111</v>
       </c>
       <c r="F130" t="s">
-        <v>15</v>
+        <v>269</v>
       </c>
       <c r="G130" t="s">
         <v>18</v>
       </c>
       <c r="H130" t="s">
-        <v>20</v>
+        <v>266</v>
       </c>
       <c r="I130" t="s">
         <v>21</v>
@@ -6193,33 +6191,33 @@
         <v>22</v>
       </c>
       <c r="L130" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
       <c r="B131">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="C131" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
-      </c>
-      <c r="E131" s="2">
-        <v>20231107</v>
+        <v>9</v>
+      </c>
+      <c r="E131">
+        <v>20231111</v>
       </c>
       <c r="F131" t="s">
-        <v>15</v>
+        <v>269</v>
       </c>
       <c r="G131" t="s">
         <v>18</v>
       </c>
       <c r="H131" t="s">
-        <v>20</v>
+        <v>266</v>
       </c>
       <c r="I131" t="s">
         <v>21</v>
@@ -6231,33 +6229,33 @@
         <v>22</v>
       </c>
       <c r="L131" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="B132">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="C132" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
-      </c>
-      <c r="E132" s="2">
-        <v>20231107</v>
+        <v>9</v>
+      </c>
+      <c r="E132">
+        <v>20231111</v>
       </c>
       <c r="F132" t="s">
-        <v>15</v>
+        <v>269</v>
       </c>
       <c r="G132" t="s">
         <v>18</v>
       </c>
       <c r="H132" t="s">
-        <v>20</v>
+        <v>266</v>
       </c>
       <c r="I132" t="s">
         <v>21</v>
@@ -6269,33 +6267,33 @@
         <v>22</v>
       </c>
       <c r="L132" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>153</v>
+        <v>198</v>
       </c>
       <c r="B133">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="C133" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
-      </c>
-      <c r="E133" s="2">
-        <v>20231107</v>
+        <v>9</v>
+      </c>
+      <c r="E133">
+        <v>20231111</v>
       </c>
       <c r="F133" t="s">
-        <v>15</v>
+        <v>269</v>
       </c>
       <c r="G133" t="s">
         <v>18</v>
       </c>
       <c r="H133" t="s">
-        <v>20</v>
+        <v>266</v>
       </c>
       <c r="I133" t="s">
         <v>21</v>
@@ -6307,33 +6305,33 @@
         <v>22</v>
       </c>
       <c r="L133" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="B134">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="C134" t="s">
         <v>11</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
-      </c>
-      <c r="E134" s="2">
-        <v>20231107</v>
+        <v>9</v>
+      </c>
+      <c r="E134">
+        <v>20231111</v>
       </c>
       <c r="F134" t="s">
-        <v>15</v>
+        <v>269</v>
       </c>
       <c r="G134" t="s">
         <v>18</v>
       </c>
       <c r="H134" t="s">
-        <v>20</v>
+        <v>266</v>
       </c>
       <c r="I134" t="s">
         <v>21</v>
@@ -6345,33 +6343,33 @@
         <v>22</v>
       </c>
       <c r="L134" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="B135">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="C135" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
-      </c>
-      <c r="E135" s="2">
-        <v>20231107</v>
+        <v>9</v>
+      </c>
+      <c r="E135">
+        <v>20231111</v>
       </c>
       <c r="F135" t="s">
-        <v>15</v>
+        <v>269</v>
       </c>
       <c r="G135" t="s">
         <v>18</v>
       </c>
       <c r="H135" t="s">
-        <v>20</v>
+        <v>266</v>
       </c>
       <c r="I135" t="s">
         <v>21</v>
@@ -6383,56 +6381,56 @@
         <v>22</v>
       </c>
       <c r="L135" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B136" s="3">
-        <v>141</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E136" s="4">
-        <v>20231107</v>
-      </c>
-      <c r="F136" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G136" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H136" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I136" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J136" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="K136" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L136" s="3" t="s">
-        <v>13</v>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>201</v>
+      </c>
+      <c r="B136">
+        <v>187</v>
+      </c>
+      <c r="C136" t="s">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s">
+        <v>9</v>
+      </c>
+      <c r="E136">
+        <v>20231111</v>
+      </c>
+      <c r="F136" t="s">
+        <v>269</v>
+      </c>
+      <c r="G136" t="s">
+        <v>18</v>
+      </c>
+      <c r="H136" t="s">
+        <v>266</v>
+      </c>
+      <c r="I136" t="s">
+        <v>21</v>
+      </c>
+      <c r="J136" t="s">
+        <v>273</v>
+      </c>
+      <c r="K136" t="s">
+        <v>22</v>
+      </c>
+      <c r="L136" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="B137">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D137" t="s">
         <v>9</v>
@@ -6464,13 +6462,13 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>158</v>
+        <v>203</v>
       </c>
       <c r="B138">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D138" t="s">
         <v>9</v>
@@ -6502,13 +6500,13 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="B139">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D139" t="s">
         <v>9</v>
@@ -6540,13 +6538,13 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="B140">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D140" t="s">
         <v>9</v>
@@ -6578,16 +6576,16 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>161</v>
+        <v>208</v>
       </c>
       <c r="B141">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141">
         <v>20231111</v>
@@ -6616,16 +6614,16 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>162</v>
+        <v>209</v>
       </c>
       <c r="B142">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142">
         <v>20231111</v>
@@ -6654,16 +6652,16 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>163</v>
+        <v>210</v>
       </c>
       <c r="B143">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143">
         <v>20231111</v>
@@ -6675,7 +6673,7 @@
         <v>18</v>
       </c>
       <c r="H143" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I143" t="s">
         <v>21</v>
@@ -6692,16 +6690,16 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>164</v>
+        <v>211</v>
       </c>
       <c r="B144">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144">
         <v>20231111</v>
@@ -6730,16 +6728,16 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>165</v>
+        <v>212</v>
       </c>
       <c r="B145">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145">
         <v>20231111</v>
@@ -6751,7 +6749,7 @@
         <v>18</v>
       </c>
       <c r="H145" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I145" t="s">
         <v>21</v>
@@ -6768,16 +6766,16 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="B146">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146">
         <v>20231111</v>
@@ -6806,16 +6804,16 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>167</v>
+        <v>215</v>
       </c>
       <c r="B147">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147">
         <v>20231111</v>
@@ -6844,16 +6842,16 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>168</v>
+        <v>213</v>
       </c>
       <c r="B148">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148">
         <v>20231111</v>
@@ -6882,16 +6880,16 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>169</v>
+        <v>216</v>
       </c>
       <c r="B149">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149">
         <v>20231111</v>
@@ -6920,16 +6918,16 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>170</v>
+        <v>217</v>
       </c>
       <c r="B150">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150">
         <v>20231111</v>
@@ -6958,16 +6956,16 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>171</v>
+        <v>218</v>
       </c>
       <c r="B151">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151">
         <v>20231111</v>
@@ -6996,13 +6994,13 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>172</v>
+        <v>219</v>
       </c>
       <c r="B152">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D152" t="s">
         <v>10</v>
@@ -7034,13 +7032,13 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>173</v>
+        <v>220</v>
       </c>
       <c r="B153">
-        <v>158</v>
+        <v>206</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D153" t="s">
         <v>10</v>
@@ -7072,13 +7070,13 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="B154">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D154" t="s">
         <v>10</v>
@@ -7110,13 +7108,13 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>175</v>
+        <v>222</v>
       </c>
       <c r="B155">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D155" t="s">
         <v>10</v>
@@ -7148,13 +7146,13 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>176</v>
+        <v>223</v>
       </c>
       <c r="B156">
-        <v>161</v>
+        <v>209</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D156" t="s">
         <v>10</v>
@@ -7186,13 +7184,13 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>177</v>
+        <v>224</v>
       </c>
       <c r="B157">
-        <v>162</v>
+        <v>210</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D157" t="s">
         <v>10</v>
@@ -7224,13 +7222,13 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>178</v>
+        <v>225</v>
       </c>
       <c r="B158">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D158" t="s">
         <v>10</v>
@@ -7262,13 +7260,13 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>179</v>
+        <v>226</v>
       </c>
       <c r="B159">
-        <v>164</v>
+        <v>212</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D159" t="s">
         <v>10</v>
@@ -7300,13 +7298,13 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="B160">
-        <v>165</v>
+        <v>213</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D160" t="s">
         <v>10</v>
@@ -7321,7 +7319,7 @@
         <v>18</v>
       </c>
       <c r="H160" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I160" t="s">
         <v>21</v>
@@ -7338,13 +7336,13 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>181</v>
+        <v>228</v>
       </c>
       <c r="B161">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D161" t="s">
         <v>10</v>
@@ -7376,16 +7374,16 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="B162">
-        <v>167</v>
+        <v>228</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E162">
         <v>20231111</v>
@@ -7397,7 +7395,7 @@
         <v>18</v>
       </c>
       <c r="H162" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I162" t="s">
         <v>21</v>
@@ -7414,16 +7412,16 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="B163">
-        <v>168</v>
+        <v>229</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E163">
         <v>20231111</v>
@@ -7452,28 +7450,28 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="B164">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E164">
-        <v>20231111</v>
+        <v>20231117</v>
       </c>
       <c r="F164" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G164" t="s">
         <v>18</v>
       </c>
       <c r="H164" t="s">
-        <v>267</v>
+        <v>20</v>
       </c>
       <c r="I164" t="s">
         <v>21</v>
@@ -7482,36 +7480,36 @@
         <v>273</v>
       </c>
       <c r="K164" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L164" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>185</v>
+        <v>85</v>
       </c>
       <c r="B165">
-        <v>171</v>
+        <v>68</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E165">
-        <v>20231111</v>
+        <v>20231117</v>
       </c>
       <c r="F165" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G165" t="s">
         <v>18</v>
       </c>
       <c r="H165" t="s">
-        <v>267</v>
+        <v>20</v>
       </c>
       <c r="I165" t="s">
         <v>21</v>
@@ -7520,36 +7518,36 @@
         <v>273</v>
       </c>
       <c r="K165" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L165" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>186</v>
+        <v>86</v>
       </c>
       <c r="B166">
-        <v>172</v>
+        <v>69</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E166">
-        <v>20231111</v>
+        <v>20231117</v>
       </c>
       <c r="F166" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G166" t="s">
         <v>18</v>
       </c>
       <c r="H166" t="s">
-        <v>267</v>
+        <v>20</v>
       </c>
       <c r="I166" t="s">
         <v>21</v>
@@ -7558,36 +7556,36 @@
         <v>273</v>
       </c>
       <c r="K166" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L166" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>187</v>
+        <v>88</v>
       </c>
       <c r="B167">
-        <v>173</v>
+        <v>71</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E167">
-        <v>20231111</v>
+        <v>20231117</v>
       </c>
       <c r="F167" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G167" t="s">
         <v>18</v>
       </c>
       <c r="H167" t="s">
-        <v>266</v>
+        <v>20</v>
       </c>
       <c r="I167" t="s">
         <v>21</v>
@@ -7596,36 +7594,36 @@
         <v>273</v>
       </c>
       <c r="K167" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L167" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>188</v>
+        <v>92</v>
       </c>
       <c r="B168">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E168">
-        <v>20231111</v>
+        <v>20231117</v>
       </c>
       <c r="F168" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G168" t="s">
         <v>18</v>
       </c>
       <c r="H168" t="s">
-        <v>267</v>
+        <v>20</v>
       </c>
       <c r="I168" t="s">
         <v>21</v>
@@ -7634,36 +7632,36 @@
         <v>273</v>
       </c>
       <c r="K168" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L168" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>189</v>
+        <v>96</v>
       </c>
       <c r="B169">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D169" t="s">
         <v>10</v>
       </c>
       <c r="E169">
-        <v>20231111</v>
+        <v>20231117</v>
       </c>
       <c r="F169" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G169" t="s">
         <v>18</v>
       </c>
       <c r="H169" t="s">
-        <v>267</v>
+        <v>20</v>
       </c>
       <c r="I169" t="s">
         <v>21</v>
@@ -7672,36 +7670,36 @@
         <v>273</v>
       </c>
       <c r="K169" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L169" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>190</v>
+        <v>98</v>
       </c>
       <c r="B170">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D170" t="s">
         <v>10</v>
       </c>
       <c r="E170">
-        <v>20231111</v>
+        <v>20231117</v>
       </c>
       <c r="F170" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G170" t="s">
         <v>18</v>
       </c>
       <c r="H170" t="s">
-        <v>266</v>
+        <v>20</v>
       </c>
       <c r="I170" t="s">
         <v>21</v>
@@ -7710,36 +7708,36 @@
         <v>273</v>
       </c>
       <c r="K170" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L170" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>191</v>
+        <v>100</v>
       </c>
       <c r="B171">
-        <v>177</v>
+        <v>84</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D171" t="s">
         <v>10</v>
       </c>
       <c r="E171">
-        <v>20231111</v>
+        <v>20231117</v>
       </c>
       <c r="F171" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G171" t="s">
         <v>18</v>
       </c>
       <c r="H171" t="s">
-        <v>267</v>
+        <v>20</v>
       </c>
       <c r="I171" t="s">
         <v>21</v>
@@ -7748,36 +7746,36 @@
         <v>273</v>
       </c>
       <c r="K171" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L171" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>192</v>
+        <v>101</v>
       </c>
       <c r="B172">
-        <v>178</v>
+        <v>85</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D172" t="s">
         <v>10</v>
       </c>
       <c r="E172">
-        <v>20231111</v>
+        <v>20231117</v>
       </c>
       <c r="F172" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G172" t="s">
         <v>18</v>
       </c>
       <c r="H172" t="s">
-        <v>266</v>
+        <v>20</v>
       </c>
       <c r="I172" t="s">
         <v>21</v>
@@ -7786,36 +7784,36 @@
         <v>273</v>
       </c>
       <c r="K172" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L172" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
       <c r="B173">
-        <v>179</v>
+        <v>88</v>
       </c>
       <c r="C173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173">
-        <v>20231111</v>
+        <v>20231117</v>
       </c>
       <c r="F173" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G173" t="s">
         <v>18</v>
       </c>
       <c r="H173" t="s">
-        <v>266</v>
+        <v>20</v>
       </c>
       <c r="I173" t="s">
         <v>21</v>
@@ -7824,36 +7822,36 @@
         <v>273</v>
       </c>
       <c r="K173" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L173" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>194</v>
+        <v>109</v>
       </c>
       <c r="B174">
-        <v>180</v>
+        <v>94</v>
       </c>
       <c r="C174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174">
-        <v>20231111</v>
+        <v>20231117</v>
       </c>
       <c r="F174" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G174" t="s">
-        <v>18</v>
+        <v>274</v>
       </c>
       <c r="H174" t="s">
-        <v>266</v>
+        <v>20</v>
       </c>
       <c r="I174" t="s">
         <v>21</v>
@@ -7862,36 +7860,36 @@
         <v>273</v>
       </c>
       <c r="K174" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L174" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>195</v>
+        <v>110</v>
       </c>
       <c r="B175">
-        <v>181</v>
+        <v>95</v>
       </c>
       <c r="C175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175">
-        <v>20231111</v>
+        <v>20231117</v>
       </c>
       <c r="F175" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G175" t="s">
         <v>18</v>
       </c>
       <c r="H175" t="s">
-        <v>266</v>
+        <v>20</v>
       </c>
       <c r="I175" t="s">
         <v>21</v>
@@ -7900,36 +7898,36 @@
         <v>273</v>
       </c>
       <c r="K175" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L175" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="B176">
-        <v>182</v>
+        <v>96</v>
       </c>
       <c r="C176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176">
-        <v>20231111</v>
+        <v>20231117</v>
       </c>
       <c r="F176" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G176" t="s">
         <v>18</v>
       </c>
       <c r="H176" t="s">
-        <v>266</v>
+        <v>20</v>
       </c>
       <c r="I176" t="s">
         <v>21</v>
@@ -7938,36 +7936,36 @@
         <v>273</v>
       </c>
       <c r="K176" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L176" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>197</v>
+        <v>139</v>
       </c>
       <c r="B177">
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="C177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177">
-        <v>20231111</v>
+        <v>20231107</v>
       </c>
       <c r="F177" t="s">
-        <v>269</v>
+        <v>15</v>
       </c>
       <c r="G177" t="s">
         <v>18</v>
       </c>
       <c r="H177" t="s">
-        <v>266</v>
+        <v>20</v>
       </c>
       <c r="I177" t="s">
         <v>21</v>
@@ -7979,33 +7977,33 @@
         <v>22</v>
       </c>
       <c r="L177" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>198</v>
+        <v>142</v>
       </c>
       <c r="B178">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="C178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D178" t="s">
         <v>9</v>
       </c>
       <c r="E178">
-        <v>20231111</v>
+        <v>20231107</v>
       </c>
       <c r="F178" t="s">
-        <v>269</v>
+        <v>15</v>
       </c>
       <c r="G178" t="s">
         <v>18</v>
       </c>
       <c r="H178" t="s">
-        <v>266</v>
+        <v>20</v>
       </c>
       <c r="I178" t="s">
         <v>21</v>
@@ -8017,33 +8015,33 @@
         <v>22</v>
       </c>
       <c r="L178" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="B179">
-        <v>185</v>
+        <v>128</v>
       </c>
       <c r="C179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D179" t="s">
         <v>9</v>
       </c>
-      <c r="E179">
-        <v>20231111</v>
+      <c r="E179" s="2">
+        <v>20231107</v>
       </c>
       <c r="F179" t="s">
-        <v>269</v>
+        <v>15</v>
       </c>
       <c r="G179" t="s">
         <v>18</v>
       </c>
       <c r="H179" t="s">
-        <v>266</v>
+        <v>20</v>
       </c>
       <c r="I179" t="s">
         <v>21</v>
@@ -8055,33 +8053,33 @@
         <v>22</v>
       </c>
       <c r="L179" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="B180">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="C180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D180" t="s">
         <v>9</v>
       </c>
-      <c r="E180">
-        <v>20231111</v>
+      <c r="E180" s="2">
+        <v>20231107</v>
       </c>
       <c r="F180" t="s">
-        <v>269</v>
+        <v>15</v>
       </c>
       <c r="G180" t="s">
         <v>18</v>
       </c>
       <c r="H180" t="s">
-        <v>266</v>
+        <v>20</v>
       </c>
       <c r="I180" t="s">
         <v>21</v>
@@ -8093,33 +8091,33 @@
         <v>22</v>
       </c>
       <c r="L180" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>201</v>
+        <v>145</v>
       </c>
       <c r="B181">
-        <v>187</v>
+        <v>130</v>
       </c>
       <c r="C181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D181" t="s">
         <v>9</v>
       </c>
-      <c r="E181">
-        <v>20231111</v>
+      <c r="E181" s="2">
+        <v>20231107</v>
       </c>
       <c r="F181" t="s">
-        <v>269</v>
+        <v>15</v>
       </c>
       <c r="G181" t="s">
         <v>18</v>
       </c>
       <c r="H181" t="s">
-        <v>266</v>
+        <v>20</v>
       </c>
       <c r="I181" t="s">
         <v>21</v>
@@ -8131,33 +8129,33 @@
         <v>22</v>
       </c>
       <c r="L181" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>202</v>
+        <v>146</v>
       </c>
       <c r="B182">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="C182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D182" t="s">
         <v>9</v>
       </c>
-      <c r="E182">
-        <v>20231111</v>
+      <c r="E182" s="2">
+        <v>20231107</v>
       </c>
       <c r="F182" t="s">
-        <v>269</v>
+        <v>15</v>
       </c>
       <c r="G182" t="s">
         <v>18</v>
       </c>
       <c r="H182" t="s">
-        <v>266</v>
+        <v>20</v>
       </c>
       <c r="I182" t="s">
         <v>21</v>
@@ -8169,33 +8167,33 @@
         <v>22</v>
       </c>
       <c r="L182" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>203</v>
+        <v>147</v>
       </c>
       <c r="B183">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="C183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
-      </c>
-      <c r="E183">
-        <v>20231111</v>
+        <v>10</v>
+      </c>
+      <c r="E183" s="2">
+        <v>20231107</v>
       </c>
       <c r="F183" t="s">
-        <v>269</v>
+        <v>15</v>
       </c>
       <c r="G183" t="s">
         <v>18</v>
       </c>
       <c r="H183" t="s">
-        <v>266</v>
+        <v>20</v>
       </c>
       <c r="I183" t="s">
         <v>21</v>
@@ -8207,33 +8205,33 @@
         <v>22</v>
       </c>
       <c r="L183" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>204</v>
+        <v>148</v>
       </c>
       <c r="B184">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="C184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
-      </c>
-      <c r="E184">
-        <v>20231111</v>
+        <v>10</v>
+      </c>
+      <c r="E184" s="2">
+        <v>20231107</v>
       </c>
       <c r="F184" t="s">
-        <v>269</v>
+        <v>15</v>
       </c>
       <c r="G184" t="s">
         <v>18</v>
       </c>
       <c r="H184" t="s">
-        <v>266</v>
+        <v>20</v>
       </c>
       <c r="I184" t="s">
         <v>21</v>
@@ -8245,33 +8243,33 @@
         <v>22</v>
       </c>
       <c r="L184" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>205</v>
+        <v>149</v>
       </c>
       <c r="B185">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c r="C185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
-      </c>
-      <c r="E185">
-        <v>20231111</v>
+        <v>10</v>
+      </c>
+      <c r="E185" s="2">
+        <v>20231107</v>
       </c>
       <c r="F185" t="s">
-        <v>269</v>
+        <v>15</v>
       </c>
       <c r="G185" t="s">
         <v>18</v>
       </c>
       <c r="H185" t="s">
-        <v>266</v>
+        <v>20</v>
       </c>
       <c r="I185" t="s">
         <v>21</v>
@@ -8283,33 +8281,33 @@
         <v>22</v>
       </c>
       <c r="L185" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>206</v>
+        <v>150</v>
       </c>
       <c r="B186">
-        <v>228</v>
+        <v>135</v>
       </c>
       <c r="C186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
-      </c>
-      <c r="E186">
-        <v>20231111</v>
+        <v>10</v>
+      </c>
+      <c r="E186" s="2">
+        <v>20231107</v>
       </c>
       <c r="F186" t="s">
-        <v>269</v>
+        <v>15</v>
       </c>
       <c r="G186" t="s">
         <v>18</v>
       </c>
       <c r="H186" t="s">
-        <v>266</v>
+        <v>20</v>
       </c>
       <c r="I186" t="s">
         <v>21</v>
@@ -8321,33 +8319,33 @@
         <v>22</v>
       </c>
       <c r="L186" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>207</v>
+        <v>151</v>
       </c>
       <c r="B187">
-        <v>229</v>
+        <v>136</v>
       </c>
       <c r="C187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
-      </c>
-      <c r="E187">
-        <v>20231111</v>
+        <v>10</v>
+      </c>
+      <c r="E187" s="2">
+        <v>20231107</v>
       </c>
       <c r="F187" t="s">
-        <v>269</v>
+        <v>15</v>
       </c>
       <c r="G187" t="s">
         <v>18</v>
       </c>
       <c r="H187" t="s">
-        <v>266</v>
+        <v>20</v>
       </c>
       <c r="I187" t="s">
         <v>21</v>
@@ -8359,33 +8357,33 @@
         <v>22</v>
       </c>
       <c r="L187" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>208</v>
+        <v>152</v>
       </c>
       <c r="B188">
-        <v>194</v>
+        <v>137</v>
       </c>
       <c r="C188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D188" t="s">
         <v>10</v>
       </c>
-      <c r="E188">
-        <v>20231111</v>
+      <c r="E188" s="2">
+        <v>20231107</v>
       </c>
       <c r="F188" t="s">
-        <v>269</v>
+        <v>15</v>
       </c>
       <c r="G188" t="s">
         <v>18</v>
       </c>
       <c r="H188" t="s">
-        <v>266</v>
+        <v>20</v>
       </c>
       <c r="I188" t="s">
         <v>21</v>
@@ -8397,33 +8395,33 @@
         <v>22</v>
       </c>
       <c r="L188" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c r="B189">
-        <v>195</v>
+        <v>138</v>
       </c>
       <c r="C189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D189" t="s">
         <v>10</v>
       </c>
-      <c r="E189">
-        <v>20231111</v>
+      <c r="E189" s="2">
+        <v>20231107</v>
       </c>
       <c r="F189" t="s">
-        <v>269</v>
+        <v>15</v>
       </c>
       <c r="G189" t="s">
         <v>18</v>
       </c>
       <c r="H189" t="s">
-        <v>266</v>
+        <v>20</v>
       </c>
       <c r="I189" t="s">
         <v>21</v>
@@ -8435,33 +8433,33 @@
         <v>22</v>
       </c>
       <c r="L189" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="B190">
-        <v>196</v>
+        <v>140</v>
       </c>
       <c r="C190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D190" t="s">
         <v>10</v>
       </c>
-      <c r="E190">
-        <v>20231111</v>
+      <c r="E190" s="2">
+        <v>20231107</v>
       </c>
       <c r="F190" t="s">
-        <v>269</v>
+        <v>15</v>
       </c>
       <c r="G190" t="s">
         <v>18</v>
       </c>
       <c r="H190" t="s">
-        <v>266</v>
+        <v>20</v>
       </c>
       <c r="I190" t="s">
         <v>21</v>
@@ -8473,33 +8471,33 @@
         <v>22</v>
       </c>
       <c r="L190" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>211</v>
+        <v>156</v>
       </c>
       <c r="B191">
-        <v>197</v>
+        <v>141</v>
       </c>
       <c r="C191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D191" t="s">
         <v>10</v>
       </c>
-      <c r="E191">
-        <v>20231111</v>
+      <c r="E191" s="2">
+        <v>20231107</v>
       </c>
       <c r="F191" t="s">
-        <v>269</v>
+        <v>15</v>
       </c>
       <c r="G191" t="s">
         <v>18</v>
       </c>
       <c r="H191" t="s">
-        <v>266</v>
+        <v>20</v>
       </c>
       <c r="I191" t="s">
         <v>21</v>
@@ -8511,33 +8509,33 @@
         <v>22</v>
       </c>
       <c r="L191" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="B192">
-        <v>198</v>
+        <v>65</v>
       </c>
       <c r="C192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E192">
-        <v>20231111</v>
+        <v>20231117</v>
       </c>
       <c r="F192" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G192" t="s">
         <v>18</v>
       </c>
       <c r="H192" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I192" t="s">
         <v>21</v>
@@ -8546,36 +8544,36 @@
         <v>273</v>
       </c>
       <c r="K192" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L192" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>214</v>
+        <v>84</v>
       </c>
       <c r="B193">
-        <v>199</v>
+        <v>67</v>
       </c>
       <c r="C193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E193">
-        <v>20231111</v>
+        <v>20231117</v>
       </c>
       <c r="F193" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G193" t="s">
         <v>18</v>
       </c>
       <c r="H193" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I193" t="s">
         <v>21</v>
@@ -8584,36 +8582,36 @@
         <v>273</v>
       </c>
       <c r="K193" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L193" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>215</v>
+        <v>87</v>
       </c>
       <c r="B194">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="C194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E194">
-        <v>20231111</v>
+        <v>20231117</v>
       </c>
       <c r="F194" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G194" t="s">
         <v>18</v>
       </c>
       <c r="H194" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I194" t="s">
         <v>21</v>
@@ -8622,36 +8620,36 @@
         <v>273</v>
       </c>
       <c r="K194" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L194" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>213</v>
+        <v>89</v>
       </c>
       <c r="B195">
-        <v>201</v>
+        <v>72</v>
       </c>
       <c r="C195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E195">
-        <v>20231111</v>
+        <v>20231117</v>
       </c>
       <c r="F195" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G195" t="s">
         <v>18</v>
       </c>
       <c r="H195" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I195" t="s">
         <v>21</v>
@@ -8660,36 +8658,36 @@
         <v>273</v>
       </c>
       <c r="K195" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L195" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>216</v>
+        <v>90</v>
       </c>
       <c r="B196">
-        <v>202</v>
+        <v>73</v>
       </c>
       <c r="C196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D196" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E196">
-        <v>20231111</v>
+        <v>20231117</v>
       </c>
       <c r="F196" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G196" t="s">
         <v>18</v>
       </c>
       <c r="H196" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I196" t="s">
         <v>21</v>
@@ -8698,36 +8696,36 @@
         <v>273</v>
       </c>
       <c r="K196" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L196" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>217</v>
+        <v>91</v>
       </c>
       <c r="B197">
-        <v>203</v>
+        <v>74</v>
       </c>
       <c r="C197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D197" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E197">
-        <v>20231111</v>
+        <v>20231117</v>
       </c>
       <c r="F197" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G197" t="s">
         <v>18</v>
       </c>
       <c r="H197" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I197" t="s">
         <v>21</v>
@@ -8736,36 +8734,36 @@
         <v>273</v>
       </c>
       <c r="K197" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L197" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>218</v>
+        <v>93</v>
       </c>
       <c r="B198">
-        <v>204</v>
+        <v>76</v>
       </c>
       <c r="C198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D198" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E198">
-        <v>20231111</v>
+        <v>20231117</v>
       </c>
       <c r="F198" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G198" t="s">
         <v>18</v>
       </c>
       <c r="H198" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I198" t="s">
         <v>21</v>
@@ -8774,36 +8772,36 @@
         <v>273</v>
       </c>
       <c r="K198" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L198" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>219</v>
+        <v>94</v>
       </c>
       <c r="B199">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="C199" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D199" t="s">
         <v>10</v>
       </c>
-      <c r="E199">
-        <v>20231111</v>
+      <c r="E199" s="2">
+        <v>20231117</v>
       </c>
       <c r="F199" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G199" t="s">
         <v>18</v>
       </c>
       <c r="H199" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I199" t="s">
         <v>21</v>
@@ -8812,36 +8810,36 @@
         <v>273</v>
       </c>
       <c r="K199" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L199" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>220</v>
+        <v>95</v>
       </c>
       <c r="B200">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="C200" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D200" t="s">
         <v>10</v>
       </c>
       <c r="E200">
-        <v>20231111</v>
+        <v>20231117</v>
       </c>
       <c r="F200" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G200" t="s">
         <v>18</v>
       </c>
       <c r="H200" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I200" t="s">
         <v>21</v>
@@ -8850,36 +8848,36 @@
         <v>273</v>
       </c>
       <c r="K200" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L200" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>221</v>
+        <v>97</v>
       </c>
       <c r="B201">
-        <v>207</v>
+        <v>81</v>
       </c>
       <c r="C201" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D201" t="s">
         <v>10</v>
       </c>
       <c r="E201">
-        <v>20231111</v>
+        <v>20231117</v>
       </c>
       <c r="F201" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G201" t="s">
         <v>18</v>
       </c>
       <c r="H201" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I201" t="s">
         <v>21</v>
@@ -8888,36 +8886,36 @@
         <v>273</v>
       </c>
       <c r="K201" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L201" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>222</v>
+        <v>99</v>
       </c>
       <c r="B202">
-        <v>208</v>
+        <v>83</v>
       </c>
       <c r="C202" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D202" t="s">
         <v>10</v>
       </c>
       <c r="E202">
-        <v>20231111</v>
+        <v>20231117</v>
       </c>
       <c r="F202" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G202" t="s">
         <v>18</v>
       </c>
       <c r="H202" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I202" t="s">
         <v>21</v>
@@ -8926,36 +8924,36 @@
         <v>273</v>
       </c>
       <c r="K202" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L202" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>223</v>
+        <v>102</v>
       </c>
       <c r="B203">
-        <v>209</v>
+        <v>86</v>
       </c>
       <c r="C203" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D203" t="s">
         <v>10</v>
       </c>
       <c r="E203">
-        <v>20231111</v>
+        <v>20231117</v>
       </c>
       <c r="F203" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G203" t="s">
         <v>18</v>
       </c>
       <c r="H203" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I203" t="s">
         <v>21</v>
@@ -8964,36 +8962,36 @@
         <v>273</v>
       </c>
       <c r="K203" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L203" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>224</v>
+        <v>103</v>
       </c>
       <c r="B204">
-        <v>210</v>
+        <v>87</v>
       </c>
       <c r="C204" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D204" t="s">
         <v>10</v>
       </c>
       <c r="E204">
-        <v>20231111</v>
+        <v>20231117</v>
       </c>
       <c r="F204" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G204" t="s">
         <v>18</v>
       </c>
       <c r="H204" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I204" t="s">
         <v>21</v>
@@ -9002,36 +9000,36 @@
         <v>273</v>
       </c>
       <c r="K204" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L204" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>225</v>
+        <v>105</v>
       </c>
       <c r="B205">
-        <v>211</v>
+        <v>90</v>
       </c>
       <c r="C205" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D205" t="s">
         <v>10</v>
       </c>
       <c r="E205">
-        <v>20231111</v>
+        <v>20231117</v>
       </c>
       <c r="F205" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G205" t="s">
         <v>18</v>
       </c>
       <c r="H205" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I205" t="s">
         <v>21</v>
@@ -9040,36 +9038,36 @@
         <v>273</v>
       </c>
       <c r="K205" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L205" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>226</v>
+        <v>106</v>
       </c>
       <c r="B206">
-        <v>212</v>
+        <v>91</v>
       </c>
       <c r="C206" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D206" t="s">
         <v>10</v>
       </c>
       <c r="E206">
-        <v>20231111</v>
+        <v>20231117</v>
       </c>
       <c r="F206" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G206" t="s">
         <v>18</v>
       </c>
       <c r="H206" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I206" t="s">
         <v>21</v>
@@ -9078,36 +9076,36 @@
         <v>273</v>
       </c>
       <c r="K206" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L206" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>227</v>
+        <v>107</v>
       </c>
       <c r="B207">
-        <v>213</v>
+        <v>92</v>
       </c>
       <c r="C207" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D207" t="s">
         <v>10</v>
       </c>
       <c r="E207">
-        <v>20231111</v>
+        <v>20231117</v>
       </c>
       <c r="F207" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G207" t="s">
         <v>18</v>
       </c>
       <c r="H207" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I207" t="s">
         <v>21</v>
@@ -9116,36 +9114,36 @@
         <v>273</v>
       </c>
       <c r="K207" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L207" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>228</v>
+        <v>108</v>
       </c>
       <c r="B208">
-        <v>214</v>
+        <v>93</v>
       </c>
       <c r="C208" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D208" t="s">
         <v>10</v>
       </c>
       <c r="E208">
-        <v>20231111</v>
+        <v>20231117</v>
       </c>
       <c r="F208" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G208" t="s">
         <v>18</v>
       </c>
       <c r="H208" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I208" t="s">
         <v>21</v>
@@ -9154,18 +9152,18 @@
         <v>273</v>
       </c>
       <c r="K208" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L208" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B209">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C209" t="s">
         <v>12</v>
@@ -9174,7 +9172,7 @@
         <v>9</v>
       </c>
       <c r="E209">
-        <v>20231111</v>
+        <v>20231112</v>
       </c>
       <c r="F209" t="s">
         <v>269</v>
@@ -9183,7 +9181,7 @@
         <v>18</v>
       </c>
       <c r="H209" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I209" t="s">
         <v>21</v>
@@ -9200,10 +9198,10 @@
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B210">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C210" t="s">
         <v>12</v>
@@ -9212,7 +9210,7 @@
         <v>9</v>
       </c>
       <c r="E210">
-        <v>20231111</v>
+        <v>20231112</v>
       </c>
       <c r="F210" t="s">
         <v>269</v>
@@ -9221,7 +9219,7 @@
         <v>18</v>
       </c>
       <c r="H210" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I210" t="s">
         <v>21</v>
@@ -9238,10 +9236,10 @@
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B211">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C211" t="s">
         <v>12</v>
@@ -9250,7 +9248,7 @@
         <v>9</v>
       </c>
       <c r="E211">
-        <v>20231111</v>
+        <v>20231112</v>
       </c>
       <c r="F211" t="s">
         <v>269</v>
@@ -9259,7 +9257,7 @@
         <v>18</v>
       </c>
       <c r="H211" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I211" t="s">
         <v>21</v>
@@ -9276,10 +9274,10 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B212">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C212" t="s">
         <v>12</v>
@@ -9288,7 +9286,7 @@
         <v>9</v>
       </c>
       <c r="E212">
-        <v>20231111</v>
+        <v>20231112</v>
       </c>
       <c r="F212" t="s">
         <v>269</v>
@@ -9297,7 +9295,7 @@
         <v>18</v>
       </c>
       <c r="H212" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I212" t="s">
         <v>21</v>
@@ -9314,10 +9312,10 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B213">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C213" t="s">
         <v>12</v>
@@ -9326,7 +9324,7 @@
         <v>9</v>
       </c>
       <c r="E213">
-        <v>20231111</v>
+        <v>20231112</v>
       </c>
       <c r="F213" t="s">
         <v>269</v>
@@ -9335,7 +9333,7 @@
         <v>18</v>
       </c>
       <c r="H213" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I213" t="s">
         <v>21</v>
@@ -9352,10 +9350,10 @@
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B214">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C214" t="s">
         <v>12</v>
@@ -9364,7 +9362,7 @@
         <v>9</v>
       </c>
       <c r="E214">
-        <v>20231111</v>
+        <v>20231112</v>
       </c>
       <c r="F214" t="s">
         <v>269</v>
@@ -9373,7 +9371,7 @@
         <v>18</v>
       </c>
       <c r="H214" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I214" t="s">
         <v>21</v>
@@ -9390,16 +9388,16 @@
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="B215">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="C215" t="s">
         <v>12</v>
       </c>
       <c r="D215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E215">
         <v>20231112</v>
@@ -9428,16 +9426,16 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="B216">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="C216" t="s">
         <v>12</v>
       </c>
       <c r="D216" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E216">
         <v>20231112</v>
@@ -9466,16 +9464,16 @@
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="B217">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="C217" t="s">
         <v>12</v>
       </c>
       <c r="D217" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E217">
         <v>20231112</v>
@@ -9504,16 +9502,16 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="B218">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="C218" t="s">
         <v>12</v>
       </c>
       <c r="D218" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E218">
         <v>20231112</v>
@@ -9542,10 +9540,10 @@
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B219">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="C219" t="s">
         <v>12</v>
@@ -9554,7 +9552,7 @@
         <v>9</v>
       </c>
       <c r="E219">
-        <v>20231112</v>
+        <v>20231111</v>
       </c>
       <c r="F219" t="s">
         <v>269</v>
@@ -9563,7 +9561,7 @@
         <v>18</v>
       </c>
       <c r="H219" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I219" t="s">
         <v>21</v>
@@ -9580,10 +9578,10 @@
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B220">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C220" t="s">
         <v>12</v>
@@ -9592,7 +9590,7 @@
         <v>9</v>
       </c>
       <c r="E220">
-        <v>20231112</v>
+        <v>20231111</v>
       </c>
       <c r="F220" t="s">
         <v>269</v>
@@ -9601,7 +9599,7 @@
         <v>18</v>
       </c>
       <c r="H220" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I220" t="s">
         <v>21</v>
@@ -9618,10 +9616,10 @@
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B221">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C221" t="s">
         <v>12</v>
@@ -9656,10 +9654,10 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B222">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="C222" t="s">
         <v>12</v>
@@ -9677,7 +9675,7 @@
         <v>18</v>
       </c>
       <c r="H222" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I222" t="s">
         <v>21</v>
@@ -9694,16 +9692,16 @@
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B223">
-        <v>193</v>
+        <v>230</v>
       </c>
       <c r="C223" t="s">
         <v>12</v>
       </c>
       <c r="D223" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E223">
         <v>20231111</v>
@@ -9732,10 +9730,10 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B224">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C224" t="s">
         <v>12</v>
@@ -9770,10 +9768,10 @@
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B225">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C225" t="s">
         <v>12</v>
@@ -9808,10 +9806,10 @@
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B226">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C226" t="s">
         <v>12</v>
@@ -9846,10 +9844,10 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B227">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C227" t="s">
         <v>12</v>
@@ -9884,10 +9882,10 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B228">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C228" t="s">
         <v>12</v>
@@ -9922,10 +9920,10 @@
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B229">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C229" t="s">
         <v>12</v>
@@ -9960,10 +9958,10 @@
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B230">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C230" t="s">
         <v>12</v>
@@ -9981,7 +9979,7 @@
         <v>18</v>
       </c>
       <c r="H230" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I230" t="s">
         <v>21</v>
@@ -9998,10 +9996,10 @@
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B231">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C231" t="s">
         <v>12</v>
@@ -10036,10 +10034,10 @@
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B232">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C232" t="s">
         <v>12</v>
@@ -10074,10 +10072,10 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B233">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C233" t="s">
         <v>12</v>
@@ -10112,10 +10110,10 @@
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="B234">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C234" t="s">
         <v>12</v>
@@ -10133,7 +10131,7 @@
         <v>18</v>
       </c>
       <c r="H234" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I234" t="s">
         <v>21</v>
@@ -10150,10 +10148,10 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B235">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="C235" t="s">
         <v>12</v>
@@ -10188,10 +10186,10 @@
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="B236">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C236" t="s">
         <v>12</v>
@@ -10226,10 +10224,10 @@
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B237">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C237" t="s">
         <v>12</v>
@@ -10238,7 +10236,7 @@
         <v>10</v>
       </c>
       <c r="E237">
-        <v>20231112</v>
+        <v>20231111</v>
       </c>
       <c r="F237" t="s">
         <v>269</v>
@@ -10247,7 +10245,7 @@
         <v>18</v>
       </c>
       <c r="H237" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I237" t="s">
         <v>21</v>
@@ -10264,19 +10262,19 @@
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="B238">
-        <v>245</v>
+        <v>192</v>
       </c>
       <c r="C238" t="s">
         <v>12</v>
       </c>
       <c r="D238" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E238">
-        <v>20231112</v>
+        <v>20231111</v>
       </c>
       <c r="F238" t="s">
         <v>269</v>
@@ -10285,7 +10283,7 @@
         <v>18</v>
       </c>
       <c r="H238" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I238" t="s">
         <v>21</v>
@@ -10302,19 +10300,19 @@
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="B239">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="C239" t="s">
         <v>12</v>
       </c>
       <c r="D239" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E239">
-        <v>20231112</v>
+        <v>20231111</v>
       </c>
       <c r="F239" t="s">
         <v>269</v>
@@ -10323,7 +10321,7 @@
         <v>18</v>
       </c>
       <c r="H239" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I239" t="s">
         <v>21</v>
@@ -10340,19 +10338,19 @@
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="B240">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="C240" t="s">
         <v>12</v>
       </c>
       <c r="D240" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E240">
-        <v>20231112</v>
+        <v>20231111</v>
       </c>
       <c r="F240" t="s">
         <v>269</v>
@@ -10361,7 +10359,7 @@
         <v>18</v>
       </c>
       <c r="H240" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I240" t="s">
         <v>21</v>
@@ -10378,16 +10376,16 @@
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="B241">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="C241" t="s">
         <v>12</v>
       </c>
       <c r="D241" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E241">
         <v>20231111</v>
@@ -10399,7 +10397,7 @@
         <v>18</v>
       </c>
       <c r="H241" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I241" t="s">
         <v>21</v>
@@ -10416,16 +10414,16 @@
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="B242">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="C242" t="s">
         <v>12</v>
       </c>
       <c r="D242" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E242">
         <v>20231111</v>
@@ -10437,7 +10435,7 @@
         <v>18</v>
       </c>
       <c r="H242" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I242" t="s">
         <v>21</v>
@@ -10454,10 +10452,10 @@
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="B243">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C243" t="s">
         <v>12</v>
@@ -10475,7 +10473,7 @@
         <v>18</v>
       </c>
       <c r="H243" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I243" t="s">
         <v>21</v>
@@ -10492,10 +10490,10 @@
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B244">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C244" t="s">
         <v>12</v>
@@ -10513,7 +10511,7 @@
         <v>18</v>
       </c>
       <c r="H244" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I244" t="s">
         <v>21</v>
@@ -10529,6 +10527,11 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L246">
+    <sortCondition ref="C2:C246"/>
+    <sortCondition ref="H2:H246"/>
+    <sortCondition ref="B2:B246"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/dna/dna_metadata.xlsx
+++ b/data/dna/dna_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/dna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93921F86-1AA6-D942-8C6A-B7A55C7E8005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E190F46D-880A-E944-81D8-14D5BD2410CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15980" yWindow="760" windowWidth="19320" windowHeight="17540" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
+    <workbookView xWindow="4560" yWindow="760" windowWidth="40780" windowHeight="16760" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2532" uniqueCount="283">
   <si>
     <t>sample_id</t>
   </si>
@@ -861,6 +861,30 @@
   </si>
   <si>
     <t>800 ul shield</t>
+  </si>
+  <si>
+    <t>extracted</t>
+  </si>
+  <si>
+    <t>sequenced</t>
+  </si>
+  <si>
+    <t>mtORF_species</t>
+  </si>
+  <si>
+    <t>RFLP_species</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>on plate 38, not sequenced due to using the well for neg/positive control</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -897,15 +921,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -913,14 +943,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1235,11 +1276,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5716CA15-A063-CD4A-965E-FFCB3C4243EA}">
-  <dimension ref="A1:L244"/>
+  <dimension ref="A1:Q244"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D238" sqref="D238"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I80" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="M89" sqref="M89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1252,9 +1295,14 @@
     <col min="10" max="10" width="15.1640625" customWidth="1"/>
     <col min="11" max="11" width="15.5" customWidth="1"/>
     <col min="12" max="12" width="23.1640625" customWidth="1"/>
+    <col min="13" max="13" width="15.5" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" customWidth="1"/>
+    <col min="15" max="15" width="28.33203125" customWidth="1"/>
+    <col min="16" max="16" width="38.33203125" customWidth="1"/>
+    <col min="17" max="17" width="66.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1291,8 +1339,23 @@
       <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>271</v>
       </c>
@@ -1330,7 +1393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1368,7 +1431,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1406,7 +1469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1444,7 +1507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1482,7 +1545,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1520,7 +1583,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1558,7 +1621,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -1596,7 +1659,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -1634,7 +1697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -1672,7 +1735,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -1710,7 +1773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>112</v>
       </c>
@@ -1748,7 +1811,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>113</v>
       </c>
@@ -1786,7 +1849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>114</v>
       </c>
@@ -1824,7 +1887,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>115</v>
       </c>
@@ -4294,7 +4357,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>189</v>
       </c>
@@ -4332,45 +4395,45 @@
         <v>265</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+    <row r="82" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="3">
         <v>177</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D82" t="s">
-        <v>10</v>
-      </c>
-      <c r="E82">
+      <c r="D82" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="3">
         <v>20231111</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="G82" t="s">
-        <v>18</v>
-      </c>
-      <c r="H82" t="s">
+      <c r="G82" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H82" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="I82" t="s">
-        <v>21</v>
-      </c>
-      <c r="J82" t="s">
-        <v>273</v>
-      </c>
-      <c r="K82" t="s">
-        <v>22</v>
-      </c>
-      <c r="L82" t="s">
+      <c r="I82" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L82" s="3" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>52</v>
       </c>
@@ -4407,8 +4470,11 @@
       <c r="L83" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M83" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>55</v>
       </c>
@@ -4445,8 +4511,17 @@
       <c r="L84" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M84" t="s">
+        <v>279</v>
+      </c>
+      <c r="N84" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>57</v>
       </c>
@@ -4483,8 +4558,11 @@
       <c r="L85" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M85" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>58</v>
       </c>
@@ -4521,8 +4599,11 @@
       <c r="L86" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M86" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>60</v>
       </c>
@@ -4559,8 +4640,11 @@
       <c r="L87" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M87" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>63</v>
       </c>
@@ -4597,8 +4681,11 @@
       <c r="L88" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M88" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>64</v>
       </c>
@@ -4635,8 +4722,11 @@
       <c r="L89" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M89" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>66</v>
       </c>
@@ -4673,8 +4763,11 @@
       <c r="L90" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M90" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>67</v>
       </c>
@@ -4711,8 +4804,11 @@
       <c r="L91" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M91" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>74</v>
       </c>
@@ -4749,8 +4845,11 @@
       <c r="L92" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M92" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>75</v>
       </c>
@@ -4787,8 +4886,11 @@
       <c r="L93" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M93" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>81</v>
       </c>
@@ -4825,8 +4927,11 @@
       <c r="L94" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M94" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>127</v>
       </c>
@@ -4863,8 +4968,11 @@
       <c r="L95" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M95" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>128</v>
       </c>
@@ -4901,8 +5009,17 @@
       <c r="L96" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M96" t="s">
+        <v>279</v>
+      </c>
+      <c r="N96" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>129</v>
       </c>
@@ -4939,8 +5056,11 @@
       <c r="L97" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M97" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>130</v>
       </c>
@@ -4977,8 +5097,11 @@
       <c r="L98" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M98" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>131</v>
       </c>
@@ -5015,8 +5138,11 @@
       <c r="L99" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M99" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>132</v>
       </c>
@@ -5053,8 +5179,11 @@
       <c r="L100" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M100" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>133</v>
       </c>
@@ -5091,8 +5220,11 @@
       <c r="L101" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M101" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>134</v>
       </c>
@@ -5129,8 +5261,11 @@
       <c r="L102" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M102" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>135</v>
       </c>
@@ -5167,8 +5302,11 @@
       <c r="L103" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M103" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>136</v>
       </c>
@@ -5205,8 +5343,11 @@
       <c r="L104" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M104" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>137</v>
       </c>
@@ -5243,8 +5384,11 @@
       <c r="L105" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M105" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>138</v>
       </c>
@@ -5281,8 +5425,11 @@
       <c r="L106" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M106" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>140</v>
       </c>
@@ -5319,8 +5466,11 @@
       <c r="L107" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M107" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>141</v>
       </c>
@@ -5357,8 +5507,11 @@
       <c r="L108" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M108" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>154</v>
       </c>
@@ -5395,8 +5548,11 @@
       <c r="L109" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M109" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>53</v>
       </c>
@@ -5433,8 +5589,11 @@
       <c r="L110" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M110" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>54</v>
       </c>
@@ -5471,8 +5630,11 @@
       <c r="L111" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M111" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>56</v>
       </c>
@@ -5509,8 +5671,11 @@
       <c r="L112" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M112" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>59</v>
       </c>
@@ -5547,8 +5712,11 @@
       <c r="L113" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M113" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>61</v>
       </c>
@@ -5585,8 +5753,11 @@
       <c r="L114" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M114" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>62</v>
       </c>
@@ -5623,8 +5794,11 @@
       <c r="L115" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M115" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>65</v>
       </c>
@@ -5661,8 +5835,11 @@
       <c r="L116" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M116" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>68</v>
       </c>
@@ -5699,8 +5876,11 @@
       <c r="L117" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M117" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>69</v>
       </c>
@@ -5737,8 +5917,11 @@
       <c r="L118" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M118" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>70</v>
       </c>
@@ -5775,8 +5958,11 @@
       <c r="L119" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M119" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>71</v>
       </c>
@@ -5813,8 +5999,11 @@
       <c r="L120" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M120" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>72</v>
       </c>
@@ -5851,8 +6040,11 @@
       <c r="L121" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M121" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>73</v>
       </c>
@@ -5889,8 +6081,11 @@
       <c r="L122" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M122" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>76</v>
       </c>
@@ -5927,8 +6122,11 @@
       <c r="L123" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M123" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>77</v>
       </c>
@@ -5965,8 +6163,11 @@
       <c r="L124" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M124" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>78</v>
       </c>
@@ -6003,8 +6204,11 @@
       <c r="L125" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M125" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>79</v>
       </c>
@@ -6041,8 +6245,11 @@
       <c r="L126" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M126" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>80</v>
       </c>
@@ -6079,8 +6286,11 @@
       <c r="L127" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M127" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>193</v>
       </c>
@@ -6117,8 +6327,11 @@
       <c r="L128" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M128" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>194</v>
       </c>
@@ -6155,8 +6368,11 @@
       <c r="L129" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M129" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>195</v>
       </c>
@@ -6193,8 +6409,11 @@
       <c r="L130" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M130" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>196</v>
       </c>
@@ -6231,8 +6450,11 @@
       <c r="L131" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M131" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>197</v>
       </c>
@@ -6269,8 +6491,11 @@
       <c r="L132" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M132" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>198</v>
       </c>
@@ -6307,8 +6532,11 @@
       <c r="L133" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M133" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>199</v>
       </c>
@@ -6345,8 +6573,11 @@
       <c r="L134" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M134" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>200</v>
       </c>
@@ -6383,8 +6614,11 @@
       <c r="L135" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M135" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>201</v>
       </c>
@@ -6421,8 +6655,11 @@
       <c r="L136" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M136" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>202</v>
       </c>
@@ -6459,8 +6696,11 @@
       <c r="L137" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M137" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>203</v>
       </c>
@@ -6497,8 +6737,11 @@
       <c r="L138" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M138" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>204</v>
       </c>
@@ -6535,8 +6778,11 @@
       <c r="L139" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M139" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>205</v>
       </c>
@@ -6573,8 +6819,11 @@
       <c r="L140" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M140" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>208</v>
       </c>
@@ -6611,8 +6860,11 @@
       <c r="L141" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M141" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>209</v>
       </c>
@@ -6649,8 +6901,11 @@
       <c r="L142" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M142" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>210</v>
       </c>
@@ -6687,8 +6942,11 @@
       <c r="L143" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M143" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>211</v>
       </c>
@@ -6725,8 +6983,11 @@
       <c r="L144" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M144" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>212</v>
       </c>
@@ -6763,8 +7024,11 @@
       <c r="L145" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M145" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>214</v>
       </c>
@@ -6801,8 +7065,11 @@
       <c r="L146" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M146" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>215</v>
       </c>
@@ -6839,8 +7106,11 @@
       <c r="L147" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M147" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>213</v>
       </c>
@@ -6877,8 +7147,11 @@
       <c r="L148" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M148" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>216</v>
       </c>
@@ -6915,8 +7188,11 @@
       <c r="L149" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M149" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>217</v>
       </c>
@@ -6953,8 +7229,11 @@
       <c r="L150" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M150" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>218</v>
       </c>
@@ -6991,8 +7270,11 @@
       <c r="L151" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M151" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>219</v>
       </c>
@@ -7029,8 +7311,11 @@
       <c r="L152" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M152" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>220</v>
       </c>
@@ -7067,8 +7352,11 @@
       <c r="L153" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M153" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>221</v>
       </c>
@@ -7105,8 +7393,11 @@
       <c r="L154" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M154" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>222</v>
       </c>
@@ -7143,8 +7434,11 @@
       <c r="L155" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M155" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>223</v>
       </c>
@@ -7181,8 +7475,11 @@
       <c r="L156" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M156" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>224</v>
       </c>
@@ -7219,8 +7516,11 @@
       <c r="L157" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M157" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>225</v>
       </c>
@@ -7257,8 +7557,11 @@
       <c r="L158" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M158" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>226</v>
       </c>
@@ -7295,8 +7598,11 @@
       <c r="L159" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M159" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>227</v>
       </c>
@@ -7333,8 +7639,11 @@
       <c r="L160" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M160" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>228</v>
       </c>
@@ -7371,8 +7680,11 @@
       <c r="L161" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M161" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>206</v>
       </c>
@@ -7409,46 +7721,52 @@
       <c r="L162" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
+      <c r="M162" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="3">
         <v>229</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D163" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E163">
+      <c r="E163" s="3">
         <v>20231111</v>
       </c>
-      <c r="F163" t="s">
+      <c r="F163" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="G163" t="s">
-        <v>18</v>
-      </c>
-      <c r="H163" t="s">
+      <c r="G163" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H163" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="I163" t="s">
-        <v>21</v>
-      </c>
-      <c r="J163" t="s">
-        <v>273</v>
-      </c>
-      <c r="K163" t="s">
-        <v>22</v>
-      </c>
-      <c r="L163" t="s">
+      <c r="I163" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J163" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="K163" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L163" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M163" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>83</v>
       </c>
@@ -7486,7 +7804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>85</v>
       </c>
@@ -7524,7 +7842,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>86</v>
       </c>
@@ -7562,7 +7880,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>88</v>
       </c>
@@ -7600,7 +7918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>92</v>
       </c>
@@ -7638,7 +7956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>96</v>
       </c>
@@ -7676,7 +7994,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>98</v>
       </c>
@@ -7714,7 +8032,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>100</v>
       </c>
@@ -7752,7 +8070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>101</v>
       </c>
@@ -7790,7 +8108,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>104</v>
       </c>
@@ -7828,7 +8146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>109</v>
       </c>
@@ -7866,7 +8184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>110</v>
       </c>
@@ -7904,7 +8222,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>111</v>
       </c>

--- a/data/dna/dna_metadata.xlsx
+++ b/data/dna/dna_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/dna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B8B6AF-5843-D144-8257-F3C1DD14FEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C05670-6F78-3542-81EE-DACE49EFA0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2480" yWindow="760" windowWidth="27760" windowHeight="17740" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
@@ -989,13 +989,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1313,10 +1312,10 @@
   <dimension ref="A1:Q244"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C126" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I134" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A146" sqref="A146:XFD163"/>
+      <selection pane="bottomRight" activeCell="M164" sqref="M164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2566,7 +2565,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>188</v>
       </c>
@@ -2604,7 +2603,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>189</v>
       </c>
@@ -2642,7 +2641,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>190</v>
       </c>
@@ -2680,50 +2679,45 @@
         <v>265</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>191</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36">
         <v>177</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="5">
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36">
         <v>20231111</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" t="s">
         <v>269</v>
       </c>
-      <c r="G36" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H36" s="5" t="s">
+      <c r="G36" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" t="s">
         <v>267</v>
       </c>
-      <c r="I36" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L36" s="5" t="s">
+      <c r="I36" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" t="s">
+        <v>273</v>
+      </c>
+      <c r="K36" t="s">
+        <v>22</v>
+      </c>
+      <c r="L36" t="s">
         <v>265</v>
       </c>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>192</v>
       </c>
@@ -2761,7 +2755,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>112</v>
       </c>
@@ -2799,7 +2793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>113</v>
       </c>
@@ -2837,7 +2831,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>114</v>
       </c>
@@ -2875,7 +2869,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>115</v>
       </c>
@@ -2913,7 +2907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>116</v>
       </c>
@@ -2951,7 +2945,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>117</v>
       </c>
@@ -2989,7 +2983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>118</v>
       </c>
@@ -3027,7 +3021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>119</v>
       </c>
@@ -3065,7 +3059,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>120</v>
       </c>
@@ -3103,7 +3097,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>121</v>
       </c>
@@ -3141,7 +3135,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>122</v>
       </c>
@@ -4509,7 +4503,7 @@
         <v>265</v>
       </c>
       <c r="M83">
-        <v>20241017</v>
+        <v>20241108</v>
       </c>
       <c r="N83" t="s">
         <v>287</v>
@@ -4556,7 +4550,7 @@
         <v>265</v>
       </c>
       <c r="M84">
-        <v>20241017</v>
+        <v>20241108</v>
       </c>
       <c r="N84" t="s">
         <v>287</v>
@@ -4603,7 +4597,7 @@
         <v>265</v>
       </c>
       <c r="M85">
-        <v>20241017</v>
+        <v>20241108</v>
       </c>
       <c r="N85" t="s">
         <v>287</v>
@@ -4650,7 +4644,7 @@
         <v>265</v>
       </c>
       <c r="M86">
-        <v>20241017</v>
+        <v>20241108</v>
       </c>
       <c r="N86" t="s">
         <v>289</v>
@@ -5042,50 +5036,45 @@
         <v>265</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A97" s="5" t="s">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>207</v>
       </c>
-      <c r="B97" s="5">
+      <c r="B97">
         <v>229</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C97" t="s">
         <v>11</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D97" t="s">
         <v>9</v>
       </c>
-      <c r="E97" s="5">
+      <c r="E97">
         <v>20231111</v>
       </c>
-      <c r="F97" s="5" t="s">
+      <c r="F97" t="s">
         <v>269</v>
       </c>
-      <c r="G97" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H97" s="5" t="s">
+      <c r="G97" t="s">
+        <v>18</v>
+      </c>
+      <c r="H97" t="s">
         <v>266</v>
       </c>
-      <c r="I97" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J97" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="K97" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L97" s="5" t="s">
+      <c r="I97" t="s">
+        <v>21</v>
+      </c>
+      <c r="J97" t="s">
+        <v>273</v>
+      </c>
+      <c r="K97" t="s">
+        <v>22</v>
+      </c>
+      <c r="L97" t="s">
         <v>265</v>
       </c>
-      <c r="M97" s="5"/>
-      <c r="N97" s="5"/>
-      <c r="O97" s="5"/>
-      <c r="P97" s="5"/>
-      <c r="Q97" s="5"/>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>208</v>
       </c>
@@ -5123,7 +5112,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>209</v>
       </c>
@@ -5161,7 +5150,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>210</v>
       </c>
@@ -5199,7 +5188,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>211</v>
       </c>
@@ -5237,7 +5226,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>212</v>
       </c>
@@ -5275,7 +5264,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>214</v>
       </c>
@@ -5313,7 +5302,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>215</v>
       </c>
@@ -5351,7 +5340,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>213</v>
       </c>
@@ -5389,7 +5378,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>216</v>
       </c>
@@ -5427,7 +5416,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>217</v>
       </c>
@@ -5465,7 +5454,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>218</v>
       </c>
@@ -5503,7 +5492,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>219</v>
       </c>
@@ -5541,7 +5530,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>220</v>
       </c>
@@ -5579,7 +5568,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>221</v>
       </c>
@@ -5617,7 +5606,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>222</v>
       </c>
@@ -5921,7 +5910,7 @@
         <v>13</v>
       </c>
       <c r="M119">
-        <v>20241017</v>
+        <v>20241108</v>
       </c>
       <c r="N119" t="s">
         <v>280</v>
@@ -6044,7 +6033,7 @@
         <v>13</v>
       </c>
       <c r="M122">
-        <v>20241017</v>
+        <v>20241108</v>
       </c>
       <c r="N122" t="s">
         <v>289</v>
@@ -6094,7 +6083,7 @@
         <v>13</v>
       </c>
       <c r="M123">
-        <v>20241017</v>
+        <v>20241108</v>
       </c>
       <c r="N123" t="s">
         <v>280</v>
@@ -6179,7 +6168,7 @@
         <v>13</v>
       </c>
       <c r="M125">
-        <v>20241017</v>
+        <v>20241108</v>
       </c>
       <c r="N125" t="s">
         <v>287</v>
@@ -6226,7 +6215,7 @@
         <v>13</v>
       </c>
       <c r="M126">
-        <v>20241017</v>
+        <v>20241108</v>
       </c>
       <c r="N126" t="s">
         <v>287</v>
@@ -6311,7 +6300,7 @@
         <v>13</v>
       </c>
       <c r="M128">
-        <v>20241017</v>
+        <v>20241108</v>
       </c>
       <c r="N128" t="s">
         <v>283</v>
@@ -6358,7 +6347,7 @@
         <v>13</v>
       </c>
       <c r="M129">
-        <v>20241017</v>
+        <v>20241108</v>
       </c>
       <c r="N129" t="s">
         <v>289</v>
@@ -6446,7 +6435,7 @@
         <v>13</v>
       </c>
       <c r="M131">
-        <v>20241017</v>
+        <v>20241108</v>
       </c>
       <c r="N131" t="s">
         <v>289</v>
@@ -6496,7 +6485,7 @@
         <v>13</v>
       </c>
       <c r="M132">
-        <v>20241017</v>
+        <v>20241108</v>
       </c>
       <c r="N132" t="s">
         <v>289</v>
@@ -6546,7 +6535,7 @@
         <v>13</v>
       </c>
       <c r="M133">
-        <v>20241017</v>
+        <v>20241108</v>
       </c>
       <c r="N133" t="s">
         <v>289</v>
@@ -6596,7 +6585,7 @@
         <v>13</v>
       </c>
       <c r="M134">
-        <v>20241017</v>
+        <v>20241108</v>
       </c>
       <c r="N134" s="4" t="s">
         <v>280</v>
@@ -6644,7 +6633,7 @@
         <v>13</v>
       </c>
       <c r="M135">
-        <v>20241017</v>
+        <v>20241108</v>
       </c>
       <c r="N135" t="s">
         <v>285</v>
@@ -6691,7 +6680,7 @@
         <v>13</v>
       </c>
       <c r="M136">
-        <v>20241017</v>
+        <v>20241108</v>
       </c>
       <c r="N136" t="s">
         <v>289</v>
@@ -6779,7 +6768,7 @@
         <v>13</v>
       </c>
       <c r="M138">
-        <v>20241017</v>
+        <v>20241108</v>
       </c>
       <c r="N138" t="s">
         <v>289</v>
@@ -6829,7 +6818,7 @@
         <v>13</v>
       </c>
       <c r="M139">
-        <v>20241017</v>
+        <v>20241108</v>
       </c>
       <c r="N139" t="s">
         <v>287</v>
@@ -6876,7 +6865,7 @@
         <v>13</v>
       </c>
       <c r="M140">
-        <v>20241017</v>
+        <v>20241108</v>
       </c>
       <c r="N140" t="s">
         <v>289</v>
@@ -6926,7 +6915,7 @@
         <v>13</v>
       </c>
       <c r="M141">
-        <v>20241017</v>
+        <v>20241108</v>
       </c>
       <c r="N141" t="s">
         <v>285</v>
@@ -6973,7 +6962,7 @@
         <v>13</v>
       </c>
       <c r="M142">
-        <v>20241017</v>
+        <v>20241108</v>
       </c>
       <c r="N142" t="s">
         <v>280</v>
@@ -7020,7 +7009,7 @@
         <v>13</v>
       </c>
       <c r="M143">
-        <v>20241017</v>
+        <v>20241108</v>
       </c>
       <c r="N143" t="s">
         <v>287</v>
@@ -7067,7 +7056,7 @@
         <v>13</v>
       </c>
       <c r="M144">
-        <v>20241017</v>
+        <v>20241108</v>
       </c>
       <c r="N144" t="s">
         <v>280</v>
@@ -7114,7 +7103,7 @@
         <v>13</v>
       </c>
       <c r="M145">
-        <v>20241017</v>
+        <v>20241108</v>
       </c>
       <c r="N145" t="s">
         <v>285</v>
@@ -7161,7 +7150,7 @@
         <v>13</v>
       </c>
       <c r="M146">
-        <v>20241017</v>
+        <v>20241108</v>
       </c>
       <c r="N146" t="s">
         <v>289</v>
@@ -7211,7 +7200,7 @@
         <v>13</v>
       </c>
       <c r="M147">
-        <v>20241017</v>
+        <v>20241108</v>
       </c>
       <c r="N147" t="s">
         <v>289</v>
@@ -7261,7 +7250,7 @@
         <v>13</v>
       </c>
       <c r="M148">
-        <v>20241017</v>
+        <v>20241108</v>
       </c>
       <c r="N148" t="s">
         <v>283</v>
@@ -7308,7 +7297,7 @@
         <v>13</v>
       </c>
       <c r="M149">
-        <v>20241017</v>
+        <v>20241108</v>
       </c>
       <c r="N149" t="s">
         <v>289</v>
@@ -7358,7 +7347,7 @@
         <v>13</v>
       </c>
       <c r="M150">
-        <v>20241017</v>
+        <v>20241108</v>
       </c>
       <c r="N150" t="s">
         <v>285</v>
@@ -7405,7 +7394,7 @@
         <v>13</v>
       </c>
       <c r="M151">
-        <v>20241017</v>
+        <v>20241108</v>
       </c>
       <c r="N151" t="s">
         <v>287</v>
@@ -7452,7 +7441,7 @@
         <v>13</v>
       </c>
       <c r="M152">
-        <v>20241017</v>
+        <v>20241108</v>
       </c>
       <c r="N152" t="s">
         <v>293</v>
@@ -7537,7 +7526,7 @@
         <v>13</v>
       </c>
       <c r="M154">
-        <v>20241017</v>
+        <v>20241108</v>
       </c>
       <c r="N154" t="s">
         <v>285</v>
@@ -7584,7 +7573,7 @@
         <v>13</v>
       </c>
       <c r="M155">
-        <v>20241017</v>
+        <v>20241108</v>
       </c>
       <c r="N155" t="s">
         <v>289</v>
@@ -7634,7 +7623,7 @@
         <v>13</v>
       </c>
       <c r="M156">
-        <v>20241017</v>
+        <v>20241108</v>
       </c>
       <c r="N156" t="s">
         <v>283</v>
@@ -7681,7 +7670,7 @@
         <v>13</v>
       </c>
       <c r="M157">
-        <v>20241017</v>
+        <v>20241108</v>
       </c>
       <c r="N157" t="s">
         <v>283</v>
@@ -7728,7 +7717,7 @@
         <v>13</v>
       </c>
       <c r="M158">
-        <v>20241017</v>
+        <v>20241108</v>
       </c>
       <c r="N158" t="s">
         <v>289</v>
@@ -7778,7 +7767,7 @@
         <v>13</v>
       </c>
       <c r="M159">
-        <v>20241017</v>
+        <v>20241108</v>
       </c>
       <c r="N159" t="s">
         <v>289</v>
@@ -7828,7 +7817,7 @@
         <v>13</v>
       </c>
       <c r="M160">
-        <v>20241017</v>
+        <v>20241108</v>
       </c>
       <c r="N160" t="s">
         <v>285</v>
@@ -7875,7 +7864,7 @@
         <v>13</v>
       </c>
       <c r="M161">
-        <v>20241017</v>
+        <v>20241108</v>
       </c>
       <c r="N161" t="s">
         <v>289</v>
@@ -7925,7 +7914,7 @@
         <v>13</v>
       </c>
       <c r="M162">
-        <v>20241017</v>
+        <v>20241108</v>
       </c>
       <c r="N162" t="s">
         <v>283</v>
@@ -7972,7 +7961,7 @@
         <v>13</v>
       </c>
       <c r="M163" s="3">
-        <v>20241017</v>
+        <v>20241108</v>
       </c>
       <c r="N163" s="3" t="s">
         <v>289</v>

--- a/data/dna/dna_metadata.xlsx
+++ b/data/dna/dna_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/dna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C05670-6F78-3542-81EE-DACE49EFA0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6FD78F-BD85-C546-9494-E18F521FB0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2480" yWindow="760" windowWidth="27760" windowHeight="17740" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2548" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2551" uniqueCount="297">
   <si>
     <t>sample_id</t>
   </si>
@@ -918,6 +918,15 @@
   </si>
   <si>
     <t>2 (effusa)</t>
+  </si>
+  <si>
+    <t>H2_species</t>
+  </si>
+  <si>
+    <t>CRf_species</t>
+  </si>
+  <si>
+    <t>PaxC_species</t>
   </si>
 </sst>
 </file>
@@ -1309,13 +1318,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5716CA15-A063-CD4A-965E-FFCB3C4243EA}">
-  <dimension ref="A1:Q244"/>
+  <dimension ref="A1:T244"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I134" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M164" sqref="M164"/>
+      <selection pane="bottomRight" activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1330,11 +1339,11 @@
     <col min="12" max="12" width="23.1640625" customWidth="1"/>
     <col min="13" max="13" width="17.33203125" customWidth="1"/>
     <col min="14" max="14" width="17.6640625" customWidth="1"/>
-    <col min="15" max="16" width="15.33203125" customWidth="1"/>
-    <col min="17" max="17" width="31.6640625" customWidth="1"/>
+    <col min="15" max="19" width="15.33203125" customWidth="1"/>
+    <col min="20" max="20" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1381,13 +1390,22 @@
         <v>276</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>157</v>
       </c>
@@ -1425,7 +1443,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>158</v>
       </c>
@@ -1463,7 +1481,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>159</v>
       </c>
@@ -1501,7 +1519,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>160</v>
       </c>
@@ -1539,7 +1557,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>161</v>
       </c>
@@ -1577,7 +1595,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>162</v>
       </c>
@@ -1615,7 +1633,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>163</v>
       </c>
@@ -1653,7 +1671,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>164</v>
       </c>
@@ -1691,7 +1709,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>165</v>
       </c>
@@ -1729,7 +1747,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>166</v>
       </c>
@@ -1767,7 +1785,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>167</v>
       </c>
@@ -1805,7 +1823,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>168</v>
       </c>
@@ -1843,7 +1861,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>169</v>
       </c>
@@ -1881,7 +1899,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>170</v>
       </c>
@@ -1919,7 +1937,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>171</v>
       </c>
@@ -4389,7 +4407,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>50</v>
       </c>
@@ -4427,7 +4445,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>51</v>
       </c>
@@ -4465,7 +4483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>193</v>
       </c>
@@ -4508,11 +4526,11 @@
       <c r="N83" t="s">
         <v>287</v>
       </c>
-      <c r="P83" t="s">
+      <c r="S83" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>194</v>
       </c>
@@ -4555,11 +4573,11 @@
       <c r="N84" t="s">
         <v>287</v>
       </c>
-      <c r="P84" t="s">
+      <c r="S84" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>195</v>
       </c>
@@ -4602,11 +4620,11 @@
       <c r="N85" t="s">
         <v>287</v>
       </c>
-      <c r="P85" t="s">
+      <c r="S85" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>196</v>
       </c>
@@ -4652,11 +4670,11 @@
       <c r="O86" t="s">
         <v>290</v>
       </c>
-      <c r="P86" t="s">
+      <c r="S86" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>197</v>
       </c>
@@ -4694,7 +4712,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>198</v>
       </c>
@@ -4732,7 +4750,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>199</v>
       </c>
@@ -4770,7 +4788,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>200</v>
       </c>
@@ -4808,7 +4826,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>201</v>
       </c>
@@ -4846,7 +4864,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>202</v>
       </c>
@@ -4884,7 +4902,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>203</v>
       </c>
@@ -4922,7 +4940,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>204</v>
       </c>
@@ -4960,7 +4978,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>205</v>
       </c>
@@ -4998,7 +5016,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>206</v>
       </c>
@@ -5644,7 +5662,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>223</v>
       </c>
@@ -5682,7 +5700,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>224</v>
       </c>
@@ -5720,7 +5738,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>225</v>
       </c>
@@ -5758,7 +5776,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>226</v>
       </c>
@@ -5796,7 +5814,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>227</v>
       </c>
@@ -5834,7 +5852,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>228</v>
       </c>
@@ -5872,7 +5890,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>127</v>
       </c>
@@ -5915,11 +5933,11 @@
       <c r="N119" t="s">
         <v>280</v>
       </c>
-      <c r="P119" t="s">
+      <c r="S119" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>128</v>
       </c>
@@ -5957,7 +5975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>129</v>
       </c>
@@ -5995,7 +6013,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>130</v>
       </c>
@@ -6041,11 +6059,11 @@
       <c r="O122" t="s">
         <v>290</v>
       </c>
-      <c r="P122" t="s">
+      <c r="S122" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>131</v>
       </c>
@@ -6088,11 +6106,11 @@
       <c r="N123" t="s">
         <v>280</v>
       </c>
-      <c r="P123" t="s">
+      <c r="S123" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>132</v>
       </c>
@@ -6130,7 +6148,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>133</v>
       </c>
@@ -6173,11 +6191,11 @@
       <c r="N125" t="s">
         <v>287</v>
       </c>
-      <c r="P125" t="s">
+      <c r="S125" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>134</v>
       </c>
@@ -6220,11 +6238,11 @@
       <c r="N126" t="s">
         <v>287</v>
       </c>
-      <c r="P126" t="s">
+      <c r="S126" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>135</v>
       </c>
@@ -6262,7 +6280,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>136</v>
       </c>
@@ -6305,11 +6323,11 @@
       <c r="N128" t="s">
         <v>283</v>
       </c>
-      <c r="P128" t="s">
+      <c r="S128" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>137</v>
       </c>
@@ -6355,11 +6373,11 @@
       <c r="O129" t="s">
         <v>291</v>
       </c>
-      <c r="P129" t="s">
+      <c r="S129" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>138</v>
       </c>
@@ -6397,7 +6415,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>140</v>
       </c>
@@ -6443,11 +6461,11 @@
       <c r="O131" t="s">
         <v>290</v>
       </c>
-      <c r="P131" t="s">
+      <c r="S131" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>141</v>
       </c>
@@ -6493,11 +6511,11 @@
       <c r="O132" t="s">
         <v>290</v>
       </c>
-      <c r="P132" t="s">
+      <c r="S132" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>154</v>
       </c>
@@ -6543,11 +6561,11 @@
       <c r="O133" t="s">
         <v>290</v>
       </c>
-      <c r="P133" t="s">
+      <c r="S133" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>52</v>
       </c>
@@ -6591,11 +6609,14 @@
         <v>280</v>
       </c>
       <c r="O134" s="4"/>
-      <c r="P134" s="4" t="s">
+      <c r="P134" s="4"/>
+      <c r="Q134" s="4"/>
+      <c r="R134" s="4"/>
+      <c r="S134" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>53</v>
       </c>
@@ -6638,11 +6659,11 @@
       <c r="N135" t="s">
         <v>285</v>
       </c>
-      <c r="P135" t="s">
+      <c r="S135" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>54</v>
       </c>
@@ -6688,11 +6709,11 @@
       <c r="O136" t="s">
         <v>290</v>
       </c>
-      <c r="P136" t="s">
+      <c r="S136" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>55</v>
       </c>
@@ -6730,7 +6751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>56</v>
       </c>
@@ -6776,11 +6797,11 @@
       <c r="O138" t="s">
         <v>291</v>
       </c>
-      <c r="P138" t="s">
+      <c r="S138" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>57</v>
       </c>
@@ -6823,11 +6844,11 @@
       <c r="N139" t="s">
         <v>287</v>
       </c>
-      <c r="P139" t="s">
+      <c r="S139" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>58</v>
       </c>
@@ -6873,11 +6894,11 @@
       <c r="O140" t="s">
         <v>290</v>
       </c>
-      <c r="P140" t="s">
+      <c r="S140" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>59</v>
       </c>
@@ -6920,11 +6941,11 @@
       <c r="N141" t="s">
         <v>285</v>
       </c>
-      <c r="P141" t="s">
+      <c r="S141" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>60</v>
       </c>
@@ -6967,11 +6988,11 @@
       <c r="N142" t="s">
         <v>280</v>
       </c>
-      <c r="P142" t="s">
+      <c r="S142" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>61</v>
       </c>
@@ -7014,11 +7035,11 @@
       <c r="N143" t="s">
         <v>287</v>
       </c>
-      <c r="P143" t="s">
+      <c r="S143" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>62</v>
       </c>
@@ -7061,11 +7082,11 @@
       <c r="N144" t="s">
         <v>280</v>
       </c>
-      <c r="P144" t="s">
+      <c r="S144" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>63</v>
       </c>
@@ -7108,11 +7129,11 @@
       <c r="N145" t="s">
         <v>285</v>
       </c>
-      <c r="P145" t="s">
+      <c r="S145" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>64</v>
       </c>
@@ -7158,11 +7179,11 @@
       <c r="O146" t="s">
         <v>290</v>
       </c>
-      <c r="P146" t="s">
+      <c r="S146" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>65</v>
       </c>
@@ -7208,11 +7229,11 @@
       <c r="O147" t="s">
         <v>290</v>
       </c>
-      <c r="P147" t="s">
+      <c r="S147" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>66</v>
       </c>
@@ -7255,11 +7276,11 @@
       <c r="N148" t="s">
         <v>283</v>
       </c>
-      <c r="P148" t="s">
+      <c r="S148" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>67</v>
       </c>
@@ -7305,11 +7326,11 @@
       <c r="O149" t="s">
         <v>290</v>
       </c>
-      <c r="P149" t="s">
+      <c r="S149" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>68</v>
       </c>
@@ -7352,11 +7373,11 @@
       <c r="N150" t="s">
         <v>285</v>
       </c>
-      <c r="P150" t="s">
+      <c r="S150" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>69</v>
       </c>
@@ -7399,11 +7420,11 @@
       <c r="N151" t="s">
         <v>287</v>
       </c>
-      <c r="P151" t="s">
+      <c r="S151" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>70</v>
       </c>
@@ -7446,11 +7467,11 @@
       <c r="N152" t="s">
         <v>293</v>
       </c>
-      <c r="P152" t="s">
+      <c r="S152" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>71</v>
       </c>
@@ -7488,7 +7509,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>72</v>
       </c>
@@ -7531,11 +7552,11 @@
       <c r="N154" t="s">
         <v>285</v>
       </c>
-      <c r="P154" t="s">
+      <c r="S154" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>73</v>
       </c>
@@ -7581,11 +7602,11 @@
       <c r="O155" t="s">
         <v>290</v>
       </c>
-      <c r="P155" t="s">
+      <c r="S155" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>74</v>
       </c>
@@ -7628,11 +7649,11 @@
       <c r="N156" t="s">
         <v>283</v>
       </c>
-      <c r="P156" t="s">
+      <c r="S156" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>75</v>
       </c>
@@ -7675,11 +7696,11 @@
       <c r="N157" t="s">
         <v>283</v>
       </c>
-      <c r="P157" t="s">
+      <c r="S157" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>76</v>
       </c>
@@ -7725,11 +7746,11 @@
       <c r="O158" t="s">
         <v>290</v>
       </c>
-      <c r="P158" t="s">
+      <c r="S158" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>77</v>
       </c>
@@ -7775,11 +7796,11 @@
       <c r="O159" t="s">
         <v>290</v>
       </c>
-      <c r="P159" t="s">
+      <c r="S159" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>78</v>
       </c>
@@ -7822,11 +7843,11 @@
       <c r="N160" t="s">
         <v>285</v>
       </c>
-      <c r="P160" t="s">
+      <c r="S160" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>79</v>
       </c>
@@ -7872,11 +7893,11 @@
       <c r="O161" t="s">
         <v>290</v>
       </c>
-      <c r="P161" t="s">
+      <c r="S161" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>80</v>
       </c>
@@ -7919,11 +7940,11 @@
       <c r="N162" t="s">
         <v>283</v>
       </c>
-      <c r="P162" t="s">
+      <c r="S162" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="163" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>81</v>
       </c>
@@ -7969,11 +7990,11 @@
       <c r="O163" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="P163" s="3" t="s">
+      <c r="S163" s="3" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>242</v>
       </c>
@@ -8011,7 +8032,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>243</v>
       </c>
@@ -8049,7 +8070,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>229</v>
       </c>
@@ -8087,7 +8108,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>230</v>
       </c>
@@ -8125,7 +8146,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>231</v>
       </c>
@@ -8163,7 +8184,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>232</v>
       </c>
@@ -8201,7 +8222,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>233</v>
       </c>
@@ -8239,7 +8260,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>234</v>
       </c>
@@ -8277,7 +8298,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>235</v>
       </c>
@@ -8315,7 +8336,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>236</v>
       </c>
@@ -8353,7 +8374,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>237</v>
       </c>
@@ -8391,7 +8412,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>238</v>
       </c>
@@ -8429,7 +8450,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>239</v>
       </c>
@@ -11052,7 +11073,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q244">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T244">
     <sortCondition ref="C2:C244"/>
     <sortCondition ref="F2:F244"/>
     <sortCondition ref="D2:D244"/>

--- a/data/dna/dna_metadata.xlsx
+++ b/data/dna/dna_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/dna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6FD78F-BD85-C546-9494-E18F521FB0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB5D2A6-7AF2-D741-B812-DA163251B5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="760" windowWidth="27760" windowHeight="17740" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
+    <workbookView xWindow="-36740" yWindow="-920" windowWidth="22060" windowHeight="19760" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2551" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2630" uniqueCount="296">
   <si>
     <t>sample_id</t>
   </si>
@@ -863,70 +863,67 @@
     <t>800 ul shield</t>
   </si>
   <si>
-    <t>mtORF_species</t>
-  </si>
-  <si>
-    <t>RFLP_species</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>date.batch</t>
-  </si>
-  <si>
     <t>genus</t>
   </si>
   <si>
-    <t>3 (verrucosa)</t>
-  </si>
-  <si>
-    <t>P.verrucosa</t>
-  </si>
-  <si>
     <t>P. verrucosa</t>
   </si>
   <si>
-    <t>11 (effusa)</t>
-  </si>
-  <si>
     <t>P. effusa</t>
   </si>
   <si>
-    <t>10 (tuahiniensis)</t>
-  </si>
-  <si>
     <t>P. tuahiniensis</t>
   </si>
   <si>
-    <t>8a (meandrina)</t>
-  </si>
-  <si>
     <t>P. meandrina</t>
   </si>
   <si>
-    <t>1 (grandis/meandrina)</t>
-  </si>
-  <si>
-    <t>meandrina</t>
-  </si>
-  <si>
-    <t>grandis</t>
-  </si>
-  <si>
     <t>P. grandis</t>
   </si>
   <si>
-    <t>2 (effusa)</t>
-  </si>
-  <si>
-    <t>H2_species</t>
-  </si>
-  <si>
-    <t>CRf_species</t>
-  </si>
-  <si>
-    <t>PaxC_species</t>
+    <t>P. acuta (?)</t>
+  </si>
+  <si>
+    <t>P. acuta</t>
+  </si>
+  <si>
+    <t>P.tuahiniensis</t>
+  </si>
+  <si>
+    <t>ISOTOPES</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>30C</t>
+  </si>
+  <si>
+    <t>27C (dark)</t>
+  </si>
+  <si>
+    <t>33C</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>27C</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>RNA/PR Rates</t>
+  </si>
+  <si>
+    <t>1 unknown</t>
   </si>
 </sst>
 </file>
@@ -963,18 +960,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -998,12 +1039,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1321,10 +1374,10 @@
   <dimension ref="A1:T244"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="L118" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q15" sqref="Q15"/>
+      <selection pane="bottomRight" activeCell="V149" sqref="V149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1337,13 +1390,12 @@
     <col min="10" max="10" width="15.1640625" customWidth="1"/>
     <col min="11" max="11" width="15.5" customWidth="1"/>
     <col min="12" max="12" width="23.1640625" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" customWidth="1"/>
-    <col min="15" max="19" width="15.33203125" customWidth="1"/>
-    <col min="20" max="20" width="31.6640625" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" customWidth="1"/>
+    <col min="14" max="14" width="31.6640625" customWidth="1"/>
+    <col min="15" max="15" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1351,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1381,31 +1433,13 @@
         <v>7</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>278</v>
+        <v>2</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>157</v>
       </c>
@@ -1443,7 +1477,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>158</v>
       </c>
@@ -1481,7 +1515,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>159</v>
       </c>
@@ -1519,7 +1553,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>160</v>
       </c>
@@ -1557,7 +1591,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>161</v>
       </c>
@@ -1595,7 +1629,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>162</v>
       </c>
@@ -1633,7 +1667,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>163</v>
       </c>
@@ -1671,7 +1705,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>164</v>
       </c>
@@ -1709,7 +1743,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>165</v>
       </c>
@@ -1747,7 +1781,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>166</v>
       </c>
@@ -1785,7 +1819,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>167</v>
       </c>
@@ -1823,7 +1857,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>168</v>
       </c>
@@ -1861,7 +1895,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>169</v>
       </c>
@@ -1899,7 +1933,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>170</v>
       </c>
@@ -1937,7 +1971,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>171</v>
       </c>
@@ -2773,573 +2807,573 @@
         <v>265</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="38" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="9">
         <v>97</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="10">
         <v>20231107</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="G38" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I38" t="s">
-        <v>21</v>
-      </c>
-      <c r="J38" t="s">
-        <v>273</v>
-      </c>
-      <c r="K38" t="s">
-        <v>22</v>
-      </c>
-      <c r="L38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="I38" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="9">
         <v>98</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="10">
         <v>20231107</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G39" t="s">
-        <v>18</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="G39" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I39" t="s">
-        <v>21</v>
-      </c>
-      <c r="J39" t="s">
-        <v>273</v>
-      </c>
-      <c r="K39" t="s">
-        <v>22</v>
-      </c>
-      <c r="L39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="I39" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="9">
         <v>99</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="10">
         <v>20231107</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G40" t="s">
-        <v>18</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="G40" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I40" t="s">
-        <v>21</v>
-      </c>
-      <c r="J40" t="s">
-        <v>273</v>
-      </c>
-      <c r="K40" t="s">
-        <v>22</v>
-      </c>
-      <c r="L40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="I40" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="9">
         <v>100</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="10">
         <v>20231107</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G41" t="s">
-        <v>18</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="G41" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I41" t="s">
-        <v>21</v>
-      </c>
-      <c r="J41" t="s">
-        <v>273</v>
-      </c>
-      <c r="K41" t="s">
-        <v>22</v>
-      </c>
-      <c r="L41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="I41" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="9">
         <v>101</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="10">
         <v>20231107</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="G42" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I42" t="s">
-        <v>21</v>
-      </c>
-      <c r="J42" t="s">
-        <v>273</v>
-      </c>
-      <c r="K42" t="s">
-        <v>22</v>
-      </c>
-      <c r="L42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="I42" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="9">
         <v>102</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D43" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="2">
+      <c r="D43" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="10">
         <v>20231107</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G43" t="s">
-        <v>18</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="G43" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I43" t="s">
-        <v>21</v>
-      </c>
-      <c r="J43" t="s">
-        <v>273</v>
-      </c>
-      <c r="K43" t="s">
-        <v>22</v>
-      </c>
-      <c r="L43" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="I43" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L43" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="9">
         <v>103</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D44" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="2">
+      <c r="D44" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="10">
         <v>20231107</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G44" t="s">
-        <v>18</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="G44" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I44" t="s">
-        <v>21</v>
-      </c>
-      <c r="J44" t="s">
-        <v>273</v>
-      </c>
-      <c r="K44" t="s">
-        <v>22</v>
-      </c>
-      <c r="L44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="I44" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="9">
         <v>104</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D45" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="2">
+      <c r="D45" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="10">
         <v>20231107</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G45" t="s">
-        <v>18</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="G45" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I45" t="s">
-        <v>21</v>
-      </c>
-      <c r="J45" t="s">
-        <v>273</v>
-      </c>
-      <c r="K45" t="s">
-        <v>22</v>
-      </c>
-      <c r="L45" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="I45" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="9">
         <v>105</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="2">
+      <c r="D46" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="10">
         <v>20231107</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G46" t="s">
-        <v>18</v>
-      </c>
-      <c r="H46" t="s">
+      <c r="G46" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I46" t="s">
-        <v>21</v>
-      </c>
-      <c r="J46" t="s">
-        <v>273</v>
-      </c>
-      <c r="K46" t="s">
-        <v>22</v>
-      </c>
-      <c r="L46" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="I46" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="K46" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L46" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="9">
         <v>106</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D47" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="2">
+      <c r="D47" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="10">
         <v>20231107</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G47" t="s">
-        <v>18</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="G47" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I47" t="s">
-        <v>21</v>
-      </c>
-      <c r="J47" t="s">
-        <v>273</v>
-      </c>
-      <c r="K47" t="s">
-        <v>22</v>
-      </c>
-      <c r="L47" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="I47" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="K47" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="9">
         <v>107</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D48" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48">
+      <c r="D48" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="9">
         <v>20231107</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G48" t="s">
-        <v>18</v>
-      </c>
-      <c r="H48" t="s">
+      <c r="G48" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I48" t="s">
-        <v>21</v>
-      </c>
-      <c r="J48" t="s">
-        <v>273</v>
-      </c>
-      <c r="K48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="I48" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="9">
         <v>108</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D49" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49">
+      <c r="D49" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="9">
         <v>20231107</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G49" t="s">
-        <v>18</v>
-      </c>
-      <c r="H49" t="s">
+      <c r="G49" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I49" t="s">
-        <v>21</v>
-      </c>
-      <c r="J49" t="s">
-        <v>273</v>
-      </c>
-      <c r="K49" t="s">
-        <v>22</v>
-      </c>
-      <c r="L49" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="I49" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="9">
         <v>109</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="2">
+      <c r="D50" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="10">
         <v>20231107</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G50" t="s">
-        <v>18</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="G50" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I50" t="s">
-        <v>21</v>
-      </c>
-      <c r="J50" t="s">
-        <v>273</v>
-      </c>
-      <c r="K50" t="s">
-        <v>22</v>
-      </c>
-      <c r="L50" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="I50" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="K50" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L50" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="9">
         <v>110</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D51" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51">
+      <c r="D51" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="9">
         <v>20231107</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G51" t="s">
-        <v>18</v>
-      </c>
-      <c r="H51" t="s">
+      <c r="G51" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I51" t="s">
-        <v>21</v>
-      </c>
-      <c r="J51" t="s">
-        <v>273</v>
-      </c>
-      <c r="K51" t="s">
-        <v>22</v>
-      </c>
-      <c r="L51" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="I51" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="K51" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="9">
         <v>111</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" s="2">
+      <c r="D52" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="10">
         <v>20231107</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G52" t="s">
-        <v>18</v>
-      </c>
-      <c r="H52" t="s">
+      <c r="G52" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I52" t="s">
-        <v>21</v>
-      </c>
-      <c r="J52" t="s">
-        <v>273</v>
-      </c>
-      <c r="K52" t="s">
-        <v>22</v>
-      </c>
-      <c r="L52" t="s">
+      <c r="I52" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L52" s="9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4407,7 +4441,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>50</v>
       </c>
@@ -4445,7 +4479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>51</v>
       </c>
@@ -4483,3518 +4517,4083 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+    <row r="83" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="5">
         <v>179</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="5">
         <v>20231111</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="G83" t="s">
-        <v>18</v>
-      </c>
-      <c r="H83" t="s">
+      <c r="G83" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H83" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="I83" t="s">
-        <v>21</v>
-      </c>
-      <c r="J83" t="s">
-        <v>273</v>
-      </c>
-      <c r="K83" t="s">
-        <v>22</v>
-      </c>
-      <c r="L83" t="s">
+      <c r="I83" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J83" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="K83" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L83" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="M83">
-        <v>20241108</v>
-      </c>
-      <c r="N83" t="s">
+      <c r="M83" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="N83" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B84" s="5">
+        <v>180</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="5">
+        <v>20231111</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L84" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="M84" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="N84" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B85" s="5">
+        <v>181</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="5">
+        <v>20231111</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J85" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="K85" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L85" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="M85" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="N85" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="S83" t="s">
+    </row>
+    <row r="86" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B86" s="5">
+        <v>182</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="5">
+        <v>20231111</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="K86" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L86" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="M86" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="N86" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B87" s="5">
+        <v>183</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="5">
+        <v>20231111</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="K87" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L87" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="M87" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="N87" s="5" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="P87" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q87" s="7"/>
+    </row>
+    <row r="88" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B88" s="5">
+        <v>184</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="5">
+        <v>20231111</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="K88" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L88" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="M88" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="N88" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="P88" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q88" s="7"/>
+      <c r="R88" s="7"/>
+      <c r="S88" s="7"/>
+    </row>
+    <row r="89" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B89" s="5">
+        <v>185</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" s="5">
+        <v>20231111</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="K89" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L89" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="M89" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="N89" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="P89" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q89" s="7">
+        <v>27</v>
+      </c>
+      <c r="R89" s="7">
+        <v>30</v>
+      </c>
+      <c r="S89" s="7">
+        <v>33</v>
+      </c>
+      <c r="T89" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B90" s="5">
+        <v>186</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" s="5">
+        <v>20231111</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J90" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L90" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="M90" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="N90" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="O90" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="P90" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q90" s="5">
+        <v>2</v>
+      </c>
+      <c r="R90" s="5">
+        <v>4</v>
+      </c>
+      <c r="S90" s="5">
+        <v>2</v>
+      </c>
+      <c r="T90" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B91" s="5">
+        <v>187</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" s="5">
+        <v>20231111</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J91" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="K91" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L91" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="M91" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="N91" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="O91" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="P91" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q91" s="5">
+        <v>1</v>
+      </c>
+      <c r="R91" s="5">
+        <v>0</v>
+      </c>
+      <c r="S91" s="5">
+        <v>1</v>
+      </c>
+      <c r="T91" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B92" s="5">
+        <v>188</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" s="5">
+        <v>20231111</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="K92" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L92" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="M92" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="N92" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="O92" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="P92" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q92" s="5">
+        <v>0</v>
+      </c>
+      <c r="R92" s="5">
+        <v>0</v>
+      </c>
+      <c r="S92" s="5">
+        <v>1</v>
+      </c>
+      <c r="T92" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B93" s="5">
+        <v>189</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="5">
+        <v>20231111</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J93" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="K93" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L93" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="M93" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="N93" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="O93" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="P93" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q93" s="5">
+        <v>1</v>
+      </c>
+      <c r="R93" s="5">
+        <v>0</v>
+      </c>
+      <c r="S93" s="5">
+        <v>0</v>
+      </c>
+      <c r="T93" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B94" s="5">
+        <v>190</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" s="5">
+        <v>20231111</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L94" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="M94" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="N94" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="O94" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="P94" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B95" s="5">
+        <v>191</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="5">
+        <v>20231111</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J95" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="K95" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L95" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="M95" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="N95" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="O95" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="P95" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B96" s="5">
+        <v>228</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" s="5">
+        <v>20231111</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="K96" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L96" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="M96" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="N96" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="O96" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P96" s="7">
+        <v>15</v>
+      </c>
+      <c r="Q96" s="7">
+        <v>4</v>
+      </c>
+      <c r="R96" s="7">
+        <v>4</v>
+      </c>
+      <c r="S96" s="7">
+        <v>4</v>
+      </c>
+      <c r="T96" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B97" s="5">
+        <v>229</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" s="5">
+        <v>20231111</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="K97" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L97" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="M97" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="N97" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B98" s="5">
         <v>194</v>
       </c>
-      <c r="B84">
-        <v>180</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="C98" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D98" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" s="5">
+        <v>20231111</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I98" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="K98" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L98" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="M98" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="N98" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B99" s="5">
+        <v>195</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" s="5">
+        <v>20231111</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I99" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J99" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="K99" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L99" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="M99" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="N99" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="P99" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B100" s="5">
+        <v>196</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" s="5">
+        <v>20231111</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I100" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J100" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="K100" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L100" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="M100" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="N100" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="P100" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q100" s="7">
+        <v>27</v>
+      </c>
+      <c r="R100" s="7">
+        <v>30</v>
+      </c>
+      <c r="S100" s="7">
+        <v>33</v>
+      </c>
+      <c r="T100" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B101" s="5">
+        <v>197</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" s="5">
+        <v>20231111</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I101" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="K101" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L101" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="M101" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="N101" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="O101" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="P101" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q101" s="8">
+        <v>5</v>
+      </c>
+      <c r="R101" s="8">
+        <v>4</v>
+      </c>
+      <c r="S101" s="8">
+        <v>5</v>
+      </c>
+      <c r="T101" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B102" s="5">
+        <v>198</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" s="5">
+        <v>20231111</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I102" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J102" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="K102" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L102" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="M102" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="N102" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="O102" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="P102" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="5">
+        <v>0</v>
+      </c>
+      <c r="R102" s="5">
+        <v>0</v>
+      </c>
+      <c r="S102" s="5">
+        <v>0</v>
+      </c>
+      <c r="T102" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B103" s="5">
+        <v>199</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" s="5">
+        <v>20231111</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I103" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="K103" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L103" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="M103" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="N103" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="O103" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="P103" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q103" s="5">
+        <v>0</v>
+      </c>
+      <c r="R103" s="5">
+        <v>1</v>
+      </c>
+      <c r="S103" s="5">
+        <v>0</v>
+      </c>
+      <c r="T103" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B104" s="5">
+        <v>200</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" s="5">
+        <v>20231111</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I104" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="K104" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L104" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="M104" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="N104" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="O104" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="P104" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="5">
+        <v>0</v>
+      </c>
+      <c r="R104" s="5">
+        <v>0</v>
+      </c>
+      <c r="S104" s="5">
+        <v>0</v>
+      </c>
+      <c r="T104" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B105" s="5">
+        <v>201</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" s="5">
+        <v>20231111</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I105" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J105" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="K105" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L105" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="M105" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="N105" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="O105" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="P105" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q105" s="5">
+        <v>0</v>
+      </c>
+      <c r="R105" s="5">
+        <v>1</v>
+      </c>
+      <c r="S105" s="5">
+        <v>1</v>
+      </c>
+      <c r="T105" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B106" s="5">
+        <v>202</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" s="5">
+        <v>20231111</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I106" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="K106" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L106" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="M106" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="N106" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="O106" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="P106" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q106" s="5">
+        <v>1</v>
+      </c>
+      <c r="R106" s="5">
+        <v>0</v>
+      </c>
+      <c r="S106" s="5">
+        <v>0</v>
+      </c>
+      <c r="T106" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B107" s="5">
+        <v>203</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" s="5">
+        <v>20231111</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I107" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="K107" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L107" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="M107" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="N107" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="O107" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P107" s="7">
+        <v>21</v>
+      </c>
+      <c r="Q107" s="7">
+        <v>6</v>
+      </c>
+      <c r="R107" s="7">
+        <v>6</v>
+      </c>
+      <c r="S107" s="7">
+        <v>6</v>
+      </c>
+      <c r="T107" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B108" s="5">
+        <v>204</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" s="5">
+        <v>20231111</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I108" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="K108" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L108" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="M108" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="N108" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B109" s="5">
+        <v>205</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" s="5">
+        <v>20231111</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I109" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="K109" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L109" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="M109" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="N109" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B110" s="5">
+        <v>206</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E110" s="5">
+        <v>20231111</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I110" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="K110" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L110" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="M110" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="N110" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B111" s="5">
+        <v>207</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" s="5">
+        <v>20231111</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H111" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I111" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="K111" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L111" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="M111" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="N111" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" s="5">
+        <v>208</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E112" s="5">
+        <v>20231111</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H112" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I112" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J112" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="K112" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L112" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="M112" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="N112" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B113" s="5">
+        <v>209</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E113" s="5">
+        <v>20231111</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H113" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I113" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J113" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="K113" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L113" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="M113" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="N113" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B114" s="5">
+        <v>210</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" s="5">
+        <v>20231111</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H114" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I114" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J114" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="K114" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L114" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="M114" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="N114" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B115" s="5">
+        <v>211</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E115" s="5">
+        <v>20231111</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I115" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J115" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="K115" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L115" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="M115" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="N115" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B116" s="5">
+        <v>212</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E116" s="5">
+        <v>20231111</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I116" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J116" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="K116" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L116" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="M116" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="N116" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B117" s="5">
+        <v>213</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E117" s="5">
+        <v>20231111</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H117" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I117" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J117" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="K117" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L117" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="M117" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="N117" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B118" s="5">
+        <v>214</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" s="5">
+        <v>20231111</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I118" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J118" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="K118" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L118" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="M118" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="N118" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B119" s="9">
+        <v>112</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E84">
-        <v>20231111</v>
-      </c>
-      <c r="F84" t="s">
-        <v>269</v>
-      </c>
-      <c r="G84" t="s">
-        <v>18</v>
-      </c>
-      <c r="H84" t="s">
-        <v>266</v>
-      </c>
-      <c r="I84" t="s">
-        <v>21</v>
-      </c>
-      <c r="J84" t="s">
-        <v>273</v>
-      </c>
-      <c r="K84" t="s">
-        <v>22</v>
-      </c>
-      <c r="L84" t="s">
-        <v>265</v>
-      </c>
-      <c r="M84">
-        <v>20241108</v>
-      </c>
-      <c r="N84" t="s">
-        <v>287</v>
-      </c>
-      <c r="S84" t="s">
+      <c r="E119" s="10">
+        <v>20231107</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H119" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I119" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J119" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="K119" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L119" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M119" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B120" s="9">
+        <v>113</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" s="10">
+        <v>20231107</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G120" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H120" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I120" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J120" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="K120" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L120" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M120" s="4"/>
+    </row>
+    <row r="121" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B121" s="9">
+        <v>114</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E121" s="10">
+        <v>20231107</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G121" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H121" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I121" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J121" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="K121" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L121" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M121" s="10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B122" s="9">
+        <v>115</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E122" s="10">
+        <v>20231107</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G122" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H122" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I122" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J122" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="K122" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L122" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M122" s="10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B123" s="9">
+        <v>116</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E123" s="10">
+        <v>20231107</v>
+      </c>
+      <c r="F123" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G123" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H123" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I123" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J123" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="K123" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L123" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M123" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B124" s="9">
+        <v>117</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E124" s="10">
+        <v>20231107</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G124" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H124" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I124" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J124" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="K124" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L124" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M124" s="9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B125" s="9">
+        <v>118</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E125" s="10">
+        <v>20231107</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G125" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H125" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I125" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J125" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="K125" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L125" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M125" s="10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B126" s="9">
+        <v>119</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E126" s="10">
+        <v>20231107</v>
+      </c>
+      <c r="F126" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G126" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H126" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I126" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J126" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="K126" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L126" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M126" s="10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B127" s="9">
+        <v>120</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E127" s="10">
+        <v>20231107</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G127" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H127" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I127" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J127" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="K127" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L127" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M127" s="9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B128" s="9">
+        <v>121</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D128" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E128" s="10">
+        <v>20231107</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G128" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H128" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I128" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J128" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="K128" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L128" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M128" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B129" s="9">
+        <v>122</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E129" s="10">
+        <v>20231107</v>
+      </c>
+      <c r="F129" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G129" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H129" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I129" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J129" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="K129" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L129" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M129" s="10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B130" s="9">
+        <v>123</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E130" s="10">
+        <v>20231107</v>
+      </c>
+      <c r="F130" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G130" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H130" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I130" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J130" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="K130" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L130" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M130" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B131" s="9">
+        <v>125</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E131" s="10">
+        <v>20231107</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G131" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H131" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I131" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J131" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="K131" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L131" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M131" s="10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B132" s="9">
+        <v>126</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E132" s="10">
+        <v>20231107</v>
+      </c>
+      <c r="F132" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G132" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H132" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I132" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J132" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="K132" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L132" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M132" s="10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B133" s="9">
+        <v>139</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E133" s="10">
+        <v>20231107</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G133" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H133" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I133" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J133" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="K133" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L133" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M133" s="10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B134" s="11">
+        <v>33</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D134" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E134" s="11">
+        <v>20231117</v>
+      </c>
+      <c r="F134" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="G134" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H134" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I134" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J134" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="K134" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="L134" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M134" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="N134" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B135" s="11">
+        <v>34</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D135" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135" s="11">
+        <v>20231117</v>
+      </c>
+      <c r="F135" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="G135" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H135" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I135" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J135" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="K135" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="L135" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M135" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="N135" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B136" s="11">
+        <v>35</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E136" s="11">
+        <v>20231117</v>
+      </c>
+      <c r="F136" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="G136" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H136" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I136" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J136" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="K136" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="L136" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M136" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="N136" s="11" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>195</v>
-      </c>
-      <c r="B85">
-        <v>181</v>
-      </c>
-      <c r="C85" t="s">
+    <row r="137" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B137" s="11">
+        <v>36</v>
+      </c>
+      <c r="C137" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D137" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E85">
-        <v>20231111</v>
-      </c>
-      <c r="F85" t="s">
-        <v>269</v>
-      </c>
-      <c r="G85" t="s">
-        <v>18</v>
-      </c>
-      <c r="H85" t="s">
-        <v>266</v>
-      </c>
-      <c r="I85" t="s">
-        <v>21</v>
-      </c>
-      <c r="J85" t="s">
-        <v>273</v>
-      </c>
-      <c r="K85" t="s">
-        <v>22</v>
-      </c>
-      <c r="L85" t="s">
-        <v>265</v>
-      </c>
-      <c r="M85">
-        <v>20241108</v>
-      </c>
-      <c r="N85" t="s">
-        <v>287</v>
-      </c>
-      <c r="S85" t="s">
+      <c r="E137" s="11">
+        <v>20231117</v>
+      </c>
+      <c r="F137" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="G137" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H137" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I137" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J137" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="K137" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="L137" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M137" s="4"/>
+      <c r="N137" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B138" s="11">
+        <v>37</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E138" s="11">
+        <v>20231117</v>
+      </c>
+      <c r="F138" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="G138" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H138" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I138" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J138" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="K138" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="L138" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M138" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="N138" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="O138" s="15"/>
+      <c r="P138" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q138" s="16"/>
+      <c r="R138" s="15"/>
+      <c r="S138" s="15"/>
+      <c r="T138" s="15"/>
+    </row>
+    <row r="139" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B139" s="11">
+        <v>38</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D139" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E139" s="11">
+        <v>20231117</v>
+      </c>
+      <c r="F139" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="G139" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H139" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I139" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J139" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="K139" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="L139" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M139" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="N139" s="11" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>196</v>
-      </c>
-      <c r="B86">
-        <v>182</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="O139" s="15"/>
+      <c r="P139" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q139" s="16"/>
+      <c r="R139" s="16"/>
+      <c r="S139" s="16"/>
+      <c r="T139" s="15"/>
+    </row>
+    <row r="140" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B140" s="11">
+        <v>39</v>
+      </c>
+      <c r="C140" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D140" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E86">
-        <v>20231111</v>
-      </c>
-      <c r="F86" t="s">
-        <v>269</v>
-      </c>
-      <c r="G86" t="s">
-        <v>18</v>
-      </c>
-      <c r="H86" t="s">
-        <v>266</v>
-      </c>
-      <c r="I86" t="s">
-        <v>21</v>
-      </c>
-      <c r="J86" t="s">
-        <v>273</v>
-      </c>
-      <c r="K86" t="s">
-        <v>22</v>
-      </c>
-      <c r="L86" t="s">
-        <v>265</v>
-      </c>
-      <c r="M86">
-        <v>20241108</v>
-      </c>
-      <c r="N86" t="s">
-        <v>289</v>
-      </c>
-      <c r="O86" t="s">
+      <c r="E140" s="11">
+        <v>20231117</v>
+      </c>
+      <c r="F140" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="G140" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H140" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I140" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J140" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="K140" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="L140" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M140" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="N140" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="O140" s="15"/>
+      <c r="P140" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q140" s="16">
+        <v>27</v>
+      </c>
+      <c r="R140" s="16">
+        <v>30</v>
+      </c>
+      <c r="S140" s="16">
+        <v>33</v>
+      </c>
+      <c r="T140" s="16"/>
+    </row>
+    <row r="141" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B141" s="11">
+        <v>40</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D141" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E141" s="11">
+        <v>20231117</v>
+      </c>
+      <c r="F141" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="G141" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H141" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I141" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J141" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="K141" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="L141" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M141" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="N141" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="S86" t="s">
+      <c r="O141" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="P141" s="15">
+        <v>2</v>
+      </c>
+      <c r="Q141" s="15">
+        <v>1</v>
+      </c>
+      <c r="R141" s="15">
+        <v>0</v>
+      </c>
+      <c r="S141" s="15">
+        <v>2</v>
+      </c>
+      <c r="T141" s="15"/>
+    </row>
+    <row r="142" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B142" s="11">
+        <v>41</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D142" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E142" s="11">
+        <v>20231117</v>
+      </c>
+      <c r="F142" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="G142" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H142" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I142" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J142" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="K142" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="L142" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M142" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="N142" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="O142" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="P142" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q142" s="15">
+        <v>1</v>
+      </c>
+      <c r="R142" s="15">
+        <v>1</v>
+      </c>
+      <c r="S142" s="15">
+        <v>1</v>
+      </c>
+      <c r="T142" s="15"/>
+    </row>
+    <row r="143" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B143" s="11">
+        <v>42</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D143" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E143" s="11">
+        <v>20231117</v>
+      </c>
+      <c r="F143" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="G143" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H143" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I143" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J143" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="K143" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="L143" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M143" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="N143" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="O143" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="P143" s="15">
+        <v>2</v>
+      </c>
+      <c r="Q143" s="15">
+        <v>0</v>
+      </c>
+      <c r="R143" s="15">
+        <v>1</v>
+      </c>
+      <c r="S143" s="15">
+        <v>1</v>
+      </c>
+      <c r="T143" s="15"/>
+    </row>
+    <row r="144" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B144" s="11">
+        <v>43</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E144" s="11">
+        <v>20231117</v>
+      </c>
+      <c r="F144" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="G144" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H144" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I144" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J144" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="K144" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="L144" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M144" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="N144" s="11" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>197</v>
-      </c>
-      <c r="B87">
-        <v>183</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="O144" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="P144" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q144" s="15">
+        <v>1</v>
+      </c>
+      <c r="R144" s="15">
+        <v>2</v>
+      </c>
+      <c r="S144" s="15">
+        <v>0</v>
+      </c>
+      <c r="T144" s="15"/>
+    </row>
+    <row r="145" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B145" s="11">
+        <v>44</v>
+      </c>
+      <c r="C145" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D145" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E87">
-        <v>20231111</v>
-      </c>
-      <c r="F87" t="s">
-        <v>269</v>
-      </c>
-      <c r="G87" t="s">
-        <v>18</v>
-      </c>
-      <c r="H87" t="s">
-        <v>266</v>
-      </c>
-      <c r="I87" t="s">
-        <v>21</v>
-      </c>
-      <c r="J87" t="s">
-        <v>273</v>
-      </c>
-      <c r="K87" t="s">
-        <v>22</v>
-      </c>
-      <c r="L87" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>198</v>
-      </c>
-      <c r="B88">
-        <v>184</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="E145" s="11">
+        <v>20231117</v>
+      </c>
+      <c r="F145" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="G145" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H145" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I145" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J145" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="K145" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="L145" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M145" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="N145" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="O145" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="P145" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q145" s="15">
+        <v>0</v>
+      </c>
+      <c r="R145" s="15">
+        <v>0</v>
+      </c>
+      <c r="S145" s="15">
+        <v>0</v>
+      </c>
+      <c r="T145" s="15"/>
+    </row>
+    <row r="146" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B146" s="11">
+        <v>45</v>
+      </c>
+      <c r="C146" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D88" t="s">
-        <v>9</v>
-      </c>
-      <c r="E88">
-        <v>20231111</v>
-      </c>
-      <c r="F88" t="s">
-        <v>269</v>
-      </c>
-      <c r="G88" t="s">
-        <v>18</v>
-      </c>
-      <c r="H88" t="s">
-        <v>266</v>
-      </c>
-      <c r="I88" t="s">
-        <v>21</v>
-      </c>
-      <c r="J88" t="s">
-        <v>273</v>
-      </c>
-      <c r="K88" t="s">
-        <v>22</v>
-      </c>
-      <c r="L88" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>199</v>
-      </c>
-      <c r="B89">
-        <v>185</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="D146" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E146" s="11">
+        <v>20231117</v>
+      </c>
+      <c r="F146" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="G146" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H146" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I146" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J146" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="K146" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="L146" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M146" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="N146" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="O146" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="P146" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q146" s="15">
+        <v>0</v>
+      </c>
+      <c r="R146" s="15">
+        <v>0</v>
+      </c>
+      <c r="S146" s="15">
+        <v>0</v>
+      </c>
+      <c r="T146" s="15"/>
+    </row>
+    <row r="147" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B147" s="11">
+        <v>46</v>
+      </c>
+      <c r="C147" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D89" t="s">
-        <v>9</v>
-      </c>
-      <c r="E89">
-        <v>20231111</v>
-      </c>
-      <c r="F89" t="s">
-        <v>269</v>
-      </c>
-      <c r="G89" t="s">
-        <v>18</v>
-      </c>
-      <c r="H89" t="s">
-        <v>266</v>
-      </c>
-      <c r="I89" t="s">
-        <v>21</v>
-      </c>
-      <c r="J89" t="s">
-        <v>273</v>
-      </c>
-      <c r="K89" t="s">
-        <v>22</v>
-      </c>
-      <c r="L89" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>200</v>
-      </c>
-      <c r="B90">
-        <v>186</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="D147" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E147" s="11">
+        <v>20231117</v>
+      </c>
+      <c r="F147" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="G147" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H147" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I147" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J147" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="K147" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="L147" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M147" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="N147" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="O147" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="P147" s="16">
+        <v>10</v>
+      </c>
+      <c r="Q147" s="16">
+        <v>3</v>
+      </c>
+      <c r="R147" s="16">
+        <v>4</v>
+      </c>
+      <c r="S147" s="16">
+        <v>4</v>
+      </c>
+      <c r="T147" s="16"/>
+    </row>
+    <row r="148" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B148" s="11">
+        <v>47</v>
+      </c>
+      <c r="C148" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D90" t="s">
-        <v>9</v>
-      </c>
-      <c r="E90">
-        <v>20231111</v>
-      </c>
-      <c r="F90" t="s">
-        <v>269</v>
-      </c>
-      <c r="G90" t="s">
-        <v>18</v>
-      </c>
-      <c r="H90" t="s">
-        <v>266</v>
-      </c>
-      <c r="I90" t="s">
-        <v>21</v>
-      </c>
-      <c r="J90" t="s">
-        <v>273</v>
-      </c>
-      <c r="K90" t="s">
-        <v>22</v>
-      </c>
-      <c r="L90" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>201</v>
-      </c>
-      <c r="B91">
-        <v>187</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="D148" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E148" s="11">
+        <v>20231117</v>
+      </c>
+      <c r="F148" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="G148" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H148" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I148" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J148" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="K148" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="L148" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M148" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="N148" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="O148" s="15"/>
+      <c r="P148" s="15"/>
+      <c r="Q148" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="R148" s="15"/>
+      <c r="S148" s="15"/>
+      <c r="T148" s="15"/>
+    </row>
+    <row r="149" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B149" s="11">
+        <v>48</v>
+      </c>
+      <c r="C149" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D91" t="s">
-        <v>9</v>
-      </c>
-      <c r="E91">
-        <v>20231111</v>
-      </c>
-      <c r="F91" t="s">
-        <v>269</v>
-      </c>
-      <c r="G91" t="s">
-        <v>18</v>
-      </c>
-      <c r="H91" t="s">
-        <v>266</v>
-      </c>
-      <c r="I91" t="s">
-        <v>21</v>
-      </c>
-      <c r="J91" t="s">
-        <v>273</v>
-      </c>
-      <c r="K91" t="s">
-        <v>22</v>
-      </c>
-      <c r="L91" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>202</v>
-      </c>
-      <c r="B92">
-        <v>188</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="D149" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E149" s="11">
+        <v>20231117</v>
+      </c>
+      <c r="F149" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="G149" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H149" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I149" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J149" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="K149" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="L149" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M149" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="N149" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="O149" s="15"/>
+      <c r="P149" s="15"/>
+      <c r="Q149" s="15"/>
+      <c r="R149" s="15"/>
+      <c r="S149" s="15"/>
+      <c r="T149" s="15"/>
+    </row>
+    <row r="150" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B150" s="11">
+        <v>49</v>
+      </c>
+      <c r="C150" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D92" t="s">
-        <v>9</v>
-      </c>
-      <c r="E92">
-        <v>20231111</v>
-      </c>
-      <c r="F92" t="s">
-        <v>269</v>
-      </c>
-      <c r="G92" t="s">
-        <v>18</v>
-      </c>
-      <c r="H92" t="s">
-        <v>266</v>
-      </c>
-      <c r="I92" t="s">
-        <v>21</v>
-      </c>
-      <c r="J92" t="s">
-        <v>273</v>
-      </c>
-      <c r="K92" t="s">
-        <v>22</v>
-      </c>
-      <c r="L92" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>203</v>
-      </c>
-      <c r="B93">
-        <v>189</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="D150" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E150" s="11">
+        <v>20231117</v>
+      </c>
+      <c r="F150" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="G150" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H150" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I150" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J150" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="K150" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="L150" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M150" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="N150" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="O150" s="15"/>
+      <c r="P150" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q150" s="15"/>
+      <c r="R150" s="15"/>
+      <c r="S150" s="15"/>
+      <c r="T150" s="15"/>
+    </row>
+    <row r="151" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B151" s="11">
+        <v>50</v>
+      </c>
+      <c r="C151" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D93" t="s">
-        <v>9</v>
-      </c>
-      <c r="E93">
-        <v>20231111</v>
-      </c>
-      <c r="F93" t="s">
-        <v>269</v>
-      </c>
-      <c r="G93" t="s">
-        <v>18</v>
-      </c>
-      <c r="H93" t="s">
-        <v>266</v>
-      </c>
-      <c r="I93" t="s">
-        <v>21</v>
-      </c>
-      <c r="J93" t="s">
-        <v>273</v>
-      </c>
-      <c r="K93" t="s">
-        <v>22</v>
-      </c>
-      <c r="L93" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>204</v>
-      </c>
-      <c r="B94">
-        <v>190</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="D151" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E151" s="11">
+        <v>20231117</v>
+      </c>
+      <c r="F151" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="G151" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H151" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I151" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J151" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="K151" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="L151" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M151" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="N151" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="O151" s="15"/>
+      <c r="P151" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q151" s="16">
+        <v>27</v>
+      </c>
+      <c r="R151" s="16">
+        <v>30</v>
+      </c>
+      <c r="S151" s="16">
+        <v>33</v>
+      </c>
+      <c r="T151" s="16"/>
+    </row>
+    <row r="152" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B152" s="11">
+        <v>52</v>
+      </c>
+      <c r="C152" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D94" t="s">
-        <v>9</v>
-      </c>
-      <c r="E94">
-        <v>20231111</v>
-      </c>
-      <c r="F94" t="s">
-        <v>269</v>
-      </c>
-      <c r="G94" t="s">
-        <v>18</v>
-      </c>
-      <c r="H94" t="s">
-        <v>266</v>
-      </c>
-      <c r="I94" t="s">
-        <v>21</v>
-      </c>
-      <c r="J94" t="s">
-        <v>273</v>
-      </c>
-      <c r="K94" t="s">
-        <v>22</v>
-      </c>
-      <c r="L94" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>205</v>
-      </c>
-      <c r="B95">
-        <v>191</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="D152" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E152" s="11">
+        <v>20231117</v>
+      </c>
+      <c r="F152" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="G152" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H152" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I152" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J152" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="K152" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="L152" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M152" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="N152" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="O152" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="P152" s="14">
+        <v>10</v>
+      </c>
+      <c r="Q152" s="14">
+        <v>3</v>
+      </c>
+      <c r="R152" s="14">
+        <v>3</v>
+      </c>
+      <c r="S152" s="14">
+        <v>4</v>
+      </c>
+      <c r="T152" s="15"/>
+    </row>
+    <row r="153" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B153" s="11">
+        <v>53</v>
+      </c>
+      <c r="C153" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D95" t="s">
-        <v>9</v>
-      </c>
-      <c r="E95">
-        <v>20231111</v>
-      </c>
-      <c r="F95" t="s">
-        <v>269</v>
-      </c>
-      <c r="G95" t="s">
-        <v>18</v>
-      </c>
-      <c r="H95" t="s">
-        <v>266</v>
-      </c>
-      <c r="I95" t="s">
-        <v>21</v>
-      </c>
-      <c r="J95" t="s">
-        <v>273</v>
-      </c>
-      <c r="K95" t="s">
-        <v>22</v>
-      </c>
-      <c r="L95" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>206</v>
-      </c>
-      <c r="B96">
-        <v>228</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="D153" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E153" s="11">
+        <v>20231117</v>
+      </c>
+      <c r="F153" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="G153" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H153" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I153" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J153" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="K153" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="L153" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M153" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="N153" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="O153" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="P153" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q153" s="15">
+        <v>0</v>
+      </c>
+      <c r="R153" s="15">
+        <v>0</v>
+      </c>
+      <c r="S153" s="15">
+        <v>0</v>
+      </c>
+      <c r="T153" s="15"/>
+    </row>
+    <row r="154" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B154" s="11">
+        <v>54</v>
+      </c>
+      <c r="C154" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D96" t="s">
-        <v>9</v>
-      </c>
-      <c r="E96">
-        <v>20231111</v>
-      </c>
-      <c r="F96" t="s">
-        <v>269</v>
-      </c>
-      <c r="G96" t="s">
-        <v>18</v>
-      </c>
-      <c r="H96" t="s">
-        <v>266</v>
-      </c>
-      <c r="I96" t="s">
-        <v>21</v>
-      </c>
-      <c r="J96" t="s">
-        <v>273</v>
-      </c>
-      <c r="K96" t="s">
-        <v>22</v>
-      </c>
-      <c r="L96" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>207</v>
-      </c>
-      <c r="B97">
-        <v>229</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="D154" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E154" s="11">
+        <v>20231117</v>
+      </c>
+      <c r="F154" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="G154" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="H154" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I154" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J154" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="K154" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="L154" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M154" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="N154" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="O154" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="P154" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q154" s="15">
+        <v>0</v>
+      </c>
+      <c r="R154" s="15">
+        <v>0</v>
+      </c>
+      <c r="S154" s="15">
+        <v>0</v>
+      </c>
+      <c r="T154" s="15"/>
+    </row>
+    <row r="155" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B155" s="11">
+        <v>55</v>
+      </c>
+      <c r="C155" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D97" t="s">
-        <v>9</v>
-      </c>
-      <c r="E97">
-        <v>20231111</v>
-      </c>
-      <c r="F97" t="s">
-        <v>269</v>
-      </c>
-      <c r="G97" t="s">
-        <v>18</v>
-      </c>
-      <c r="H97" t="s">
-        <v>266</v>
-      </c>
-      <c r="I97" t="s">
-        <v>21</v>
-      </c>
-      <c r="J97" t="s">
-        <v>273</v>
-      </c>
-      <c r="K97" t="s">
-        <v>22</v>
-      </c>
-      <c r="L97" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>208</v>
-      </c>
-      <c r="B98">
-        <v>194</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="D155" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E155" s="11">
+        <v>20231117</v>
+      </c>
+      <c r="F155" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="G155" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H155" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I155" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J155" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="K155" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="L155" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M155" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="N155" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="O155" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="P155" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q155" s="15">
+        <v>1</v>
+      </c>
+      <c r="R155" s="15">
+        <v>0</v>
+      </c>
+      <c r="S155" s="15">
+        <v>2</v>
+      </c>
+      <c r="T155" s="15"/>
+    </row>
+    <row r="156" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B156" s="11">
+        <v>56</v>
+      </c>
+      <c r="C156" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D98" t="s">
-        <v>10</v>
-      </c>
-      <c r="E98">
-        <v>20231111</v>
-      </c>
-      <c r="F98" t="s">
-        <v>269</v>
-      </c>
-      <c r="G98" t="s">
-        <v>18</v>
-      </c>
-      <c r="H98" t="s">
-        <v>266</v>
-      </c>
-      <c r="I98" t="s">
-        <v>21</v>
-      </c>
-      <c r="J98" t="s">
-        <v>273</v>
-      </c>
-      <c r="K98" t="s">
-        <v>22</v>
-      </c>
-      <c r="L98" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>209</v>
-      </c>
-      <c r="B99">
-        <v>195</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="D156" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E156" s="11">
+        <v>20231117</v>
+      </c>
+      <c r="F156" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="G156" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H156" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I156" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J156" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="K156" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="L156" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M156" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="N156" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="O156" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="P156" s="15">
+        <v>5</v>
+      </c>
+      <c r="Q156" s="15">
+        <v>2</v>
+      </c>
+      <c r="R156" s="15">
+        <v>3</v>
+      </c>
+      <c r="S156" s="15">
+        <v>0</v>
+      </c>
+      <c r="T156" s="15"/>
+    </row>
+    <row r="157" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B157" s="11">
+        <v>57</v>
+      </c>
+      <c r="C157" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D99" t="s">
-        <v>10</v>
-      </c>
-      <c r="E99">
-        <v>20231111</v>
-      </c>
-      <c r="F99" t="s">
-        <v>269</v>
-      </c>
-      <c r="G99" t="s">
-        <v>18</v>
-      </c>
-      <c r="H99" t="s">
-        <v>266</v>
-      </c>
-      <c r="I99" t="s">
-        <v>21</v>
-      </c>
-      <c r="J99" t="s">
-        <v>273</v>
-      </c>
-      <c r="K99" t="s">
-        <v>22</v>
-      </c>
-      <c r="L99" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>210</v>
-      </c>
-      <c r="B100">
-        <v>196</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="D157" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E157" s="11">
+        <v>20231117</v>
+      </c>
+      <c r="F157" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="G157" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H157" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I157" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J157" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="K157" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="L157" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M157" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="N157" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="O157" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="P157" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q157" s="15">
+        <v>0</v>
+      </c>
+      <c r="R157" s="15">
+        <v>0</v>
+      </c>
+      <c r="S157" s="15">
+        <v>0</v>
+      </c>
+      <c r="T157" s="15"/>
+    </row>
+    <row r="158" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B158" s="11">
+        <v>58</v>
+      </c>
+      <c r="C158" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D100" t="s">
-        <v>10</v>
-      </c>
-      <c r="E100">
-        <v>20231111</v>
-      </c>
-      <c r="F100" t="s">
-        <v>269</v>
-      </c>
-      <c r="G100" t="s">
-        <v>18</v>
-      </c>
-      <c r="H100" t="s">
-        <v>266</v>
-      </c>
-      <c r="I100" t="s">
-        <v>21</v>
-      </c>
-      <c r="J100" t="s">
-        <v>273</v>
-      </c>
-      <c r="K100" t="s">
-        <v>22</v>
-      </c>
-      <c r="L100" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>211</v>
-      </c>
-      <c r="B101">
-        <v>197</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="D158" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E158" s="11">
+        <v>20231117</v>
+      </c>
+      <c r="F158" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="G158" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="H158" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I158" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J158" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="K158" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="L158" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M158" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="N158" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="O158" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="P158" s="16">
+        <v>18</v>
+      </c>
+      <c r="Q158" s="16">
+        <v>6</v>
+      </c>
+      <c r="R158" s="16">
+        <v>6</v>
+      </c>
+      <c r="S158" s="16">
+        <v>6</v>
+      </c>
+      <c r="T158" s="16"/>
+    </row>
+    <row r="159" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B159" s="11">
+        <v>60</v>
+      </c>
+      <c r="C159" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D101" t="s">
-        <v>10</v>
-      </c>
-      <c r="E101">
-        <v>20231111</v>
-      </c>
-      <c r="F101" t="s">
-        <v>269</v>
-      </c>
-      <c r="G101" t="s">
-        <v>18</v>
-      </c>
-      <c r="H101" t="s">
-        <v>266</v>
-      </c>
-      <c r="I101" t="s">
-        <v>21</v>
-      </c>
-      <c r="J101" t="s">
-        <v>273</v>
-      </c>
-      <c r="K101" t="s">
-        <v>22</v>
-      </c>
-      <c r="L101" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>212</v>
-      </c>
-      <c r="B102">
-        <v>198</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="D159" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E159" s="11">
+        <v>20231117</v>
+      </c>
+      <c r="F159" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="G159" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H159" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I159" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J159" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="K159" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="L159" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M159" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="N159" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B160" s="11">
+        <v>61</v>
+      </c>
+      <c r="C160" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D102" t="s">
-        <v>10</v>
-      </c>
-      <c r="E102">
-        <v>20231111</v>
-      </c>
-      <c r="F102" t="s">
-        <v>269</v>
-      </c>
-      <c r="G102" t="s">
-        <v>18</v>
-      </c>
-      <c r="H102" t="s">
-        <v>266</v>
-      </c>
-      <c r="I102" t="s">
-        <v>21</v>
-      </c>
-      <c r="J102" t="s">
-        <v>273</v>
-      </c>
-      <c r="K102" t="s">
-        <v>22</v>
-      </c>
-      <c r="L102" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>214</v>
-      </c>
-      <c r="B103">
-        <v>199</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="D160" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E160" s="11">
+        <v>20231117</v>
+      </c>
+      <c r="F160" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="G160" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H160" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I160" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J160" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="K160" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="L160" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M160" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="N160" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B161" s="11">
+        <v>62</v>
+      </c>
+      <c r="C161" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D103" t="s">
-        <v>10</v>
-      </c>
-      <c r="E103">
-        <v>20231111</v>
-      </c>
-      <c r="F103" t="s">
-        <v>269</v>
-      </c>
-      <c r="G103" t="s">
-        <v>18</v>
-      </c>
-      <c r="H103" t="s">
-        <v>266</v>
-      </c>
-      <c r="I103" t="s">
-        <v>21</v>
-      </c>
-      <c r="J103" t="s">
-        <v>273</v>
-      </c>
-      <c r="K103" t="s">
-        <v>22</v>
-      </c>
-      <c r="L103" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>215</v>
-      </c>
-      <c r="B104">
-        <v>200</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="D161" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E161" s="11">
+        <v>20231117</v>
+      </c>
+      <c r="F161" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="G161" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H161" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I161" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J161" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="K161" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="L161" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M161" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="N161" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B162" s="11">
+        <v>63</v>
+      </c>
+      <c r="C162" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D104" t="s">
-        <v>10</v>
-      </c>
-      <c r="E104">
-        <v>20231111</v>
-      </c>
-      <c r="F104" t="s">
-        <v>269</v>
-      </c>
-      <c r="G104" t="s">
-        <v>18</v>
-      </c>
-      <c r="H104" t="s">
-        <v>266</v>
-      </c>
-      <c r="I104" t="s">
-        <v>21</v>
-      </c>
-      <c r="J104" t="s">
-        <v>273</v>
-      </c>
-      <c r="K104" t="s">
-        <v>22</v>
-      </c>
-      <c r="L104" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>213</v>
-      </c>
-      <c r="B105">
-        <v>201</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="D162" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E162" s="11">
+        <v>20231117</v>
+      </c>
+      <c r="F162" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="G162" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H162" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I162" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J162" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="K162" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="L162" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M162" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="N162" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B163" s="13">
+        <v>64</v>
+      </c>
+      <c r="C163" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D105" t="s">
-        <v>10</v>
-      </c>
-      <c r="E105">
-        <v>20231111</v>
-      </c>
-      <c r="F105" t="s">
-        <v>269</v>
-      </c>
-      <c r="G105" t="s">
-        <v>18</v>
-      </c>
-      <c r="H105" t="s">
-        <v>266</v>
-      </c>
-      <c r="I105" t="s">
-        <v>21</v>
-      </c>
-      <c r="J105" t="s">
-        <v>273</v>
-      </c>
-      <c r="K105" t="s">
-        <v>22</v>
-      </c>
-      <c r="L105" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>216</v>
-      </c>
-      <c r="B106">
-        <v>202</v>
-      </c>
-      <c r="C106" t="s">
-        <v>11</v>
-      </c>
-      <c r="D106" t="s">
-        <v>10</v>
-      </c>
-      <c r="E106">
-        <v>20231111</v>
-      </c>
-      <c r="F106" t="s">
-        <v>269</v>
-      </c>
-      <c r="G106" t="s">
-        <v>18</v>
-      </c>
-      <c r="H106" t="s">
-        <v>266</v>
-      </c>
-      <c r="I106" t="s">
-        <v>21</v>
-      </c>
-      <c r="J106" t="s">
-        <v>273</v>
-      </c>
-      <c r="K106" t="s">
-        <v>22</v>
-      </c>
-      <c r="L106" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>217</v>
-      </c>
-      <c r="B107">
-        <v>203</v>
-      </c>
-      <c r="C107" t="s">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s">
-        <v>10</v>
-      </c>
-      <c r="E107">
-        <v>20231111</v>
-      </c>
-      <c r="F107" t="s">
-        <v>269</v>
-      </c>
-      <c r="G107" t="s">
-        <v>18</v>
-      </c>
-      <c r="H107" t="s">
-        <v>266</v>
-      </c>
-      <c r="I107" t="s">
-        <v>21</v>
-      </c>
-      <c r="J107" t="s">
-        <v>273</v>
-      </c>
-      <c r="K107" t="s">
-        <v>22</v>
-      </c>
-      <c r="L107" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>218</v>
-      </c>
-      <c r="B108">
-        <v>204</v>
-      </c>
-      <c r="C108" t="s">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s">
-        <v>10</v>
-      </c>
-      <c r="E108">
-        <v>20231111</v>
-      </c>
-      <c r="F108" t="s">
-        <v>269</v>
-      </c>
-      <c r="G108" t="s">
-        <v>18</v>
-      </c>
-      <c r="H108" t="s">
-        <v>266</v>
-      </c>
-      <c r="I108" t="s">
-        <v>21</v>
-      </c>
-      <c r="J108" t="s">
-        <v>273</v>
-      </c>
-      <c r="K108" t="s">
-        <v>22</v>
-      </c>
-      <c r="L108" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>219</v>
-      </c>
-      <c r="B109">
-        <v>205</v>
-      </c>
-      <c r="C109" t="s">
-        <v>11</v>
-      </c>
-      <c r="D109" t="s">
-        <v>10</v>
-      </c>
-      <c r="E109">
-        <v>20231111</v>
-      </c>
-      <c r="F109" t="s">
-        <v>269</v>
-      </c>
-      <c r="G109" t="s">
-        <v>18</v>
-      </c>
-      <c r="H109" t="s">
-        <v>266</v>
-      </c>
-      <c r="I109" t="s">
-        <v>21</v>
-      </c>
-      <c r="J109" t="s">
-        <v>273</v>
-      </c>
-      <c r="K109" t="s">
-        <v>22</v>
-      </c>
-      <c r="L109" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>220</v>
-      </c>
-      <c r="B110">
-        <v>206</v>
-      </c>
-      <c r="C110" t="s">
-        <v>11</v>
-      </c>
-      <c r="D110" t="s">
-        <v>10</v>
-      </c>
-      <c r="E110">
-        <v>20231111</v>
-      </c>
-      <c r="F110" t="s">
-        <v>269</v>
-      </c>
-      <c r="G110" t="s">
-        <v>18</v>
-      </c>
-      <c r="H110" t="s">
-        <v>266</v>
-      </c>
-      <c r="I110" t="s">
-        <v>21</v>
-      </c>
-      <c r="J110" t="s">
-        <v>273</v>
-      </c>
-      <c r="K110" t="s">
-        <v>22</v>
-      </c>
-      <c r="L110" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>221</v>
-      </c>
-      <c r="B111">
-        <v>207</v>
-      </c>
-      <c r="C111" t="s">
-        <v>11</v>
-      </c>
-      <c r="D111" t="s">
-        <v>10</v>
-      </c>
-      <c r="E111">
-        <v>20231111</v>
-      </c>
-      <c r="F111" t="s">
-        <v>269</v>
-      </c>
-      <c r="G111" t="s">
-        <v>18</v>
-      </c>
-      <c r="H111" t="s">
-        <v>266</v>
-      </c>
-      <c r="I111" t="s">
-        <v>21</v>
-      </c>
-      <c r="J111" t="s">
-        <v>273</v>
-      </c>
-      <c r="K111" t="s">
-        <v>22</v>
-      </c>
-      <c r="L111" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>222</v>
-      </c>
-      <c r="B112">
-        <v>208</v>
-      </c>
-      <c r="C112" t="s">
-        <v>11</v>
-      </c>
-      <c r="D112" t="s">
-        <v>10</v>
-      </c>
-      <c r="E112">
-        <v>20231111</v>
-      </c>
-      <c r="F112" t="s">
-        <v>269</v>
-      </c>
-      <c r="G112" t="s">
-        <v>18</v>
-      </c>
-      <c r="H112" t="s">
-        <v>266</v>
-      </c>
-      <c r="I112" t="s">
-        <v>21</v>
-      </c>
-      <c r="J112" t="s">
-        <v>273</v>
-      </c>
-      <c r="K112" t="s">
-        <v>22</v>
-      </c>
-      <c r="L112" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>223</v>
-      </c>
-      <c r="B113">
-        <v>209</v>
-      </c>
-      <c r="C113" t="s">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s">
-        <v>10</v>
-      </c>
-      <c r="E113">
-        <v>20231111</v>
-      </c>
-      <c r="F113" t="s">
-        <v>269</v>
-      </c>
-      <c r="G113" t="s">
-        <v>18</v>
-      </c>
-      <c r="H113" t="s">
-        <v>266</v>
-      </c>
-      <c r="I113" t="s">
-        <v>21</v>
-      </c>
-      <c r="J113" t="s">
-        <v>273</v>
-      </c>
-      <c r="K113" t="s">
-        <v>22</v>
-      </c>
-      <c r="L113" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>224</v>
-      </c>
-      <c r="B114">
-        <v>210</v>
-      </c>
-      <c r="C114" t="s">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s">
-        <v>10</v>
-      </c>
-      <c r="E114">
-        <v>20231111</v>
-      </c>
-      <c r="F114" t="s">
-        <v>269</v>
-      </c>
-      <c r="G114" t="s">
-        <v>18</v>
-      </c>
-      <c r="H114" t="s">
-        <v>266</v>
-      </c>
-      <c r="I114" t="s">
-        <v>21</v>
-      </c>
-      <c r="J114" t="s">
-        <v>273</v>
-      </c>
-      <c r="K114" t="s">
-        <v>22</v>
-      </c>
-      <c r="L114" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>225</v>
-      </c>
-      <c r="B115">
-        <v>211</v>
-      </c>
-      <c r="C115" t="s">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s">
-        <v>10</v>
-      </c>
-      <c r="E115">
-        <v>20231111</v>
-      </c>
-      <c r="F115" t="s">
-        <v>269</v>
-      </c>
-      <c r="G115" t="s">
-        <v>18</v>
-      </c>
-      <c r="H115" t="s">
-        <v>266</v>
-      </c>
-      <c r="I115" t="s">
-        <v>21</v>
-      </c>
-      <c r="J115" t="s">
-        <v>273</v>
-      </c>
-      <c r="K115" t="s">
-        <v>22</v>
-      </c>
-      <c r="L115" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>226</v>
-      </c>
-      <c r="B116">
-        <v>212</v>
-      </c>
-      <c r="C116" t="s">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s">
-        <v>10</v>
-      </c>
-      <c r="E116">
-        <v>20231111</v>
-      </c>
-      <c r="F116" t="s">
-        <v>269</v>
-      </c>
-      <c r="G116" t="s">
-        <v>18</v>
-      </c>
-      <c r="H116" t="s">
-        <v>266</v>
-      </c>
-      <c r="I116" t="s">
-        <v>21</v>
-      </c>
-      <c r="J116" t="s">
-        <v>273</v>
-      </c>
-      <c r="K116" t="s">
-        <v>22</v>
-      </c>
-      <c r="L116" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>227</v>
-      </c>
-      <c r="B117">
-        <v>213</v>
-      </c>
-      <c r="C117" t="s">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s">
-        <v>10</v>
-      </c>
-      <c r="E117">
-        <v>20231111</v>
-      </c>
-      <c r="F117" t="s">
-        <v>269</v>
-      </c>
-      <c r="G117" t="s">
-        <v>18</v>
-      </c>
-      <c r="H117" t="s">
-        <v>266</v>
-      </c>
-      <c r="I117" t="s">
-        <v>21</v>
-      </c>
-      <c r="J117" t="s">
-        <v>273</v>
-      </c>
-      <c r="K117" t="s">
-        <v>22</v>
-      </c>
-      <c r="L117" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>228</v>
-      </c>
-      <c r="B118">
-        <v>214</v>
-      </c>
-      <c r="C118" t="s">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s">
-        <v>10</v>
-      </c>
-      <c r="E118">
-        <v>20231111</v>
-      </c>
-      <c r="F118" t="s">
-        <v>269</v>
-      </c>
-      <c r="G118" t="s">
-        <v>18</v>
-      </c>
-      <c r="H118" t="s">
-        <v>266</v>
-      </c>
-      <c r="I118" t="s">
-        <v>21</v>
-      </c>
-      <c r="J118" t="s">
-        <v>273</v>
-      </c>
-      <c r="K118" t="s">
-        <v>22</v>
-      </c>
-      <c r="L118" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>127</v>
-      </c>
-      <c r="B119">
-        <v>112</v>
-      </c>
-      <c r="C119" t="s">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s">
-        <v>9</v>
-      </c>
-      <c r="E119" s="2">
-        <v>20231107</v>
-      </c>
-      <c r="F119" t="s">
-        <v>15</v>
-      </c>
-      <c r="G119" t="s">
-        <v>18</v>
-      </c>
-      <c r="H119" t="s">
+      <c r="D163" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E163" s="13">
+        <v>20231117</v>
+      </c>
+      <c r="F163" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="G163" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H163" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I119" t="s">
-        <v>21</v>
-      </c>
-      <c r="J119" t="s">
-        <v>273</v>
-      </c>
-      <c r="K119" t="s">
-        <v>22</v>
-      </c>
-      <c r="L119" t="s">
-        <v>13</v>
-      </c>
-      <c r="M119">
-        <v>20241108</v>
-      </c>
-      <c r="N119" t="s">
-        <v>280</v>
-      </c>
-      <c r="S119" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>128</v>
-      </c>
-      <c r="B120">
-        <v>113</v>
-      </c>
-      <c r="C120" t="s">
-        <v>11</v>
-      </c>
-      <c r="D120" t="s">
-        <v>9</v>
-      </c>
-      <c r="E120" s="2">
-        <v>20231107</v>
-      </c>
-      <c r="F120" t="s">
-        <v>15</v>
-      </c>
-      <c r="G120" t="s">
-        <v>18</v>
-      </c>
-      <c r="H120" t="s">
-        <v>20</v>
-      </c>
-      <c r="I120" t="s">
-        <v>21</v>
-      </c>
-      <c r="J120" t="s">
-        <v>273</v>
-      </c>
-      <c r="K120" t="s">
-        <v>22</v>
-      </c>
-      <c r="L120" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>129</v>
-      </c>
-      <c r="B121">
-        <v>114</v>
-      </c>
-      <c r="C121" t="s">
-        <v>11</v>
-      </c>
-      <c r="D121" t="s">
-        <v>9</v>
-      </c>
-      <c r="E121" s="2">
-        <v>20231107</v>
-      </c>
-      <c r="F121" t="s">
-        <v>15</v>
-      </c>
-      <c r="G121" t="s">
-        <v>18</v>
-      </c>
-      <c r="H121" t="s">
-        <v>20</v>
-      </c>
-      <c r="I121" t="s">
-        <v>21</v>
-      </c>
-      <c r="J121" t="s">
-        <v>273</v>
-      </c>
-      <c r="K121" t="s">
-        <v>22</v>
-      </c>
-      <c r="L121" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>130</v>
-      </c>
-      <c r="B122">
-        <v>115</v>
-      </c>
-      <c r="C122" t="s">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s">
-        <v>9</v>
-      </c>
-      <c r="E122" s="2">
-        <v>20231107</v>
-      </c>
-      <c r="F122" t="s">
-        <v>15</v>
-      </c>
-      <c r="G122" t="s">
-        <v>18</v>
-      </c>
-      <c r="H122" t="s">
-        <v>20</v>
-      </c>
-      <c r="I122" t="s">
-        <v>21</v>
-      </c>
-      <c r="J122" t="s">
-        <v>273</v>
-      </c>
-      <c r="K122" t="s">
-        <v>22</v>
-      </c>
-      <c r="L122" t="s">
-        <v>13</v>
-      </c>
-      <c r="M122">
-        <v>20241108</v>
-      </c>
-      <c r="N122" t="s">
-        <v>289</v>
-      </c>
-      <c r="O122" t="s">
-        <v>290</v>
-      </c>
-      <c r="S122" t="s">
+      <c r="I163" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J163" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="K163" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="L163" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M163" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="N163" s="13" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>131</v>
-      </c>
-      <c r="B123">
-        <v>116</v>
-      </c>
-      <c r="C123" t="s">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s">
-        <v>9</v>
-      </c>
-      <c r="E123" s="2">
-        <v>20231107</v>
-      </c>
-      <c r="F123" t="s">
-        <v>15</v>
-      </c>
-      <c r="G123" t="s">
-        <v>18</v>
-      </c>
-      <c r="H123" t="s">
-        <v>20</v>
-      </c>
-      <c r="I123" t="s">
-        <v>21</v>
-      </c>
-      <c r="J123" t="s">
-        <v>273</v>
-      </c>
-      <c r="K123" t="s">
-        <v>22</v>
-      </c>
-      <c r="L123" t="s">
-        <v>13</v>
-      </c>
-      <c r="M123">
-        <v>20241108</v>
-      </c>
-      <c r="N123" t="s">
-        <v>280</v>
-      </c>
-      <c r="S123" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>132</v>
-      </c>
-      <c r="B124">
-        <v>117</v>
-      </c>
-      <c r="C124" t="s">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s">
-        <v>10</v>
-      </c>
-      <c r="E124" s="2">
-        <v>20231107</v>
-      </c>
-      <c r="F124" t="s">
-        <v>15</v>
-      </c>
-      <c r="G124" t="s">
-        <v>18</v>
-      </c>
-      <c r="H124" t="s">
-        <v>20</v>
-      </c>
-      <c r="I124" t="s">
-        <v>21</v>
-      </c>
-      <c r="J124" t="s">
-        <v>273</v>
-      </c>
-      <c r="K124" t="s">
-        <v>22</v>
-      </c>
-      <c r="L124" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>133</v>
-      </c>
-      <c r="B125">
-        <v>118</v>
-      </c>
-      <c r="C125" t="s">
-        <v>11</v>
-      </c>
-      <c r="D125" t="s">
-        <v>10</v>
-      </c>
-      <c r="E125" s="2">
-        <v>20231107</v>
-      </c>
-      <c r="F125" t="s">
-        <v>15</v>
-      </c>
-      <c r="G125" t="s">
-        <v>18</v>
-      </c>
-      <c r="H125" t="s">
-        <v>20</v>
-      </c>
-      <c r="I125" t="s">
-        <v>21</v>
-      </c>
-      <c r="J125" t="s">
-        <v>273</v>
-      </c>
-      <c r="K125" t="s">
-        <v>22</v>
-      </c>
-      <c r="L125" t="s">
-        <v>13</v>
-      </c>
-      <c r="M125">
-        <v>20241108</v>
-      </c>
-      <c r="N125" t="s">
-        <v>287</v>
-      </c>
-      <c r="S125" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>134</v>
-      </c>
-      <c r="B126">
-        <v>119</v>
-      </c>
-      <c r="C126" t="s">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s">
-        <v>10</v>
-      </c>
-      <c r="E126" s="2">
-        <v>20231107</v>
-      </c>
-      <c r="F126" t="s">
-        <v>15</v>
-      </c>
-      <c r="G126" t="s">
-        <v>18</v>
-      </c>
-      <c r="H126" t="s">
-        <v>20</v>
-      </c>
-      <c r="I126" t="s">
-        <v>21</v>
-      </c>
-      <c r="J126" t="s">
-        <v>273</v>
-      </c>
-      <c r="K126" t="s">
-        <v>22</v>
-      </c>
-      <c r="L126" t="s">
-        <v>13</v>
-      </c>
-      <c r="M126">
-        <v>20241108</v>
-      </c>
-      <c r="N126" t="s">
-        <v>287</v>
-      </c>
-      <c r="S126" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>135</v>
-      </c>
-      <c r="B127">
-        <v>120</v>
-      </c>
-      <c r="C127" t="s">
-        <v>11</v>
-      </c>
-      <c r="D127" t="s">
-        <v>10</v>
-      </c>
-      <c r="E127" s="2">
-        <v>20231107</v>
-      </c>
-      <c r="F127" t="s">
-        <v>15</v>
-      </c>
-      <c r="G127" t="s">
-        <v>18</v>
-      </c>
-      <c r="H127" t="s">
-        <v>20</v>
-      </c>
-      <c r="I127" t="s">
-        <v>21</v>
-      </c>
-      <c r="J127" t="s">
-        <v>273</v>
-      </c>
-      <c r="K127" t="s">
-        <v>22</v>
-      </c>
-      <c r="L127" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>136</v>
-      </c>
-      <c r="B128">
-        <v>121</v>
-      </c>
-      <c r="C128" t="s">
-        <v>11</v>
-      </c>
-      <c r="D128" t="s">
-        <v>10</v>
-      </c>
-      <c r="E128" s="2">
-        <v>20231107</v>
-      </c>
-      <c r="F128" t="s">
-        <v>15</v>
-      </c>
-      <c r="G128" t="s">
-        <v>18</v>
-      </c>
-      <c r="H128" t="s">
-        <v>20</v>
-      </c>
-      <c r="I128" t="s">
-        <v>21</v>
-      </c>
-      <c r="J128" t="s">
-        <v>273</v>
-      </c>
-      <c r="K128" t="s">
-        <v>22</v>
-      </c>
-      <c r="L128" t="s">
-        <v>13</v>
-      </c>
-      <c r="M128">
-        <v>20241108</v>
-      </c>
-      <c r="N128" t="s">
-        <v>283</v>
-      </c>
-      <c r="S128" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>137</v>
-      </c>
-      <c r="B129">
-        <v>122</v>
-      </c>
-      <c r="C129" t="s">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s">
-        <v>10</v>
-      </c>
-      <c r="E129" s="2">
-        <v>20231107</v>
-      </c>
-      <c r="F129" t="s">
-        <v>15</v>
-      </c>
-      <c r="G129" t="s">
-        <v>18</v>
-      </c>
-      <c r="H129" t="s">
-        <v>20</v>
-      </c>
-      <c r="I129" t="s">
-        <v>21</v>
-      </c>
-      <c r="J129" t="s">
-        <v>273</v>
-      </c>
-      <c r="K129" t="s">
-        <v>22</v>
-      </c>
-      <c r="L129" t="s">
-        <v>13</v>
-      </c>
-      <c r="M129">
-        <v>20241108</v>
-      </c>
-      <c r="N129" t="s">
-        <v>289</v>
-      </c>
-      <c r="O129" t="s">
-        <v>291</v>
-      </c>
-      <c r="S129" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>138</v>
-      </c>
-      <c r="B130">
-        <v>123</v>
-      </c>
-      <c r="C130" t="s">
-        <v>11</v>
-      </c>
-      <c r="D130" t="s">
-        <v>10</v>
-      </c>
-      <c r="E130" s="2">
-        <v>20231107</v>
-      </c>
-      <c r="F130" t="s">
-        <v>15</v>
-      </c>
-      <c r="G130" t="s">
-        <v>18</v>
-      </c>
-      <c r="H130" t="s">
-        <v>20</v>
-      </c>
-      <c r="I130" t="s">
-        <v>21</v>
-      </c>
-      <c r="J130" t="s">
-        <v>273</v>
-      </c>
-      <c r="K130" t="s">
-        <v>22</v>
-      </c>
-      <c r="L130" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>140</v>
-      </c>
-      <c r="B131">
-        <v>125</v>
-      </c>
-      <c r="C131" t="s">
-        <v>11</v>
-      </c>
-      <c r="D131" t="s">
-        <v>10</v>
-      </c>
-      <c r="E131" s="2">
-        <v>20231107</v>
-      </c>
-      <c r="F131" t="s">
-        <v>15</v>
-      </c>
-      <c r="G131" t="s">
-        <v>18</v>
-      </c>
-      <c r="H131" t="s">
-        <v>20</v>
-      </c>
-      <c r="I131" t="s">
-        <v>21</v>
-      </c>
-      <c r="J131" t="s">
-        <v>273</v>
-      </c>
-      <c r="K131" t="s">
-        <v>22</v>
-      </c>
-      <c r="L131" t="s">
-        <v>13</v>
-      </c>
-      <c r="M131">
-        <v>20241108</v>
-      </c>
-      <c r="N131" t="s">
-        <v>289</v>
-      </c>
-      <c r="O131" t="s">
-        <v>290</v>
-      </c>
-      <c r="S131" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>141</v>
-      </c>
-      <c r="B132">
-        <v>126</v>
-      </c>
-      <c r="C132" t="s">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s">
-        <v>10</v>
-      </c>
-      <c r="E132" s="2">
-        <v>20231107</v>
-      </c>
-      <c r="F132" t="s">
-        <v>15</v>
-      </c>
-      <c r="G132" t="s">
-        <v>18</v>
-      </c>
-      <c r="H132" t="s">
-        <v>20</v>
-      </c>
-      <c r="I132" t="s">
-        <v>21</v>
-      </c>
-      <c r="J132" t="s">
-        <v>273</v>
-      </c>
-      <c r="K132" t="s">
-        <v>22</v>
-      </c>
-      <c r="L132" t="s">
-        <v>13</v>
-      </c>
-      <c r="M132">
-        <v>20241108</v>
-      </c>
-      <c r="N132" t="s">
-        <v>289</v>
-      </c>
-      <c r="O132" t="s">
-        <v>290</v>
-      </c>
-      <c r="S132" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>154</v>
-      </c>
-      <c r="B133">
-        <v>139</v>
-      </c>
-      <c r="C133" t="s">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s">
-        <v>10</v>
-      </c>
-      <c r="E133" s="2">
-        <v>20231107</v>
-      </c>
-      <c r="F133" t="s">
-        <v>15</v>
-      </c>
-      <c r="G133" t="s">
-        <v>18</v>
-      </c>
-      <c r="H133" t="s">
-        <v>20</v>
-      </c>
-      <c r="I133" t="s">
-        <v>21</v>
-      </c>
-      <c r="J133" t="s">
-        <v>273</v>
-      </c>
-      <c r="K133" t="s">
-        <v>22</v>
-      </c>
-      <c r="L133" t="s">
-        <v>13</v>
-      </c>
-      <c r="M133">
-        <v>20241108</v>
-      </c>
-      <c r="N133" t="s">
-        <v>289</v>
-      </c>
-      <c r="O133" t="s">
-        <v>290</v>
-      </c>
-      <c r="S133" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>52</v>
-      </c>
-      <c r="B134">
-        <v>33</v>
-      </c>
-      <c r="C134" t="s">
-        <v>11</v>
-      </c>
-      <c r="D134" t="s">
-        <v>9</v>
-      </c>
-      <c r="E134">
-        <v>20231117</v>
-      </c>
-      <c r="F134" t="s">
-        <v>268</v>
-      </c>
-      <c r="G134" t="s">
-        <v>18</v>
-      </c>
-      <c r="H134" t="s">
-        <v>20</v>
-      </c>
-      <c r="I134" t="s">
-        <v>21</v>
-      </c>
-      <c r="J134" t="s">
-        <v>273</v>
-      </c>
-      <c r="K134" t="s">
-        <v>272</v>
-      </c>
-      <c r="L134" t="s">
-        <v>13</v>
-      </c>
-      <c r="M134">
-        <v>20241108</v>
-      </c>
-      <c r="N134" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="O134" s="4"/>
-      <c r="P134" s="4"/>
-      <c r="Q134" s="4"/>
-      <c r="R134" s="4"/>
-      <c r="S134" s="4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>53</v>
-      </c>
-      <c r="B135">
-        <v>34</v>
-      </c>
-      <c r="C135" t="s">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s">
-        <v>9</v>
-      </c>
-      <c r="E135">
-        <v>20231117</v>
-      </c>
-      <c r="F135" t="s">
-        <v>268</v>
-      </c>
-      <c r="G135" t="s">
-        <v>18</v>
-      </c>
-      <c r="H135" t="s">
-        <v>270</v>
-      </c>
-      <c r="I135" t="s">
-        <v>21</v>
-      </c>
-      <c r="J135" t="s">
-        <v>273</v>
-      </c>
-      <c r="K135" t="s">
-        <v>272</v>
-      </c>
-      <c r="L135" t="s">
-        <v>13</v>
-      </c>
-      <c r="M135">
-        <v>20241108</v>
-      </c>
-      <c r="N135" t="s">
-        <v>285</v>
-      </c>
-      <c r="S135" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>54</v>
-      </c>
-      <c r="B136">
-        <v>35</v>
-      </c>
-      <c r="C136" t="s">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s">
-        <v>9</v>
-      </c>
-      <c r="E136">
-        <v>20231117</v>
-      </c>
-      <c r="F136" t="s">
-        <v>268</v>
-      </c>
-      <c r="G136" t="s">
-        <v>18</v>
-      </c>
-      <c r="H136" t="s">
-        <v>270</v>
-      </c>
-      <c r="I136" t="s">
-        <v>21</v>
-      </c>
-      <c r="J136" t="s">
-        <v>273</v>
-      </c>
-      <c r="K136" t="s">
-        <v>272</v>
-      </c>
-      <c r="L136" t="s">
-        <v>13</v>
-      </c>
-      <c r="M136">
-        <v>20241108</v>
-      </c>
-      <c r="N136" t="s">
-        <v>289</v>
-      </c>
-      <c r="O136" t="s">
-        <v>290</v>
-      </c>
-      <c r="S136" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>55</v>
-      </c>
-      <c r="B137">
-        <v>36</v>
-      </c>
-      <c r="C137" t="s">
-        <v>11</v>
-      </c>
-      <c r="D137" t="s">
-        <v>9</v>
-      </c>
-      <c r="E137">
-        <v>20231117</v>
-      </c>
-      <c r="F137" t="s">
-        <v>268</v>
-      </c>
-      <c r="G137" t="s">
-        <v>18</v>
-      </c>
-      <c r="H137" t="s">
-        <v>20</v>
-      </c>
-      <c r="I137" t="s">
-        <v>21</v>
-      </c>
-      <c r="J137" t="s">
-        <v>273</v>
-      </c>
-      <c r="K137" t="s">
-        <v>272</v>
-      </c>
-      <c r="L137" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>56</v>
-      </c>
-      <c r="B138">
-        <v>37</v>
-      </c>
-      <c r="C138" t="s">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s">
-        <v>9</v>
-      </c>
-      <c r="E138">
-        <v>20231117</v>
-      </c>
-      <c r="F138" t="s">
-        <v>268</v>
-      </c>
-      <c r="G138" t="s">
-        <v>18</v>
-      </c>
-      <c r="H138" t="s">
-        <v>270</v>
-      </c>
-      <c r="I138" t="s">
-        <v>21</v>
-      </c>
-      <c r="J138" t="s">
-        <v>273</v>
-      </c>
-      <c r="K138" t="s">
-        <v>272</v>
-      </c>
-      <c r="L138" t="s">
-        <v>13</v>
-      </c>
-      <c r="M138">
-        <v>20241108</v>
-      </c>
-      <c r="N138" t="s">
-        <v>289</v>
-      </c>
-      <c r="O138" t="s">
-        <v>291</v>
-      </c>
-      <c r="S138" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>57</v>
-      </c>
-      <c r="B139">
-        <v>38</v>
-      </c>
-      <c r="C139" t="s">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s">
-        <v>9</v>
-      </c>
-      <c r="E139">
-        <v>20231117</v>
-      </c>
-      <c r="F139" t="s">
-        <v>268</v>
-      </c>
-      <c r="G139" t="s">
-        <v>18</v>
-      </c>
-      <c r="H139" t="s">
-        <v>20</v>
-      </c>
-      <c r="I139" t="s">
-        <v>21</v>
-      </c>
-      <c r="J139" t="s">
-        <v>273</v>
-      </c>
-      <c r="K139" t="s">
-        <v>272</v>
-      </c>
-      <c r="L139" t="s">
-        <v>13</v>
-      </c>
-      <c r="M139">
-        <v>20241108</v>
-      </c>
-      <c r="N139" t="s">
-        <v>287</v>
-      </c>
-      <c r="S139" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>58</v>
-      </c>
-      <c r="B140">
-        <v>39</v>
-      </c>
-      <c r="C140" t="s">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s">
-        <v>9</v>
-      </c>
-      <c r="E140">
-        <v>20231117</v>
-      </c>
-      <c r="F140" t="s">
-        <v>268</v>
-      </c>
-      <c r="G140" t="s">
-        <v>18</v>
-      </c>
-      <c r="H140" t="s">
-        <v>20</v>
-      </c>
-      <c r="I140" t="s">
-        <v>21</v>
-      </c>
-      <c r="J140" t="s">
-        <v>273</v>
-      </c>
-      <c r="K140" t="s">
-        <v>272</v>
-      </c>
-      <c r="L140" t="s">
-        <v>13</v>
-      </c>
-      <c r="M140">
-        <v>20241108</v>
-      </c>
-      <c r="N140" t="s">
-        <v>289</v>
-      </c>
-      <c r="O140" t="s">
-        <v>290</v>
-      </c>
-      <c r="S140" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>59</v>
-      </c>
-      <c r="B141">
-        <v>40</v>
-      </c>
-      <c r="C141" t="s">
-        <v>11</v>
-      </c>
-      <c r="D141" t="s">
-        <v>9</v>
-      </c>
-      <c r="E141">
-        <v>20231117</v>
-      </c>
-      <c r="F141" t="s">
-        <v>268</v>
-      </c>
-      <c r="G141" t="s">
-        <v>18</v>
-      </c>
-      <c r="H141" t="s">
-        <v>270</v>
-      </c>
-      <c r="I141" t="s">
-        <v>21</v>
-      </c>
-      <c r="J141" t="s">
-        <v>273</v>
-      </c>
-      <c r="K141" t="s">
-        <v>272</v>
-      </c>
-      <c r="L141" t="s">
-        <v>13</v>
-      </c>
-      <c r="M141">
-        <v>20241108</v>
-      </c>
-      <c r="N141" t="s">
-        <v>285</v>
-      </c>
-      <c r="S141" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>60</v>
-      </c>
-      <c r="B142">
-        <v>41</v>
-      </c>
-      <c r="C142" t="s">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s">
-        <v>9</v>
-      </c>
-      <c r="E142">
-        <v>20231117</v>
-      </c>
-      <c r="F142" t="s">
-        <v>268</v>
-      </c>
-      <c r="G142" t="s">
-        <v>18</v>
-      </c>
-      <c r="H142" t="s">
-        <v>20</v>
-      </c>
-      <c r="I142" t="s">
-        <v>21</v>
-      </c>
-      <c r="J142" t="s">
-        <v>273</v>
-      </c>
-      <c r="K142" t="s">
-        <v>272</v>
-      </c>
-      <c r="L142" t="s">
-        <v>13</v>
-      </c>
-      <c r="M142">
-        <v>20241108</v>
-      </c>
-      <c r="N142" t="s">
-        <v>280</v>
-      </c>
-      <c r="S142" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>61</v>
-      </c>
-      <c r="B143">
-        <v>42</v>
-      </c>
-      <c r="C143" t="s">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s">
-        <v>9</v>
-      </c>
-      <c r="E143">
-        <v>20231117</v>
-      </c>
-      <c r="F143" t="s">
-        <v>268</v>
-      </c>
-      <c r="G143" t="s">
-        <v>18</v>
-      </c>
-      <c r="H143" t="s">
-        <v>270</v>
-      </c>
-      <c r="I143" t="s">
-        <v>21</v>
-      </c>
-      <c r="J143" t="s">
-        <v>273</v>
-      </c>
-      <c r="K143" t="s">
-        <v>272</v>
-      </c>
-      <c r="L143" t="s">
-        <v>13</v>
-      </c>
-      <c r="M143">
-        <v>20241108</v>
-      </c>
-      <c r="N143" t="s">
-        <v>287</v>
-      </c>
-      <c r="S143" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>62</v>
-      </c>
-      <c r="B144">
-        <v>43</v>
-      </c>
-      <c r="C144" t="s">
-        <v>11</v>
-      </c>
-      <c r="D144" t="s">
-        <v>9</v>
-      </c>
-      <c r="E144">
-        <v>20231117</v>
-      </c>
-      <c r="F144" t="s">
-        <v>268</v>
-      </c>
-      <c r="G144" t="s">
-        <v>18</v>
-      </c>
-      <c r="H144" t="s">
-        <v>270</v>
-      </c>
-      <c r="I144" t="s">
-        <v>21</v>
-      </c>
-      <c r="J144" t="s">
-        <v>273</v>
-      </c>
-      <c r="K144" t="s">
-        <v>272</v>
-      </c>
-      <c r="L144" t="s">
-        <v>13</v>
-      </c>
-      <c r="M144">
-        <v>20241108</v>
-      </c>
-      <c r="N144" t="s">
-        <v>280</v>
-      </c>
-      <c r="S144" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>63</v>
-      </c>
-      <c r="B145">
-        <v>44</v>
-      </c>
-      <c r="C145" t="s">
-        <v>11</v>
-      </c>
-      <c r="D145" t="s">
-        <v>9</v>
-      </c>
-      <c r="E145">
-        <v>20231117</v>
-      </c>
-      <c r="F145" t="s">
-        <v>268</v>
-      </c>
-      <c r="G145" t="s">
-        <v>18</v>
-      </c>
-      <c r="H145" t="s">
-        <v>20</v>
-      </c>
-      <c r="I145" t="s">
-        <v>21</v>
-      </c>
-      <c r="J145" t="s">
-        <v>273</v>
-      </c>
-      <c r="K145" t="s">
-        <v>272</v>
-      </c>
-      <c r="L145" t="s">
-        <v>13</v>
-      </c>
-      <c r="M145">
-        <v>20241108</v>
-      </c>
-      <c r="N145" t="s">
-        <v>285</v>
-      </c>
-      <c r="S145" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>64</v>
-      </c>
-      <c r="B146">
-        <v>45</v>
-      </c>
-      <c r="C146" t="s">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s">
-        <v>10</v>
-      </c>
-      <c r="E146">
-        <v>20231117</v>
-      </c>
-      <c r="F146" t="s">
-        <v>268</v>
-      </c>
-      <c r="G146" t="s">
-        <v>18</v>
-      </c>
-      <c r="H146" t="s">
-        <v>20</v>
-      </c>
-      <c r="I146" t="s">
-        <v>21</v>
-      </c>
-      <c r="J146" t="s">
-        <v>273</v>
-      </c>
-      <c r="K146" t="s">
-        <v>272</v>
-      </c>
-      <c r="L146" t="s">
-        <v>13</v>
-      </c>
-      <c r="M146">
-        <v>20241108</v>
-      </c>
-      <c r="N146" t="s">
-        <v>289</v>
-      </c>
-      <c r="O146" t="s">
-        <v>290</v>
-      </c>
-      <c r="S146" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>65</v>
-      </c>
-      <c r="B147">
-        <v>46</v>
-      </c>
-      <c r="C147" t="s">
-        <v>11</v>
-      </c>
-      <c r="D147" t="s">
-        <v>10</v>
-      </c>
-      <c r="E147">
-        <v>20231117</v>
-      </c>
-      <c r="F147" t="s">
-        <v>268</v>
-      </c>
-      <c r="G147" t="s">
-        <v>18</v>
-      </c>
-      <c r="H147" t="s">
-        <v>270</v>
-      </c>
-      <c r="I147" t="s">
-        <v>21</v>
-      </c>
-      <c r="J147" t="s">
-        <v>273</v>
-      </c>
-      <c r="K147" t="s">
-        <v>272</v>
-      </c>
-      <c r="L147" t="s">
-        <v>13</v>
-      </c>
-      <c r="M147">
-        <v>20241108</v>
-      </c>
-      <c r="N147" t="s">
-        <v>289</v>
-      </c>
-      <c r="O147" t="s">
-        <v>290</v>
-      </c>
-      <c r="S147" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>66</v>
-      </c>
-      <c r="B148">
-        <v>47</v>
-      </c>
-      <c r="C148" t="s">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s">
-        <v>10</v>
-      </c>
-      <c r="E148">
-        <v>20231117</v>
-      </c>
-      <c r="F148" t="s">
-        <v>268</v>
-      </c>
-      <c r="G148" t="s">
-        <v>18</v>
-      </c>
-      <c r="H148" t="s">
-        <v>20</v>
-      </c>
-      <c r="I148" t="s">
-        <v>21</v>
-      </c>
-      <c r="J148" t="s">
-        <v>273</v>
-      </c>
-      <c r="K148" t="s">
-        <v>272</v>
-      </c>
-      <c r="L148" t="s">
-        <v>13</v>
-      </c>
-      <c r="M148">
-        <v>20241108</v>
-      </c>
-      <c r="N148" t="s">
-        <v>283</v>
-      </c>
-      <c r="S148" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>67</v>
-      </c>
-      <c r="B149">
-        <v>48</v>
-      </c>
-      <c r="C149" t="s">
-        <v>11</v>
-      </c>
-      <c r="D149" t="s">
-        <v>10</v>
-      </c>
-      <c r="E149">
-        <v>20231117</v>
-      </c>
-      <c r="F149" t="s">
-        <v>268</v>
-      </c>
-      <c r="G149" t="s">
-        <v>18</v>
-      </c>
-      <c r="H149" t="s">
-        <v>20</v>
-      </c>
-      <c r="I149" t="s">
-        <v>21</v>
-      </c>
-      <c r="J149" t="s">
-        <v>273</v>
-      </c>
-      <c r="K149" t="s">
-        <v>272</v>
-      </c>
-      <c r="L149" t="s">
-        <v>13</v>
-      </c>
-      <c r="M149">
-        <v>20241108</v>
-      </c>
-      <c r="N149" t="s">
-        <v>289</v>
-      </c>
-      <c r="O149" t="s">
-        <v>290</v>
-      </c>
-      <c r="S149" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>68</v>
-      </c>
-      <c r="B150">
-        <v>49</v>
-      </c>
-      <c r="C150" t="s">
-        <v>11</v>
-      </c>
-      <c r="D150" t="s">
-        <v>10</v>
-      </c>
-      <c r="E150">
-        <v>20231117</v>
-      </c>
-      <c r="F150" t="s">
-        <v>268</v>
-      </c>
-      <c r="G150" t="s">
-        <v>18</v>
-      </c>
-      <c r="H150" t="s">
-        <v>270</v>
-      </c>
-      <c r="I150" t="s">
-        <v>21</v>
-      </c>
-      <c r="J150" t="s">
-        <v>273</v>
-      </c>
-      <c r="K150" t="s">
-        <v>272</v>
-      </c>
-      <c r="L150" t="s">
-        <v>13</v>
-      </c>
-      <c r="M150">
-        <v>20241108</v>
-      </c>
-      <c r="N150" t="s">
-        <v>285</v>
-      </c>
-      <c r="S150" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>69</v>
-      </c>
-      <c r="B151">
-        <v>50</v>
-      </c>
-      <c r="C151" t="s">
-        <v>11</v>
-      </c>
-      <c r="D151" t="s">
-        <v>10</v>
-      </c>
-      <c r="E151">
-        <v>20231117</v>
-      </c>
-      <c r="F151" t="s">
-        <v>268</v>
-      </c>
-      <c r="G151" t="s">
-        <v>18</v>
-      </c>
-      <c r="H151" t="s">
-        <v>270</v>
-      </c>
-      <c r="I151" t="s">
-        <v>21</v>
-      </c>
-      <c r="J151" t="s">
-        <v>273</v>
-      </c>
-      <c r="K151" t="s">
-        <v>272</v>
-      </c>
-      <c r="L151" t="s">
-        <v>13</v>
-      </c>
-      <c r="M151">
-        <v>20241108</v>
-      </c>
-      <c r="N151" t="s">
-        <v>287</v>
-      </c>
-      <c r="S151" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>70</v>
-      </c>
-      <c r="B152">
-        <v>52</v>
-      </c>
-      <c r="C152" t="s">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s">
-        <v>10</v>
-      </c>
-      <c r="E152">
-        <v>20231117</v>
-      </c>
-      <c r="F152" t="s">
-        <v>268</v>
-      </c>
-      <c r="G152" t="s">
-        <v>18</v>
-      </c>
-      <c r="H152" t="s">
-        <v>270</v>
-      </c>
-      <c r="I152" t="s">
-        <v>21</v>
-      </c>
-      <c r="J152" t="s">
-        <v>273</v>
-      </c>
-      <c r="K152" t="s">
-        <v>272</v>
-      </c>
-      <c r="L152" t="s">
-        <v>13</v>
-      </c>
-      <c r="M152">
-        <v>20241108</v>
-      </c>
-      <c r="N152" t="s">
-        <v>293</v>
-      </c>
-      <c r="S152" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>71</v>
-      </c>
-      <c r="B153">
-        <v>53</v>
-      </c>
-      <c r="C153" t="s">
-        <v>11</v>
-      </c>
-      <c r="D153" t="s">
-        <v>10</v>
-      </c>
-      <c r="E153">
-        <v>20231117</v>
-      </c>
-      <c r="F153" t="s">
-        <v>268</v>
-      </c>
-      <c r="G153" t="s">
-        <v>18</v>
-      </c>
-      <c r="H153" t="s">
-        <v>270</v>
-      </c>
-      <c r="I153" t="s">
-        <v>21</v>
-      </c>
-      <c r="J153" t="s">
-        <v>273</v>
-      </c>
-      <c r="K153" t="s">
-        <v>272</v>
-      </c>
-      <c r="L153" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>72</v>
-      </c>
-      <c r="B154">
-        <v>54</v>
-      </c>
-      <c r="C154" t="s">
-        <v>11</v>
-      </c>
-      <c r="D154" t="s">
-        <v>10</v>
-      </c>
-      <c r="E154">
-        <v>20231117</v>
-      </c>
-      <c r="F154" t="s">
-        <v>268</v>
-      </c>
-      <c r="G154" t="s">
-        <v>274</v>
-      </c>
-      <c r="H154" t="s">
-        <v>270</v>
-      </c>
-      <c r="I154" t="s">
-        <v>21</v>
-      </c>
-      <c r="J154" t="s">
-        <v>273</v>
-      </c>
-      <c r="K154" t="s">
-        <v>272</v>
-      </c>
-      <c r="L154" t="s">
-        <v>13</v>
-      </c>
-      <c r="M154">
-        <v>20241108</v>
-      </c>
-      <c r="N154" t="s">
-        <v>285</v>
-      </c>
-      <c r="S154" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>73</v>
-      </c>
-      <c r="B155">
-        <v>55</v>
-      </c>
-      <c r="C155" t="s">
-        <v>11</v>
-      </c>
-      <c r="D155" t="s">
-        <v>10</v>
-      </c>
-      <c r="E155">
-        <v>20231117</v>
-      </c>
-      <c r="F155" t="s">
-        <v>268</v>
-      </c>
-      <c r="G155" t="s">
-        <v>18</v>
-      </c>
-      <c r="H155" t="s">
-        <v>270</v>
-      </c>
-      <c r="I155" t="s">
-        <v>21</v>
-      </c>
-      <c r="J155" t="s">
-        <v>273</v>
-      </c>
-      <c r="K155" t="s">
-        <v>272</v>
-      </c>
-      <c r="L155" t="s">
-        <v>13</v>
-      </c>
-      <c r="M155">
-        <v>20241108</v>
-      </c>
-      <c r="N155" t="s">
-        <v>289</v>
-      </c>
-      <c r="O155" t="s">
-        <v>290</v>
-      </c>
-      <c r="S155" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>74</v>
-      </c>
-      <c r="B156">
-        <v>56</v>
-      </c>
-      <c r="C156" t="s">
-        <v>11</v>
-      </c>
-      <c r="D156" t="s">
-        <v>10</v>
-      </c>
-      <c r="E156">
-        <v>20231117</v>
-      </c>
-      <c r="F156" t="s">
-        <v>268</v>
-      </c>
-      <c r="G156" t="s">
-        <v>18</v>
-      </c>
-      <c r="H156" t="s">
-        <v>20</v>
-      </c>
-      <c r="I156" t="s">
-        <v>21</v>
-      </c>
-      <c r="J156" t="s">
-        <v>273</v>
-      </c>
-      <c r="K156" t="s">
-        <v>272</v>
-      </c>
-      <c r="L156" t="s">
-        <v>13</v>
-      </c>
-      <c r="M156">
-        <v>20241108</v>
-      </c>
-      <c r="N156" t="s">
-        <v>283</v>
-      </c>
-      <c r="S156" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>75</v>
-      </c>
-      <c r="B157">
-        <v>57</v>
-      </c>
-      <c r="C157" t="s">
-        <v>11</v>
-      </c>
-      <c r="D157" t="s">
-        <v>10</v>
-      </c>
-      <c r="E157">
-        <v>20231117</v>
-      </c>
-      <c r="F157" t="s">
-        <v>268</v>
-      </c>
-      <c r="G157" t="s">
-        <v>18</v>
-      </c>
-      <c r="H157" t="s">
-        <v>20</v>
-      </c>
-      <c r="I157" t="s">
-        <v>21</v>
-      </c>
-      <c r="J157" t="s">
-        <v>273</v>
-      </c>
-      <c r="K157" t="s">
-        <v>272</v>
-      </c>
-      <c r="L157" t="s">
-        <v>13</v>
-      </c>
-      <c r="M157">
-        <v>20241108</v>
-      </c>
-      <c r="N157" t="s">
-        <v>283</v>
-      </c>
-      <c r="S157" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>76</v>
-      </c>
-      <c r="B158">
-        <v>58</v>
-      </c>
-      <c r="C158" t="s">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s">
-        <v>10</v>
-      </c>
-      <c r="E158">
-        <v>20231117</v>
-      </c>
-      <c r="F158" t="s">
-        <v>268</v>
-      </c>
-      <c r="G158" t="s">
-        <v>274</v>
-      </c>
-      <c r="H158" t="s">
-        <v>270</v>
-      </c>
-      <c r="I158" t="s">
-        <v>21</v>
-      </c>
-      <c r="J158" t="s">
-        <v>273</v>
-      </c>
-      <c r="K158" t="s">
-        <v>272</v>
-      </c>
-      <c r="L158" t="s">
-        <v>13</v>
-      </c>
-      <c r="M158">
-        <v>20241108</v>
-      </c>
-      <c r="N158" t="s">
-        <v>289</v>
-      </c>
-      <c r="O158" t="s">
-        <v>290</v>
-      </c>
-      <c r="S158" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>77</v>
-      </c>
-      <c r="B159">
-        <v>60</v>
-      </c>
-      <c r="C159" t="s">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s">
-        <v>10</v>
-      </c>
-      <c r="E159">
-        <v>20231117</v>
-      </c>
-      <c r="F159" t="s">
-        <v>268</v>
-      </c>
-      <c r="G159" t="s">
-        <v>18</v>
-      </c>
-      <c r="H159" t="s">
-        <v>270</v>
-      </c>
-      <c r="I159" t="s">
-        <v>21</v>
-      </c>
-      <c r="J159" t="s">
-        <v>273</v>
-      </c>
-      <c r="K159" t="s">
-        <v>272</v>
-      </c>
-      <c r="L159" t="s">
-        <v>13</v>
-      </c>
-      <c r="M159">
-        <v>20241108</v>
-      </c>
-      <c r="N159" t="s">
-        <v>289</v>
-      </c>
-      <c r="O159" t="s">
-        <v>290</v>
-      </c>
-      <c r="S159" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>78</v>
-      </c>
-      <c r="B160">
-        <v>61</v>
-      </c>
-      <c r="C160" t="s">
-        <v>11</v>
-      </c>
-      <c r="D160" t="s">
-        <v>10</v>
-      </c>
-      <c r="E160">
-        <v>20231117</v>
-      </c>
-      <c r="F160" t="s">
-        <v>268</v>
-      </c>
-      <c r="G160" t="s">
-        <v>18</v>
-      </c>
-      <c r="H160" t="s">
-        <v>270</v>
-      </c>
-      <c r="I160" t="s">
-        <v>21</v>
-      </c>
-      <c r="J160" t="s">
-        <v>273</v>
-      </c>
-      <c r="K160" t="s">
-        <v>272</v>
-      </c>
-      <c r="L160" t="s">
-        <v>13</v>
-      </c>
-      <c r="M160">
-        <v>20241108</v>
-      </c>
-      <c r="N160" t="s">
-        <v>285</v>
-      </c>
-      <c r="S160" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>79</v>
-      </c>
-      <c r="B161">
-        <v>62</v>
-      </c>
-      <c r="C161" t="s">
-        <v>11</v>
-      </c>
-      <c r="D161" t="s">
-        <v>10</v>
-      </c>
-      <c r="E161">
-        <v>20231117</v>
-      </c>
-      <c r="F161" t="s">
-        <v>268</v>
-      </c>
-      <c r="G161" t="s">
-        <v>18</v>
-      </c>
-      <c r="H161" t="s">
-        <v>270</v>
-      </c>
-      <c r="I161" t="s">
-        <v>21</v>
-      </c>
-      <c r="J161" t="s">
-        <v>273</v>
-      </c>
-      <c r="K161" t="s">
-        <v>272</v>
-      </c>
-      <c r="L161" t="s">
-        <v>13</v>
-      </c>
-      <c r="M161">
-        <v>20241108</v>
-      </c>
-      <c r="N161" t="s">
-        <v>289</v>
-      </c>
-      <c r="O161" t="s">
-        <v>290</v>
-      </c>
-      <c r="S161" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>80</v>
-      </c>
-      <c r="B162">
-        <v>63</v>
-      </c>
-      <c r="C162" t="s">
-        <v>11</v>
-      </c>
-      <c r="D162" t="s">
-        <v>10</v>
-      </c>
-      <c r="E162">
-        <v>20231117</v>
-      </c>
-      <c r="F162" t="s">
-        <v>268</v>
-      </c>
-      <c r="G162" t="s">
-        <v>18</v>
-      </c>
-      <c r="H162" t="s">
-        <v>270</v>
-      </c>
-      <c r="I162" t="s">
-        <v>21</v>
-      </c>
-      <c r="J162" t="s">
-        <v>273</v>
-      </c>
-      <c r="K162" t="s">
-        <v>272</v>
-      </c>
-      <c r="L162" t="s">
-        <v>13</v>
-      </c>
-      <c r="M162">
-        <v>20241108</v>
-      </c>
-      <c r="N162" t="s">
-        <v>283</v>
-      </c>
-      <c r="S162" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="163" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B163" s="3">
-        <v>64</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E163" s="3">
-        <v>20231117</v>
-      </c>
-      <c r="F163" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="G163" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H163" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I163" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J163" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="K163" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="L163" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M163" s="3">
-        <v>20241108</v>
-      </c>
-      <c r="N163" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="O163" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="S163" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>242</v>
       </c>
@@ -8032,7 +8631,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>243</v>
       </c>
@@ -8070,7 +8669,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>229</v>
       </c>
@@ -8108,7 +8707,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>230</v>
       </c>
@@ -8146,7 +8745,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>231</v>
       </c>
@@ -8184,7 +8783,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>232</v>
       </c>
@@ -8222,7 +8821,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>233</v>
       </c>
@@ -8260,7 +8859,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>234</v>
       </c>
@@ -8298,7 +8897,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>235</v>
       </c>
@@ -8336,7 +8935,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>236</v>
       </c>
@@ -8374,7 +8973,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>237</v>
       </c>
@@ -8412,7 +9011,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>238</v>
       </c>
@@ -8450,7 +9049,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>239</v>
       </c>

--- a/data/dna/dna_metadata.xlsx
+++ b/data/dna/dna_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/dna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACEB50C-3262-F84B-B6F1-D651B8BB6404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43293163-5DFB-AD4C-B9BD-4D89AD7ECF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="760" windowWidth="25520" windowHeight="17740" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2797" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2798" uniqueCount="302">
   <si>
     <t>sample_id</t>
   </si>
@@ -881,9 +881,6 @@
     <t>P. grandis</t>
   </si>
   <si>
-    <t>P. acuta (?)</t>
-  </si>
-  <si>
     <t>P. acuta</t>
   </si>
   <si>
@@ -939,6 +936,12 @@
   </si>
   <si>
     <t>RNA/PR</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P. acuta </t>
   </si>
 </sst>
 </file>
@@ -1389,10 +1392,10 @@
   <dimension ref="A1:U244"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L212" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S237" sqref="S237"/>
+      <selection pane="bottomRight" activeCell="M103" sqref="M103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1452,7 +1455,7 @@
         <v>2</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -4574,7 +4577,7 @@
         <v>279</v>
       </c>
       <c r="N83" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="84" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -4618,7 +4621,7 @@
         <v>279</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="85" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -4662,7 +4665,7 @@
         <v>279</v>
       </c>
       <c r="N85" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="86" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -4706,7 +4709,7 @@
         <v>279</v>
       </c>
       <c r="N86" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="87" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -4750,10 +4753,10 @@
         <v>279</v>
       </c>
       <c r="N87" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P87" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q87" s="6"/>
     </row>
@@ -4798,7 +4801,7 @@
         <v>279</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P88" s="6" t="s">
         <v>9</v>
@@ -4848,10 +4851,10 @@
         <v>276</v>
       </c>
       <c r="N89" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="P89" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="P89" s="6" t="s">
-        <v>291</v>
       </c>
       <c r="Q89" s="6">
         <v>27</v>
@@ -4863,7 +4866,7 @@
         <v>33</v>
       </c>
       <c r="T89" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="90" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -4907,7 +4910,7 @@
         <v>276</v>
       </c>
       <c r="N90" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O90" s="4" t="s">
         <v>279</v>
@@ -4969,7 +4972,7 @@
         <v>279</v>
       </c>
       <c r="N91" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O91" s="4" t="s">
         <v>276</v>
@@ -5031,7 +5034,7 @@
         <v>279</v>
       </c>
       <c r="N92" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O92" s="4" t="s">
         <v>280</v>
@@ -5093,7 +5096,7 @@
         <v>280</v>
       </c>
       <c r="N93" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O93" s="4" t="s">
         <v>278</v>
@@ -5155,7 +5158,7 @@
         <v>279</v>
       </c>
       <c r="N94" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O94" s="4" t="s">
         <v>277</v>
@@ -5205,10 +5208,10 @@
         <v>279</v>
       </c>
       <c r="N95" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O95" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P95" s="4">
         <v>0</v>
@@ -5252,13 +5255,13 @@
         <v>265</v>
       </c>
       <c r="M96" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N96" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O96" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P96" s="6">
         <v>15</v>
@@ -5317,7 +5320,7 @@
         <v>279</v>
       </c>
       <c r="N97" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="98" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -5361,7 +5364,7 @@
         <v>280</v>
       </c>
       <c r="N98" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="99" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -5405,7 +5408,7 @@
         <v>279</v>
       </c>
       <c r="N99" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P99" s="6" t="s">
         <v>10</v>
@@ -5452,10 +5455,10 @@
         <v>280</v>
       </c>
       <c r="N100" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P100" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q100" s="6">
         <v>27</v>
@@ -5467,7 +5470,7 @@
         <v>33</v>
       </c>
       <c r="T100" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="101" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -5511,7 +5514,7 @@
         <v>279</v>
       </c>
       <c r="N101" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O101" s="7" t="s">
         <v>279</v>
@@ -5570,10 +5573,10 @@
         <v>265</v>
       </c>
       <c r="M102" s="4" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="N102" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O102" s="4" t="s">
         <v>276</v>
@@ -5632,10 +5635,10 @@
         <v>265</v>
       </c>
       <c r="M103" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N103" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O103" s="4" t="s">
         <v>280</v>
@@ -5697,7 +5700,7 @@
         <v>279</v>
       </c>
       <c r="N104" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O104" s="4" t="s">
         <v>278</v>
@@ -5759,7 +5762,7 @@
         <v>279</v>
       </c>
       <c r="N105" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O105" s="4" t="s">
         <v>277</v>
@@ -5821,10 +5824,10 @@
         <v>279</v>
       </c>
       <c r="N106" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O106" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P106" s="4">
         <v>2</v>
@@ -5883,10 +5886,10 @@
         <v>279</v>
       </c>
       <c r="N107" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O107" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P107" s="6">
         <v>21</v>
@@ -5945,7 +5948,7 @@
         <v>279</v>
       </c>
       <c r="N108" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="109" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -5989,7 +5992,7 @@
         <v>279</v>
       </c>
       <c r="N109" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="110" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -6033,7 +6036,7 @@
         <v>279</v>
       </c>
       <c r="N110" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="111" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -6077,7 +6080,7 @@
         <v>279</v>
       </c>
       <c r="N111" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="112" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -6121,7 +6124,7 @@
         <v>279</v>
       </c>
       <c r="N112" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="113" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -6165,7 +6168,7 @@
         <v>279</v>
       </c>
       <c r="N113" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="114" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -6209,7 +6212,7 @@
         <v>279</v>
       </c>
       <c r="N114" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="115" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -6253,7 +6256,7 @@
         <v>279</v>
       </c>
       <c r="N115" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="116" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -6297,7 +6300,7 @@
         <v>279</v>
       </c>
       <c r="N116" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="117" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -6341,7 +6344,7 @@
         <v>277</v>
       </c>
       <c r="N117" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="118" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -6385,7 +6388,7 @@
         <v>277</v>
       </c>
       <c r="N118" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="119" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -7042,7 +7045,7 @@
         <v>276</v>
       </c>
       <c r="N134" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="135" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -7083,10 +7086,10 @@
         <v>13</v>
       </c>
       <c r="M135" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N135" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="136" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -7130,7 +7133,7 @@
         <v>279</v>
       </c>
       <c r="N136" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="137" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -7170,9 +7173,11 @@
       <c r="L137" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M137" s="3"/>
+      <c r="M137" s="3" t="s">
+        <v>300</v>
+      </c>
       <c r="N137" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="138" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -7216,11 +7221,11 @@
         <v>280</v>
       </c>
       <c r="N138" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O138" s="14"/>
       <c r="P138" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q138" s="15"/>
       <c r="R138" s="14"/>
@@ -7268,7 +7273,7 @@
         <v>279</v>
       </c>
       <c r="N139" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O139" s="14"/>
       <c r="P139" s="15" t="s">
@@ -7320,11 +7325,11 @@
         <v>280</v>
       </c>
       <c r="N140" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O140" s="14"/>
       <c r="P140" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q140" s="15">
         <v>27</v>
@@ -7378,7 +7383,7 @@
         <v>278</v>
       </c>
       <c r="N141" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O141" s="14" t="s">
         <v>279</v>
@@ -7438,7 +7443,7 @@
         <v>276</v>
       </c>
       <c r="N142" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O142" s="14" t="s">
         <v>276</v>
@@ -7498,7 +7503,7 @@
         <v>279</v>
       </c>
       <c r="N143" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O143" s="14" t="s">
         <v>280</v>
@@ -7558,7 +7563,7 @@
         <v>276</v>
       </c>
       <c r="N144" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O144" s="14" t="s">
         <v>278</v>
@@ -7618,7 +7623,7 @@
         <v>278</v>
       </c>
       <c r="N145" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O145" s="14" t="s">
         <v>277</v>
@@ -7678,10 +7683,10 @@
         <v>279</v>
       </c>
       <c r="N146" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O146" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P146" s="14">
         <v>0</v>
@@ -7738,10 +7743,10 @@
         <v>279</v>
       </c>
       <c r="N147" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O147" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P147" s="15">
         <v>10</v>
@@ -7798,12 +7803,12 @@
         <v>277</v>
       </c>
       <c r="N148" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O148" s="14"/>
       <c r="P148" s="14"/>
       <c r="Q148" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="R148" s="14"/>
       <c r="S148" s="14"/>
@@ -7850,7 +7855,7 @@
         <v>279</v>
       </c>
       <c r="N149" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O149" s="14"/>
       <c r="P149" s="14"/>
@@ -7900,7 +7905,7 @@
         <v>278</v>
       </c>
       <c r="N150" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O150" s="14"/>
       <c r="P150" s="15" t="s">
@@ -7952,11 +7957,11 @@
         <v>279</v>
       </c>
       <c r="N151" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O151" s="14"/>
       <c r="P151" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q151" s="15">
         <v>27</v>
@@ -8010,7 +8015,7 @@
         <v>277</v>
       </c>
       <c r="N152" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O152" s="13" t="s">
         <v>279</v>
@@ -8070,7 +8075,7 @@
         <v>279</v>
       </c>
       <c r="N153" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O153" s="14" t="s">
         <v>276</v>
@@ -8130,7 +8135,7 @@
         <v>278</v>
       </c>
       <c r="N154" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O154" s="14" t="s">
         <v>280</v>
@@ -8190,7 +8195,7 @@
         <v>279</v>
       </c>
       <c r="N155" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O155" s="14" t="s">
         <v>278</v>
@@ -8250,7 +8255,7 @@
         <v>277</v>
       </c>
       <c r="N156" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O156" s="14" t="s">
         <v>277</v>
@@ -8310,10 +8315,10 @@
         <v>277</v>
       </c>
       <c r="N157" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O157" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P157" s="14">
         <v>0</v>
@@ -8370,10 +8375,10 @@
         <v>279</v>
       </c>
       <c r="N158" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O158" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P158" s="15">
         <v>18</v>
@@ -8430,7 +8435,7 @@
         <v>279</v>
       </c>
       <c r="N159" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="160" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -8474,7 +8479,7 @@
         <v>278</v>
       </c>
       <c r="N160" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="161" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -8518,7 +8523,7 @@
         <v>279</v>
       </c>
       <c r="N161" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="162" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -8562,7 +8567,7 @@
         <v>277</v>
       </c>
       <c r="N162" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="163" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -8606,7 +8611,7 @@
         <v>279</v>
       </c>
       <c r="N163" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="164" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -8647,10 +8652,10 @@
         <v>265</v>
       </c>
       <c r="M164" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N164" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="165" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -8691,10 +8696,10 @@
         <v>265</v>
       </c>
       <c r="M165" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N165" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="166" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -8735,10 +8740,10 @@
         <v>265</v>
       </c>
       <c r="M166" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N166" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="167" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -8779,7 +8784,7 @@
         <v>265</v>
       </c>
       <c r="M167" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="168" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -8820,10 +8825,10 @@
         <v>265</v>
       </c>
       <c r="M168" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N168" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="169" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -8864,10 +8869,10 @@
         <v>265</v>
       </c>
       <c r="M169" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N169" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="170" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -8908,10 +8913,10 @@
         <v>265</v>
       </c>
       <c r="M170" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N170" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="171" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -8952,10 +8957,10 @@
         <v>265</v>
       </c>
       <c r="M171" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N171" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="172" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -8996,7 +9001,7 @@
         <v>265</v>
       </c>
       <c r="M172" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="173" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -9037,13 +9042,13 @@
         <v>265</v>
       </c>
       <c r="M173" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N173" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P173" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q173" s="6"/>
     </row>
@@ -9085,10 +9090,10 @@
         <v>265</v>
       </c>
       <c r="M174" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N174" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P174" s="6" t="s">
         <v>9</v>
@@ -9135,13 +9140,13 @@
         <v>265</v>
       </c>
       <c r="M175" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N175" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P175" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q175" s="6">
         <v>27</v>
@@ -9153,7 +9158,7 @@
         <v>33</v>
       </c>
       <c r="T175" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="176" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -9194,13 +9199,13 @@
         <v>265</v>
       </c>
       <c r="M176" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N176" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O176" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P176" s="4">
         <v>2</v>
@@ -9256,13 +9261,13 @@
         <v>265</v>
       </c>
       <c r="M177" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N177" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O177" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P177" s="4">
         <v>13</v>
@@ -9318,13 +9323,13 @@
         <v>265</v>
       </c>
       <c r="M178" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N178" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O178" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P178" s="6">
         <v>15</v>
@@ -9380,10 +9385,10 @@
         <v>265</v>
       </c>
       <c r="M179" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N179" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="180" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -9424,10 +9429,10 @@
         <v>265</v>
       </c>
       <c r="M180" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N180" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="181" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -9468,10 +9473,10 @@
         <v>265</v>
       </c>
       <c r="M181" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N181" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P181" s="6" t="s">
         <v>10</v>
@@ -9515,13 +9520,13 @@
         <v>265</v>
       </c>
       <c r="M182" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N182" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P182" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q182" s="6">
         <v>27</v>
@@ -9533,7 +9538,7 @@
         <v>33</v>
       </c>
       <c r="T182" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="183" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -9574,13 +9579,13 @@
         <v>265</v>
       </c>
       <c r="M183" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="N183" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="O183" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="N183" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="O183" s="4" t="s">
-        <v>297</v>
       </c>
       <c r="P183" s="4">
         <v>1</v>
@@ -9636,13 +9641,13 @@
         <v>265</v>
       </c>
       <c r="M184" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N184" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O184" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P184" s="7">
         <v>20</v>
@@ -9698,13 +9703,13 @@
         <v>265</v>
       </c>
       <c r="M185" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N185" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O185" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P185" s="6">
         <v>21</v>
@@ -9752,10 +9757,10 @@
         <v>265</v>
       </c>
       <c r="M186" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N186" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="187" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -9796,10 +9801,10 @@
         <v>265</v>
       </c>
       <c r="M187" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N187" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="188" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -9840,10 +9845,10 @@
         <v>265</v>
       </c>
       <c r="M188" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N188" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="189" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -9884,7 +9889,7 @@
         <v>265</v>
       </c>
       <c r="M189" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O189" s="6"/>
       <c r="P189" s="6"/>
@@ -9931,10 +9936,10 @@
         <v>265</v>
       </c>
       <c r="M190" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N190" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="191" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -9975,10 +9980,10 @@
         <v>265</v>
       </c>
       <c r="M191" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N191" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="192" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -10019,10 +10024,10 @@
         <v>265</v>
       </c>
       <c r="M192" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N192" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="193" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -10063,10 +10068,10 @@
         <v>265</v>
       </c>
       <c r="M193" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N193" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="194" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -10107,10 +10112,10 @@
         <v>265</v>
       </c>
       <c r="M194" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N194" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="195" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -10151,7 +10156,7 @@
         <v>265</v>
       </c>
       <c r="M195" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="196" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -10192,10 +10197,10 @@
         <v>265</v>
       </c>
       <c r="M196" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N196" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="197" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -10236,10 +10241,10 @@
         <v>265</v>
       </c>
       <c r="M197" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N197" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="198" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -10280,10 +10285,10 @@
         <v>265</v>
       </c>
       <c r="M198" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N198" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="199" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -10324,10 +10329,10 @@
         <v>265</v>
       </c>
       <c r="M199" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N199" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="200" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -10368,7 +10373,7 @@
         <v>13</v>
       </c>
       <c r="M200" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="201" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -10409,7 +10414,7 @@
         <v>13</v>
       </c>
       <c r="M201" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="202" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -10450,7 +10455,7 @@
         <v>13</v>
       </c>
       <c r="M202" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="203" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -10491,7 +10496,7 @@
         <v>13</v>
       </c>
       <c r="M203" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="204" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -10532,7 +10537,7 @@
         <v>13</v>
       </c>
       <c r="M204" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="205" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -10573,7 +10578,7 @@
         <v>13</v>
       </c>
       <c r="M205" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="206" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -10614,7 +10619,7 @@
         <v>13</v>
       </c>
       <c r="M206" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="207" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -10655,7 +10660,7 @@
         <v>13</v>
       </c>
       <c r="M207" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="208" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -10696,7 +10701,7 @@
         <v>13</v>
       </c>
       <c r="M208" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="209" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -10737,7 +10742,7 @@
         <v>13</v>
       </c>
       <c r="M209" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="210" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -10778,7 +10783,7 @@
         <v>13</v>
       </c>
       <c r="M210" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="211" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -10819,7 +10824,7 @@
         <v>13</v>
       </c>
       <c r="M211" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="212" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -10860,7 +10865,7 @@
         <v>13</v>
       </c>
       <c r="M212" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="213" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -10901,7 +10906,7 @@
         <v>13</v>
       </c>
       <c r="M213" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="214" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -10942,7 +10947,7 @@
         <v>13</v>
       </c>
       <c r="M214" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="215" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -10983,10 +10988,10 @@
         <v>13</v>
       </c>
       <c r="M215" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N215" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="216" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -11027,10 +11032,10 @@
         <v>13</v>
       </c>
       <c r="M216" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N216" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="217" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -11071,10 +11076,10 @@
         <v>13</v>
       </c>
       <c r="M217" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N217" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="218" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -11115,10 +11120,10 @@
         <v>13</v>
       </c>
       <c r="M218" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N218" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="219" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -11159,10 +11164,10 @@
         <v>13</v>
       </c>
       <c r="M219" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N219" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="220" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -11203,10 +11208,10 @@
         <v>13</v>
       </c>
       <c r="M220" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N220" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="221" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -11247,13 +11252,13 @@
         <v>13</v>
       </c>
       <c r="M221" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N221" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q221" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="R221" s="16"/>
     </row>
@@ -11295,10 +11300,10 @@
         <v>13</v>
       </c>
       <c r="M222" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N222" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q222" s="16" t="s">
         <v>9</v>
@@ -11345,13 +11350,13 @@
         <v>13</v>
       </c>
       <c r="M223" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N223" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q223" s="16" t="s">
         <v>290</v>
-      </c>
-      <c r="Q223" s="16" t="s">
-        <v>291</v>
       </c>
       <c r="R223" s="16">
         <v>27</v>
@@ -11402,13 +11407,13 @@
         <v>13</v>
       </c>
       <c r="M224" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="N224" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="P224" s="10" t="s">
         <v>296</v>
-      </c>
-      <c r="N224" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="P224" s="10" t="s">
-        <v>297</v>
       </c>
       <c r="Q224" s="10">
         <v>0</v>
@@ -11461,13 +11466,13 @@
         <v>13</v>
       </c>
       <c r="M225" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N225" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P225" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q225" s="7">
         <v>12</v>
@@ -11520,13 +11525,13 @@
         <v>13</v>
       </c>
       <c r="M226" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N226" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P226" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q226" s="16">
         <v>12</v>
@@ -11580,10 +11585,10 @@
         <v>13</v>
       </c>
       <c r="M227" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N227" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="228" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -11624,10 +11629,10 @@
         <v>13</v>
       </c>
       <c r="M228" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N228" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="229" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -11668,10 +11673,10 @@
         <v>13</v>
       </c>
       <c r="M229" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N229" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q229" s="16" t="s">
         <v>10</v>
@@ -11715,13 +11720,13 @@
         <v>13</v>
       </c>
       <c r="M230" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N230" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Q230" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="R230" s="16">
         <v>27</v>
@@ -11772,13 +11777,13 @@
         <v>13</v>
       </c>
       <c r="M231" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="N231" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P231" s="10" t="s">
         <v>296</v>
-      </c>
-      <c r="N231" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="P231" s="10" t="s">
-        <v>297</v>
       </c>
       <c r="Q231" s="10">
         <v>2</v>
@@ -11831,13 +11836,13 @@
         <v>13</v>
       </c>
       <c r="M232" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="N232" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="P232" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="N232" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="P232" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="Q232" s="7">
         <v>16</v>
@@ -11890,13 +11895,13 @@
         <v>13</v>
       </c>
       <c r="M233" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N233" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P233" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q233" s="16">
         <v>18</v>
@@ -11950,10 +11955,10 @@
         <v>13</v>
       </c>
       <c r="M234" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N234" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="235" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -11994,10 +11999,10 @@
         <v>13</v>
       </c>
       <c r="M235" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N235" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="236" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -12038,10 +12043,10 @@
         <v>13</v>
       </c>
       <c r="M236" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N236" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="237" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -12082,10 +12087,10 @@
         <v>13</v>
       </c>
       <c r="M237" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N237" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="238" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -12126,10 +12131,10 @@
         <v>13</v>
       </c>
       <c r="M238" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N238" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="239" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -12170,10 +12175,10 @@
         <v>13</v>
       </c>
       <c r="M239" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N239" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="240" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -12214,10 +12219,10 @@
         <v>13</v>
       </c>
       <c r="M240" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N240" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="241" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -12258,10 +12263,10 @@
         <v>13</v>
       </c>
       <c r="M241" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N241" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="242" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -12302,10 +12307,10 @@
         <v>13</v>
       </c>
       <c r="M242" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N242" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="243" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -12346,10 +12351,10 @@
         <v>13</v>
       </c>
       <c r="M243" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N243" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="244" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -12390,10 +12395,10 @@
         <v>13</v>
       </c>
       <c r="M244" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N244" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/data/dna/dna_metadata.xlsx
+++ b/data/dna/dna_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/dna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D57EC3-94D5-1E4D-97C0-C7A505E1F017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194EA378-2B8C-1B48-8E7D-CA0142B6DF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31040" yWindow="-1460" windowWidth="16280" windowHeight="19940" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
+    <workbookView xWindow="-23500" yWindow="-260" windowWidth="21060" windowHeight="18760" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3044" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3159" uniqueCount="405">
   <si>
     <t>sample_id</t>
   </si>
@@ -902,9 +902,6 @@
     <t>33C</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>27C</t>
   </si>
   <si>
@@ -1236,6 +1233,24 @@
   </si>
   <si>
     <t>D11</t>
+  </si>
+  <si>
+    <t>lutkeni/pulchra</t>
+  </si>
+  <si>
+    <t>hyacinthus/cytherea</t>
+  </si>
+  <si>
+    <t>retusa</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>globiceps</t>
+  </si>
+  <si>
+    <t>27 Dark</t>
   </si>
 </sst>
 </file>
@@ -1280,7 +1295,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1335,6 +1350,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1357,7 +1378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1375,6 +1396,7 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1689,13 +1711,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5716CA15-A063-CD4A-965E-FFCB3C4243EA}">
-  <dimension ref="A1:W244"/>
+  <dimension ref="A1:X244"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H150" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="N41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J196" sqref="J196"/>
+      <selection pane="bottomRight" activeCell="R61" sqref="R61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1710,13 +1732,13 @@
     <col min="12" max="12" width="15.1640625" customWidth="1"/>
     <col min="13" max="13" width="15.5" customWidth="1"/>
     <col min="14" max="14" width="23.1640625" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" customWidth="1"/>
-    <col min="16" max="16" width="31.6640625" customWidth="1"/>
+    <col min="15" max="15" width="26.6640625" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" customWidth="1"/>
     <col min="17" max="17" width="14.83203125" customWidth="1"/>
-    <col min="18" max="18" width="15.83203125" customWidth="1"/>
+    <col min="18" max="18" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1742,10 +1764,10 @@
         <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
@@ -1763,10 +1785,10 @@
         <v>2</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>157</v>
       </c>
@@ -1795,7 +1817,7 @@
         <v>39</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>21</v>
@@ -1809,8 +1831,14 @@
       <c r="N2" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O2" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="P2" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>158</v>
       </c>
@@ -1839,7 +1867,7 @@
         <v>39</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>21</v>
@@ -1853,8 +1881,14 @@
       <c r="N3" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O3" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="P3" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>159</v>
       </c>
@@ -1883,7 +1917,7 @@
         <v>39</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>21</v>
@@ -1897,8 +1931,14 @@
       <c r="N4" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O4" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="P4" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>160</v>
       </c>
@@ -1927,7 +1967,7 @@
         <v>39</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>21</v>
@@ -1941,8 +1981,11 @@
       <c r="N5" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O5" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>161</v>
       </c>
@@ -1971,7 +2014,7 @@
         <v>39</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>21</v>
@@ -1985,8 +2028,14 @@
       <c r="N6" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O6" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="P6" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>162</v>
       </c>
@@ -2015,7 +2064,7 @@
         <v>39</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>21</v>
@@ -2029,8 +2078,14 @@
       <c r="N7" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O7" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>163</v>
       </c>
@@ -2059,7 +2114,7 @@
         <v>40</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>21</v>
@@ -2073,8 +2128,14 @@
       <c r="N8" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="P8" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>164</v>
       </c>
@@ -2103,7 +2164,7 @@
         <v>39</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>21</v>
@@ -2117,8 +2178,18 @@
       <c r="N9" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="P9" s="3">
+        <v>33</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="T9" s="5"/>
+    </row>
+    <row r="10" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>165</v>
       </c>
@@ -2147,7 +2218,7 @@
         <v>40</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>21</v>
@@ -2161,8 +2232,20 @@
       <c r="N10" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="P10" s="3">
+        <v>33</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+    </row>
+    <row r="11" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>166</v>
       </c>
@@ -2191,7 +2274,7 @@
         <v>39</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>21</v>
@@ -2205,8 +2288,29 @@
       <c r="N11" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O11" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="P11" s="3">
+        <v>33</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="T11" s="5">
+        <v>27</v>
+      </c>
+      <c r="U11" s="5">
+        <v>30</v>
+      </c>
+      <c r="V11" s="5">
+        <v>33</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>167</v>
       </c>
@@ -2235,7 +2339,7 @@
         <v>39</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>21</v>
@@ -2249,8 +2353,32 @@
       <c r="N12" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="P12" s="3">
+        <v>30</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="S12" s="3">
+        <v>4</v>
+      </c>
+      <c r="T12" s="3">
+        <v>1</v>
+      </c>
+      <c r="U12" s="3">
+        <v>1</v>
+      </c>
+      <c r="V12" s="3">
+        <v>1</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>168</v>
       </c>
@@ -2279,7 +2407,7 @@
         <v>39</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>21</v>
@@ -2293,8 +2421,32 @@
       <c r="N13" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O13" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="P13" s="3">
+        <v>27</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="S13" s="3">
+        <v>8</v>
+      </c>
+      <c r="T13" s="3">
+        <v>3</v>
+      </c>
+      <c r="U13" s="3">
+        <v>2</v>
+      </c>
+      <c r="V13" s="3">
+        <v>2</v>
+      </c>
+      <c r="W13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>169</v>
       </c>
@@ -2323,7 +2475,7 @@
         <v>39</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>21</v>
@@ -2337,8 +2489,29 @@
       <c r="N14" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="S14" s="3">
+        <v>2</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>1</v>
+      </c>
+      <c r="V14" s="3">
+        <v>1</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>170</v>
       </c>
@@ -2367,7 +2540,7 @@
         <v>39</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>21</v>
@@ -2381,8 +2554,32 @@
       <c r="N15" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="P15" s="3">
+        <v>30</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="S15" s="3">
+        <v>1</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>171</v>
       </c>
@@ -2411,7 +2608,7 @@
         <v>39</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>21</v>
@@ -2425,8 +2622,32 @@
       <c r="N16" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O16" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="P16" s="3">
+        <v>30</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="S16" s="3">
+        <v>0</v>
+      </c>
+      <c r="T16" s="3">
+        <v>0</v>
+      </c>
+      <c r="U16" s="3">
+        <v>0</v>
+      </c>
+      <c r="V16" s="3">
+        <v>0</v>
+      </c>
+      <c r="W16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>172</v>
       </c>
@@ -2455,7 +2676,7 @@
         <v>39</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>21</v>
@@ -2469,8 +2690,37 @@
       <c r="N17" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="P17" s="3">
+        <v>33</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="S17" s="5">
+        <f>SUM(S12:S16)</f>
+        <v>15</v>
+      </c>
+      <c r="T17" s="5">
+        <f t="shared" ref="T17:W17" si="0">SUM(T12:T16)</f>
+        <v>4</v>
+      </c>
+      <c r="U17" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="V17" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="W17" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>173</v>
       </c>
@@ -2499,7 +2749,7 @@
         <v>39</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>21</v>
@@ -2513,8 +2763,14 @@
       <c r="N18" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="P18" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>174</v>
       </c>
@@ -2543,7 +2799,7 @@
         <v>39</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>21</v>
@@ -2557,8 +2813,11 @@
       <c r="N19" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O19" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>175</v>
       </c>
@@ -2587,7 +2846,7 @@
         <v>39</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>21</v>
@@ -2601,8 +2860,17 @@
       <c r="N20" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="P20" s="3">
+        <v>33</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>176</v>
       </c>
@@ -2631,7 +2899,7 @@
         <v>39</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>21</v>
@@ -2645,8 +2913,29 @@
       <c r="N21" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="P21" s="3">
+        <v>27</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="T21" s="5">
+        <v>27</v>
+      </c>
+      <c r="U21" s="5">
+        <v>30</v>
+      </c>
+      <c r="V21" s="5">
+        <v>33</v>
+      </c>
+      <c r="W21" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>177</v>
       </c>
@@ -2675,7 +2964,7 @@
         <v>39</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>21</v>
@@ -2689,8 +2978,32 @@
       <c r="N22" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="P22" s="3">
+        <v>27</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="S22" s="3">
+        <v>2</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>1</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>178</v>
       </c>
@@ -2719,7 +3032,7 @@
         <v>40</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>21</v>
@@ -2733,8 +3046,32 @@
       <c r="N23" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="P23" s="3">
+        <v>33</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="S23" s="6">
+        <v>14</v>
+      </c>
+      <c r="T23" s="6">
+        <v>4</v>
+      </c>
+      <c r="U23" s="6">
+        <v>5</v>
+      </c>
+      <c r="V23" s="6">
+        <v>3</v>
+      </c>
+      <c r="W23" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>179</v>
       </c>
@@ -2763,7 +3100,7 @@
         <v>40</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>21</v>
@@ -2777,8 +3114,32 @@
       <c r="N24" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="P24" s="3">
+        <v>30</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="S24" s="3">
+        <v>4</v>
+      </c>
+      <c r="T24" s="3">
+        <v>1</v>
+      </c>
+      <c r="U24" s="3">
+        <v>1</v>
+      </c>
+      <c r="V24" s="3">
+        <v>2</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>180</v>
       </c>
@@ -2807,7 +3168,7 @@
         <v>40</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>21</v>
@@ -2821,8 +3182,32 @@
       <c r="N25" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O25" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="P25" s="3">
+        <v>30</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>181</v>
       </c>
@@ -2851,7 +3236,7 @@
         <v>40</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>21</v>
@@ -2865,8 +3250,32 @@
       <c r="N26" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="P26" s="3">
+        <v>30</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="S26" s="3">
+        <v>1</v>
+      </c>
+      <c r="T26" s="3">
+        <v>1</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>182</v>
       </c>
@@ -2895,7 +3304,7 @@
         <v>40</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>21</v>
@@ -2909,8 +3318,38 @@
       <c r="N27" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="S27" s="5">
+        <f>SUM(S22:S26)</f>
+        <v>21</v>
+      </c>
+      <c r="T27" s="5">
+        <f t="shared" ref="T27:W27" si="1">SUM(T22:T26)</f>
+        <v>6</v>
+      </c>
+      <c r="U27" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="V27" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="W27" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X27" s="5"/>
+    </row>
+    <row r="28" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>183</v>
       </c>
@@ -2939,7 +3378,7 @@
         <v>40</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>21</v>
@@ -2953,8 +3392,14 @@
       <c r="N28" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O28" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="P28" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>184</v>
       </c>
@@ -2983,7 +3428,7 @@
         <v>40</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>21</v>
@@ -2997,8 +3442,14 @@
       <c r="N29" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="P29" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>185</v>
       </c>
@@ -3027,7 +3478,7 @@
         <v>40</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>21</v>
@@ -3041,8 +3492,11 @@
       <c r="N30" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O30" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>186</v>
       </c>
@@ -3071,7 +3525,7 @@
         <v>40</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>21</v>
@@ -3085,8 +3539,14 @@
       <c r="N31" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O31" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="P31" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>187</v>
       </c>
@@ -3115,7 +3575,7 @@
         <v>40</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>21</v>
@@ -3129,8 +3589,14 @@
       <c r="N32" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="P32" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>188</v>
       </c>
@@ -3159,7 +3625,7 @@
         <v>40</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>21</v>
@@ -3173,8 +3639,14 @@
       <c r="N33" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="P33" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>189</v>
       </c>
@@ -3203,7 +3675,7 @@
         <v>40</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>21</v>
@@ -3217,8 +3689,14 @@
       <c r="N34" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O34" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="P34" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>190</v>
       </c>
@@ -3247,7 +3725,7 @@
         <v>40</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>21</v>
@@ -3261,8 +3739,14 @@
       <c r="N35" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="P35" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>191</v>
       </c>
@@ -3291,7 +3775,7 @@
         <v>40</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>21</v>
@@ -3305,8 +3789,14 @@
       <c r="N36" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O36" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="P36" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>192</v>
       </c>
@@ -3335,7 +3825,7 @@
         <v>40</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>21</v>
@@ -3349,8 +3839,14 @@
       <c r="N37" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O37" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="P37" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>112</v>
       </c>
@@ -3379,7 +3875,7 @@
         <v>39</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>21</v>
@@ -3393,8 +3889,11 @@
       <c r="N38" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O38" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>113</v>
       </c>
@@ -3423,7 +3922,7 @@
         <v>39</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>21</v>
@@ -3437,8 +3936,11 @@
       <c r="N39" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O39" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>114</v>
       </c>
@@ -3467,7 +3969,7 @@
         <v>39</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>21</v>
@@ -3481,8 +3983,11 @@
       <c r="N40" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O40" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>115</v>
       </c>
@@ -3511,7 +4016,7 @@
         <v>39</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>21</v>
@@ -3525,8 +4030,11 @@
       <c r="N41" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O41" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>116</v>
       </c>
@@ -3555,7 +4063,7 @@
         <v>39</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>21</v>
@@ -3569,8 +4077,11 @@
       <c r="N42" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O42" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>117</v>
       </c>
@@ -3599,7 +4110,7 @@
         <v>39</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>21</v>
@@ -3613,8 +4124,11 @@
       <c r="N43" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O43" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>118</v>
       </c>
@@ -3643,7 +4157,7 @@
         <v>39</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>21</v>
@@ -3657,8 +4171,11 @@
       <c r="N44" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O44" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>119</v>
       </c>
@@ -3687,7 +4204,7 @@
         <v>39</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>21</v>
@@ -3701,8 +4218,11 @@
       <c r="N45" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O45" s="7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>120</v>
       </c>
@@ -3731,7 +4251,7 @@
         <v>39</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>21</v>
@@ -3745,8 +4265,11 @@
       <c r="N46" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O46" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>121</v>
       </c>
@@ -3775,7 +4298,7 @@
         <v>39</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>21</v>
@@ -3789,8 +4312,11 @@
       <c r="N47" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O47" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>122</v>
       </c>
@@ -3819,7 +4345,7 @@
         <v>39</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>21</v>
@@ -3833,8 +4359,11 @@
       <c r="N48" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O48" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>123</v>
       </c>
@@ -3863,7 +4392,7 @@
         <v>39</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>21</v>
@@ -3877,8 +4406,11 @@
       <c r="N49" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O49" s="7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>124</v>
       </c>
@@ -3907,7 +4439,7 @@
         <v>39</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>21</v>
@@ -3921,8 +4453,11 @@
       <c r="N50" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O50" s="7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>125</v>
       </c>
@@ -3951,7 +4486,7 @@
         <v>39</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>21</v>
@@ -3965,8 +4500,11 @@
       <c r="N51" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O51" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>126</v>
       </c>
@@ -3995,7 +4533,7 @@
         <v>39</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>21</v>
@@ -4009,8 +4547,11 @@
       <c r="N52" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O52" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
         <v>271</v>
       </c>
@@ -4039,7 +4580,7 @@
         <v>39</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K53" s="9" t="s">
         <v>21</v>
@@ -4053,8 +4594,14 @@
       <c r="N53" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O53" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="P53" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>23</v>
       </c>
@@ -4083,7 +4630,7 @@
         <v>39</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K54" s="9" t="s">
         <v>21</v>
@@ -4097,8 +4644,14 @@
       <c r="N54" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O54" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="P54" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>24</v>
       </c>
@@ -4127,7 +4680,7 @@
         <v>39</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K55" s="9" t="s">
         <v>21</v>
@@ -4141,8 +4694,14 @@
       <c r="N55" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O55" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="P55" s="9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>25</v>
       </c>
@@ -4171,7 +4730,7 @@
         <v>39</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K56" s="9" t="s">
         <v>21</v>
@@ -4185,8 +4744,14 @@
       <c r="N56" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O56" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="P56" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>26</v>
       </c>
@@ -4215,7 +4780,7 @@
         <v>39</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K57" s="9" t="s">
         <v>21</v>
@@ -4229,8 +4794,14 @@
       <c r="N57" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O57" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="P57" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>27</v>
       </c>
@@ -4259,7 +4830,7 @@
         <v>39</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K58" s="9" t="s">
         <v>21</v>
@@ -4273,8 +4844,17 @@
       <c r="N58" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O58" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="P58" s="9">
+        <v>30</v>
+      </c>
+      <c r="S58" s="15" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>28</v>
       </c>
@@ -4303,7 +4883,7 @@
         <v>39</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K59" s="9" t="s">
         <v>21</v>
@@ -4317,8 +4897,17 @@
       <c r="N59" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O59" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="P59" s="9">
+        <v>27</v>
+      </c>
+      <c r="S59" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
         <v>29</v>
       </c>
@@ -4347,7 +4936,7 @@
         <v>39</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K60" s="9" t="s">
         <v>21</v>
@@ -4361,8 +4950,26 @@
       <c r="N60" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O60" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="P60" s="9">
+        <v>33</v>
+      </c>
+      <c r="S60" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="T60" s="9">
+        <v>27</v>
+      </c>
+      <c r="U60" s="9">
+        <v>30</v>
+      </c>
+      <c r="V60" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
         <v>30</v>
       </c>
@@ -4391,7 +4998,7 @@
         <v>39</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K61" s="9" t="s">
         <v>21</v>
@@ -4405,8 +5012,29 @@
       <c r="N61" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O61" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="P61" s="9">
+        <v>27</v>
+      </c>
+      <c r="R61" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="S61" s="9">
+        <v>1</v>
+      </c>
+      <c r="T61" s="9">
+        <v>1</v>
+      </c>
+      <c r="U61" s="9">
+        <v>0</v>
+      </c>
+      <c r="V61" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
         <v>31</v>
       </c>
@@ -4435,7 +5063,7 @@
         <v>39</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K62" s="9" t="s">
         <v>21</v>
@@ -4449,8 +5077,29 @@
       <c r="N62" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O62" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="P62" s="9">
+        <v>30</v>
+      </c>
+      <c r="R62" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="S62" s="9">
+        <v>5</v>
+      </c>
+      <c r="T62" s="9">
+        <v>2</v>
+      </c>
+      <c r="U62" s="9">
+        <v>2</v>
+      </c>
+      <c r="V62" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
         <v>32</v>
       </c>
@@ -4479,7 +5128,7 @@
         <v>39</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K63" s="9" t="s">
         <v>21</v>
@@ -4493,8 +5142,29 @@
       <c r="N63" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O63" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="P63" s="9">
+        <v>27</v>
+      </c>
+      <c r="R63" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="S63" s="9">
+        <v>2</v>
+      </c>
+      <c r="T63" s="9">
+        <v>0</v>
+      </c>
+      <c r="U63" s="9">
+        <v>1</v>
+      </c>
+      <c r="V63" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
         <v>33</v>
       </c>
@@ -4523,7 +5193,7 @@
         <v>39</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K64" s="9" t="s">
         <v>21</v>
@@ -4537,8 +5207,29 @@
       <c r="N64" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O64" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="P64" s="9">
+        <v>33</v>
+      </c>
+      <c r="R64" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="S64" s="9">
+        <v>1</v>
+      </c>
+      <c r="T64" s="9">
+        <v>0</v>
+      </c>
+      <c r="U64" s="9">
+        <v>0</v>
+      </c>
+      <c r="V64" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
         <v>34</v>
       </c>
@@ -4567,7 +5258,7 @@
         <v>39</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K65" s="9" t="s">
         <v>21</v>
@@ -4581,8 +5272,29 @@
       <c r="N65" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O65" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="P65" s="9">
+        <v>27</v>
+      </c>
+      <c r="R65" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="S65" s="9">
+        <v>3</v>
+      </c>
+      <c r="T65" s="9">
+        <v>1</v>
+      </c>
+      <c r="U65" s="9">
+        <v>1</v>
+      </c>
+      <c r="V65" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
         <v>35</v>
       </c>
@@ -4611,7 +5323,7 @@
         <v>39</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K66" s="9" t="s">
         <v>21</v>
@@ -4625,8 +5337,34 @@
       <c r="N66" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O66" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="P66" s="9">
+        <v>33</v>
+      </c>
+      <c r="R66" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="S66" s="15">
+        <f>SUM(S61:S65)</f>
+        <v>12</v>
+      </c>
+      <c r="T66" s="15">
+        <f t="shared" ref="T66:V66" si="2">SUM(T61:T65)</f>
+        <v>4</v>
+      </c>
+      <c r="U66" s="15">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="V66" s="15">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="W66" s="15"/>
+    </row>
+    <row r="67" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
         <v>36</v>
       </c>
@@ -4655,7 +5393,7 @@
         <v>39</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K67" s="9" t="s">
         <v>21</v>
@@ -4669,8 +5407,14 @@
       <c r="N67" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O67" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="P67" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
         <v>37</v>
       </c>
@@ -4699,7 +5443,7 @@
         <v>39</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K68" s="9" t="s">
         <v>21</v>
@@ -4713,8 +5457,14 @@
       <c r="N68" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O68" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="P68" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
         <v>38</v>
       </c>
@@ -4743,7 +5493,7 @@
         <v>39</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K69" s="9" t="s">
         <v>21</v>
@@ -4757,8 +5507,17 @@
       <c r="N69" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O69" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="P69" s="9">
+        <v>33</v>
+      </c>
+      <c r="S69" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>39</v>
       </c>
@@ -4787,7 +5546,7 @@
         <v>39</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K70" s="9" t="s">
         <v>21</v>
@@ -4801,8 +5560,26 @@
       <c r="N70" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O70" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="P70" s="9">
+        <v>33</v>
+      </c>
+      <c r="S70" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="T70" s="9">
+        <v>27</v>
+      </c>
+      <c r="U70" s="9">
+        <v>30</v>
+      </c>
+      <c r="V70" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>40</v>
       </c>
@@ -4831,7 +5608,7 @@
         <v>39</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K71" s="9" t="s">
         <v>21</v>
@@ -4845,8 +5622,29 @@
       <c r="N71" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O71" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="P71" s="9">
+        <v>27</v>
+      </c>
+      <c r="R71" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="S71" s="9">
+        <v>2</v>
+      </c>
+      <c r="T71" s="9">
+        <v>0</v>
+      </c>
+      <c r="U71" s="9">
+        <v>1</v>
+      </c>
+      <c r="V71" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
         <v>41</v>
       </c>
@@ -4875,7 +5673,7 @@
         <v>39</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K72" s="9" t="s">
         <v>21</v>
@@ -4889,8 +5687,29 @@
       <c r="N72" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O72" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="P72" s="9">
+        <v>30</v>
+      </c>
+      <c r="R72" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="S72" s="17">
+        <v>7</v>
+      </c>
+      <c r="T72" s="17">
+        <v>3</v>
+      </c>
+      <c r="U72" s="17">
+        <v>2</v>
+      </c>
+      <c r="V72" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
         <v>42</v>
       </c>
@@ -4919,7 +5738,7 @@
         <v>39</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K73" s="9" t="s">
         <v>21</v>
@@ -4933,8 +5752,29 @@
       <c r="N73" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O73" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="P73" s="9">
+        <v>33</v>
+      </c>
+      <c r="R73" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="S73" s="9">
+        <v>4</v>
+      </c>
+      <c r="T73" s="9">
+        <v>2</v>
+      </c>
+      <c r="U73" s="9">
+        <v>2</v>
+      </c>
+      <c r="V73" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
         <v>43</v>
       </c>
@@ -4963,7 +5803,7 @@
         <v>39</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K74" s="9" t="s">
         <v>21</v>
@@ -4977,8 +5817,29 @@
       <c r="N74" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O74" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="P74" s="9">
+        <v>30</v>
+      </c>
+      <c r="R74" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="S74" s="9">
+        <v>5</v>
+      </c>
+      <c r="T74" s="9">
+        <v>1</v>
+      </c>
+      <c r="U74" s="9">
+        <v>1</v>
+      </c>
+      <c r="V74" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
         <v>44</v>
       </c>
@@ -5007,7 +5868,7 @@
         <v>39</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K75" s="9" t="s">
         <v>21</v>
@@ -5021,8 +5882,29 @@
       <c r="N75" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O75" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="P75" s="9">
+        <v>27</v>
+      </c>
+      <c r="R75" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="S75" s="9">
+        <v>0</v>
+      </c>
+      <c r="T75" s="9">
+        <v>0</v>
+      </c>
+      <c r="U75" s="9">
+        <v>0</v>
+      </c>
+      <c r="V75" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
         <v>45</v>
       </c>
@@ -5051,7 +5933,7 @@
         <v>39</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K76" s="9" t="s">
         <v>21</v>
@@ -5065,8 +5947,34 @@
       <c r="N76" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O76" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="P76" s="9">
+        <v>27</v>
+      </c>
+      <c r="R76" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="S76" s="15">
+        <f>SUM(S71:S75)</f>
+        <v>18</v>
+      </c>
+      <c r="T76" s="15">
+        <f t="shared" ref="T76:V76" si="3">SUM(T71:T75)</f>
+        <v>6</v>
+      </c>
+      <c r="U76" s="15">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="V76" s="15">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="W76" s="15"/>
+    </row>
+    <row r="77" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
         <v>46</v>
       </c>
@@ -5095,7 +6003,7 @@
         <v>39</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K77" s="9" t="s">
         <v>21</v>
@@ -5109,8 +6017,14 @@
       <c r="N77" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O77" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="P77" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
         <v>47</v>
       </c>
@@ -5139,7 +6053,7 @@
         <v>39</v>
       </c>
       <c r="J78" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K78" s="9" t="s">
         <v>21</v>
@@ -5153,8 +6067,14 @@
       <c r="N78" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O78" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="P78" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
         <v>48</v>
       </c>
@@ -5183,7 +6103,7 @@
         <v>39</v>
       </c>
       <c r="J79" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K79" s="9" t="s">
         <v>21</v>
@@ -5197,8 +6117,14 @@
       <c r="N79" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O79" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="P79" s="9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
         <v>49</v>
       </c>
@@ -5227,7 +6153,7 @@
         <v>39</v>
       </c>
       <c r="J80" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K80" s="9" t="s">
         <v>21</v>
@@ -5240,6 +6166,12 @@
       </c>
       <c r="N80" s="9" t="s">
         <v>13</v>
+      </c>
+      <c r="O80" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="P80" s="9">
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -5271,7 +6203,7 @@
         <v>39</v>
       </c>
       <c r="J81" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K81" s="9" t="s">
         <v>21</v>
@@ -5284,6 +6216,12 @@
       </c>
       <c r="N81" s="9" t="s">
         <v>13</v>
+      </c>
+      <c r="O81" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="P81" s="9">
+        <v>27</v>
       </c>
     </row>
     <row r="82" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -5315,7 +6253,7 @@
         <v>39</v>
       </c>
       <c r="J82" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K82" s="11" t="s">
         <v>21</v>
@@ -5328,6 +6266,12 @@
       </c>
       <c r="N82" s="11" t="s">
         <v>13</v>
+      </c>
+      <c r="O82" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="P82" s="11">
+        <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -5359,7 +6303,7 @@
         <v>38</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>21</v>
@@ -5409,7 +6353,7 @@
         <v>38</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K84" s="3" t="s">
         <v>21</v>
@@ -5459,7 +6403,7 @@
         <v>38</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K85" s="3" t="s">
         <v>21</v>
@@ -5509,7 +6453,7 @@
         <v>38</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K86" s="3" t="s">
         <v>21</v>
@@ -5527,7 +6471,7 @@
         <v>279</v>
       </c>
       <c r="P86" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="87" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -5559,7 +6503,7 @@
         <v>39</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K87" s="3" t="s">
         <v>21</v>
@@ -5613,7 +6557,7 @@
         <v>39</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K88" s="3" t="s">
         <v>21</v>
@@ -5629,9 +6573,6 @@
       </c>
       <c r="O88" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="P88" s="3" t="s">
-        <v>288</v>
       </c>
       <c r="R88" s="5" t="s">
         <v>9</v>
@@ -5669,7 +6610,7 @@
         <v>39</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>21</v>
@@ -5687,10 +6628,10 @@
         <v>276</v>
       </c>
       <c r="P89" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="R89" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="R89" s="5" t="s">
-        <v>290</v>
       </c>
       <c r="S89" s="5">
         <v>27</v>
@@ -5702,7 +6643,7 @@
         <v>33</v>
       </c>
       <c r="V89" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="90" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -5734,7 +6675,7 @@
         <v>39</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K90" s="3" t="s">
         <v>21</v>
@@ -5802,7 +6743,7 @@
         <v>39</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>21</v>
@@ -5820,7 +6761,7 @@
         <v>279</v>
       </c>
       <c r="P91" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>276</v>
@@ -5870,7 +6811,7 @@
         <v>39</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K92" s="3" t="s">
         <v>21</v>
@@ -5886,9 +6827,6 @@
       </c>
       <c r="O92" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="P92" s="3" t="s">
-        <v>288</v>
       </c>
       <c r="Q92" s="3" t="s">
         <v>280</v>
@@ -5938,7 +6876,7 @@
         <v>39</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K93" s="3" t="s">
         <v>21</v>
@@ -6006,7 +6944,7 @@
         <v>39</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>21</v>
@@ -6062,7 +7000,7 @@
         <v>39</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K95" s="3" t="s">
         <v>21</v>
@@ -6118,7 +7056,7 @@
         <v>39</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K96" s="3" t="s">
         <v>21</v>
@@ -6136,7 +7074,7 @@
         <v>282</v>
       </c>
       <c r="P96" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q96" s="5" t="s">
         <v>284</v>
@@ -6186,7 +7124,7 @@
         <v>39</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K97" s="3" t="s">
         <v>21</v>
@@ -6236,7 +7174,7 @@
         <v>39</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K98" s="3" t="s">
         <v>21</v>
@@ -6286,7 +7224,7 @@
         <v>39</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K99" s="3" t="s">
         <v>21</v>
@@ -6304,7 +7242,7 @@
         <v>279</v>
       </c>
       <c r="P99" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="R99" s="5" t="s">
         <v>10</v>
@@ -6339,7 +7277,7 @@
         <v>39</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>21</v>
@@ -6356,11 +7294,8 @@
       <c r="O100" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>288</v>
-      </c>
       <c r="R100" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="S100" s="5">
         <v>27</v>
@@ -6372,7 +7307,7 @@
         <v>33</v>
       </c>
       <c r="V100" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="101" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -6404,7 +7339,7 @@
         <v>39</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>21</v>
@@ -6472,7 +7407,7 @@
         <v>39</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>21</v>
@@ -6487,10 +7422,7 @@
         <v>265</v>
       </c>
       <c r="O102" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="Q102" s="3" t="s">
         <v>276</v>
@@ -6540,7 +7472,7 @@
         <v>39</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K103" s="3" t="s">
         <v>21</v>
@@ -6558,7 +7490,7 @@
         <v>281</v>
       </c>
       <c r="P103" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q103" s="3" t="s">
         <v>280</v>
@@ -6608,7 +7540,7 @@
         <v>39</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K104" s="3" t="s">
         <v>21</v>
@@ -6676,7 +7608,7 @@
         <v>39</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K105" s="3" t="s">
         <v>21</v>
@@ -6744,7 +7676,7 @@
         <v>39</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K106" s="3" t="s">
         <v>21</v>
@@ -6812,7 +7744,7 @@
         <v>39</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K107" s="3" t="s">
         <v>21</v>
@@ -6830,7 +7762,7 @@
         <v>279</v>
       </c>
       <c r="P107" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q107" s="5" t="s">
         <v>284</v>
@@ -6880,7 +7812,7 @@
         <v>39</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K108" s="3" t="s">
         <v>21</v>
@@ -6898,7 +7830,7 @@
         <v>279</v>
       </c>
       <c r="P108" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="109" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -6930,7 +7862,7 @@
         <v>39</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K109" s="3" t="s">
         <v>21</v>
@@ -6980,7 +7912,7 @@
         <v>39</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K110" s="3" t="s">
         <v>21</v>
@@ -6998,7 +7930,7 @@
         <v>279</v>
       </c>
       <c r="P110" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="111" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -7030,7 +7962,7 @@
         <v>39</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K111" s="3" t="s">
         <v>21</v>
@@ -7080,7 +8012,7 @@
         <v>39</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K112" s="3" t="s">
         <v>21</v>
@@ -7130,7 +8062,7 @@
         <v>39</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K113" s="3" t="s">
         <v>21</v>
@@ -7180,7 +8112,7 @@
         <v>39</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K114" s="3" t="s">
         <v>21</v>
@@ -7230,7 +8162,7 @@
         <v>39</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K115" s="3" t="s">
         <v>21</v>
@@ -7248,7 +8180,7 @@
         <v>279</v>
       </c>
       <c r="P115" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="116" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -7280,7 +8212,7 @@
         <v>39</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K116" s="3" t="s">
         <v>21</v>
@@ -7330,7 +8262,7 @@
         <v>39</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K117" s="3" t="s">
         <v>21</v>
@@ -7380,7 +8312,7 @@
         <v>39</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K118" s="3" t="s">
         <v>21</v>
@@ -7430,7 +8362,7 @@
         <v>38</v>
       </c>
       <c r="J119" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K119" s="7" t="s">
         <v>21</v>
@@ -7477,7 +8409,7 @@
         <v>38</v>
       </c>
       <c r="J120" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K120" s="7" t="s">
         <v>21</v>
@@ -7492,7 +8424,7 @@
         <v>13</v>
       </c>
       <c r="O120" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="121" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -7524,7 +8456,7 @@
         <v>38</v>
       </c>
       <c r="J121" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K121" s="7" t="s">
         <v>21</v>
@@ -7571,7 +8503,7 @@
         <v>38</v>
       </c>
       <c r="J122" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K122" s="7" t="s">
         <v>21</v>
@@ -7618,7 +8550,7 @@
         <v>38</v>
       </c>
       <c r="J123" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K123" s="7" t="s">
         <v>21</v>
@@ -7665,7 +8597,7 @@
         <v>38</v>
       </c>
       <c r="J124" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K124" s="7" t="s">
         <v>21</v>
@@ -7712,7 +8644,7 @@
         <v>38</v>
       </c>
       <c r="J125" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K125" s="7" t="s">
         <v>21</v>
@@ -7759,7 +8691,7 @@
         <v>38</v>
       </c>
       <c r="J126" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K126" s="7" t="s">
         <v>21</v>
@@ -7806,7 +8738,7 @@
         <v>38</v>
       </c>
       <c r="J127" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K127" s="7" t="s">
         <v>21</v>
@@ -7853,7 +8785,7 @@
         <v>38</v>
       </c>
       <c r="J128" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K128" s="7" t="s">
         <v>21</v>
@@ -7900,7 +8832,7 @@
         <v>38</v>
       </c>
       <c r="J129" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K129" s="7" t="s">
         <v>21</v>
@@ -7947,7 +8879,7 @@
         <v>38</v>
       </c>
       <c r="J130" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K130" s="7" t="s">
         <v>21</v>
@@ -7994,7 +8926,7 @@
         <v>38</v>
       </c>
       <c r="J131" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K131" s="7" t="s">
         <v>21</v>
@@ -8041,7 +8973,7 @@
         <v>38</v>
       </c>
       <c r="J132" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K132" s="7" t="s">
         <v>21</v>
@@ -8088,7 +9020,7 @@
         <v>38</v>
       </c>
       <c r="J133" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K133" s="7" t="s">
         <v>21</v>
@@ -8135,7 +9067,7 @@
         <v>38</v>
       </c>
       <c r="J134" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K134" s="9" t="s">
         <v>21</v>
@@ -8153,7 +9085,7 @@
         <v>276</v>
       </c>
       <c r="P134" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="135" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -8185,7 +9117,7 @@
         <v>38</v>
       </c>
       <c r="J135" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K135" s="9" t="s">
         <v>21</v>
@@ -8235,7 +9167,7 @@
         <v>38</v>
       </c>
       <c r="J136" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K136" s="9" t="s">
         <v>21</v>
@@ -8285,7 +9217,7 @@
         <v>38</v>
       </c>
       <c r="J137" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K137" s="9" t="s">
         <v>21</v>
@@ -8300,10 +9232,10 @@
         <v>13</v>
       </c>
       <c r="O137" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P137" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="138" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -8335,7 +9267,7 @@
         <v>38</v>
       </c>
       <c r="J138" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K138" s="9" t="s">
         <v>21</v>
@@ -8357,7 +9289,7 @@
       </c>
       <c r="Q138" s="13"/>
       <c r="R138" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="S138" s="14"/>
       <c r="T138" s="13"/>
@@ -8393,7 +9325,7 @@
         <v>38</v>
       </c>
       <c r="J139" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K139" s="9" t="s">
         <v>21</v>
@@ -8451,7 +9383,7 @@
         <v>38</v>
       </c>
       <c r="J140" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K140" s="9" t="s">
         <v>21</v>
@@ -8473,7 +9405,7 @@
       </c>
       <c r="Q140" s="13"/>
       <c r="R140" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="S140" s="14">
         <v>27</v>
@@ -8515,7 +9447,7 @@
         <v>38</v>
       </c>
       <c r="J141" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K141" s="9" t="s">
         <v>21</v>
@@ -8533,7 +9465,7 @@
         <v>278</v>
       </c>
       <c r="P141" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q141" s="13" t="s">
         <v>279</v>
@@ -8581,7 +9513,7 @@
         <v>38</v>
       </c>
       <c r="J142" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K142" s="9" t="s">
         <v>21</v>
@@ -8647,7 +9579,7 @@
         <v>38</v>
       </c>
       <c r="J143" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K143" s="9" t="s">
         <v>21</v>
@@ -8665,7 +9597,7 @@
         <v>279</v>
       </c>
       <c r="P143" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q143" s="13" t="s">
         <v>280</v>
@@ -8713,7 +9645,7 @@
         <v>38</v>
       </c>
       <c r="J144" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K144" s="9" t="s">
         <v>21</v>
@@ -8779,7 +9711,7 @@
         <v>38</v>
       </c>
       <c r="J145" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K145" s="9" t="s">
         <v>21</v>
@@ -8845,7 +9777,7 @@
         <v>38</v>
       </c>
       <c r="J146" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K146" s="9" t="s">
         <v>21</v>
@@ -8863,7 +9795,7 @@
         <v>279</v>
       </c>
       <c r="P146" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q146" s="13" t="s">
         <v>281</v>
@@ -8911,7 +9843,7 @@
         <v>38</v>
       </c>
       <c r="J147" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K147" s="9" t="s">
         <v>21</v>
@@ -8977,7 +9909,7 @@
         <v>38</v>
       </c>
       <c r="J148" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K148" s="9" t="s">
         <v>21</v>
@@ -9000,7 +9932,7 @@
       <c r="Q148" s="13"/>
       <c r="R148" s="13"/>
       <c r="S148" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="T148" s="13"/>
       <c r="U148" s="13"/>
@@ -9035,7 +9967,7 @@
         <v>38</v>
       </c>
       <c r="J149" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K149" s="9" t="s">
         <v>21</v>
@@ -9091,7 +10023,7 @@
         <v>38</v>
       </c>
       <c r="J150" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K150" s="9" t="s">
         <v>21</v>
@@ -9149,7 +10081,7 @@
         <v>38</v>
       </c>
       <c r="J151" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K151" s="9" t="s">
         <v>21</v>
@@ -9171,7 +10103,7 @@
       </c>
       <c r="Q151" s="13"/>
       <c r="R151" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="S151" s="14">
         <v>27</v>
@@ -9213,7 +10145,7 @@
         <v>38</v>
       </c>
       <c r="J152" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K152" s="9" t="s">
         <v>21</v>
@@ -9279,7 +10211,7 @@
         <v>38</v>
       </c>
       <c r="J153" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K153" s="9" t="s">
         <v>21</v>
@@ -9345,7 +10277,7 @@
         <v>38</v>
       </c>
       <c r="J154" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K154" s="9" t="s">
         <v>21</v>
@@ -9411,7 +10343,7 @@
         <v>38</v>
       </c>
       <c r="J155" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K155" s="9" t="s">
         <v>21</v>
@@ -9429,7 +10361,7 @@
         <v>279</v>
       </c>
       <c r="P155" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q155" s="13" t="s">
         <v>278</v>
@@ -9477,7 +10409,7 @@
         <v>38</v>
       </c>
       <c r="J156" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K156" s="9" t="s">
         <v>21</v>
@@ -9543,7 +10475,7 @@
         <v>38</v>
       </c>
       <c r="J157" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K157" s="9" t="s">
         <v>21</v>
@@ -9561,7 +10493,7 @@
         <v>277</v>
       </c>
       <c r="P157" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q157" s="13" t="s">
         <v>281</v>
@@ -9609,7 +10541,7 @@
         <v>38</v>
       </c>
       <c r="J158" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K158" s="9" t="s">
         <v>21</v>
@@ -9675,7 +10607,7 @@
         <v>38</v>
       </c>
       <c r="J159" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K159" s="9" t="s">
         <v>21</v>
@@ -9725,7 +10657,7 @@
         <v>38</v>
       </c>
       <c r="J160" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K160" s="9" t="s">
         <v>21</v>
@@ -9743,7 +10675,7 @@
         <v>278</v>
       </c>
       <c r="P160" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="161" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -9775,7 +10707,7 @@
         <v>38</v>
       </c>
       <c r="J161" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K161" s="9" t="s">
         <v>21</v>
@@ -9793,7 +10725,7 @@
         <v>279</v>
       </c>
       <c r="P161" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="162" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -9825,7 +10757,7 @@
         <v>38</v>
       </c>
       <c r="J162" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K162" s="9" t="s">
         <v>21</v>
@@ -9843,7 +10775,7 @@
         <v>277</v>
       </c>
       <c r="P162" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="163" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -9875,7 +10807,7 @@
         <v>38</v>
       </c>
       <c r="J163" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K163" s="11" t="s">
         <v>21</v>
@@ -9925,7 +10857,7 @@
         <v>40</v>
       </c>
       <c r="J164" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K164" s="3" t="s">
         <v>21</v>
@@ -9940,10 +10872,10 @@
         <v>265</v>
       </c>
       <c r="O164" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P164" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="165" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -9975,7 +10907,7 @@
         <v>40</v>
       </c>
       <c r="J165" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K165" s="3" t="s">
         <v>21</v>
@@ -9990,7 +10922,7 @@
         <v>265</v>
       </c>
       <c r="O165" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P165" s="3" t="s">
         <v>287</v>
@@ -10025,7 +10957,7 @@
         <v>40</v>
       </c>
       <c r="J166" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K166" s="3" t="s">
         <v>21</v>
@@ -10040,7 +10972,7 @@
         <v>265</v>
       </c>
       <c r="O166" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P166" s="3" t="s">
         <v>287</v>
@@ -10075,7 +11007,7 @@
         <v>40</v>
       </c>
       <c r="J167" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K167" s="3" t="s">
         <v>21</v>
@@ -10090,7 +11022,7 @@
         <v>265</v>
       </c>
       <c r="O167" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="168" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -10122,7 +11054,7 @@
         <v>40</v>
       </c>
       <c r="J168" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K168" s="3" t="s">
         <v>21</v>
@@ -10137,10 +11069,10 @@
         <v>265</v>
       </c>
       <c r="O168" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P168" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="169" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -10172,7 +11104,7 @@
         <v>40</v>
       </c>
       <c r="J169" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K169" s="3" t="s">
         <v>21</v>
@@ -10187,7 +11119,7 @@
         <v>265</v>
       </c>
       <c r="O169" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P169" s="3" t="s">
         <v>287</v>
@@ -10222,7 +11154,7 @@
         <v>40</v>
       </c>
       <c r="J170" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K170" s="3" t="s">
         <v>21</v>
@@ -10237,7 +11169,7 @@
         <v>265</v>
       </c>
       <c r="O170" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P170" s="3" t="s">
         <v>285</v>
@@ -10272,7 +11204,7 @@
         <v>40</v>
       </c>
       <c r="J171" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K171" s="3" t="s">
         <v>21</v>
@@ -10287,10 +11219,10 @@
         <v>265</v>
       </c>
       <c r="O171" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P171" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="172" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -10322,7 +11254,7 @@
         <v>40</v>
       </c>
       <c r="J172" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K172" s="3" t="s">
         <v>21</v>
@@ -10337,7 +11269,7 @@
         <v>265</v>
       </c>
       <c r="O172" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="173" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -10369,7 +11301,7 @@
         <v>40</v>
       </c>
       <c r="J173" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K173" s="3" t="s">
         <v>21</v>
@@ -10384,10 +11316,10 @@
         <v>265</v>
       </c>
       <c r="O173" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P173" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="R173" s="5" t="s">
         <v>283</v>
@@ -10423,7 +11355,7 @@
         <v>40</v>
       </c>
       <c r="J174" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K174" s="3" t="s">
         <v>21</v>
@@ -10438,7 +11370,7 @@
         <v>265</v>
       </c>
       <c r="O174" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P174" s="3" t="s">
         <v>285</v>
@@ -10479,7 +11411,7 @@
         <v>40</v>
       </c>
       <c r="J175" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K175" s="3" t="s">
         <v>21</v>
@@ -10494,13 +11426,13 @@
         <v>265</v>
       </c>
       <c r="O175" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P175" s="3" t="s">
         <v>287</v>
       </c>
       <c r="R175" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="S175" s="5">
         <v>27</v>
@@ -10512,7 +11444,7 @@
         <v>33</v>
       </c>
       <c r="V175" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="176" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -10544,7 +11476,7 @@
         <v>40</v>
       </c>
       <c r="J176" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K176" s="3" t="s">
         <v>21</v>
@@ -10559,13 +11491,13 @@
         <v>265</v>
       </c>
       <c r="O176" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P176" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q176" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="R176" s="3">
         <v>2</v>
@@ -10612,7 +11544,7 @@
         <v>40</v>
       </c>
       <c r="J177" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K177" s="3" t="s">
         <v>21</v>
@@ -10627,13 +11559,13 @@
         <v>265</v>
       </c>
       <c r="O177" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P177" s="3" t="s">
         <v>285</v>
       </c>
       <c r="Q177" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="R177" s="3">
         <v>13</v>
@@ -10680,7 +11612,7 @@
         <v>40</v>
       </c>
       <c r="J178" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K178" s="3" t="s">
         <v>21</v>
@@ -10695,7 +11627,7 @@
         <v>265</v>
       </c>
       <c r="O178" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P178" s="3" t="s">
         <v>285</v>
@@ -10748,7 +11680,7 @@
         <v>40</v>
       </c>
       <c r="J179" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K179" s="3" t="s">
         <v>21</v>
@@ -10763,10 +11695,10 @@
         <v>265</v>
       </c>
       <c r="O179" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P179" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="180" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -10798,7 +11730,7 @@
         <v>40</v>
       </c>
       <c r="J180" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K180" s="3" t="s">
         <v>21</v>
@@ -10813,7 +11745,7 @@
         <v>265</v>
       </c>
       <c r="O180" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P180" s="3" t="s">
         <v>285</v>
@@ -10848,7 +11780,7 @@
         <v>40</v>
       </c>
       <c r="J181" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K181" s="3" t="s">
         <v>21</v>
@@ -10863,10 +11795,10 @@
         <v>265</v>
       </c>
       <c r="O181" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P181" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="R181" s="5" t="s">
         <v>10</v>
@@ -10901,7 +11833,7 @@
         <v>40</v>
       </c>
       <c r="J182" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K182" s="3" t="s">
         <v>21</v>
@@ -10916,13 +11848,13 @@
         <v>265</v>
       </c>
       <c r="O182" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P182" s="3" t="s">
         <v>285</v>
       </c>
       <c r="R182" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="S182" s="5">
         <v>27</v>
@@ -10934,7 +11866,7 @@
         <v>33</v>
       </c>
       <c r="V182" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="183" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -10966,7 +11898,7 @@
         <v>40</v>
       </c>
       <c r="J183" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K183" s="3" t="s">
         <v>21</v>
@@ -10981,13 +11913,13 @@
         <v>265</v>
       </c>
       <c r="O183" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P183" s="3" t="s">
         <v>287</v>
       </c>
       <c r="Q183" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="R183" s="3">
         <v>1</v>
@@ -11034,7 +11966,7 @@
         <v>40</v>
       </c>
       <c r="J184" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K184" s="3" t="s">
         <v>21</v>
@@ -11049,13 +11981,13 @@
         <v>265</v>
       </c>
       <c r="O184" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P184" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q184" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="R184" s="6">
         <v>20</v>
@@ -11102,7 +12034,7 @@
         <v>41</v>
       </c>
       <c r="J185" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K185" s="3" t="s">
         <v>21</v>
@@ -11117,7 +12049,7 @@
         <v>265</v>
       </c>
       <c r="O185" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P185" s="3" t="s">
         <v>285</v>
@@ -11162,7 +12094,7 @@
         <v>40</v>
       </c>
       <c r="J186" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K186" s="3" t="s">
         <v>21</v>
@@ -11177,7 +12109,7 @@
         <v>265</v>
       </c>
       <c r="O186" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P186" s="3" t="s">
         <v>287</v>
@@ -11212,7 +12144,7 @@
         <v>40</v>
       </c>
       <c r="J187" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K187" s="3" t="s">
         <v>21</v>
@@ -11227,7 +12159,7 @@
         <v>265</v>
       </c>
       <c r="O187" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P187" s="3" t="s">
         <v>285</v>
@@ -11262,7 +12194,7 @@
         <v>40</v>
       </c>
       <c r="J188" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K188" s="3" t="s">
         <v>21</v>
@@ -11277,10 +12209,10 @@
         <v>265</v>
       </c>
       <c r="O188" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P188" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="189" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -11312,7 +12244,7 @@
         <v>41</v>
       </c>
       <c r="J189" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K189" s="3" t="s">
         <v>21</v>
@@ -11327,7 +12259,7 @@
         <v>265</v>
       </c>
       <c r="O189" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q189" s="5"/>
       <c r="R189" s="5"/>
@@ -11365,7 +12297,7 @@
         <v>40</v>
       </c>
       <c r="J190" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K190" s="3" t="s">
         <v>21</v>
@@ -11380,10 +12312,10 @@
         <v>265</v>
       </c>
       <c r="O190" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P190" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="191" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -11415,7 +12347,7 @@
         <v>40</v>
       </c>
       <c r="J191" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K191" s="3" t="s">
         <v>21</v>
@@ -11430,10 +12362,10 @@
         <v>265</v>
       </c>
       <c r="O191" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P191" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="192" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -11465,7 +12397,7 @@
         <v>40</v>
       </c>
       <c r="J192" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K192" s="3" t="s">
         <v>21</v>
@@ -11480,10 +12412,10 @@
         <v>265</v>
       </c>
       <c r="O192" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P192" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="193" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -11515,7 +12447,7 @@
         <v>40</v>
       </c>
       <c r="J193" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K193" s="3" t="s">
         <v>21</v>
@@ -11530,7 +12462,7 @@
         <v>265</v>
       </c>
       <c r="O193" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P193" s="3" t="s">
         <v>287</v>
@@ -11565,7 +12497,7 @@
         <v>40</v>
       </c>
       <c r="J194" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K194" s="3" t="s">
         <v>21</v>
@@ -11580,7 +12512,7 @@
         <v>265</v>
       </c>
       <c r="O194" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P194" s="3" t="s">
         <v>285</v>
@@ -11615,7 +12547,7 @@
         <v>40</v>
       </c>
       <c r="J195" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K195" s="3" t="s">
         <v>21</v>
@@ -11630,7 +12562,7 @@
         <v>265</v>
       </c>
       <c r="O195" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="196" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -11662,7 +12594,7 @@
         <v>40</v>
       </c>
       <c r="J196" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K196" s="3" t="s">
         <v>21</v>
@@ -11677,7 +12609,7 @@
         <v>265</v>
       </c>
       <c r="O196" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P196" s="3" t="s">
         <v>287</v>
@@ -11712,7 +12644,7 @@
         <v>40</v>
       </c>
       <c r="J197" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K197" s="3" t="s">
         <v>21</v>
@@ -11727,7 +12659,7 @@
         <v>265</v>
       </c>
       <c r="O197" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P197" s="3" t="s">
         <v>285</v>
@@ -11762,7 +12694,7 @@
         <v>40</v>
       </c>
       <c r="J198" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K198" s="3" t="s">
         <v>21</v>
@@ -11777,7 +12709,7 @@
         <v>265</v>
       </c>
       <c r="O198" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P198" s="3" t="s">
         <v>287</v>
@@ -11812,7 +12744,7 @@
         <v>40</v>
       </c>
       <c r="J199" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K199" s="3" t="s">
         <v>21</v>
@@ -11827,7 +12759,7 @@
         <v>265</v>
       </c>
       <c r="O199" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P199" s="3" t="s">
         <v>287</v>
@@ -11862,7 +12794,7 @@
         <v>40</v>
       </c>
       <c r="J200" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K200" s="7" t="s">
         <v>21</v>
@@ -11877,7 +12809,7 @@
         <v>13</v>
       </c>
       <c r="O200" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="201" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -11909,7 +12841,7 @@
         <v>40</v>
       </c>
       <c r="J201" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K201" s="7" t="s">
         <v>21</v>
@@ -11924,7 +12856,7 @@
         <v>13</v>
       </c>
       <c r="O201" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="202" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -11956,7 +12888,7 @@
         <v>40</v>
       </c>
       <c r="J202" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K202" s="7" t="s">
         <v>21</v>
@@ -11971,7 +12903,7 @@
         <v>13</v>
       </c>
       <c r="O202" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="203" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -12003,7 +12935,7 @@
         <v>40</v>
       </c>
       <c r="J203" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K203" s="7" t="s">
         <v>21</v>
@@ -12018,7 +12950,7 @@
         <v>13</v>
       </c>
       <c r="O203" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="204" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -12050,7 +12982,7 @@
         <v>40</v>
       </c>
       <c r="J204" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K204" s="7" t="s">
         <v>21</v>
@@ -12065,7 +12997,7 @@
         <v>13</v>
       </c>
       <c r="O204" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="205" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -12097,7 +13029,7 @@
         <v>40</v>
       </c>
       <c r="J205" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K205" s="7" t="s">
         <v>21</v>
@@ -12112,7 +13044,7 @@
         <v>13</v>
       </c>
       <c r="O205" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="206" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -12144,7 +13076,7 @@
         <v>40</v>
       </c>
       <c r="J206" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K206" s="7" t="s">
         <v>21</v>
@@ -12159,7 +13091,7 @@
         <v>13</v>
       </c>
       <c r="O206" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="207" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -12191,7 +13123,7 @@
         <v>40</v>
       </c>
       <c r="J207" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K207" s="7" t="s">
         <v>21</v>
@@ -12206,7 +13138,7 @@
         <v>13</v>
       </c>
       <c r="O207" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="208" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -12238,7 +13170,7 @@
         <v>40</v>
       </c>
       <c r="J208" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K208" s="7" t="s">
         <v>21</v>
@@ -12253,7 +13185,7 @@
         <v>13</v>
       </c>
       <c r="O208" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="209" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -12285,7 +13217,7 @@
         <v>40</v>
       </c>
       <c r="J209" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K209" s="7" t="s">
         <v>21</v>
@@ -12300,7 +13232,7 @@
         <v>13</v>
       </c>
       <c r="O209" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="210" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -12332,7 +13264,7 @@
         <v>40</v>
       </c>
       <c r="J210" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K210" s="7" t="s">
         <v>21</v>
@@ -12347,7 +13279,7 @@
         <v>13</v>
       </c>
       <c r="O210" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="211" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -12379,7 +13311,7 @@
         <v>40</v>
       </c>
       <c r="J211" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K211" s="7" t="s">
         <v>21</v>
@@ -12394,7 +13326,7 @@
         <v>13</v>
       </c>
       <c r="O211" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="212" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -12426,7 +13358,7 @@
         <v>40</v>
       </c>
       <c r="J212" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K212" s="7" t="s">
         <v>21</v>
@@ -12441,7 +13373,7 @@
         <v>13</v>
       </c>
       <c r="O212" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="213" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -12473,7 +13405,7 @@
         <v>40</v>
       </c>
       <c r="J213" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K213" s="7" t="s">
         <v>21</v>
@@ -12488,7 +13420,7 @@
         <v>13</v>
       </c>
       <c r="O213" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="214" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -12520,7 +13452,7 @@
         <v>40</v>
       </c>
       <c r="J214" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K214" s="7" t="s">
         <v>21</v>
@@ -12535,7 +13467,7 @@
         <v>13</v>
       </c>
       <c r="O214" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="215" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -12567,7 +13499,7 @@
         <v>40</v>
       </c>
       <c r="J215" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K215" s="9" t="s">
         <v>21</v>
@@ -12582,7 +13514,7 @@
         <v>13</v>
       </c>
       <c r="O215" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P215" s="9" t="s">
         <v>287</v>
@@ -12617,7 +13549,7 @@
         <v>40</v>
       </c>
       <c r="J216" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K216" s="9" t="s">
         <v>21</v>
@@ -12632,7 +13564,7 @@
         <v>13</v>
       </c>
       <c r="O216" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P216" s="9" t="s">
         <v>285</v>
@@ -12667,7 +13599,7 @@
         <v>40</v>
       </c>
       <c r="J217" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K217" s="9" t="s">
         <v>21</v>
@@ -12682,7 +13614,7 @@
         <v>13</v>
       </c>
       <c r="O217" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P217" s="9" t="s">
         <v>285</v>
@@ -12717,7 +13649,7 @@
         <v>40</v>
       </c>
       <c r="J218" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K218" s="9" t="s">
         <v>21</v>
@@ -12732,7 +13664,7 @@
         <v>13</v>
       </c>
       <c r="O218" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P218" s="9" t="s">
         <v>285</v>
@@ -12767,7 +13699,7 @@
         <v>40</v>
       </c>
       <c r="J219" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K219" s="9" t="s">
         <v>21</v>
@@ -12782,7 +13714,7 @@
         <v>13</v>
       </c>
       <c r="O219" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P219" s="9" t="s">
         <v>287</v>
@@ -12817,7 +13749,7 @@
         <v>40</v>
       </c>
       <c r="J220" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K220" s="9" t="s">
         <v>21</v>
@@ -12832,7 +13764,7 @@
         <v>13</v>
       </c>
       <c r="O220" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P220" s="9" t="s">
         <v>287</v>
@@ -12867,7 +13799,7 @@
         <v>40</v>
       </c>
       <c r="J221" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K221" s="9" t="s">
         <v>21</v>
@@ -12882,13 +13814,13 @@
         <v>13</v>
       </c>
       <c r="O221" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P221" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="S221" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="T221" s="15"/>
     </row>
@@ -12921,7 +13853,7 @@
         <v>40</v>
       </c>
       <c r="J222" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K222" s="9" t="s">
         <v>21</v>
@@ -12936,10 +13868,10 @@
         <v>13</v>
       </c>
       <c r="O222" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P222" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="S222" s="15" t="s">
         <v>9</v>
@@ -12977,7 +13909,7 @@
         <v>40</v>
       </c>
       <c r="J223" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K223" s="9" t="s">
         <v>21</v>
@@ -12992,13 +13924,13 @@
         <v>13</v>
       </c>
       <c r="O223" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P223" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="S223" s="15" t="s">
         <v>289</v>
-      </c>
-      <c r="S223" s="15" t="s">
-        <v>290</v>
       </c>
       <c r="T223" s="15">
         <v>27</v>
@@ -13040,7 +13972,7 @@
         <v>40</v>
       </c>
       <c r="J224" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K224" s="9" t="s">
         <v>21</v>
@@ -13055,13 +13987,13 @@
         <v>13</v>
       </c>
       <c r="O224" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P224" s="9" t="s">
         <v>287</v>
       </c>
       <c r="R224" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="S224" s="9">
         <v>0</v>
@@ -13105,7 +14037,7 @@
         <v>40</v>
       </c>
       <c r="J225" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K225" s="9" t="s">
         <v>21</v>
@@ -13120,13 +14052,13 @@
         <v>13</v>
       </c>
       <c r="O225" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P225" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="R225" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="S225" s="6">
         <v>12</v>
@@ -13170,7 +14102,7 @@
         <v>40</v>
       </c>
       <c r="J226" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K226" s="9" t="s">
         <v>21</v>
@@ -13185,7 +14117,7 @@
         <v>13</v>
       </c>
       <c r="O226" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P226" s="9" t="s">
         <v>285</v>
@@ -13236,7 +14168,7 @@
         <v>40</v>
       </c>
       <c r="J227" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K227" s="9" t="s">
         <v>21</v>
@@ -13251,7 +14183,7 @@
         <v>13</v>
       </c>
       <c r="O227" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P227" s="9" t="s">
         <v>285</v>
@@ -13286,7 +14218,7 @@
         <v>40</v>
       </c>
       <c r="J228" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K228" s="9" t="s">
         <v>21</v>
@@ -13301,7 +14233,7 @@
         <v>13</v>
       </c>
       <c r="O228" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P228" s="9" t="s">
         <v>287</v>
@@ -13336,7 +14268,7 @@
         <v>40</v>
       </c>
       <c r="J229" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K229" s="9" t="s">
         <v>21</v>
@@ -13351,7 +14283,7 @@
         <v>13</v>
       </c>
       <c r="O229" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P229" s="9" t="s">
         <v>285</v>
@@ -13389,7 +14321,7 @@
         <v>40</v>
       </c>
       <c r="J230" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K230" s="9" t="s">
         <v>21</v>
@@ -13404,13 +14336,13 @@
         <v>13</v>
       </c>
       <c r="O230" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P230" s="9" t="s">
         <v>287</v>
       </c>
       <c r="S230" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="T230" s="15">
         <v>27</v>
@@ -13452,7 +14384,7 @@
         <v>40</v>
       </c>
       <c r="J231" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K231" s="9" t="s">
         <v>21</v>
@@ -13467,13 +14399,13 @@
         <v>13</v>
       </c>
       <c r="O231" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P231" s="9" t="s">
         <v>285</v>
       </c>
       <c r="R231" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="S231" s="9">
         <v>2</v>
@@ -13517,7 +14449,7 @@
         <v>40</v>
       </c>
       <c r="J232" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K232" s="9" t="s">
         <v>21</v>
@@ -13532,13 +14464,13 @@
         <v>13</v>
       </c>
       <c r="O232" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="P232" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="R232" s="6" t="s">
         <v>296</v>
-      </c>
-      <c r="P232" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="R232" s="6" t="s">
-        <v>297</v>
       </c>
       <c r="S232" s="6">
         <v>16</v>
@@ -13582,7 +14514,7 @@
         <v>40</v>
       </c>
       <c r="J233" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K233" s="9" t="s">
         <v>21</v>
@@ -13597,10 +14529,10 @@
         <v>13</v>
       </c>
       <c r="O233" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P233" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="R233" s="15" t="s">
         <v>284</v>
@@ -13648,7 +14580,7 @@
         <v>40</v>
       </c>
       <c r="J234" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K234" s="9" t="s">
         <v>21</v>
@@ -13663,7 +14595,7 @@
         <v>13</v>
       </c>
       <c r="O234" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P234" s="9" t="s">
         <v>287</v>
@@ -13698,7 +14630,7 @@
         <v>40</v>
       </c>
       <c r="J235" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K235" s="9" t="s">
         <v>21</v>
@@ -13713,10 +14645,10 @@
         <v>13</v>
       </c>
       <c r="O235" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P235" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="236" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -13748,7 +14680,7 @@
         <v>40</v>
       </c>
       <c r="J236" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K236" s="9" t="s">
         <v>21</v>
@@ -13763,7 +14695,7 @@
         <v>13</v>
       </c>
       <c r="O236" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P236" s="9" t="s">
         <v>285</v>
@@ -13798,7 +14730,7 @@
         <v>40</v>
       </c>
       <c r="J237" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K237" s="9" t="s">
         <v>21</v>
@@ -13813,10 +14745,10 @@
         <v>13</v>
       </c>
       <c r="O237" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P237" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="238" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -13848,7 +14780,7 @@
         <v>40</v>
       </c>
       <c r="J238" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K238" s="9" t="s">
         <v>21</v>
@@ -13863,7 +14795,7 @@
         <v>13</v>
       </c>
       <c r="O238" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P238" s="9" t="s">
         <v>287</v>
@@ -13898,7 +14830,7 @@
         <v>40</v>
       </c>
       <c r="J239" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K239" s="9" t="s">
         <v>21</v>
@@ -13913,7 +14845,7 @@
         <v>13</v>
       </c>
       <c r="O239" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P239" s="9" t="s">
         <v>285</v>
@@ -13948,7 +14880,7 @@
         <v>40</v>
       </c>
       <c r="J240" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K240" s="9" t="s">
         <v>21</v>
@@ -13963,10 +14895,10 @@
         <v>13</v>
       </c>
       <c r="O240" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P240" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="241" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -13998,7 +14930,7 @@
         <v>40</v>
       </c>
       <c r="J241" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K241" s="9" t="s">
         <v>21</v>
@@ -14013,7 +14945,7 @@
         <v>13</v>
       </c>
       <c r="O241" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P241" s="9" t="s">
         <v>287</v>
@@ -14048,7 +14980,7 @@
         <v>40</v>
       </c>
       <c r="J242" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K242" s="9" t="s">
         <v>21</v>
@@ -14063,7 +14995,7 @@
         <v>13</v>
       </c>
       <c r="O242" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P242" s="9" t="s">
         <v>287</v>
@@ -14098,7 +15030,7 @@
         <v>40</v>
       </c>
       <c r="J243" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K243" s="9" t="s">
         <v>21</v>
@@ -14113,7 +15045,7 @@
         <v>13</v>
       </c>
       <c r="O243" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P243" s="9" t="s">
         <v>285</v>
@@ -14148,7 +15080,7 @@
         <v>40</v>
       </c>
       <c r="J244" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K244" s="9" t="s">
         <v>21</v>
@@ -14163,10 +15095,10 @@
         <v>13</v>
       </c>
       <c r="O244" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P244" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/data/dna/dna_metadata.xlsx
+++ b/data/dna/dna_metadata.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/dna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194EA378-2B8C-1B48-8E7D-CA0142B6DF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1693CF02-ABEE-1A45-A0AE-438E90918C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23500" yWindow="-260" windowWidth="21060" windowHeight="18760" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
+    <sheet name="Totals" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3159" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3181" uniqueCount="418">
   <si>
     <t>sample_id</t>
   </si>
@@ -1251,6 +1252,45 @@
   </si>
   <si>
     <t>27 Dark</t>
+  </si>
+  <si>
+    <t>POCILLOPORA</t>
+  </si>
+  <si>
+    <t>ACROPORA</t>
+  </si>
+  <si>
+    <t>PORITES</t>
+  </si>
+  <si>
+    <t>Adults</t>
+  </si>
+  <si>
+    <t>Recruits</t>
+  </si>
+  <si>
+    <t>evermanni</t>
+  </si>
+  <si>
+    <t>lobata lutea</t>
+  </si>
+  <si>
+    <t>meandrina</t>
+  </si>
+  <si>
+    <t>verrucosa</t>
+  </si>
+  <si>
+    <t>grandis</t>
+  </si>
+  <si>
+    <t>tuahiniensis</t>
+  </si>
+  <si>
+    <t>effusa</t>
+  </si>
+  <si>
+    <t>acuta</t>
   </si>
 </sst>
 </file>
@@ -1378,7 +1418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1397,6 +1437,8 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1713,11 +1755,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5716CA15-A063-CD4A-965E-FFCB3C4243EA}">
   <dimension ref="A1:X244"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N41" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="88" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="O191" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R61" sqref="R61"/>
+      <selection pane="bottomRight" activeCell="R93" sqref="R93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15111,4 +15153,224 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9E7F29-BE4D-B046-8E84-2D8B88558186}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.5" style="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="B1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="B2">
+        <f>SUM(Metadata!R141,Metadata!R90)</f>
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <f>SUM(Metadata!R152,Metadata!R101)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="B3">
+        <f>SUM(Metadata!R142,Metadata!R91)</f>
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <f>SUM(Metadata!R153,Metadata!R102)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="B4">
+        <f>SUM(Metadata!R143,Metadata!R92)</f>
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <f>SUM(Metadata!R154,Metadata!R103)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="B5">
+        <f>SUM(Metadata!R144,Metadata!R93)</f>
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <f>SUM(Metadata!R155,Metadata!R104)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="B6">
+        <f>SUM(Metadata!R145,Metadata!R94)</f>
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f>SUM(Metadata!R156,Metadata!R105)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>417</v>
+      </c>
+      <c r="B7">
+        <f>SUM(Metadata!R146,Metadata!R95)</f>
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f>SUM(Metadata!R157,Metadata!R106)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="B9" t="s">
+        <v>408</v>
+      </c>
+      <c r="C9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="B10">
+        <f>SUM(Metadata!S12,Metadata!S61)</f>
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <f>SUM(Metadata!S71,Metadata!S22)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="B11">
+        <f>SUM(Metadata!S13,Metadata!S62)</f>
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <f>SUM(Metadata!S72,Metadata!S23)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="B12">
+        <f>SUM(Metadata!S14,Metadata!S63)</f>
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <f>SUM(Metadata!S73,Metadata!S24)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="B13">
+        <f>SUM(Metadata!S15,Metadata!S64)</f>
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <f>SUM(Metadata!S74,Metadata!S25)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="B14">
+        <f>SUM(Metadata!S16,Metadata!S65)</f>
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <f>SUM(Metadata!S75,Metadata!S26)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="B16" t="s">
+        <v>408</v>
+      </c>
+      <c r="C16" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="B17">
+        <f>SUM(Metadata!R176,Metadata!S224)</f>
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <f>SUM(Metadata!R183,Metadata!S231)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="B18">
+        <f>SUM(Metadata!R177,Metadata!S225)</f>
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <f>SUM(Metadata!R184,Metadata!S232)</f>
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>